--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174470067024231</t>
+    <t xml:space="preserve">0.17447005212307</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174941942095757</t>
+    <t xml:space="preserve">0.174941956996918</t>
   </si>
   <si>
     <t xml:space="preserve">0.171099290251732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169144257903099</t>
+    <t xml:space="preserve">0.169144243001938</t>
   </si>
   <si>
     <t xml:space="preserve">0.166177988052368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163481399416924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165908336639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167324051260948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162672430276871</t>
+    <t xml:space="preserve">0.163481384515762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165908351540565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167324036359787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162672445178032</t>
   </si>
   <si>
     <t xml:space="preserve">0.157144397497177</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">0.146627649664879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148515284061432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138335585594177</t>
+    <t xml:space="preserve">0.148515269160271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138335600495338</t>
   </si>
   <si>
     <t xml:space="preserve">0.144740030169487</t>
@@ -92,13 +92,13 @@
     <t xml:space="preserve">0.158223032951355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152357906103134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152088284492493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155054524540901</t>
+    <t xml:space="preserve">0.152357921004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152088269591331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15505450963974</t>
   </si>
   <si>
     <t xml:space="preserve">0.15438038110733</t>
@@ -110,22 +110,22 @@
     <t xml:space="preserve">0.14548160135746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14258274435997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142717584967613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13132444024086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135504186153412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12822337448597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130785122513771</t>
+    <t xml:space="preserve">0.142582759261131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142717570066452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131324455142021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135504171252251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128223359584808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13078510761261</t>
   </si>
   <si>
     <t xml:space="preserve">0.138874933123589</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">0.138200774788857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143459141254425</t>
+    <t xml:space="preserve">0.143459156155586</t>
   </si>
   <si>
     <t xml:space="preserve">0.14022321999073</t>
@@ -143,25 +143,25 @@
     <t xml:space="preserve">0.137998521327972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144605189561844</t>
+    <t xml:space="preserve">0.144605204463005</t>
   </si>
   <si>
     <t xml:space="preserve">0.142515331506729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141975998878479</t>
+    <t xml:space="preserve">0.14197601377964</t>
   </si>
   <si>
     <t xml:space="preserve">0.14372880756855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144065886735916</t>
+    <t xml:space="preserve">0.144065871834755</t>
   </si>
   <si>
     <t xml:space="preserve">0.142987251281738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147706285119057</t>
+    <t xml:space="preserve">0.147706300020218</t>
   </si>
   <si>
     <t xml:space="preserve">0.153166919946671</t>
@@ -170,67 +170,67 @@
     <t xml:space="preserve">0.154178112745285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150942236185074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150672554969788</t>
+    <t xml:space="preserve">0.150942206382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150672569870949</t>
   </si>
   <si>
     <t xml:space="preserve">0.154717445373535</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156470239162445</t>
+    <t xml:space="preserve">0.156470254063606</t>
   </si>
   <si>
     <t xml:space="preserve">0.162402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164492636919022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161796018481255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16085222363472</t>
+    <t xml:space="preserve">0.16449262201786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161796033382416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160852208733559</t>
   </si>
   <si>
     <t xml:space="preserve">0.158088207244873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159099414944649</t>
+    <t xml:space="preserve">0.15909942984581</t>
   </si>
   <si>
     <t xml:space="preserve">0.155526429414749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154312983155251</t>
+    <t xml:space="preserve">0.154312953352928</t>
   </si>
   <si>
     <t xml:space="preserve">0.148987174034119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150200635194778</t>
+    <t xml:space="preserve">0.15020065009594</t>
   </si>
   <si>
     <t xml:space="preserve">0.150065809488297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149930968880653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146964743733406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1442681401968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142245680093765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138268172740936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1478411257267</t>
+    <t xml:space="preserve">0.149930983781815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146964728832245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144268110394478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142245665192604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138268187642097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147841110825539</t>
   </si>
   <si>
     <t xml:space="preserve">0.151751175522804</t>
@@ -239,10 +239,10 @@
     <t xml:space="preserve">0.157279208302498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156874731183052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155998319387436</t>
+    <t xml:space="preserve">0.156874746084213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155998334288597</t>
   </si>
   <si>
     <t xml:space="preserve">0.156942158937454</t>
@@ -254,1108 +254,1108 @@
     <t xml:space="preserve">0.157009556889534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152560174465179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122444033623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1544299274683</t>
+    <t xml:space="preserve">0.152560159564018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122458934784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154429957270622</t>
   </si>
   <si>
     <t xml:space="preserve">0.150274872779846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150828897953033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147781863808632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147712588310242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146812334656715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142657265067101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142103239893913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138155922293663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139817953109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139887243509293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140579715371132</t>
+    <t xml:space="preserve">0.150828883051872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147781848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147712603211403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146812319755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142657235264778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142103224992752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138155937194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139817968010902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139887198805809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140579730272293</t>
   </si>
   <si>
     <t xml:space="preserve">0.141272231936455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139748707413673</t>
+    <t xml:space="preserve">0.139748722314835</t>
   </si>
   <si>
     <t xml:space="preserve">0.141202986240387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144042298197746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14542730152607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144734799861908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145219564437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147989600896835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144804045557976</t>
+    <t xml:space="preserve">0.144042268395424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145427286624908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144734814763069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145219549536705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147989585995674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144804030656815</t>
   </si>
   <si>
     <t xml:space="preserve">0.147574082016945</t>
   </si>
   <si>
+    <t xml:space="preserve">0.148889869451523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148128107190132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144180789589882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146673813462257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141826242208481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133654624223709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132685095071793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134485617280006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121881932020187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123890206217766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126244753599167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123405478894711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125898480415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116341829299927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787826478481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12257444858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111888110638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12292069196701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228190302849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419371545315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11350255459547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110940247774124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118904143571854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297428548336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12645249068737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124651975929737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126175478100777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130953833460808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128668531775475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128460764884949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127768278121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127422019839287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126729503273964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128253027796745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130884572863579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131161570549011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127976030111313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120496928691864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118211627006531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172859609127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114956818521023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11661884188652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118627116084099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119804382324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765614926815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912402868271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718595683575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319632649422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119250386953354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118834875524044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121258661150932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122505187988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197704553604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552237033844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12569072842598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121743403375149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674180030823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120150655508041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121120162308216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488639593124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665890932083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372322499752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926340222359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726869881153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116826601326466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117103599011898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121189430356026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233838558197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118973389267921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118350125849247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128114521503448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126660242676735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12409795075655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125205993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123959459364414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11703434586525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117796123027802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117934629321098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116480343043804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1150953322649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433293998241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11149425059557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11544156819582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113571807742119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11467981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111771285533905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111009500920773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111563511192799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112186767160892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117588341236115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327921748161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122020423412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122435942292213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119942896068096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124305710196495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122851453721523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773904025555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596645236015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119527392089367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120358400046825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121812663972378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141895487904549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169665202498436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159970045089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15719997882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146119803190231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146466076374054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1481973528862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144942536950111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148682102560997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149928599596024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154360681772232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157477006316185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159900784492493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158030986785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156507477164268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147366315126419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143349766731262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143696025013924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145358055830002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143626764416695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144319280982018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137809678912163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13919472694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140164211392403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140510484576225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140441223978996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139540955424309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138502210378647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139679446816444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13711716234684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144111543893814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144250020384789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145912081003189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142588019371033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145981311798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14902837574482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147851079702377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148058861494064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150413379073143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148959100246429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152075424790382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152352422475815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155399471521378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160870313644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159139022231102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158931255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155814945697784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151936888694763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150967374444008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148612856864929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147920355200768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147297069430351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143142014741898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141687735915184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146258294582367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14972086250782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152213901281357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152006164193153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14618906378746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145773574709892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148474350571632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148472428321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146802604198456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145411148667336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144297942519188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147011339664459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14854197204113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148959428071976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145480692386627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145132824778557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146106868982315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14450666308403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144019618630409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143463030457497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140749603509903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143045574426651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14019301533699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141236647963524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14151494204998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142071560025215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139497250318527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139010265469551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140332162380219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139149397611618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757897377014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137618750333786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137062177062035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138175368309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138244926929474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142419412732124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140610456466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141793221235275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141445368528366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14116707444191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14068004488945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140123441815376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141584515571594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140053868293762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139636427164078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139427691698074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147289633750916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149655178189278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14986389875412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150629222393036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149724766612053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147985368967056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146246030926704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147428795695305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149237722158432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150281354784966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148402839899063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151742428541183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152020737528801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152577340602875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152159869670868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150490075349808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151324972510338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150977090001106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150350943207741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149029016494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148750722408295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149098590016365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151672855019569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1668401658535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169762268662453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168649062514305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166979283094406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160369679331779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162317782640457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173797592520714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175954431295395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172893136739731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173936739563942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16871865093708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168509945273399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167675033211708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168996959924698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16586609184742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16419629752636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169275254011154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171988666057587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170458018779755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173241019248962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175676137208939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185068696737289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187712550163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184581682085991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189938947558403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.198635756969452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197383418679237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193417638540268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192443639039993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187851682305336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194809168577194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191678300499916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188060402870178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183468490839005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185694858431816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186112344264984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183816373348236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183677226305008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178528681397438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17671974003315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172962695360184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177972093224525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179363578557968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180755063891411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1808942258358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177763342857361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174423784017563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174145460128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18541656434536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185138270258904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182424858212471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18005932867527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180824667215347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176023975014687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163013517856598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162804797291756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165587812662125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166074797511101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166144400835037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166770577430725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167396739125252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165935665369034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163917988538742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166492253541946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167535856366158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165448635816574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167327150702477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165170341730118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167466312646866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166701003909111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164405032992363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163500562310219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166422665119171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166283532977104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166909709572792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165518209338188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16802291572094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16837078332901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164892017841339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173588871955872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172545254230499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181589975953102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180198475718498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179502725601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178806975483894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180546343326569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182981461286545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182633578777313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183329328894615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177415490150452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179154843091965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164544180035591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162456929683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161761179566383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161413297057152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157586693763733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159326061606407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154803708195686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154107972979546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15236859023571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154455840587616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149933502078056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152716472744942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15619520843029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156543076038361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155151590704918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155847325921059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153064340353012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149585604667664</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.148889854550362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148128092288971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144180774688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146673828363419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141826242208481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133654609322548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132685095071793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134485617280006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121881924569607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123890213668346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126244753599167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123405449092388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125898480415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116341859102249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787848830223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122574433684349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111873209476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12292069196701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228167951107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118419378995895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11350254714489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110940255224705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118904143571854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122297413647175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452505588531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124651983380318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126175493001938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130953833460808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128668531775475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12846077978611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127768263220787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127422019839287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126729503273964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128253027796745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13088458776474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131161585450172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127976015210152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12049688398838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11821161955595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172852158546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114956825971603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116618864238262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118627108633518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119804374873638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765622377396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912402868271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718588232994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319632649422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119250386953354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118834868073463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121258676052094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122505187988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197712004185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125552237033844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125690743327141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121743425726891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674180030823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120150648057461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121120162308216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488624691963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665905833244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372329950333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926340222359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726869881153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116826593875885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117103613913059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121189415454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233831107616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118973381817341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118350133299828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12811453640461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126660242676735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12409795820713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125205978751183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123959459364414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117034368216991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117796130478382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117934621870518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116480335593224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1150953322649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433293998241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111494265496731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1154415756464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113571792840958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114679805934429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111771270632744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111009508371353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111563511192799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112186774611473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117588371038437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327906847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122020423412323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122435927391052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119942888617516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124305732548237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122851446270943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773911476135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596645236015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119527377188206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120358414947987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121812678873539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141895487904549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169665187597275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15997003018856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15719997882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146119818091393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146466076374054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1481973528862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14494252204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148682102560997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149928629398346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154360711574554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157476991415024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159900799393654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158030986785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156507462263107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147366344928741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143349781632423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143696010112762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145358040928841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143626779317856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144319295883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137809693813324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139194712042809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140164211392403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140510469675064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140441253781319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139540955424309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138502165675163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139679446816444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13711716234684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144111543893814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14425003528595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145912066102028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142588004469872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145981311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149028345942497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147851079702377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148058846592903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150413393974304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148959085345268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152075409889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152352407574654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155399456620216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160870283842087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159139007329941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158931270241737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155814960598946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151936888694763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150967389345169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148612856864929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147920340299606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147297099232674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143142014741898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141687750816345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146258309483528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14972086250782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152213901281357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152006149291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14618906378746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14577354490757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148474350571632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148472428321838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146802619099617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145411118865013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144297927618027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147011339664459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14854197204113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148959428071976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145480707287788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145132824778557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146106883883476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144506648182869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14401963353157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143463030457497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140749618411064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143045574426651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14019301533699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141236633062363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14151494204998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142071530222893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13949728012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13901025056839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140332162380219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139149397611618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757897377014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137618750333786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137062162160873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13817535340786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138244912028313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142419397830963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140610471367836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141793236136436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141445368528366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141167059540749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140680059790611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140123441815376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141584500670433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140053868293762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139636427164078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139427706599236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147289648652077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149655163288116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149863928556442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150629222393036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149724751710892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147985398769379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146246030926704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147428795695305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149237722158432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150281369686127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148402824997902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151742428541183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15202072262764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152577340602875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152159869670868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150490075349808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151324987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150977104902267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150350913405418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149029016494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148750722408295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149098590016365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151672855019569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166840136051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169762283563614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168649092316628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166979283094406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160369694232941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162317767739296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173797607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175954416394234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17289312183857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173936769366264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16871865093708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168509930372238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167675018310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168996959924698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165866076946259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164196282625198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169275254011154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171988666057587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170458018779755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173241004347801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175676107406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185068711638451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187712550163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184581682085991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189938947558403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198635801672935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197383418679237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193417683243752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192443624138832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187851697206497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194809168577194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191678300499916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188060417771339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183468490839005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185694888234138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186112344264984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183816373348236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183677211403847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178528681397438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176719754934311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172962710261345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177972078323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179363578557968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180755063891411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1808942258358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177763357758522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174423769116402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174145460128784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185416594147682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185138285160065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182424873113632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180059313774109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180824667215347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176023989915848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16301354765892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162804797291756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165587782859802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166074827313423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166144400835037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166770562529564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167396739125252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165935665369034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163917988538742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166492238640785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16753588616848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165448635816574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167327165603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165170341730118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167466327548027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166700974106789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164405032992363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163500547409058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166422680020332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166283532977104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166909709572792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165518224239349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168022900819778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168370768427849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164892062544823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173588871955872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17254526913166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181589975953102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180198475718498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179502710700035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178806990385056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180546343326569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182981491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182633578777313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183329358696938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177415490150452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179154843091965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164544180035591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162456944584846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161761194467545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161413282155991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157586708664894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159326061606407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154803693294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154107958078384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15236859023571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154455825686455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149933487176895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152716472744942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15619520843029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156543061137199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155151575803757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15584734082222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153064340353012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149585604667664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148889869451523</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.148194119334221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147846221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146454736590385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157934561371803</t>
+    <t xml:space="preserve">0.147846251726151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146454751491547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157934576272964</t>
   </si>
   <si>
     <t xml:space="preserve">0.160021811723709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158282458782196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157238811254501</t>
+    <t xml:space="preserve">0.158282443881035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157238826155663</t>
   </si>
   <si>
     <t xml:space="preserve">0.161799848079681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16322223842144</t>
+    <t xml:space="preserve">0.163222223520279</t>
   </si>
   <si>
     <t xml:space="preserve">0.160021796822548</t>
@@ -1364,22 +1364,22 @@
     <t xml:space="preserve">0.16144423186779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160733014345169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155043363571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157532572746277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156110182404518</t>
+    <t xml:space="preserve">0.16073302924633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155043348670006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157532587647438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156110167503357</t>
   </si>
   <si>
     <t xml:space="preserve">0.153620928525925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155398964881897</t>
+    <t xml:space="preserve">0.155398979783058</t>
   </si>
   <si>
     <t xml:space="preserve">0.153976544737816</t>
@@ -1391,28 +1391,28 @@
     <t xml:space="preserve">0.147575676441193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146508872509003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14579764008522</t>
+    <t xml:space="preserve">0.146508857607841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145797669887543</t>
   </si>
   <si>
     <t xml:space="preserve">0.143308416008949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138827815651894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137974366545677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139965742826462</t>
+    <t xml:space="preserve">0.138827800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137974351644516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139965727925301</t>
   </si>
   <si>
     <t xml:space="preserve">0.142597213387489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220075130463</t>
+    <t xml:space="preserve">0.147220060229301</t>
   </si>
   <si>
     <t xml:space="preserve">0.145442053675652</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">0.140107989311218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138401076197624</t>
+    <t xml:space="preserve">0.138401091098785</t>
   </si>
   <si>
     <t xml:space="preserve">0.141957134008408</t>
@@ -1433,16 +1433,16 @@
     <t xml:space="preserve">0.140676945447922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141245916485786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141103699803352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139112308621407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137263163924217</t>
+    <t xml:space="preserve">0.141245931386948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14110367000103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139112293720245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137263149023056</t>
   </si>
   <si>
     <t xml:space="preserve">0.136551946401596</t>
@@ -1451,82 +1451,82 @@
     <t xml:space="preserve">0.140534713864326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140819206833839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139823511242867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139681249856949</t>
+    <t xml:space="preserve">0.140819177031517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139823496341705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139681279659271</t>
   </si>
   <si>
     <t xml:space="preserve">0.142099365592003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141672641038895</t>
+    <t xml:space="preserve">0.141672655940056</t>
   </si>
   <si>
     <t xml:space="preserve">0.142952814698219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143664047122002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147931262850761</t>
+    <t xml:space="preserve">0.14366403222084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147931277751923</t>
   </si>
   <si>
     <t xml:space="preserve">0.148642495274544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152909725904465</t>
+    <t xml:space="preserve">0.152909740805626</t>
   </si>
   <si>
     <t xml:space="preserve">0.152554124593735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149353697896004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1443752348423</t>
+    <t xml:space="preserve">0.149353682994843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144375219941139</t>
   </si>
   <si>
     <t xml:space="preserve">0.141388148069382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142241612076759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13825885951519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845033288002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136125236749649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138543322682381</t>
+    <t xml:space="preserve">0.142241626977921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138258844614029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845048189163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136125221848488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138543337583542</t>
   </si>
   <si>
     <t xml:space="preserve">0.141530409455299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139254525303841</t>
+    <t xml:space="preserve">0.139254555106163</t>
   </si>
   <si>
     <t xml:space="preserve">0.14039246737957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138685569167137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132995888590813</t>
+    <t xml:space="preserve">0.138685584068298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132995933294296</t>
   </si>
   <si>
     <t xml:space="preserve">0.134987279772758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135129526257515</t>
+    <t xml:space="preserve">0.135129541158676</t>
   </si>
   <si>
     <t xml:space="preserve">0.129439860582352</t>
@@ -1538,10 +1538,10 @@
     <t xml:space="preserve">0.125172600150108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123465724289417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12375021725893</t>
+    <t xml:space="preserve">0.123465731739998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123750194907188</t>
   </si>
   <si>
     <t xml:space="preserve">0.126310542225838</t>
@@ -1550,58 +1550,58 @@
     <t xml:space="preserve">0.126595050096512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123892441391945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122327789664268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119482949376106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117633819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116922602057457</t>
+    <t xml:space="preserve">0.123892433941364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122327797114849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119482964277267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117633804678917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116922609508038</t>
   </si>
   <si>
     <t xml:space="preserve">0.112513110041618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115926913917065</t>
+    <t xml:space="preserve">0.115926921367645</t>
   </si>
   <si>
     <t xml:space="preserve">0.113793291151524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115215696394444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114931233227253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116638131439686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119198478758335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119909666478634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119340717792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123038992285728</t>
+    <t xml:space="preserve">0.115215711295605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114931210875511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116638123989105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119198471307755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119909681379795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11934071034193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123038984835148</t>
   </si>
   <si>
     <t xml:space="preserve">0.124461404979229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12005191296339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121616564691067</t>
+    <t xml:space="preserve">0.120051927864552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121616572141647</t>
   </si>
   <si>
     <t xml:space="preserve">0.120905362069607</t>
@@ -1613,22 +1613,22 @@
     <t xml:space="preserve">0.111659675836563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114788994193077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113366559147835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116211384534836</t>
+    <t xml:space="preserve">0.114788979291916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113366566598415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116211391985416</t>
   </si>
   <si>
     <t xml:space="preserve">0.122754506766796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127590730786324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127875223755836</t>
+    <t xml:space="preserve">0.127590715885162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127875208854675</t>
   </si>
   <si>
     <t xml:space="preserve">0.127306237816811</t>
@@ -1637,94 +1637,94 @@
     <t xml:space="preserve">0.124745897948742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12076311558485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12190105766058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119056232273579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114504501223564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117349334061146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646747708321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452788710594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120478644967079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120336413383484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120194166898727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120620869100094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487268686295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082066178322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111944146454334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112655349075794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110663965344429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110379509627819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111801899969578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370878458023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111232943832874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116069160401821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121332079172134</t>
+    <t xml:space="preserve">0.12076310813427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121901050209999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119056224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114504486322403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117349319159985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114646732807159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452803611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12047865986824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120336420834064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120194174349308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120620876550674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487246334553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082088530064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111944139003754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112655356526375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11066397279501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110379487276077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111801907420158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370871007442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111232936382294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116069175302982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121332086622715</t>
   </si>
   <si>
     <t xml:space="preserve">0.122612275183201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124319158494473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121758811175823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122185558080673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115642428398132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116495884954929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118629515171051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119767434895039</t>
+    <t xml:space="preserve">0.124319165945053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121758818626404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122185550630093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115642420947552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116495877504349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11862950026989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119767442345619</t>
   </si>
   <si>
     <t xml:space="preserve">0.118202783167362</t>
@@ -1736,55 +1736,55 @@
     <t xml:space="preserve">0.116780355572701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117491573095322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116282507777214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118771739304066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119838558137417</t>
+    <t xml:space="preserve">0.11749155819416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116282515227795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118771731853485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119838565587997</t>
   </si>
   <si>
     <t xml:space="preserve">0.120549760758877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12162934243679</t>
+    <t xml:space="preserve">0.121629364788532</t>
   </si>
   <si>
     <t xml:space="preserve">0.12126737087965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122715324163437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121991343796253</t>
+    <t xml:space="preserve">0.122715331614017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121991358697414</t>
   </si>
   <si>
     <t xml:space="preserve">0.119095414876938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118009433150291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116923473775387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114751502871513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115113481879234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116561472415924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119457401335239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116199478507042</t>
+    <t xml:space="preserve">0.118009448051453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116923466324806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114751510322094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115113504230976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116561457514763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119457393884659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116199463605881</t>
   </si>
   <si>
     <t xml:space="preserve">0.11583748459816</t>
@@ -1793,22 +1793,22 @@
     <t xml:space="preserve">0.113665543496609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114389523863792</t>
+    <t xml:space="preserve">0.114389516413212</t>
   </si>
   <si>
     <t xml:space="preserve">0.11402752250433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1122175604105</t>
+    <t xml:space="preserve">0.112217552959919</t>
   </si>
   <si>
     <t xml:space="preserve">0.110769592225552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111855551600456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107149668037891</t>
+    <t xml:space="preserve">0.111855566501617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107149675488472</t>
   </si>
   <si>
     <t xml:space="preserve">0.107873663306236</t>
@@ -1829,64 +1829,64 @@
     <t xml:space="preserve">0.108959630131721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109683610498905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11040760576725</t>
+    <t xml:space="preserve">0.109683617949486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110407613217831</t>
   </si>
   <si>
     <t xml:space="preserve">0.111493587493896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111131593585014</t>
+    <t xml:space="preserve">0.111131586134434</t>
   </si>
   <si>
     <t xml:space="preserve">0.113303542137146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10859764367342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110045596957207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109321616590023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115475483238697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118733428418636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120181381702423</t>
+    <t xml:space="preserve">0.108597651124001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110045611858368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109321624040604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115475490689278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118733420968056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120181389153004</t>
   </si>
   <si>
     <t xml:space="preserve">0.119819395244122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120543375611305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118371419608593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117285452783108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123801313340664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126335263252258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123439319431782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124525301158428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12488729506731</t>
+    <t xml:space="preserve">0.120543368160725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118371427059174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117285460233688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123801305890083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126335248351097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123439311981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124525308609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12488728761673</t>
   </si>
   <si>
     <t xml:space="preserve">0.124163299798965</t>
@@ -1898,76 +1898,76 @@
     <t xml:space="preserve">0.144072875380516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154208660125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146244838833809</t>
+    <t xml:space="preserve">0.154208645224571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146244823932648</t>
   </si>
   <si>
     <t xml:space="preserve">0.1556566208601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177376136183739</t>
+    <t xml:space="preserve">0.1773761510849</t>
   </si>
   <si>
     <t xml:space="preserve">0.191855818033218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18461599946022</t>
+    <t xml:space="preserve">0.184615984559059</t>
   </si>
   <si>
     <t xml:space="preserve">0.171584263443947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16651639342308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170136302709579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17375622689724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173032239079475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16868831217289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164344444870949</t>
+    <t xml:space="preserve">0.166516378521919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170136317610741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173756211996078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173032224178314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168688327074051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164344429969788</t>
   </si>
   <si>
     <t xml:space="preserve">0.160724505782127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161448493599892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172466516495</t>
+    <t xml:space="preserve">0.161448508501053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172481417656</t>
   </si>
   <si>
     <t xml:space="preserve">0.165792405605316</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165068417787552</t>
+    <t xml:space="preserve">0.165068402886391</t>
   </si>
   <si>
     <t xml:space="preserve">0.157828569412231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162896454334259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163620442152023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179548099637032</t>
+    <t xml:space="preserve">0.162896439433098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163620457053185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17954808473587</t>
   </si>
   <si>
     <t xml:space="preserve">0.178100138902664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156380608677864</t>
+    <t xml:space="preserve">0.156380593776703</t>
   </si>
   <si>
     <t xml:space="preserve">0.153484657406807</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">0.149140760302544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146968811750412</t>
+    <t xml:space="preserve">0.146968796849251</t>
   </si>
   <si>
     <t xml:space="preserve">0.152036681771278</t>
@@ -1985,16 +1985,16 @@
     <t xml:space="preserve">0.170860290527344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172308251261711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169412314891815</t>
+    <t xml:space="preserve">0.172308266162872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169412299990654</t>
   </si>
   <si>
     <t xml:space="preserve">0.145520836114883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149864748120308</t>
+    <t xml:space="preserve">0.149864733219147</t>
   </si>
   <si>
     <t xml:space="preserve">0.151312723755836</t>
@@ -2012,19 +2012,19 @@
     <t xml:space="preserve">0.131041154265404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122353337705135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106787674129009</t>
+    <t xml:space="preserve">0.122353352606297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10678768157959</t>
   </si>
   <si>
     <t xml:space="preserve">0.0912220180034637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0970138907432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0962899178266525</t>
+    <t xml:space="preserve">0.0970138981938362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0962899103760719</t>
   </si>
   <si>
     <t xml:space="preserve">0.0977378785610199</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">0.10135780274868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.102443784475327</t>
+    <t xml:space="preserve">0.102443769574165</t>
   </si>
   <si>
     <t xml:space="preserve">0.104253724217415</t>
@@ -2045,61 +2045,61 @@
     <t xml:space="preserve">0.106063693761826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.102805756032467</t>
+    <t xml:space="preserve">0.102805763483047</t>
   </si>
   <si>
     <t xml:space="preserve">0.105701699852943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103529751300812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106570489704609</t>
+    <t xml:space="preserve">0.103529758751392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10657049715519</t>
   </si>
   <si>
     <t xml:space="preserve">0.107004880905151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108018465340137</t>
+    <t xml:space="preserve">0.108018457889557</t>
   </si>
   <si>
     <t xml:space="preserve">0.107294470071793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.102081790566444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103819355368614</t>
+    <t xml:space="preserve">0.102081783115864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103819347918034</t>
   </si>
   <si>
     <t xml:space="preserve">0.103674553334713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103964142501354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104832924902439</t>
+    <t xml:space="preserve">0.103964135050774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10483293235302</t>
   </si>
   <si>
     <t xml:space="preserve">0.105412118136883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108452834188938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111203998327255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10686007142067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10671528428793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122208543121815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108163252472878</t>
+    <t xml:space="preserve">0.108452841639519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111203990876675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10686007887125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106715299189091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122208550572395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108163245022297</t>
   </si>
   <si>
     <t xml:space="preserve">0.109466418623924</t>
@@ -2108,34 +2108,34 @@
     <t xml:space="preserve">0.103384956717491</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104688137769699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11047999560833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112796746194363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11033521592617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113955125212669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115692690014839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154932633042336</t>
+    <t xml:space="preserve">0.104688122868538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110479988157749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112796738743782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11033520847559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113955117762089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115692682564259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154932647943497</t>
   </si>
   <si>
     <t xml:space="preserve">0.139004975557327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152760684490204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157104581594467</t>
+    <t xml:space="preserve">0.152760669589043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157104596495628</t>
   </si>
   <si>
     <t xml:space="preserve">0.151674702763557</t>
@@ -2144,13 +2144,13 @@
     <t xml:space="preserve">0.149502739310265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15058870613575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148416757583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148054778575897</t>
+    <t xml:space="preserve">0.150588735938072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148416787385941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148054793477058</t>
   </si>
   <si>
     <t xml:space="preserve">0.144652053713799</t>
@@ -2165,37 +2165,37 @@
     <t xml:space="preserve">0.14479686319828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144362449645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143638491630554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142769694328308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143928050994873</t>
+    <t xml:space="preserve">0.144362464547157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143638476729393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142769679427147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143928065896034</t>
   </si>
   <si>
     <t xml:space="preserve">0.145158842206001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144507274031639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147330805659294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143493682146072</t>
+    <t xml:space="preserve">0.144507259130478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147330790758133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143493667244911</t>
   </si>
   <si>
     <t xml:space="preserve">0.140163347125053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140887349843979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900897026062</t>
+    <t xml:space="preserve">0.140887334942818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900926828384</t>
   </si>
   <si>
     <t xml:space="preserve">0.147692784667015</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">0.145882830023766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144217669963837</t>
+    <t xml:space="preserve">0.144217684864998</t>
   </si>
   <si>
     <t xml:space="preserve">0.142624899744987</t>
@@ -2213,22 +2213,22 @@
     <t xml:space="preserve">0.143059298396111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154570639133453</t>
+    <t xml:space="preserve">0.154570654034615</t>
   </si>
   <si>
     <t xml:space="preserve">0.14320407807827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143348887562752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143783271312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142480105161667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138136208057404</t>
+    <t xml:space="preserve">0.143348872661591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143783286213875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142480090260506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138136193156242</t>
   </si>
   <si>
     <t xml:space="preserve">0.13755701482296</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">0.158914551138878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15384666621685</t>
+    <t xml:space="preserve">0.153846651315689</t>
   </si>
   <si>
     <t xml:space="preserve">0.15022674202919</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">0.152398690581322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150950700044632</t>
+    <t xml:space="preserve">0.150950714945793</t>
   </si>
   <si>
     <t xml:space="preserve">0.155294626951218</t>
@@ -2267,31 +2267,31 @@
     <t xml:space="preserve">0.15927654504776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169774308800697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168326333165169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173394247889519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167964354157448</t>
+    <t xml:space="preserve">0.169774323701859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16832634806633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173394232988358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167964369058609</t>
   </si>
   <si>
     <t xml:space="preserve">0.169050335884094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171222254633904</t>
+    <t xml:space="preserve">0.171222284436226</t>
   </si>
   <si>
     <t xml:space="preserve">0.171946257352829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177014172077179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176290154457092</t>
+    <t xml:space="preserve">0.177014157176018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176290169358253</t>
   </si>
   <si>
     <t xml:space="preserve">0.179910093545914</t>
@@ -2306,25 +2306,25 @@
     <t xml:space="preserve">0.179186105728149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177738130092621</t>
+    <t xml:space="preserve">0.177738144993782</t>
   </si>
   <si>
     <t xml:space="preserve">0.17556619644165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175928190350533</t>
+    <t xml:space="preserve">0.175928175449371</t>
   </si>
   <si>
     <t xml:space="preserve">0.175204187631607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174842208623886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176652163267136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174480214715004</t>
+    <t xml:space="preserve">0.174842223525047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176652178168297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174480229616165</t>
   </si>
   <si>
     <t xml:space="preserve">0.182514503598213</t>
@@ -2342,25 +2342,25 @@
     <t xml:space="preserve">0.177824631333351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175088867545128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173525586724281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174698054790497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178997084498405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17547969520092</t>
+    <t xml:space="preserve">0.175088852643967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17352557182312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174698039889336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178997099399567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175479680299759</t>
   </si>
   <si>
     <t xml:space="preserve">0.177042976021767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17587049305439</t>
+    <t xml:space="preserve">0.175870507955551</t>
   </si>
   <si>
     <t xml:space="preserve">0.173916384577751</t>
@@ -2369,10 +2369,10 @@
     <t xml:space="preserve">0.178606271743774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171180620789528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169226497411728</t>
+    <t xml:space="preserve">0.171180635690689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169226512312889</t>
   </si>
   <si>
     <t xml:space="preserve">0.171962261199951</t>
@@ -2387,16 +2387,16 @@
     <t xml:space="preserve">0.170789808034897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171571463346481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173134729266167</t>
+    <t xml:space="preserve">0.17157144844532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173134744167328</t>
   </si>
   <si>
     <t xml:space="preserve">0.172743916511536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169617339968681</t>
+    <t xml:space="preserve">0.16961732506752</t>
   </si>
   <si>
     <t xml:space="preserve">0.170008152723312</t>
@@ -2408,13 +2408,13 @@
     <t xml:space="preserve">0.168054044246674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170398980379105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167663231492043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166881561279297</t>
+    <t xml:space="preserve">0.170398965477943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167663216590881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166881576180458</t>
   </si>
   <si>
     <t xml:space="preserve">0.165709108114243</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">0.16531828045845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166099920868874</t>
+    <t xml:space="preserve">0.166099935770035</t>
   </si>
   <si>
     <t xml:space="preserve">0.164536625146866</t>
@@ -2447,22 +2447,22 @@
     <t xml:space="preserve">0.160628408193588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163754999637604</t>
+    <t xml:space="preserve">0.163754984736443</t>
   </si>
   <si>
     <t xml:space="preserve">0.164927437901497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168835684657097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160237580537796</t>
+    <t xml:space="preserve">0.168835699558258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160237565636635</t>
   </si>
   <si>
     <t xml:space="preserve">0.162973329424858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164145797491074</t>
+    <t xml:space="preserve">0.164145812392235</t>
   </si>
   <si>
     <t xml:space="preserve">0.161800876259804</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">0.159455925226212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158674269914627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159846767783165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159065097570419</t>
+    <t xml:space="preserve">0.158674284815788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159846752882004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159065112471581</t>
   </si>
   <si>
     <t xml:space="preserve">0.161019220948219</t>
@@ -2486,19 +2486,19 @@
     <t xml:space="preserve">0.163364171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182905316352844</t>
+    <t xml:space="preserve">0.182905331254005</t>
   </si>
   <si>
     <t xml:space="preserve">0.186031922698021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184468626976013</t>
+    <t xml:space="preserve">0.184468612074852</t>
   </si>
   <si>
     <t xml:space="preserve">0.184859439730644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182123690843582</t>
+    <t xml:space="preserve">0.182123675942421</t>
   </si>
   <si>
     <t xml:space="preserve">0.180169567465782</t>
@@ -2516,25 +2516,25 @@
     <t xml:space="preserve">0.184369340538979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178489655256271</t>
+    <t xml:space="preserve">0.178489670157433</t>
   </si>
   <si>
     <t xml:space="preserve">0.178069695830345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176389768719673</t>
+    <t xml:space="preserve">0.176389783620834</t>
   </si>
   <si>
     <t xml:space="preserve">0.181009516119957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177229717373848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174709886312485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177649721503258</t>
+    <t xml:space="preserve">0.177229732275009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174709901213646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177649706602097</t>
   </si>
   <si>
     <t xml:space="preserve">0.179749578237534</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">0.179329603910446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175549849867821</t>
+    <t xml:space="preserve">0.17554983496666</t>
   </si>
   <si>
     <t xml:space="preserve">0.175969809293747</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">0.176809772849083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183109402656555</t>
+    <t xml:space="preserve">0.183109387755394</t>
   </si>
   <si>
     <t xml:space="preserve">0.188149109482765</t>
@@ -2576,16 +2576,16 @@
     <t xml:space="preserve">0.187729135155678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173449948430061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174289911985397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169670164585114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159254774451256</t>
+    <t xml:space="preserve">0.1734499335289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174289897084236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169670179486275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159254789352417</t>
   </si>
   <si>
     <t xml:space="preserve">0.163118556141853</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">0.181849464774132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183529362082481</t>
+    <t xml:space="preserve">0.183529376983643</t>
   </si>
   <si>
     <t xml:space="preserve">0.186469212174416</t>
@@ -2615,16 +2615,16 @@
     <t xml:space="preserve">0.18562924861908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184789285063744</t>
+    <t xml:space="preserve">0.184789299964905</t>
   </si>
   <si>
     <t xml:space="preserve">0.186049222946167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191928893327713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187119737267494</t>
+    <t xml:space="preserve">0.191928878426552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187119722366333</t>
   </si>
   <si>
     <t xml:space="preserve">0.186245337128639</t>
@@ -2639,10 +2639,10 @@
     <t xml:space="preserve">0.17837581038475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18318498134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180561795830727</t>
+    <t xml:space="preserve">0.183184966444969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180561780929565</t>
   </si>
   <si>
     <t xml:space="preserve">0.179687410593033</t>
@@ -2651,7 +2651,7 @@
     <t xml:space="preserve">0.177501425147057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178813010454178</t>
+    <t xml:space="preserve">0.178813025355339</t>
   </si>
   <si>
     <t xml:space="preserve">0.179250210523605</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">0.180998995900154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181873381137848</t>
+    <t xml:space="preserve">0.181873396039009</t>
   </si>
   <si>
     <t xml:space="preserve">0.174878254532814</t>
@@ -2672,22 +2672,22 @@
     <t xml:space="preserve">0.163161411881447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167183607816696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168757513165474</t>
+    <t xml:space="preserve">0.167183622717857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168757528066635</t>
   </si>
   <si>
     <t xml:space="preserve">0.16788312792778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168932408094406</t>
+    <t xml:space="preserve">0.168932393193245</t>
   </si>
   <si>
     <t xml:space="preserve">0.167008727788925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165609702467918</t>
+    <t xml:space="preserve">0.16560971736908</t>
   </si>
   <si>
     <t xml:space="preserve">0.16176238656044</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">0.16386091709137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175752654671669</t>
+    <t xml:space="preserve">0.175752639770508</t>
   </si>
   <si>
     <t xml:space="preserve">0.174353614449501</t>
@@ -2723,25 +2723,25 @@
     <t xml:space="preserve">0.173479229211807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169107258319855</t>
+    <t xml:space="preserve">0.169107273221016</t>
   </si>
   <si>
     <t xml:space="preserve">0.172080188989639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170856058597565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172429963946342</t>
+    <t xml:space="preserve">0.170856043696404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172429949045181</t>
   </si>
   <si>
     <t xml:space="preserve">0.171555563807487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169631913304329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166484102606773</t>
+    <t xml:space="preserve">0.169631898403168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166484087705612</t>
   </si>
   <si>
     <t xml:space="preserve">0.174003854393959</t>
@@ -2753,10 +2753,10 @@
     <t xml:space="preserve">0.171730443835258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166134342551231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170681163668633</t>
+    <t xml:space="preserve">0.16613432765007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170681178569794</t>
   </si>
   <si>
     <t xml:space="preserve">0.16805799305439</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">0.167358487844467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167708247900009</t>
+    <t xml:space="preserve">0.167708232998848</t>
   </si>
   <si>
     <t xml:space="preserve">0.167533367872238</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">0.166833847761154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169457018375397</t>
+    <t xml:space="preserve">0.169457033276558</t>
   </si>
   <si>
     <t xml:space="preserve">0.169806778430939</t>
@@ -2819,10 +2819,10 @@
     <t xml:space="preserve">0.176627039909363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17531543970108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176189839839935</t>
+    <t xml:space="preserve">0.175315454602242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176189824938774</t>
   </si>
   <si>
     <t xml:space="preserve">0.174178749322891</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">0.170506283640862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171380668878555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171205818653107</t>
+    <t xml:space="preserve">0.171380683779716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171205803751945</t>
   </si>
   <si>
     <t xml:space="preserve">0.174703374505043</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">0.188868522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185808137059212</t>
+    <t xml:space="preserve">0.185808151960373</t>
   </si>
   <si>
     <t xml:space="preserve">0.189742892980576</t>
@@ -2870,28 +2870,28 @@
     <t xml:space="preserve">0.187994122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186682537198067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183622166514397</t>
+    <t xml:space="preserve">0.186682522296906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183622151613235</t>
   </si>
   <si>
     <t xml:space="preserve">0.184933751821518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185370936989784</t>
+    <t xml:space="preserve">0.185370951890945</t>
   </si>
   <si>
     <t xml:space="preserve">0.18449655175209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182310566306114</t>
+    <t xml:space="preserve">0.182310581207275</t>
   </si>
   <si>
     <t xml:space="preserve">0.196738019585609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194989264011383</t>
+    <t xml:space="preserve">0.194989249110222</t>
   </si>
   <si>
     <t xml:space="preserve">0.197612419724464</t>
@@ -59045,7 +59045,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6494097222</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>279831</v>
@@ -59054,7 +59054,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="D2143" t="n">
-        <v>0.209999993443489</v>
+        <v>0.209000006318092</v>
       </c>
       <c r="E2143" t="n">
         <v>0.209999993443489</v>
@@ -59066,6 +59066,32 @@
         <v>995</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6493634259</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>723572</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>0.211999997496605</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>0.206000000238419</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.211999997496605</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.208000004291534</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>996</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174470067024231</t>
+    <t xml:space="preserve">0.174470037221909</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174941956996918</t>
+    <t xml:space="preserve">0.174941927194595</t>
   </si>
   <si>
     <t xml:space="preserve">0.171099305152893</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">0.16914427280426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166178017854691</t>
+    <t xml:space="preserve">0.166178002953529</t>
   </si>
   <si>
     <t xml:space="preserve">0.163481399416924</t>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">0.167324066162109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16267241537571</t>
+    <t xml:space="preserve">0.162672430276871</t>
   </si>
   <si>
     <t xml:space="preserve">0.157144382596016</t>
@@ -74,22 +74,22 @@
     <t xml:space="preserve">0.146627634763718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148515269160271</t>
+    <t xml:space="preserve">0.148515254259109</t>
   </si>
   <si>
     <t xml:space="preserve">0.1383356153965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144740015268326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148313015699387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148380413651466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158223018050194</t>
+    <t xml:space="preserve">0.144740045070648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148313000798225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148380443453789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158223032951355</t>
   </si>
   <si>
     <t xml:space="preserve">0.152357921004295</t>
@@ -98,34 +98,34 @@
     <t xml:space="preserve">0.152088269591331</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155054539442062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154380366206169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150335475802422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14548160135746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142582729458809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142717584967613</t>
+    <t xml:space="preserve">0.155054524540901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15438038110733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15033546090126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145481586456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142582759261131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142717570066452</t>
   </si>
   <si>
     <t xml:space="preserve">0.131324455142021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135504186153412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128223344683647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13078510761261</t>
+    <t xml:space="preserve">0.135504171252251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128223359584808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130785122513771</t>
   </si>
   <si>
     <t xml:space="preserve">0.138874933123589</t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">0.138200759887695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143459156155586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140223234891891</t>
+    <t xml:space="preserve">0.143459141254425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14022321999073</t>
   </si>
   <si>
     <t xml:space="preserve">0.137998521327972</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">0.142515331506729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141976028680801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14372880756855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144065886735916</t>
+    <t xml:space="preserve">0.141975998878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143728792667389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144065856933594</t>
   </si>
   <si>
     <t xml:space="preserve">0.142987251281738</t>
@@ -164,31 +164,31 @@
     <t xml:space="preserve">0.147706285119057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153166890144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154178112745285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15094219148159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150672554969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154717460274696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156470239162445</t>
+    <t xml:space="preserve">0.153166905045509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154178142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150942206382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150672540068626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154717430472374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156470209360123</t>
   </si>
   <si>
     <t xml:space="preserve">0.162402763962746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164492636919022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161796018481255</t>
+    <t xml:space="preserve">0.16449262201786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161796033382416</t>
   </si>
   <si>
     <t xml:space="preserve">0.16085222363472</t>
@@ -197,70 +197,70 @@
     <t xml:space="preserve">0.158088192343712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159099414944649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155526414513588</t>
+    <t xml:space="preserve">0.15909942984581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155526429414749</t>
   </si>
   <si>
     <t xml:space="preserve">0.154312953352928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14898718893528</t>
+    <t xml:space="preserve">0.148987174034119</t>
   </si>
   <si>
     <t xml:space="preserve">0.15020065009594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150065794587135</t>
+    <t xml:space="preserve">0.150065809488297</t>
   </si>
   <si>
     <t xml:space="preserve">0.149930983781815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146964713931084</t>
+    <t xml:space="preserve">0.146964743733406</t>
   </si>
   <si>
     <t xml:space="preserve">0.144268110394478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142245650291443</t>
+    <t xml:space="preserve">0.142245665192604</t>
   </si>
   <si>
     <t xml:space="preserve">0.138268187642097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147841110825539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151751175522804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15727923810482</t>
+    <t xml:space="preserve">0.1478411257267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151751190423965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157279223203659</t>
   </si>
   <si>
     <t xml:space="preserve">0.156874731183052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155998349189758</t>
+    <t xml:space="preserve">0.155998319387436</t>
   </si>
   <si>
     <t xml:space="preserve">0.156942158937454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1526949852705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157009527087212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152560174465179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122458934784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1544299274683</t>
+    <t xml:space="preserve">0.152695015072823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157009541988373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152560159564018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122473835945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154429942369461</t>
   </si>
   <si>
     <t xml:space="preserve">0.150274872779846</t>
@@ -269,55 +269,55 @@
     <t xml:space="preserve">0.150828897953033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147781863808632</t>
+    <t xml:space="preserve">0.147781848907471</t>
   </si>
   <si>
     <t xml:space="preserve">0.147712603211403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146812319755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142657265067101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142103269696236</t>
+    <t xml:space="preserve">0.146812304854393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142657250165939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142103239893913</t>
   </si>
   <si>
     <t xml:space="preserve">0.138155922293663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139817953109741</t>
+    <t xml:space="preserve">0.139817982912064</t>
   </si>
   <si>
     <t xml:space="preserve">0.13988721370697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140579715371132</t>
+    <t xml:space="preserve">0.140579700469971</t>
   </si>
   <si>
     <t xml:space="preserve">0.141272231936455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139748692512512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141203001141548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144042298197746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14542730152607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144734784960747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145219549536705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147989615797997</t>
+    <t xml:space="preserve">0.139748722314835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141202986240387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144042283296585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145427286624908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144734799861908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145219534635544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147989585995674</t>
   </si>
   <si>
     <t xml:space="preserve">0.144804045557976</t>
@@ -326,82 +326,82 @@
     <t xml:space="preserve">0.147574096918106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148889854550362</t>
+    <t xml:space="preserve">0.1488898396492</t>
   </si>
   <si>
     <t xml:space="preserve">0.148128092288971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144180774688721</t>
+    <t xml:space="preserve">0.144180789589882</t>
   </si>
   <si>
     <t xml:space="preserve">0.146673828363419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141826257109642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133654624223709</t>
+    <t xml:space="preserve">0.141826242208481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133654594421387</t>
   </si>
   <si>
     <t xml:space="preserve">0.132685109972954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134485617280006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121881932020187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123890206217766</t>
+    <t xml:space="preserve">0.134485632181168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121881939470768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123890213668346</t>
   </si>
   <si>
     <t xml:space="preserve">0.126244738698006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123405456542969</t>
+    <t xml:space="preserve">0.123405441641808</t>
   </si>
   <si>
     <t xml:space="preserve">0.125898495316505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116341836750507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787819027901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12257444113493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111880660057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12292068451643</t>
+    <t xml:space="preserve">0.116341844201088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787826478481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122574456036091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111895561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122920706868172</t>
   </si>
   <si>
     <t xml:space="preserve">0.122228175401688</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118419371545315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11350255459547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110940255224705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118904128670692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122297458350658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452505588531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124651983380318</t>
+    <t xml:space="preserve">0.118419378995895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11350254714489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110940270125866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118904136121273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297428548336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12645249068737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124651998281479</t>
   </si>
   <si>
     <t xml:space="preserve">0.126175493001938</t>
@@ -410,151 +410,151 @@
     <t xml:space="preserve">0.130953833460808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128668531775475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128460764884949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127768278121948</t>
+    <t xml:space="preserve">0.128668561577797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128460794687271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127768263220787</t>
   </si>
   <si>
     <t xml:space="preserve">0.127422019839287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126729488372803</t>
+    <t xml:space="preserve">0.126729503273964</t>
   </si>
   <si>
     <t xml:space="preserve">0.128253042697906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130884557962418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131161600351334</t>
+    <t xml:space="preserve">0.130884572863579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13116155564785</t>
   </si>
   <si>
     <t xml:space="preserve">0.127976030111313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120496913790703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118211604654789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172867059708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114956811070442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116618856787682</t>
+    <t xml:space="preserve">0.120496898889542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118211641907692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172844707966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114956833422184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116618864238262</t>
   </si>
   <si>
     <t xml:space="preserve">0.118627123534679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119804404675961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765637278557</t>
+    <t xml:space="preserve">0.119804382324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765629827976</t>
   </si>
   <si>
     <t xml:space="preserve">0.120912410318851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115718565881252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319625198841</t>
+    <t xml:space="preserve">0.115718580782413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319640100002</t>
   </si>
   <si>
     <t xml:space="preserve">0.119250386953354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118834875524044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121258676052094</t>
+    <t xml:space="preserve">0.118834882974625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121258661150932</t>
   </si>
   <si>
     <t xml:space="preserve">0.122505202889442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197697103024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125552237033844</t>
+    <t xml:space="preserve">0.123197682201862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552251935005</t>
   </si>
   <si>
     <t xml:space="preserve">0.125690743327141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121743410825729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674157679081</t>
+    <t xml:space="preserve">0.121743433177471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674165129662</t>
   </si>
   <si>
     <t xml:space="preserve">0.120150648057461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121120184659958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488624691963</t>
+    <t xml:space="preserve">0.121120169758797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488632142544</t>
   </si>
   <si>
     <t xml:space="preserve">0.119665905833244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115372329950333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926340222359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726847529411</t>
+    <t xml:space="preserve">0.115372322499752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926325321198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726869881153</t>
   </si>
   <si>
     <t xml:space="preserve">0.116826593875885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117103591561317</t>
+    <t xml:space="preserve">0.117103606462479</t>
   </si>
   <si>
     <t xml:space="preserve">0.121189422905445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115233831107616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118973381817341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118350133299828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128114521503448</t>
+    <t xml:space="preserve">0.115233838558197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118973389267921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118350125849247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12811453640461</t>
   </si>
   <si>
     <t xml:space="preserve">0.126660257577896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12409795820713</t>
+    <t xml:space="preserve">0.124097973108292</t>
   </si>
   <si>
     <t xml:space="preserve">0.125205978751183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123959459364414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117034360766411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117796123027802</t>
+    <t xml:space="preserve">0.123959481716156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11703435331583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117796137928963</t>
   </si>
   <si>
     <t xml:space="preserve">0.117934614419937</t>
@@ -563,13 +563,13 @@
     <t xml:space="preserve">0.116480343043804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11509532481432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433301448822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111494265496731</t>
+    <t xml:space="preserve">0.115095317363739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433316349983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11149425804615</t>
   </si>
   <si>
     <t xml:space="preserve">0.115441583096981</t>
@@ -578,46 +578,46 @@
     <t xml:space="preserve">0.113571807742119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114679828286171</t>
+    <t xml:space="preserve">0.114679805934429</t>
   </si>
   <si>
     <t xml:space="preserve">0.111771263182163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111009493470192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111563511192799</t>
+    <t xml:space="preserve">0.111009500920773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111563518643379</t>
   </si>
   <si>
     <t xml:space="preserve">0.112186782062054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117588363587856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327929198742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122020445764065</t>
+    <t xml:space="preserve">0.117588378489017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327914297581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122020415961742</t>
   </si>
   <si>
     <t xml:space="preserve">0.122435919940472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119942896068096</t>
+    <t xml:space="preserve">0.119942888617516</t>
   </si>
   <si>
     <t xml:space="preserve">0.124305717647076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122851446270943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773904025555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596637785435</t>
+    <t xml:space="preserve">0.122851423919201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773926377296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596652686596</t>
   </si>
   <si>
     <t xml:space="preserve">0.119527384638786</t>
@@ -626,13 +626,13 @@
     <t xml:space="preserve">0.120358422398567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121812678873539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141895487904549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169665187597275</t>
+    <t xml:space="preserve">0.121812671422958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14189550280571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169665172696114</t>
   </si>
   <si>
     <t xml:space="preserve">0.15997003018856</t>
@@ -647,22 +647,22 @@
     <t xml:space="preserve">0.146466061472893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148197323083878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144942551851273</t>
+    <t xml:space="preserve">0.148197337985039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144942536950111</t>
   </si>
   <si>
     <t xml:space="preserve">0.148682102560997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149928599596024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154360696673393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157476991415024</t>
+    <t xml:space="preserve">0.149928614497185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154360711574554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157476976513863</t>
   </si>
   <si>
     <t xml:space="preserve">0.159900799393654</t>
@@ -671,7 +671,7 @@
     <t xml:space="preserve">0.158031016588211</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156507462263107</t>
+    <t xml:space="preserve">0.156507477164268</t>
   </si>
   <si>
     <t xml:space="preserve">0.14736633002758</t>
@@ -680,19 +680,19 @@
     <t xml:space="preserve">0.143349766731262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143696025013924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145358070731163</t>
+    <t xml:space="preserve">0.143696039915085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145358055830002</t>
   </si>
   <si>
     <t xml:space="preserve">0.143626764416695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144319280982018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137809693813324</t>
+    <t xml:space="preserve">0.144319295883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137809678912163</t>
   </si>
   <si>
     <t xml:space="preserve">0.139194712042809</t>
@@ -704,73 +704,73 @@
     <t xml:space="preserve">0.140510469675064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140441223978996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139540955424309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138502180576324</t>
+    <t xml:space="preserve">0.140441253781319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139540940523148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138502195477486</t>
   </si>
   <si>
     <t xml:space="preserve">0.139679461717606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13711716234684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139056190848351</t>
+    <t xml:space="preserve">0.137117147445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139056220650673</t>
   </si>
   <si>
     <t xml:space="preserve">0.144111543893814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14425003528595</t>
+    <t xml:space="preserve">0.144250005483627</t>
   </si>
   <si>
     <t xml:space="preserve">0.145912051200867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142588034272194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145981296896935</t>
+    <t xml:space="preserve">0.142588004469872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145981341600418</t>
   </si>
   <si>
     <t xml:space="preserve">0.149028360843658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147851079702377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148058861494064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150413364171982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148959115147591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152075424790382</t>
+    <t xml:space="preserve">0.147851094603539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148058846592903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150413379073143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148959130048752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152075409889221</t>
   </si>
   <si>
     <t xml:space="preserve">0.152352407574654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155399471521378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160870313644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159139037132263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158931270241737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155814945697784</t>
+    <t xml:space="preserve">0.155399456620216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160870298743248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159139022231102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158931255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155814960598946</t>
   </si>
   <si>
     <t xml:space="preserve">0.151936888694763</t>
@@ -779,19 +779,19 @@
     <t xml:space="preserve">0.150967389345169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148612856864929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147920325398445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147297069430351</t>
+    <t xml:space="preserve">0.148612841963768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147920340299606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147297084331512</t>
   </si>
   <si>
     <t xml:space="preserve">0.143142014741898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141687765717506</t>
+    <t xml:space="preserve">0.141687735915184</t>
   </si>
   <si>
     <t xml:space="preserve">0.146258309483528</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">0.14972086250782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152213901281357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152006149291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14618906378746</t>
+    <t xml:space="preserve">0.152213916182518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152006164193153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146189078688622</t>
   </si>
   <si>
     <t xml:space="preserve">0.145773559808731</t>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">0.148474350571632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148472428321838</t>
+    <t xml:space="preserve">0.148472413420677</t>
   </si>
   <si>
     <t xml:space="preserve">0.146802619099617</t>
@@ -824,16 +824,16 @@
     <t xml:space="preserve">0.145411133766174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144297927618027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14701135456562</t>
+    <t xml:space="preserve">0.144297912716866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147011339664459</t>
   </si>
   <si>
     <t xml:space="preserve">0.148541986942291</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148959457874298</t>
+    <t xml:space="preserve">0.148959442973137</t>
   </si>
   <si>
     <t xml:space="preserve">0.145480692386627</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">0.144506648182869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144019618630409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143463060259819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140749618411064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143045589327812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140193000435829</t>
+    <t xml:space="preserve">0.14401963353157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143463030457497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140749603509903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143045604228973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14019301533699</t>
   </si>
   <si>
     <t xml:space="preserve">0.141236633062363</t>
@@ -872,43 +872,43 @@
     <t xml:space="preserve">0.142071545124054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13949728012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13901025056839</t>
+    <t xml:space="preserve">0.139497265219688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139010265469551</t>
   </si>
   <si>
     <t xml:space="preserve">0.14033217728138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139149397611618</t>
+    <t xml:space="preserve">0.139149412512779</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757897377014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137618735432625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137062177062035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138175368309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138244926929474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142419397830963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140610486268997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141793236136436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141445353627205</t>
+    <t xml:space="preserve">0.137618765234947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137062162160873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138175338506699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138244941830635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142419412732124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140610471367836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141793251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141445368528366</t>
   </si>
   <si>
     <t xml:space="preserve">0.14116707444191</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">0.14068004488945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140123441815376</t>
+    <t xml:space="preserve">0.140123426914215</t>
   </si>
   <si>
     <t xml:space="preserve">0.141584515571594</t>
@@ -932,37 +932,37 @@
     <t xml:space="preserve">0.139427706599236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147289648652077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1496552079916</t>
+    <t xml:space="preserve">0.147289633750916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149655193090439</t>
   </si>
   <si>
     <t xml:space="preserve">0.149863913655281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150629207491875</t>
+    <t xml:space="preserve">0.150629222393036</t>
   </si>
   <si>
     <t xml:space="preserve">0.149724766612053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147985383868217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146246016025543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147428780794144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149237722158432</t>
+    <t xml:space="preserve">0.147985398769379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146246030926704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147428795695305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149237737059593</t>
   </si>
   <si>
     <t xml:space="preserve">0.150281354784966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148402839899063</t>
+    <t xml:space="preserve">0.148402854800224</t>
   </si>
   <si>
     <t xml:space="preserve">0.151742413640022</t>
@@ -974,16 +974,16 @@
     <t xml:space="preserve">0.152577325701714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152159869670868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150490075349808</t>
+    <t xml:space="preserve">0.152159884572029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150490060448647</t>
   </si>
   <si>
     <t xml:space="preserve">0.151324972510338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150977104902267</t>
+    <t xml:space="preserve">0.150977090001106</t>
   </si>
   <si>
     <t xml:space="preserve">0.15035092830658</t>
@@ -998,22 +998,22 @@
     <t xml:space="preserve">0.149098590016365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151672855019569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166840136051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169762283563614</t>
+    <t xml:space="preserve">0.151672840118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166840121150017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169762268662453</t>
   </si>
   <si>
     <t xml:space="preserve">0.168649092316628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166979268193245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160369664430618</t>
+    <t xml:space="preserve">0.166979283094406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160369694232941</t>
   </si>
   <si>
     <t xml:space="preserve">0.162317782640457</t>
@@ -1022,19 +1022,19 @@
     <t xml:space="preserve">0.173797607421875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175954416394234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172893151640892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173936769366264</t>
+    <t xml:space="preserve">0.175954446196556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172893136739731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173936754465103</t>
   </si>
   <si>
     <t xml:space="preserve">0.168718636035919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168509930372238</t>
+    <t xml:space="preserve">0.168509945273399</t>
   </si>
   <si>
     <t xml:space="preserve">0.167675018310547</t>
@@ -1043,16 +1043,16 @@
     <t xml:space="preserve">0.168996959924698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165866062045097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164196282625198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169275268912315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171988651156425</t>
+    <t xml:space="preserve">0.16586609184742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16419629752636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169275254011154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171988666057587</t>
   </si>
   <si>
     <t xml:space="preserve">0.170458003878593</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">0.173241004347801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175676122307777</t>
+    <t xml:space="preserve">0.175676107406616</t>
   </si>
   <si>
     <t xml:space="preserve">0.185068711638451</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">0.187712550163269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184581696987152</t>
+    <t xml:space="preserve">0.184581682085991</t>
   </si>
   <si>
     <t xml:space="preserve">0.189938932657242</t>
@@ -1079,82 +1079,82 @@
     <t xml:space="preserve">0.198635771870613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197383418679237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193417683243752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192443639039993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187851712107658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194809138774872</t>
+    <t xml:space="preserve">0.197383433580399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193417653441429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192443624138832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187851697206497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194809168577194</t>
   </si>
   <si>
     <t xml:space="preserve">0.191678300499916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188060402870178</t>
+    <t xml:space="preserve">0.188060417771339</t>
   </si>
   <si>
     <t xml:space="preserve">0.183468475937843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185694873332977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186112329363823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183816343545914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183677211403847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178528666496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176719754934311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172962710261345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177972078323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179363593459129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180755063891411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180894210934639</t>
+    <t xml:space="preserve">0.1856949031353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186112344264984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183816373348236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183677226305008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178528681397438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176719769835472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172962725162506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177972093224525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179363608360291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180755078792572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1808942258358</t>
   </si>
   <si>
     <t xml:space="preserve">0.177763357758522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174423769116402</t>
+    <t xml:space="preserve">0.174423784017563</t>
   </si>
   <si>
     <t xml:space="preserve">0.174145475029945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185416579246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185138285160065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182424858212471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180059343576431</t>
+    <t xml:space="preserve">0.18541656434536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185138270258904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182424873113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18005932867527</t>
   </si>
   <si>
     <t xml:space="preserve">0.180824652314186</t>
@@ -1169,28 +1169,28 @@
     <t xml:space="preserve">0.162804797291756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165587782859802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166074797511101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166144415736198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166770547628403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167396754026413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165935650467873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163918003439903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166492253541946</t>
+    <t xml:space="preserve">0.165587797760963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166074812412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166144385933876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166770562529564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167396724224091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165935665369034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163917988538742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166492268443108</t>
   </si>
   <si>
     <t xml:space="preserve">0.16753588616848</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">0.165448650717735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167327180504799</t>
+    <t xml:space="preserve">0.167327165603638</t>
   </si>
   <si>
     <t xml:space="preserve">0.165170341730118</t>
@@ -1211,22 +1211,22 @@
     <t xml:space="preserve">0.166700974106789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164405032992363</t>
+    <t xml:space="preserve">0.164405018091202</t>
   </si>
   <si>
     <t xml:space="preserve">0.163500547409058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166422694921494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166283532977104</t>
+    <t xml:space="preserve">0.166422680020332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166283518075943</t>
   </si>
   <si>
     <t xml:space="preserve">0.166909709572792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165518224239349</t>
+    <t xml:space="preserve">0.165518209338188</t>
   </si>
   <si>
     <t xml:space="preserve">0.168022900819778</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">0.16837078332901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164892047643661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173588871955872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172545254230499</t>
+    <t xml:space="preserve">0.1648920327425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173588886857033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17254526913166</t>
   </si>
   <si>
     <t xml:space="preserve">0.181589975953102</t>
@@ -1253,25 +1253,25 @@
     <t xml:space="preserve">0.179502725601196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178807005286217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18054635822773</t>
+    <t xml:space="preserve">0.178806975483894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180546343326569</t>
   </si>
   <si>
     <t xml:space="preserve">0.182981476187706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182633593678474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183329328894615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177415490150452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179154857993126</t>
+    <t xml:space="preserve">0.182633578777313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183329343795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17741547524929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179154843091965</t>
   </si>
   <si>
     <t xml:space="preserve">0.16454416513443</t>
@@ -1280,22 +1280,22 @@
     <t xml:space="preserve">0.162456929683685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161761179566383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161413297057152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157586693763733</t>
+    <t xml:space="preserve">0.161761194467545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161413311958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157586708664894</t>
   </si>
   <si>
     <t xml:space="preserve">0.159326061606407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154803693294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154107943177223</t>
+    <t xml:space="preserve">0.154803708195686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154107958078384</t>
   </si>
   <si>
     <t xml:space="preserve">0.152368575334549</t>
@@ -1310,31 +1310,31 @@
     <t xml:space="preserve">0.152716472744942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15619520843029</t>
+    <t xml:space="preserve">0.156195223331451</t>
   </si>
   <si>
     <t xml:space="preserve">0.156543061137199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155151590704918</t>
+    <t xml:space="preserve">0.155151560902596</t>
   </si>
   <si>
     <t xml:space="preserve">0.15584734082222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153064325451851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149585604667664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148194119334221</t>
+    <t xml:space="preserve">0.153064340353012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149585589766502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14819410443306</t>
   </si>
   <si>
     <t xml:space="preserve">0.147846236824989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146454736590385</t>
+    <t xml:space="preserve">0.146454751491547</t>
   </si>
   <si>
     <t xml:space="preserve">0.157934561371803</t>
@@ -1346,28 +1346,28 @@
     <t xml:space="preserve">0.158282458782196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157238811254501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161799818277359</t>
+    <t xml:space="preserve">0.157238826155663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161799848079681</t>
   </si>
   <si>
     <t xml:space="preserve">0.16322223842144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160021811723709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16144423186779</t>
+    <t xml:space="preserve">0.160021796822548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161444216966629</t>
   </si>
   <si>
     <t xml:space="preserve">0.160733014345169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155043348670006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157532572746277</t>
+    <t xml:space="preserve">0.155043363571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157532587647438</t>
   </si>
   <si>
     <t xml:space="preserve">0.156110182404518</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">0.149709299206734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147575661540031</t>
+    <t xml:space="preserve">0.147575676441193</t>
   </si>
   <si>
     <t xml:space="preserve">0.146508857607841</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">0.14579764008522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143308401107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138827815651894</t>
+    <t xml:space="preserve">0.143308416008949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138827785849571</t>
   </si>
   <si>
     <t xml:space="preserve">0.137974366545677</t>
@@ -1406,40 +1406,40 @@
     <t xml:space="preserve">0.139965742826462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142597213387489</t>
+    <t xml:space="preserve">0.142597198486328</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220075130463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145442053675652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138970047235489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140107989311218</t>
+    <t xml:space="preserve">0.14544203877449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13897006213665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140107974410057</t>
   </si>
   <si>
     <t xml:space="preserve">0.138401091098785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141957134008408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140676930546761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141245931386948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141103684902191</t>
+    <t xml:space="preserve">0.141957119107246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140676960349083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141245901584625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141103699803352</t>
   </si>
   <si>
     <t xml:space="preserve">0.139112308621407</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137263163924217</t>
+    <t xml:space="preserve">0.137263134121895</t>
   </si>
   <si>
     <t xml:space="preserve">0.136551946401596</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">0.140534728765488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140819206833839</t>
+    <t xml:space="preserve">0.140819177031517</t>
   </si>
   <si>
     <t xml:space="preserve">0.139823511242867</t>
@@ -1457,22 +1457,22 @@
     <t xml:space="preserve">0.13968126475811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142099365592003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141672655940056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14295282959938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143664017319679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147931277751923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148642480373383</t>
+    <t xml:space="preserve">0.142099380493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141672626137733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142952814698219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14366403222084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147931292653084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148642495274544</t>
   </si>
   <si>
     <t xml:space="preserve">0.152909725904465</t>
@@ -1484,7 +1484,7 @@
     <t xml:space="preserve">0.149353682994843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1443752348423</t>
+    <t xml:space="preserve">0.144375219941139</t>
   </si>
   <si>
     <t xml:space="preserve">0.141388162970543</t>
@@ -1493,10 +1493,10 @@
     <t xml:space="preserve">0.142241612076759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138258844614029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845048189163</t>
+    <t xml:space="preserve">0.13825885951519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845063090324</t>
   </si>
   <si>
     <t xml:space="preserve">0.136125221848488</t>
@@ -1508,16 +1508,16 @@
     <t xml:space="preserve">0.141530394554138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139254525303841</t>
+    <t xml:space="preserve">0.139254540205002</t>
   </si>
   <si>
     <t xml:space="preserve">0.14039246737957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138685569167137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132995918393135</t>
+    <t xml:space="preserve">0.138685554265976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132995903491974</t>
   </si>
   <si>
     <t xml:space="preserve">0.13498729467392</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">0.135129526257515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129439860582352</t>
+    <t xml:space="preserve">0.129439875483513</t>
   </si>
   <si>
     <t xml:space="preserve">0.125030368566513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12517261505127</t>
+    <t xml:space="preserve">0.125172629952431</t>
   </si>
   <si>
     <t xml:space="preserve">0.123465716838837</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">0.126310542225838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126595035195351</t>
+    <t xml:space="preserve">0.126595050096512</t>
   </si>
   <si>
     <t xml:space="preserve">0.123892441391945</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">0.119482949376106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117633804678917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116922609508038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112513117492199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926921367645</t>
+    <t xml:space="preserve">0.117633819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116922602057457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112513102591038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926913917065</t>
   </si>
   <si>
     <t xml:space="preserve">0.113793283700943</t>
@@ -1574,52 +1574,52 @@
     <t xml:space="preserve">0.115215711295605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114931203424931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116638138890266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119198478758335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119909666478634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11934070289135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123038992285728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124461397528648</t>
+    <t xml:space="preserve">0.114931233227253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116638131439686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119198486208916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119909673929214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11934071034193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123038977384567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124461404979229</t>
   </si>
   <si>
     <t xml:space="preserve">0.12005191296339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121616587042809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905369520187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060536682606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111659675836563</t>
+    <t xml:space="preserve">0.121616579592228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905376970768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060544133186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111659668385983</t>
   </si>
   <si>
     <t xml:space="preserve">0.114788979291916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113366574048996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116211391985416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754499316216</t>
+    <t xml:space="preserve">0.113366566598415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116211384534836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754506766796</t>
   </si>
   <si>
     <t xml:space="preserve">0.127590715885162</t>
@@ -1628,115 +1628,115 @@
     <t xml:space="preserve">0.127875208854675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127306237816811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124745897948742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120763130486012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12190106511116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119056232273579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114504493772984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117349334061146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646747708321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452788710594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120478674769402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120336405932903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120194166898727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120620876550674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487261235714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082073628902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111944153904915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112655363976955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110663965344429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110379502177238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111801907420158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370871007442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111232951283455</t>
+    <t xml:space="preserve">0.127306252717972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124745883047581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120763137936592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121901050209999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119056217372417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114504501223564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117349326610565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114646725356579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452803611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12047865241766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120336398482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120194159448147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120620884001255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487253785133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082066178322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111944146454334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112655349075794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11066397279501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110379487276077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111801892518997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370893359184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111232936382294</t>
   </si>
   <si>
     <t xml:space="preserve">0.116069160401821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121332094073296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122612275183201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124319173395634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121758840978146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122185535728931</t>
+    <t xml:space="preserve">0.121332086622715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12261226773262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124319158494473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121758826076984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122185543179512</t>
   </si>
   <si>
     <t xml:space="preserve">0.115642428398132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116495877504349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11862950026989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119767442345619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118202783167362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115357950329781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116780363023281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117491565644741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116282507777214</t>
+    <t xml:space="preserve">0.11649589240551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11862950772047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1197674497962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118202768266201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1153579428792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116780355572701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11749155074358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116282515227795</t>
   </si>
   <si>
     <t xml:space="preserve">0.118771746754646</t>
@@ -1748,31 +1748,31 @@
     <t xml:space="preserve">0.120549760758877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121629357337952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12126736342907</t>
+    <t xml:space="preserve">0.121629349887371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12126737087965</t>
   </si>
   <si>
     <t xml:space="preserve">0.122715331614017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121991351246834</t>
+    <t xml:space="preserve">0.121991343796253</t>
   </si>
   <si>
     <t xml:space="preserve">0.119095414876938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118009440600872</t>
+    <t xml:space="preserve">0.118009448051453</t>
   </si>
   <si>
     <t xml:space="preserve">0.116923466324806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114751510322094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115113496780396</t>
+    <t xml:space="preserve">0.114751502871513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115113489329815</t>
   </si>
   <si>
     <t xml:space="preserve">0.116561464965343</t>
@@ -1784,52 +1784,52 @@
     <t xml:space="preserve">0.116199485957623</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11583748459816</t>
+    <t xml:space="preserve">0.115837469696999</t>
   </si>
   <si>
     <t xml:space="preserve">0.113665536046028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114389516413212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114027515053749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1122175604105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110769592225552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111855566501617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107149682939053</t>
+    <t xml:space="preserve">0.114389531314373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114027507603168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11221756786108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110769599676132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111855551600456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107149675488472</t>
   </si>
   <si>
     <t xml:space="preserve">0.107873663306236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107511654496193</t>
+    <t xml:space="preserve">0.107511647045612</t>
   </si>
   <si>
     <t xml:space="preserve">0.10497771948576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108235649764538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106425687670708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108959637582302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109683625400066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11040760576725</t>
+    <t xml:space="preserve">0.108235642313957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106425680220127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108959630131721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109683610498905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110407613217831</t>
   </si>
   <si>
     <t xml:space="preserve">0.111493580043316</t>
@@ -1838,61 +1838,61 @@
     <t xml:space="preserve">0.111131586134434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113303549587727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108597636222839</t>
+    <t xml:space="preserve">0.113303542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108597658574581</t>
   </si>
   <si>
     <t xml:space="preserve">0.110045604407787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109321616590023</t>
+    <t xml:space="preserve">0.109321609139442</t>
   </si>
   <si>
     <t xml:space="preserve">0.115475490689278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118733435869217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120181381702423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119819387793541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120543390512466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118371419608593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117285452783108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123801313340664</t>
+    <t xml:space="preserve">0.118733420968056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120181396603584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11981938034296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120543383061886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118371427059174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117285460233688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123801320791245</t>
   </si>
   <si>
     <t xml:space="preserve">0.126335248351097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123439319431782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124525301158428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124887280166149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124163307249546</t>
+    <t xml:space="preserve">0.123439311981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124525308609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12488728761673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124163299798965</t>
   </si>
   <si>
     <t xml:space="preserve">0.1230773255229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144072860479355</t>
+    <t xml:space="preserve">0.144072875380516</t>
   </si>
   <si>
     <t xml:space="preserve">0.154208645224571</t>
@@ -1901,31 +1901,31 @@
     <t xml:space="preserve">0.146244823932648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1556566208601</t>
+    <t xml:space="preserve">0.155656605958939</t>
   </si>
   <si>
     <t xml:space="preserve">0.177376136183739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.19185583293438</t>
+    <t xml:space="preserve">0.191855818033218</t>
   </si>
   <si>
     <t xml:space="preserve">0.184615984559059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171584278345108</t>
+    <t xml:space="preserve">0.171584263443947</t>
   </si>
   <si>
     <t xml:space="preserve">0.166516378521919</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170136287808418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17375622689724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173032239079475</t>
+    <t xml:space="preserve">0.170136317610741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173756211996078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173032224178314</t>
   </si>
   <si>
     <t xml:space="preserve">0.168688327074051</t>
@@ -1937,13 +1937,13 @@
     <t xml:space="preserve">0.160724505782127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16144847869873</t>
+    <t xml:space="preserve">0.161448493599892</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172481417656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165792375802994</t>
+    <t xml:space="preserve">0.165792405605316</t>
   </si>
   <si>
     <t xml:space="preserve">0.165068402886391</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">0.163620442152023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179548099637032</t>
+    <t xml:space="preserve">0.17954808473587</t>
   </si>
   <si>
     <t xml:space="preserve">0.178100138902664</t>
@@ -1967,28 +1967,28 @@
     <t xml:space="preserve">0.156380608677864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153484657406807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149140760302544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146968796849251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15203669667244</t>
+    <t xml:space="preserve">0.153484642505646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149140745401382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14696878194809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152036681771278</t>
   </si>
   <si>
     <t xml:space="preserve">0.170860275626183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172308251261711</t>
+    <t xml:space="preserve">0.172308266162872</t>
   </si>
   <si>
     <t xml:space="preserve">0.169412314891815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145520851016045</t>
+    <t xml:space="preserve">0.145520836114883</t>
   </si>
   <si>
     <t xml:space="preserve">0.149864748120308</t>
@@ -2000,19 +2000,19 @@
     <t xml:space="preserve">0.138642981648445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139728978276253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136833012104034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131041139364243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122353345155716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106787666678429</t>
+    <t xml:space="preserve">0.13972894847393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136833027005196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131041154265404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122353352606297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10678768157959</t>
   </si>
   <si>
     <t xml:space="preserve">0.0912220254540443</t>
@@ -2027,70 +2027,70 @@
     <t xml:space="preserve">0.0977378785610199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.100633814930916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1013577952981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102443777024746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104253739118576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106063701212406</t>
+    <t xml:space="preserve">0.100633807480335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10135780274868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102443762123585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104253731667995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106063693761826</t>
   </si>
   <si>
     <t xml:space="preserve">0.102805763483047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.105701699852943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103529758751392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10657049715519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107004873454571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108018465340137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107294470071793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102081783115864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103819333016872</t>
+    <t xml:space="preserve">0.105701707303524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103529751300812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106570489704609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10700486600399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108018457889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107294462621212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102081790566444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103819340467453</t>
   </si>
   <si>
     <t xml:space="preserve">0.103674545884132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103964135050774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104832924902439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105412110686302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108452849090099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111203975975513</t>
+    <t xml:space="preserve">0.103964142501354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104832917451859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105412118136883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108452834188938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111203998327255</t>
   </si>
   <si>
     <t xml:space="preserve">0.10686007142067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106715276837349</t>
+    <t xml:space="preserve">0.10671528428793</t>
   </si>
   <si>
     <t xml:space="preserve">0.122208535671234</t>
@@ -2099,13 +2099,13 @@
     <t xml:space="preserve">0.108163252472878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109466418623924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103384949266911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104688115417957</t>
+    <t xml:space="preserve">0.109466411173344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103384956717491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104688130319118</t>
   </si>
   <si>
     <t xml:space="preserve">0.11048000305891</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">0.115692675113678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154932618141174</t>
+    <t xml:space="preserve">0.154932633042336</t>
   </si>
   <si>
     <t xml:space="preserve">0.139004975557327</t>
@@ -2135,19 +2135,19 @@
     <t xml:space="preserve">0.157104581594467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151674717664719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149502739310265</t>
+    <t xml:space="preserve">0.151674702763557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149502754211426</t>
   </si>
   <si>
     <t xml:space="preserve">0.150588735938072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148416757583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148054778575897</t>
+    <t xml:space="preserve">0.148416787385941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148054793477058</t>
   </si>
   <si>
     <t xml:space="preserve">0.144652053713799</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">0.141176924109459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148778766393661</t>
+    <t xml:space="preserve">0.148778781294823</t>
   </si>
   <si>
     <t xml:space="preserve">0.144796848297119</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">0.144362464547157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143638476729393</t>
+    <t xml:space="preserve">0.143638491630554</t>
   </si>
   <si>
     <t xml:space="preserve">0.142769694328308</t>
@@ -2174,10 +2174,10 @@
     <t xml:space="preserve">0.143928065896034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145158857107162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144507259130478</t>
+    <t xml:space="preserve">0.145158842206001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144507244229317</t>
   </si>
   <si>
     <t xml:space="preserve">0.147330790758133</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">0.140887334942818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900897026062</t>
+    <t xml:space="preserve">0.141900926828384</t>
   </si>
   <si>
     <t xml:space="preserve">0.147692784667015</t>
@@ -2201,13 +2201,13 @@
     <t xml:space="preserve">0.145882815122604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144217684864998</t>
+    <t xml:space="preserve">0.144217669963837</t>
   </si>
   <si>
     <t xml:space="preserve">0.142624899744987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143059298396111</t>
+    <t xml:space="preserve">0.143059313297272</t>
   </si>
   <si>
     <t xml:space="preserve">0.154570639133453</t>
@@ -2216,19 +2216,19 @@
     <t xml:space="preserve">0.14320407807827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143348887562752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143783286213875</t>
+    <t xml:space="preserve">0.143348872661591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143783271312714</t>
   </si>
   <si>
     <t xml:space="preserve">0.142480105161667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138136178255081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137556999921799</t>
+    <t xml:space="preserve">0.138136193156242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13755701482296</t>
   </si>
   <si>
     <t xml:space="preserve">0.158552542328835</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">0.153846651315689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150226727128029</t>
+    <t xml:space="preserve">0.15022674202919</t>
   </si>
   <si>
     <t xml:space="preserve">0.152398690581322</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">0.150950714945793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155294612050056</t>
+    <t xml:space="preserve">0.155294626951218</t>
   </si>
   <si>
     <t xml:space="preserve">0.160000517964363</t>
@@ -2261,25 +2261,25 @@
     <t xml:space="preserve">0.156742587685585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159276515245438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169774323701859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168326333165169</t>
+    <t xml:space="preserve">0.159276530146599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169774308800697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168326362967491</t>
   </si>
   <si>
     <t xml:space="preserve">0.173394232988358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167964339256287</t>
+    <t xml:space="preserve">0.167964354157448</t>
   </si>
   <si>
     <t xml:space="preserve">0.169050335884094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171222269535065</t>
+    <t xml:space="preserve">0.171222284436226</t>
   </si>
   <si>
     <t xml:space="preserve">0.171946257352829</t>
@@ -2297,25 +2297,25 @@
     <t xml:space="preserve">0.184254005551338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180272087454796</t>
+    <t xml:space="preserve">0.180272072553635</t>
   </si>
   <si>
     <t xml:space="preserve">0.179186105728149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177738130092621</t>
+    <t xml:space="preserve">0.177738144993782</t>
   </si>
   <si>
     <t xml:space="preserve">0.17556619644165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175928175449371</t>
+    <t xml:space="preserve">0.175928190350533</t>
   </si>
   <si>
     <t xml:space="preserve">0.175204187631607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174842193722725</t>
+    <t xml:space="preserve">0.174842208623886</t>
   </si>
   <si>
     <t xml:space="preserve">0.176652163267136</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">0.180560380220413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17977873980999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179387927055359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17782461643219</t>
+    <t xml:space="preserve">0.179778754711151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179387912154198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177824646234512</t>
   </si>
   <si>
     <t xml:space="preserve">0.175088867545128</t>
@@ -2345,31 +2345,31 @@
     <t xml:space="preserve">0.17352557182312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174698024988174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178997084498405</t>
+    <t xml:space="preserve">0.174698039889336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178997099399567</t>
   </si>
   <si>
     <t xml:space="preserve">0.17547969520092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177042976021767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17587049305439</t>
+    <t xml:space="preserve">0.177042990922928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175870507955551</t>
   </si>
   <si>
     <t xml:space="preserve">0.173916384577751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178606256842613</t>
+    <t xml:space="preserve">0.178606271743774</t>
   </si>
   <si>
     <t xml:space="preserve">0.171180620789528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169226497411728</t>
+    <t xml:space="preserve">0.169226512312889</t>
   </si>
   <si>
     <t xml:space="preserve">0.171962261199951</t>
@@ -2381,16 +2381,16 @@
     <t xml:space="preserve">0.168444871902466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170789808034897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17157144844532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173134729266167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172743916511536</t>
+    <t xml:space="preserve">0.170789822936058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171571463346481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173134744167328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172743931412697</t>
   </si>
   <si>
     <t xml:space="preserve">0.16961732506752</t>
@@ -2402,13 +2402,13 @@
     <t xml:space="preserve">0.172353103756905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168054044246674</t>
+    <t xml:space="preserve">0.168054029345512</t>
   </si>
   <si>
     <t xml:space="preserve">0.170398980379105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16766320168972</t>
+    <t xml:space="preserve">0.167663216590881</t>
   </si>
   <si>
     <t xml:space="preserve">0.166881561279297</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">0.166490748524666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16531828045845</t>
+    <t xml:space="preserve">0.165318295359612</t>
   </si>
   <si>
     <t xml:space="preserve">0.166099920868874</t>
@@ -2432,13 +2432,13 @@
     <t xml:space="preserve">0.16141003370285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162582531571388</t>
+    <t xml:space="preserve">0.162582516670227</t>
   </si>
   <si>
     <t xml:space="preserve">0.157501801848412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158283457159996</t>
+    <t xml:space="preserve">0.158283472061157</t>
   </si>
   <si>
     <t xml:space="preserve">0.160628408193588</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">0.164927437901497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168835684657097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160237565636635</t>
+    <t xml:space="preserve">0.168835699558258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160237580537796</t>
   </si>
   <si>
     <t xml:space="preserve">0.162973329424858</t>
@@ -2462,13 +2462,13 @@
     <t xml:space="preserve">0.164145797491074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161800861358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159455925226212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158674284815788</t>
+    <t xml:space="preserve">0.161800876259804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15945591032505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158674269914627</t>
   </si>
   <si>
     <t xml:space="preserve">0.159846752882004</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">0.159065097570419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161019220948219</t>
+    <t xml:space="preserve">0.161019206047058</t>
   </si>
   <si>
     <t xml:space="preserve">0.16336415708065</t>
@@ -2486,22 +2486,22 @@
     <t xml:space="preserve">0.182905316352844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18603190779686</t>
+    <t xml:space="preserve">0.186031922698021</t>
   </si>
   <si>
     <t xml:space="preserve">0.184468612074852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184859439730644</t>
+    <t xml:space="preserve">0.184859454631805</t>
   </si>
   <si>
     <t xml:space="preserve">0.182123675942421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180169552564621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181429505348206</t>
+    <t xml:space="preserve">0.180169567465782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181429490447044</t>
   </si>
   <si>
     <t xml:space="preserve">0.17890964448452</t>
@@ -2516,25 +2516,22 @@
     <t xml:space="preserve">0.178489670157433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178069695830345</t>
+    <t xml:space="preserve">0.178069680929184</t>
   </si>
   <si>
     <t xml:space="preserve">0.176389768719673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181009531021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177229732275009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174709901213646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180169567465782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177649706602097</t>
+    <t xml:space="preserve">0.181009516119957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177229717373848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174709886312485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177649721503258</t>
   </si>
   <si>
     <t xml:space="preserve">0.179749578237534</t>
@@ -2558,7 +2555,7 @@
     <t xml:space="preserve">0.176809772849083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183109402656555</t>
+    <t xml:space="preserve">0.183109387755394</t>
   </si>
   <si>
     <t xml:space="preserve">0.188149109482765</t>
@@ -2579,10 +2576,10 @@
     <t xml:space="preserve">0.173449948430061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174289897084236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169670179486275</t>
+    <t xml:space="preserve">0.174289911985397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169670164585114</t>
   </si>
   <si>
     <t xml:space="preserve">0.159254774451256</t>
@@ -2597,7 +2594,7 @@
     <t xml:space="preserve">0.172190025448799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17386993765831</t>
+    <t xml:space="preserve">0.173869922757149</t>
   </si>
   <si>
     <t xml:space="preserve">0.181849464774132</t>
@@ -2618,10 +2615,10 @@
     <t xml:space="preserve">0.184789299964905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186049208045006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191928878426552</t>
+    <t xml:space="preserve">0.186049222946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191928893327713</t>
   </si>
   <si>
     <t xml:space="preserve">0.187119722366333</t>
@@ -42631,7 +42628,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1511" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42657,7 +42654,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1512" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42683,7 +42680,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1513" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42761,7 +42758,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1516" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42787,7 +42784,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1517" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42813,7 +42810,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1518" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42839,7 +42836,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1519" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42891,7 +42888,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1521" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42917,7 +42914,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1522" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42995,7 +42992,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1525" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43021,7 +43018,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1526" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43047,7 +43044,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1527" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43073,7 +43070,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1528" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43125,7 +43122,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1530" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43151,7 +43148,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1531" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43203,7 +43200,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1533" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43359,7 +43356,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1539" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43437,7 +43434,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1542" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43463,7 +43460,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1543" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43489,7 +43486,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1544" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43567,7 +43564,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1547" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43593,7 +43590,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1548" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43645,7 +43642,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1550" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43671,7 +43668,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1551" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43775,7 +43772,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1555" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43801,7 +43798,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1556" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43827,7 +43824,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1557" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43853,7 +43850,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1558" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43879,7 +43876,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1559" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43905,7 +43902,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1560" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43931,7 +43928,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1561" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43983,7 +43980,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1563" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44009,7 +44006,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1564" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44035,7 +44032,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1565" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44113,7 +44110,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1568" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44139,7 +44136,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1569" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44165,7 +44162,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1570" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44191,7 +44188,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1571" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44217,7 +44214,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1572" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44243,7 +44240,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44269,7 +44266,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1574" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44295,7 +44292,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1575" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44321,7 +44318,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1576" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44347,7 +44344,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1577" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44373,7 +44370,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1578" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44425,7 +44422,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1580" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44451,7 +44448,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1581" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44503,7 +44500,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1583" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44607,7 +44604,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1587" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44633,7 +44630,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1588" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44659,7 +44656,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1589" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44711,7 +44708,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1591" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44737,7 +44734,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1592" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44763,7 +44760,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1593" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44789,7 +44786,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1594" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44841,7 +44838,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1596" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44893,7 +44890,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1598" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44919,7 +44916,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1599" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44945,7 +44942,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1600" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44971,7 +44968,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1601" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44997,7 +44994,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1602" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45023,7 +45020,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1603" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45049,7 +45046,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1604" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45075,7 +45072,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1605" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45101,7 +45098,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1606" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45127,7 +45124,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1607" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45153,7 +45150,7 @@
         <v>0.221499994397163</v>
       </c>
       <c r="G1608" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45179,7 +45176,7 @@
         <v>0.228499993681908</v>
       </c>
       <c r="G1609" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45205,7 +45202,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1610" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45231,7 +45228,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1611" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45257,7 +45254,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1612" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45283,7 +45280,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1613" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45309,7 +45306,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1614" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45335,7 +45332,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45361,7 +45358,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1616" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45387,7 +45384,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1617" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45413,7 +45410,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1618" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45439,7 +45436,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1619" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45465,7 +45462,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45491,7 +45488,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45517,7 +45514,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45543,7 +45540,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1623" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45569,7 +45566,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1624" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45595,7 +45592,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45621,7 +45618,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1626" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45647,7 +45644,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1627" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45673,7 +45670,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1628" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45699,7 +45696,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1629" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45725,7 +45722,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1630" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45751,7 +45748,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1631" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45777,7 +45774,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1632" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45803,7 +45800,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1633" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45829,7 +45826,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1634" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45855,7 +45852,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1635" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45881,7 +45878,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1636" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45907,7 +45904,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1637" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45933,7 +45930,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1638" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45959,7 +45956,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1639" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45985,7 +45982,7 @@
         <v>0.186599999666214</v>
       </c>
       <c r="G1640" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46011,7 +46008,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1641" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46037,7 +46034,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1642" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46063,7 +46060,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1643" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46089,7 +46086,7 @@
         <v>0.193200007081032</v>
       </c>
       <c r="G1644" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46115,7 +46112,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1645" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46141,7 +46138,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1646" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46167,7 +46164,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1647" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46193,7 +46190,7 @@
         <v>0.185000002384186</v>
       </c>
       <c r="G1648" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46219,7 +46216,7 @@
         <v>0.187199994921684</v>
       </c>
       <c r="G1649" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46245,7 +46242,7 @@
         <v>0.187399998307228</v>
       </c>
       <c r="G1650" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46271,7 +46268,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1651" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46297,7 +46294,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1652" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46323,7 +46320,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1653" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46349,7 +46346,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1654" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46375,7 +46372,7 @@
         <v>0.192800000309944</v>
       </c>
       <c r="G1655" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46401,7 +46398,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1656" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46427,7 +46424,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1657" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46453,7 +46450,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1658" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46479,7 +46476,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1659" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46505,7 +46502,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1660" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46531,7 +46528,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1661" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46557,7 +46554,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1662" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46583,7 +46580,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1663" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46609,7 +46606,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1664" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46635,7 +46632,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G1665" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46661,7 +46658,7 @@
         <v>0.197200000286102</v>
       </c>
       <c r="G1666" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46687,7 +46684,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1667" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46713,7 +46710,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1668" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46739,7 +46736,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1669" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46765,7 +46762,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1670" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46791,7 +46788,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1671" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46817,7 +46814,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1672" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46843,7 +46840,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1673" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46869,7 +46866,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1674" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46895,7 +46892,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1675" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46921,7 +46918,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1676" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46947,7 +46944,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1677" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46973,7 +46970,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1678" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46999,7 +46996,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1679" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47025,7 +47022,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1680" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47051,7 +47048,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1681" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47077,7 +47074,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1682" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47103,7 +47100,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1683" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47129,7 +47126,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1684" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47155,7 +47152,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1685" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47181,7 +47178,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1686" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47207,7 +47204,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1687" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47233,7 +47230,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1688" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47259,7 +47256,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1689" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47285,7 +47282,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1690" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47311,7 +47308,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1691" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47337,7 +47334,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1692" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47363,7 +47360,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47389,7 +47386,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1694" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47415,7 +47412,7 @@
         <v>0.190599992871284</v>
       </c>
       <c r="G1695" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47441,7 +47438,7 @@
         <v>0.19140000641346</v>
       </c>
       <c r="G1696" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47467,7 +47464,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1697" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47493,7 +47490,7 @@
         <v>0.191799998283386</v>
       </c>
       <c r="G1698" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47519,7 +47516,7 @@
         <v>0.191599994897842</v>
       </c>
       <c r="G1699" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47545,7 +47542,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1700" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47571,7 +47568,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1701" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47597,7 +47594,7 @@
         <v>0.190799996256828</v>
       </c>
       <c r="G1702" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47623,7 +47620,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1703" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47649,7 +47646,7 @@
         <v>0.193800002336502</v>
       </c>
       <c r="G1704" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47675,7 +47672,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1705" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47701,7 +47698,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1706" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47727,7 +47724,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1707" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47753,7 +47750,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1708" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47779,7 +47776,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1709" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47805,7 +47802,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1710" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47831,7 +47828,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1711" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47857,7 +47854,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1712" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47883,7 +47880,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1713" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47909,7 +47906,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1714" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47935,7 +47932,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1715" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47961,7 +47958,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1716" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47987,7 +47984,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1717" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48013,7 +48010,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1718" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48039,7 +48036,7 @@
         <v>0.192399993538857</v>
       </c>
       <c r="G1719" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48065,7 +48062,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1720" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48091,7 +48088,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1721" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48117,7 +48114,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1722" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48143,7 +48140,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1723" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48169,7 +48166,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1724" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48195,7 +48192,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1725" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48221,7 +48218,7 @@
         <v>0.187000006437302</v>
       </c>
       <c r="G1726" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48247,7 +48244,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1727" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48273,7 +48270,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1728" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48299,7 +48296,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1729" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48325,7 +48322,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1730" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48351,7 +48348,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1731" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48377,7 +48374,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1732" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48403,7 +48400,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1733" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48429,7 +48426,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1734" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48455,7 +48452,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1735" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48481,7 +48478,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1736" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48507,7 +48504,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1737" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48533,7 +48530,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1738" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48559,7 +48556,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1739" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48585,7 +48582,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1740" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48611,7 +48608,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1741" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48637,7 +48634,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1742" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48663,7 +48660,7 @@
         <v>0.195600003004074</v>
       </c>
       <c r="G1743" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48689,7 +48686,7 @@
         <v>0.19480000436306</v>
       </c>
       <c r="G1744" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48715,7 +48712,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1745" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48741,7 +48738,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1746" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48767,7 +48764,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1747" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48793,7 +48790,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1748" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48819,7 +48816,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1749" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48845,7 +48842,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1750" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48871,7 +48868,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1751" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48897,7 +48894,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1752" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48923,7 +48920,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1753" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48949,7 +48946,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1754" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48975,7 +48972,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1755" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49001,7 +48998,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1756" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49027,7 +49024,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1757" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49053,7 +49050,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G1758" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49079,7 +49076,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1759" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49105,7 +49102,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1760" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49131,7 +49128,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1761" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49157,7 +49154,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1762" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49183,7 +49180,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1763" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49209,7 +49206,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1764" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49235,7 +49232,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1765" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49261,7 +49258,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1766" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49287,7 +49284,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1767" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49313,7 +49310,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1768" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49339,7 +49336,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1769" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49365,7 +49362,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1770" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49391,7 +49388,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1771" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49417,7 +49414,7 @@
         <v>0.194999992847443</v>
       </c>
       <c r="G1772" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49443,7 +49440,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1773" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49469,7 +49466,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1774" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49495,7 +49492,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1775" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49521,7 +49518,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1776" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49547,7 +49544,7 @@
         <v>0.195999994874001</v>
       </c>
       <c r="G1777" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49573,7 +49570,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1778" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49599,7 +49596,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1779" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49625,7 +49622,7 @@
         <v>0.195800006389618</v>
       </c>
       <c r="G1780" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49651,7 +49648,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1781" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49677,7 +49674,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1782" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49703,7 +49700,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1783" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49729,7 +49726,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1784" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49755,7 +49752,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1785" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49781,7 +49778,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1786" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49807,7 +49804,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1787" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49833,7 +49830,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1788" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49859,7 +49856,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1789" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49885,7 +49882,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1790" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49911,7 +49908,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1791" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49937,7 +49934,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1792" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49963,7 +49960,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1793" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49989,7 +49986,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1794" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50015,7 +50012,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1795" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50041,7 +50038,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50067,7 +50064,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1797" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50093,7 +50090,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1798" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50119,7 +50116,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1799" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50145,7 +50142,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1800" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50171,7 +50168,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1801" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50197,7 +50194,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1802" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50223,7 +50220,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1803" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50249,7 +50246,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1804" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50275,7 +50272,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1805" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50301,7 +50298,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1806" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50327,7 +50324,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1807" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50353,7 +50350,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1808" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50379,7 +50376,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1809" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50405,7 +50402,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1810" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50431,7 +50428,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1811" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50457,7 +50454,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1812" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50483,7 +50480,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1813" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50509,7 +50506,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1814" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50535,7 +50532,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1815" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50561,7 +50558,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1816" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50587,7 +50584,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1817" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50613,7 +50610,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1818" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50639,7 +50636,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1819" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50665,7 +50662,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1820" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50691,7 +50688,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1821" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50717,7 +50714,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1822" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50743,7 +50740,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1823" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50769,7 +50766,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1824" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50795,7 +50792,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1825" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50821,7 +50818,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1826" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50847,7 +50844,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1827" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50873,7 +50870,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1828" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50899,7 +50896,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1829" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50925,7 +50922,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1830" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50951,7 +50948,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1831" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50977,7 +50974,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1832" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51003,7 +51000,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1833" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51029,7 +51026,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1834" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51055,7 +51052,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1835" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51081,7 +51078,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1836" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51107,7 +51104,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1837" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51133,7 +51130,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1838" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51159,7 +51156,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1839" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51185,7 +51182,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1840" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51211,7 +51208,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1841" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51237,7 +51234,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1842" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51263,7 +51260,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1843" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51289,7 +51286,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1844" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51315,7 +51312,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1845" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51341,7 +51338,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1846" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51367,7 +51364,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1847" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51393,7 +51390,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1848" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51419,7 +51416,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1849" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51445,7 +51442,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1850" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51471,7 +51468,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1851" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51497,7 +51494,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G1852" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51523,7 +51520,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1853" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51549,7 +51546,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1854" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51575,7 +51572,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1855" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51601,7 +51598,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1856" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51627,7 +51624,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1857" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51653,7 +51650,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1858" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51679,7 +51676,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51705,7 +51702,7 @@
         <v>0.228000000119209</v>
       </c>
       <c r="G1860" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51731,7 +51728,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1861" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51757,7 +51754,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1862" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51783,7 +51780,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1863" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51809,7 +51806,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51835,7 +51832,7 @@
         <v>0.231000006198883</v>
       </c>
       <c r="G1865" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51861,7 +51858,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1866" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51887,7 +51884,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1867" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51913,7 +51910,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1868" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51939,7 +51936,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1869" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51965,7 +51962,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1870" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51991,7 +51988,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1871" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52017,7 +52014,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1872" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52043,7 +52040,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1873" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52069,7 +52066,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1874" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52095,7 +52092,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1875" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52121,7 +52118,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1876" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52147,7 +52144,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1877" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52173,7 +52170,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1878" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52199,7 +52196,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1879" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52225,7 +52222,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1880" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52251,7 +52248,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1881" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52277,7 +52274,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1882" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52303,7 +52300,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1883" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52329,7 +52326,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1884" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52355,7 +52352,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1885" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52381,7 +52378,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1886" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52407,7 +52404,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1887" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52433,7 +52430,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1888" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52459,7 +52456,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1889" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52485,7 +52482,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1890" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52511,7 +52508,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1891" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52537,7 +52534,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1892" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52563,7 +52560,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1893" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52589,7 +52586,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1894" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52615,7 +52612,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1895" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52641,7 +52638,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1896" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52667,7 +52664,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1897" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52693,7 +52690,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1898" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52719,7 +52716,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1899" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52745,7 +52742,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1900" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52771,7 +52768,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1901" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52797,7 +52794,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1902" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52823,7 +52820,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1903" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52849,7 +52846,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1904" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52875,7 +52872,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1905" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52901,7 +52898,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1906" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52927,7 +52924,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1907" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52953,7 +52950,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1908" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52979,7 +52976,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1909" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53005,7 +53002,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1910" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53031,7 +53028,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1911" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53057,7 +53054,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1912" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53083,7 +53080,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1913" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53109,7 +53106,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1914" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53135,7 +53132,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1915" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53161,7 +53158,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1916" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53187,7 +53184,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1917" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53213,7 +53210,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1918" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53239,7 +53236,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1919" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53265,7 +53262,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1920" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53291,7 +53288,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1921" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53317,7 +53314,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1922" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53343,7 +53340,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1923" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53369,7 +53366,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1924" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53395,7 +53392,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1925" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53421,7 +53418,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1926" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53447,7 +53444,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1927" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53473,7 +53470,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1928" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53499,7 +53496,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1929" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53525,7 +53522,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1930" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53551,7 +53548,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1931" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53577,7 +53574,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1932" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53603,7 +53600,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1933" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53629,7 +53626,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1934" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53655,7 +53652,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1935" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53681,7 +53678,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1936" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53707,7 +53704,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53733,7 +53730,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1938" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53759,7 +53756,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1939" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53785,7 +53782,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1940" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53811,7 +53808,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1941" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53837,7 +53834,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1942" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53863,7 +53860,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53889,7 +53886,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53915,7 +53912,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1945" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53941,7 +53938,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1946" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53967,7 +53964,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53993,7 +53990,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1948" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54019,7 +54016,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54045,7 +54042,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1950" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54071,7 +54068,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54097,7 +54094,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1952" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54123,7 +54120,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54149,7 +54146,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1954" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54175,7 +54172,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1955" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54201,7 +54198,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1956" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54227,7 +54224,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1957" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54253,7 +54250,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54279,7 +54276,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1959" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54305,7 +54302,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1960" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54331,7 +54328,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1961" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54357,7 +54354,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1962" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54383,7 +54380,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54409,7 +54406,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54435,7 +54432,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1965" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54461,7 +54458,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1966" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54487,7 +54484,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1967" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54513,7 +54510,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1968" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54539,7 +54536,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1969" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54565,7 +54562,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1970" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54591,7 +54588,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1971" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54617,7 +54614,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1972" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54643,7 +54640,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1973" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54669,7 +54666,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1974" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54695,7 +54692,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1975" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54721,7 +54718,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54747,7 +54744,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1977" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54773,7 +54770,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1978" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54799,7 +54796,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1979" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54825,7 +54822,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1980" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54851,7 +54848,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1981" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54877,7 +54874,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1982" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54903,7 +54900,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1983" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54929,7 +54926,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1984" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54955,7 +54952,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1985" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54981,7 +54978,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1986" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55007,7 +55004,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1987" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55033,7 +55030,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55059,7 +55056,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1989" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55085,7 +55082,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55111,7 +55108,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1991" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55137,7 +55134,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1992" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55163,7 +55160,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1993" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55189,7 +55186,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1994" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55215,7 +55212,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1995" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55241,7 +55238,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1996" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55267,7 +55264,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1997" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55293,7 +55290,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1998" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55319,7 +55316,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1999" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55345,7 +55342,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2000" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55371,7 +55368,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55397,7 +55394,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2002" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55423,7 +55420,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55449,7 +55446,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2004" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55475,7 +55472,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55501,7 +55498,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2006" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55527,7 +55524,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2007" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55553,7 +55550,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2008" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55579,7 +55576,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2009" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55605,7 +55602,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2010" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55631,7 +55628,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2011" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55657,7 +55654,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2012" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55683,7 +55680,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2013" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55709,7 +55706,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2014" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55735,7 +55732,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2015" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55761,7 +55758,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2016" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55787,7 +55784,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2017" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55813,7 +55810,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2018" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55839,7 +55836,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2019" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55865,7 +55862,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2020" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55891,7 +55888,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2021" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55917,7 +55914,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55943,7 +55940,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2023" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55969,7 +55966,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2024" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55995,7 +55992,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2025" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56021,7 +56018,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56047,7 +56044,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2027" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56073,7 +56070,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56099,7 +56096,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2029" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56125,7 +56122,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2030" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56151,7 +56148,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2031" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56177,7 +56174,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2032" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56203,7 +56200,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2033" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56229,7 +56226,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2034" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56255,7 +56252,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2035" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56281,7 +56278,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2036" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56307,7 +56304,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2037" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56333,7 +56330,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2038" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56359,7 +56356,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2039" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56385,7 +56382,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56411,7 +56408,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2041" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56437,7 +56434,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2042" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56463,7 +56460,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2043" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56489,7 +56486,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2044" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56515,7 +56512,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2045" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56541,7 +56538,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2046" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56567,7 +56564,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2047" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56593,7 +56590,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2048" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56619,7 +56616,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2049" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56645,7 +56642,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56671,7 +56668,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56697,7 +56694,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2052" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56723,7 +56720,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2053" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56749,7 +56746,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2054" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56775,7 +56772,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2055" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56801,7 +56798,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2056" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56827,7 +56824,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2057" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56853,7 +56850,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2058" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56879,7 +56876,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2059" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56905,7 +56902,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2060" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56931,7 +56928,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2061" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56957,7 +56954,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2062" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56983,7 +56980,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57009,7 +57006,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2064" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57035,7 +57032,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2065" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57061,7 +57058,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57087,7 +57084,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57113,7 +57110,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2068" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57139,7 +57136,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2069" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57165,7 +57162,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57191,7 +57188,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57217,7 +57214,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57243,7 +57240,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57269,7 +57266,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2074" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57295,7 +57292,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57321,7 +57318,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2076" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57347,7 +57344,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2077" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57373,7 +57370,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2078" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57399,7 +57396,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2079" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57425,7 +57422,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2080" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57451,7 +57448,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2081" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57477,7 +57474,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2082" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57503,7 +57500,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2083" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57529,7 +57526,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2084" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57555,7 +57552,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2085" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57581,7 +57578,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2086" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57607,7 +57604,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2087" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57633,7 +57630,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2088" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57659,7 +57656,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2089" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57685,7 +57682,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2090" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57711,7 +57708,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2091" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57737,7 +57734,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2092" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57763,7 +57760,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2093" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57789,7 +57786,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2094" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57815,7 +57812,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2095" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57841,7 +57838,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2096" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57867,7 +57864,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2097" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57893,7 +57890,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2098" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57919,7 +57916,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2099" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57945,7 +57942,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2100" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57971,7 +57968,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2101" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57997,7 +57994,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58023,7 +58020,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2103" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58049,7 +58046,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2104" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58075,7 +58072,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2105" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58101,7 +58098,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2106" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58127,7 +58124,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2107" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58153,7 +58150,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2108" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58179,7 +58176,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2109" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58205,7 +58202,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2110" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58231,7 +58228,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2111" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58257,7 +58254,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2112" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58283,7 +58280,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2113" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58309,7 +58306,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2114" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58335,7 +58332,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2115" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58361,7 +58358,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2116" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58387,7 +58384,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2117" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58413,7 +58410,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2118" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58439,7 +58436,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2119" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58465,7 +58462,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2120" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58491,7 +58488,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2121" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58517,7 +58514,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2122" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58543,7 +58540,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G2123" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58569,7 +58566,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2124" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58595,7 +58592,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2125" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58621,7 +58618,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2126" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58647,7 +58644,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2127" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58673,7 +58670,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2128" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58699,7 +58696,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2129" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58725,7 +58722,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2130" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58751,7 +58748,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2131" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58777,7 +58774,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2132" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58803,7 +58800,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2133" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58829,7 +58826,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2134" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58855,7 +58852,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2135" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58881,7 +58878,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2136" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58907,7 +58904,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2137" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58933,7 +58930,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2138" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58959,7 +58956,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2139" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58985,7 +58982,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2140" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59011,7 +59008,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2141" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59037,7 +59034,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2142" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59063,7 +59060,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2143" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59089,7 +59086,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2144" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59115,7 +59112,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2145" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59123,7 +59120,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6495023148</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>920071</v>
@@ -59141,9 +59138,35 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2146" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6493518519</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>328617</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>0.211999997496605</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.209999993443489</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>994</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -44,70 +44,70 @@
     <t xml:space="preserve">PRO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174941927194595</t>
+    <t xml:space="preserve">0.174941956996918</t>
   </si>
   <si>
     <t xml:space="preserve">0.171099305152893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16914427280426</t>
+    <t xml:space="preserve">0.169144243001938</t>
   </si>
   <si>
     <t xml:space="preserve">0.166178002953529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163481399416924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165908321738243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167324066162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162672430276871</t>
+    <t xml:space="preserve">0.163481414318085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165908336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167324036359787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162672445178032</t>
   </si>
   <si>
     <t xml:space="preserve">0.157144382596016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146627634763718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148515254259109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1383356153965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144740045070648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148313000798225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148380443453789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158223032951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152357921004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152088269591331</t>
+    <t xml:space="preserve">0.146627649664879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148515269160271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138335600495338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144740030169487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148313030600548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148380428552628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158223018050194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152357935905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152088239789009</t>
   </si>
   <si>
     <t xml:space="preserve">0.155054524540901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15438038110733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15033546090126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145481586456299</t>
+    <t xml:space="preserve">0.154380410909653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150335490703583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145481571555138</t>
   </si>
   <si>
     <t xml:space="preserve">0.142582759261131</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">0.142717570066452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131324455142021</t>
+    <t xml:space="preserve">0.131324425339699</t>
   </si>
   <si>
     <t xml:space="preserve">0.135504171252251</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">0.138874933123589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138200759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143459141254425</t>
+    <t xml:space="preserve">0.138200774788857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143459126353264</t>
   </si>
   <si>
     <t xml:space="preserve">0.14022321999073</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">0.137998521327972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144605174660683</t>
+    <t xml:space="preserve">0.144605189561844</t>
   </si>
   <si>
     <t xml:space="preserve">0.142515331506729</t>
@@ -152,55 +152,55 @@
     <t xml:space="preserve">0.141975998878479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143728792667389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144065856933594</t>
+    <t xml:space="preserve">0.14372880756855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144065886735916</t>
   </si>
   <si>
     <t xml:space="preserve">0.142987251281738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147706285119057</t>
+    <t xml:space="preserve">0.147706270217896</t>
   </si>
   <si>
     <t xml:space="preserve">0.153166905045509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154178142547607</t>
+    <t xml:space="preserve">0.154178127646446</t>
   </si>
   <si>
     <t xml:space="preserve">0.150942206382751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150672540068626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154717430472374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156470209360123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162402763962746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16449262201786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161796033382416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16085222363472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158088192343712</t>
+    <t xml:space="preserve">0.150672554969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154717445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156470239162445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162402749061584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164492651820183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161796018481255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160852208733559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158088207244873</t>
   </si>
   <si>
     <t xml:space="preserve">0.15909942984581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155526429414749</t>
+    <t xml:space="preserve">0.15552644431591</t>
   </si>
   <si>
     <t xml:space="preserve">0.154312953352928</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">0.15020065009594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150065809488297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149930983781815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146964743733406</t>
+    <t xml:space="preserve">0.150065824389458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149930968880653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146964728832245</t>
   </si>
   <si>
     <t xml:space="preserve">0.144268110394478</t>
@@ -242,64 +242,64 @@
     <t xml:space="preserve">0.156874731183052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155998319387436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156942158937454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152695015072823</t>
+    <t xml:space="preserve">0.155998304486275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156942129135132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1526949852705</t>
   </si>
   <si>
     <t xml:space="preserve">0.157009541988373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152560159564018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122473835945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154429942369461</t>
+    <t xml:space="preserve">0.152560144662857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122458934784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154429957270622</t>
   </si>
   <si>
     <t xml:space="preserve">0.150274872779846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150828897953033</t>
+    <t xml:space="preserve">0.150828883051872</t>
   </si>
   <si>
     <t xml:space="preserve">0.147781848907471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147712603211403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146812304854393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142657250165939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142103239893913</t>
+    <t xml:space="preserve">0.147712588310242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146812319755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142657265067101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142103254795074</t>
   </si>
   <si>
     <t xml:space="preserve">0.138155922293663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139817982912064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13988721370697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140579700469971</t>
+    <t xml:space="preserve">0.139817968010902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139887228608131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140579715371132</t>
   </si>
   <si>
     <t xml:space="preserve">0.141272231936455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139748722314835</t>
+    <t xml:space="preserve">0.139748692512512</t>
   </si>
   <si>
     <t xml:space="preserve">0.141202986240387</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">0.144042283296585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145427286624908</t>
+    <t xml:space="preserve">0.145427271723747</t>
   </si>
   <si>
     <t xml:space="preserve">0.144734799861908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145219534635544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147989585995674</t>
+    <t xml:space="preserve">0.145219549536705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147989600896835</t>
   </si>
   <si>
     <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147574096918106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1488898396492</t>
+    <t xml:space="preserve">0.147574082016945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148889869451523</t>
   </si>
   <si>
     <t xml:space="preserve">0.148128092288971</t>
@@ -335,22 +335,22 @@
     <t xml:space="preserve">0.144180789589882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146673828363419</t>
+    <t xml:space="preserve">0.146673813462257</t>
   </si>
   <si>
     <t xml:space="preserve">0.141826242208481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133654594421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132685109972954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134485632181168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121881939470768</t>
+    <t xml:space="preserve">0.133654624223709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132685095071793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134485617280006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121881924569607</t>
   </si>
   <si>
     <t xml:space="preserve">0.123890213668346</t>
@@ -359,58 +359,58 @@
     <t xml:space="preserve">0.126244738698006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123405441641808</t>
+    <t xml:space="preserve">0.12340547144413</t>
   </si>
   <si>
     <t xml:space="preserve">0.125898495316505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116341844201088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787826478481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122574456036091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111895561218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122920706868172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228175401688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118419378995895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11350254714489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110940270125866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118904136121273</t>
+    <t xml:space="preserve">0.116341836750507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787833929062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12257444858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111903011799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12292069196701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228182852268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419364094734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113502569496632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110940255224705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118904128670692</t>
   </si>
   <si>
     <t xml:space="preserve">0.122297428548336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12645249068737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124651998281479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126175493001938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130953833460808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128668561577797</t>
+    <t xml:space="preserve">0.126452505588531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124651975929737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126175507903099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130953818559647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128668531775475</t>
   </si>
   <si>
     <t xml:space="preserve">0.128460794687271</t>
@@ -425,13 +425,13 @@
     <t xml:space="preserve">0.126729503273964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128253042697906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130884572863579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13116155564785</t>
+    <t xml:space="preserve">0.128253027796745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130884557962418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131161585450172</t>
   </si>
   <si>
     <t xml:space="preserve">0.127976030111313</t>
@@ -440,34 +440,34 @@
     <t xml:space="preserve">0.120496898889542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118211641907692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172844707966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114956833422184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116618864238262</t>
+    <t xml:space="preserve">0.118211634457111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172874510288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114956811070442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116618856787682</t>
   </si>
   <si>
     <t xml:space="preserve">0.118627123534679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119804382324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765629827976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912410318851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718580782413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319640100002</t>
+    <t xml:space="preserve">0.119804374873638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765622377396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912417769432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718588232994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319625198841</t>
   </si>
   <si>
     <t xml:space="preserve">0.119250386953354</t>
@@ -479,40 +479,40 @@
     <t xml:space="preserve">0.121258661150932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122505202889442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197682201862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125552251935005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125690743327141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121743433177471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674165129662</t>
+    <t xml:space="preserve">0.122505187988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197712004185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552237033844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12569072842598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121743410825729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674180030823</t>
   </si>
   <si>
     <t xml:space="preserve">0.120150648057461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121120169758797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488632142544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665905833244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372322499752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926325321198</t>
+    <t xml:space="preserve">0.121120147407055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488609790802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665890932083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372329950333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926347672939</t>
   </si>
   <si>
     <t xml:space="preserve">0.117726869881153</t>
@@ -524,127 +524,127 @@
     <t xml:space="preserve">0.117103606462479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121189422905445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233838558197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118973389267921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118350125849247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12811453640461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126660257577896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124097973108292</t>
+    <t xml:space="preserve">0.121189415454865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233823657036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118973396718502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118350140750408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128114521503448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126660272479057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12409795820713</t>
   </si>
   <si>
     <t xml:space="preserve">0.125205978751183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123959481716156</t>
+    <t xml:space="preserve">0.123959474265575</t>
   </si>
   <si>
     <t xml:space="preserve">0.11703435331583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117796137928963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117934614419937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116480343043804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115095317363739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433316349983</t>
+    <t xml:space="preserve">0.117796130478382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117934621870518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116480350494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1150953322649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433293998241</t>
   </si>
   <si>
     <t xml:space="preserve">0.11149425804615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115441583096981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113571807742119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114679805934429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111771263182163</t>
+    <t xml:space="preserve">0.1154415756464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113571800291538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11467982083559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111771278083324</t>
   </si>
   <si>
     <t xml:space="preserve">0.111009500920773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111563518643379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112186782062054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117588378489017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327914297581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122020415961742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122435919940472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119942888617516</t>
+    <t xml:space="preserve">0.11156352609396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112186767160892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117588341236115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327936649323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122020423412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122435942292213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119942896068096</t>
   </si>
   <si>
     <t xml:space="preserve">0.124305717647076</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122851423919201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773926377296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596652686596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119527384638786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120358422398567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121812671422958</t>
+    <t xml:space="preserve">0.122851446270943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773918926716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596645236015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119527377188206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120358400046825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1218126937747</t>
   </si>
   <si>
     <t xml:space="preserve">0.14189550280571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169665172696114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15997003018856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15719997882843</t>
+    <t xml:space="preserve">0.169665202498436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159970015287399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157199993729591</t>
   </si>
   <si>
     <t xml:space="preserve">0.146119803190231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146466061472893</t>
+    <t xml:space="preserve">0.146466076374054</t>
   </si>
   <si>
     <t xml:space="preserve">0.148197337985039</t>
@@ -659,55 +659,55 @@
     <t xml:space="preserve">0.149928614497185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154360711574554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157476976513863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159900799393654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158031016588211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156507477164268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14736633002758</t>
+    <t xml:space="preserve">0.154360681772232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157476991415024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159900784492493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15803100168705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15650749206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147366315126419</t>
   </si>
   <si>
     <t xml:space="preserve">0.143349766731262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143696039915085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145358055830002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143626764416695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144319295883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137809678912163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139194712042809</t>
+    <t xml:space="preserve">0.143696025013924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145358040928841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143626779317856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144319280982018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137809693813324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139194697141647</t>
   </si>
   <si>
     <t xml:space="preserve">0.140164226293564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140510469675064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140441253781319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139540940523148</t>
+    <t xml:space="preserve">0.140510484576225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140441223978996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13954097032547</t>
   </si>
   <si>
     <t xml:space="preserve">0.138502195477486</t>
@@ -716,46 +716,46 @@
     <t xml:space="preserve">0.139679461717606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137117147445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139056220650673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144111543893814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144250005483627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145912051200867</t>
+    <t xml:space="preserve">0.13711716234684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144111514091492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14425003528595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145912066102028</t>
   </si>
   <si>
     <t xml:space="preserve">0.142588004469872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145981341600418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149028360843658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147851094603539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148058846592903</t>
+    <t xml:space="preserve">0.145981326699257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14902837574482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147851079702377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148058861494064</t>
   </si>
   <si>
     <t xml:space="preserve">0.150413379073143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148959130048752</t>
+    <t xml:space="preserve">0.148959100246429</t>
   </si>
   <si>
     <t xml:space="preserve">0.152075409889221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152352407574654</t>
+    <t xml:space="preserve">0.152352422475815</t>
   </si>
   <si>
     <t xml:space="preserve">0.155399456620216</t>
@@ -764,13 +764,13 @@
     <t xml:space="preserve">0.160870298743248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159139022231102</t>
+    <t xml:space="preserve">0.159139037132263</t>
   </si>
   <si>
     <t xml:space="preserve">0.158931255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155814960598946</t>
+    <t xml:space="preserve">0.155814945697784</t>
   </si>
   <si>
     <t xml:space="preserve">0.151936888694763</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">0.147297084331512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143142014741898</t>
+    <t xml:space="preserve">0.143142029643059</t>
   </si>
   <si>
     <t xml:space="preserve">0.141687735915184</t>
@@ -800,22 +800,22 @@
     <t xml:space="preserve">0.14972086250782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152213916182518</t>
+    <t xml:space="preserve">0.152213901281357</t>
   </si>
   <si>
     <t xml:space="preserve">0.152006164193153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146189078688622</t>
+    <t xml:space="preserve">0.146189048886299</t>
   </si>
   <si>
     <t xml:space="preserve">0.145773559808731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148474350571632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148472413420677</t>
+    <t xml:space="preserve">0.148474335670471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148472428321838</t>
   </si>
   <si>
     <t xml:space="preserve">0.146802619099617</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">0.144297912716866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147011339664459</t>
+    <t xml:space="preserve">0.147011324763298</t>
   </si>
   <si>
     <t xml:space="preserve">0.148541986942291</t>
@@ -836,13 +836,13 @@
     <t xml:space="preserve">0.148959442973137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145480692386627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145132824778557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146106868982315</t>
+    <t xml:space="preserve">0.145480707287788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145132839679718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146106854081154</t>
   </si>
   <si>
     <t xml:space="preserve">0.144506648182869</t>
@@ -851,34 +851,34 @@
     <t xml:space="preserve">0.14401963353157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143463030457497</t>
+    <t xml:space="preserve">0.143463045358658</t>
   </si>
   <si>
     <t xml:space="preserve">0.140749603509903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143045604228973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14019301533699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141236633062363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14151494204998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142071545124054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139497265219688</t>
+    <t xml:space="preserve">0.143045589327812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140193030238152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141236618161201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141514927148819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142071530222893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13949728012085</t>
   </si>
   <si>
     <t xml:space="preserve">0.139010265469551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14033217728138</t>
+    <t xml:space="preserve">0.140332162380219</t>
   </si>
   <si>
     <t xml:space="preserve">0.139149412512779</t>
@@ -887,55 +887,55 @@
     <t xml:space="preserve">0.137757897377014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137618765234947</t>
+    <t xml:space="preserve">0.137618750333786</t>
   </si>
   <si>
     <t xml:space="preserve">0.137062162160873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138175338506699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138244941830635</t>
+    <t xml:space="preserve">0.138175368309021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138244926929474</t>
   </si>
   <si>
     <t xml:space="preserve">0.142419412732124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140610471367836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141793251037598</t>
+    <t xml:space="preserve">0.140610456466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141793221235275</t>
   </si>
   <si>
     <t xml:space="preserve">0.141445368528366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14116707444191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14068004488945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140123426914215</t>
+    <t xml:space="preserve">0.141167059540749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140680029988289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140123441815376</t>
   </si>
   <si>
     <t xml:space="preserve">0.141584515571594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140053868293762</t>
+    <t xml:space="preserve">0.140053883194923</t>
   </si>
   <si>
     <t xml:space="preserve">0.139636427164078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139427706599236</t>
+    <t xml:space="preserve">0.139427691698074</t>
   </si>
   <si>
     <t xml:space="preserve">0.147289633750916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149655193090439</t>
+    <t xml:space="preserve">0.149655178189278</t>
   </si>
   <si>
     <t xml:space="preserve">0.149863913655281</t>
@@ -947,10 +947,10 @@
     <t xml:space="preserve">0.149724766612053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147985398769379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146246030926704</t>
+    <t xml:space="preserve">0.147985368967056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146246016025543</t>
   </si>
   <si>
     <t xml:space="preserve">0.147428795695305</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">0.151742413640022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152020737528801</t>
+    <t xml:space="preserve">0.15202072262764</t>
   </si>
   <si>
     <t xml:space="preserve">0.152577325701714</t>
@@ -977,22 +977,22 @@
     <t xml:space="preserve">0.152159884572029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150490060448647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151324972510338</t>
+    <t xml:space="preserve">0.150490075349808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151324957609177</t>
   </si>
   <si>
     <t xml:space="preserve">0.150977090001106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15035092830658</t>
+    <t xml:space="preserve">0.150350943207741</t>
   </si>
   <si>
     <t xml:space="preserve">0.149029016494751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148750722408295</t>
+    <t xml:space="preserve">0.148750737309456</t>
   </si>
   <si>
     <t xml:space="preserve">0.149098590016365</t>
@@ -1001,49 +1001,49 @@
     <t xml:space="preserve">0.151672840118408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166840121150017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169762268662453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168649092316628</t>
+    <t xml:space="preserve">0.166840136051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169762283563614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168649077415466</t>
   </si>
   <si>
     <t xml:space="preserve">0.166979283094406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160369694232941</t>
+    <t xml:space="preserve">0.160369709134102</t>
   </si>
   <si>
     <t xml:space="preserve">0.162317782640457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173797607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175954446196556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172893136739731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173936754465103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168718636035919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168509945273399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167675018310547</t>
+    <t xml:space="preserve">0.173797592520714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175954401493073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172893151640892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173936769366264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168718665838242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168509930372238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167675033211708</t>
   </si>
   <si>
     <t xml:space="preserve">0.168996959924698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16586609184742</t>
+    <t xml:space="preserve">0.165866076946259</t>
   </si>
   <si>
     <t xml:space="preserve">0.16419629752636</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">0.169275254011154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171988666057587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170458003878593</t>
+    <t xml:space="preserve">0.171988651156425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170458033680916</t>
   </si>
   <si>
     <t xml:space="preserve">0.173241004347801</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">0.175676107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185068711638451</t>
+    <t xml:space="preserve">0.185068726539612</t>
   </si>
   <si>
     <t xml:space="preserve">0.187712550163269</t>
@@ -1073,19 +1073,19 @@
     <t xml:space="preserve">0.184581682085991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189938932657242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198635771870613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197383433580399</t>
+    <t xml:space="preserve">0.189938947558403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.198635756969452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197383418679237</t>
   </si>
   <si>
     <t xml:space="preserve">0.193417653441429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192443624138832</t>
+    <t xml:space="preserve">0.192443609237671</t>
   </si>
   <si>
     <t xml:space="preserve">0.187851697206497</t>
@@ -1100,40 +1100,40 @@
     <t xml:space="preserve">0.188060417771339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183468475937843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1856949031353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186112344264984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183816373348236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183677226305008</t>
+    <t xml:space="preserve">0.183468505740166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185694888234138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186112329363823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183816358447075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183677211403847</t>
   </si>
   <si>
     <t xml:space="preserve">0.178528681397438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176719769835472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172962725162506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177972093224525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179363608360291</t>
+    <t xml:space="preserve">0.176719725131989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172962710261345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177972078323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179363593459129</t>
   </si>
   <si>
     <t xml:space="preserve">0.180755078792572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1808942258358</t>
+    <t xml:space="preserve">0.180894240736961</t>
   </si>
   <si>
     <t xml:space="preserve">0.177763357758522</t>
@@ -1145,19 +1145,19 @@
     <t xml:space="preserve">0.174145475029945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18541656434536</t>
+    <t xml:space="preserve">0.185416579246521</t>
   </si>
   <si>
     <t xml:space="preserve">0.185138270258904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182424873113632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18005932867527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180824652314186</t>
+    <t xml:space="preserve">0.182424858212471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180059313774109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180824667215347</t>
   </si>
   <si>
     <t xml:space="preserve">0.176023975014687</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">0.162804797291756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165587797760963</t>
+    <t xml:space="preserve">0.165587782859802</t>
   </si>
   <si>
     <t xml:space="preserve">0.166074812412262</t>
@@ -1187,28 +1187,28 @@
     <t xml:space="preserve">0.165935665369034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163917988538742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166492268443108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16753588616848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165448650717735</t>
+    <t xml:space="preserve">0.163918003439903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166492253541946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167535871267319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165448635816574</t>
   </si>
   <si>
     <t xml:space="preserve">0.167327165603638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165170341730118</t>
+    <t xml:space="preserve">0.165170326828957</t>
   </si>
   <si>
     <t xml:space="preserve">0.167466312646866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166700974106789</t>
+    <t xml:space="preserve">0.16670098900795</t>
   </si>
   <si>
     <t xml:space="preserve">0.164405018091202</t>
@@ -1220,19 +1220,19 @@
     <t xml:space="preserve">0.166422680020332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166283518075943</t>
+    <t xml:space="preserve">0.166283532977104</t>
   </si>
   <si>
     <t xml:space="preserve">0.166909709572792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165518209338188</t>
+    <t xml:space="preserve">0.165518224239349</t>
   </si>
   <si>
     <t xml:space="preserve">0.168022900819778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16837078332901</t>
+    <t xml:space="preserve">0.168370768427849</t>
   </si>
   <si>
     <t xml:space="preserve">0.1648920327425</t>
@@ -1241,25 +1241,25 @@
     <t xml:space="preserve">0.173588886857033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17254526913166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181589975953102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180198475718498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179502725601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178806975483894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180546343326569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182981476187706</t>
+    <t xml:space="preserve">0.172545239329338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181589961051941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180198490619659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179502710700035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178806990385056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18054635822773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182981461286545</t>
   </si>
   <si>
     <t xml:space="preserve">0.182633578777313</t>
@@ -1268,28 +1268,28 @@
     <t xml:space="preserve">0.183329343795776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17741547524929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179154843091965</t>
+    <t xml:space="preserve">0.177415490150452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179154857993126</t>
   </si>
   <si>
     <t xml:space="preserve">0.16454416513443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162456929683685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161761194467545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161413311958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157586708664894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159326061606407</t>
+    <t xml:space="preserve">0.162456944584846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161761164665222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161413297057152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157586693763733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15932609140873</t>
   </si>
   <si>
     <t xml:space="preserve">0.154803708195686</t>
@@ -1316,16 +1316,16 @@
     <t xml:space="preserve">0.156543061137199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155151560902596</t>
+    <t xml:space="preserve">0.155151605606079</t>
   </si>
   <si>
     <t xml:space="preserve">0.15584734082222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153064340353012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149585589766502</t>
+    <t xml:space="preserve">0.153064355254173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149585604667664</t>
   </si>
   <si>
     <t xml:space="preserve">0.14819410443306</t>
@@ -1337,7 +1337,7 @@
     <t xml:space="preserve">0.146454751491547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157934561371803</t>
+    <t xml:space="preserve">0.157934576272964</t>
   </si>
   <si>
     <t xml:space="preserve">0.16002182662487</t>
@@ -1358,10 +1358,10 @@
     <t xml:space="preserve">0.160021796822548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161444216966629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160733014345169</t>
+    <t xml:space="preserve">0.16144423186779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16073302924633</t>
   </si>
   <si>
     <t xml:space="preserve">0.155043363571167</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">0.155398964881897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153976529836655</t>
+    <t xml:space="preserve">0.153976544737816</t>
   </si>
   <si>
     <t xml:space="preserve">0.149709299206734</t>
@@ -1388,16 +1388,16 @@
     <t xml:space="preserve">0.147575676441193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146508857607841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14579764008522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143308416008949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138827785849571</t>
+    <t xml:space="preserve">0.146508872509003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145797654986382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14330843091011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138827800750732</t>
   </si>
   <si>
     <t xml:space="preserve">0.137974366545677</t>
@@ -1406,10 +1406,10 @@
     <t xml:space="preserve">0.139965742826462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142597198486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220075130463</t>
+    <t xml:space="preserve">0.142597213387489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220060229301</t>
   </si>
   <si>
     <t xml:space="preserve">0.14544203877449</t>
@@ -1418,49 +1418,49 @@
     <t xml:space="preserve">0.13897006213665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140107974410057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138401091098785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141957119107246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140676960349083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141245901584625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141103699803352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139112308621407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137263134121895</t>
+    <t xml:space="preserve">0.140107989311218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138401076197624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141957134008408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140676945447922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141245931386948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141103684902191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139112293720245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137263163924217</t>
   </si>
   <si>
     <t xml:space="preserve">0.136551946401596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140534728765488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140819177031517</t>
+    <t xml:space="preserve">0.140534698963165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140819191932678</t>
   </si>
   <si>
     <t xml:space="preserve">0.139823511242867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13968126475811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142099380493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141672626137733</t>
+    <t xml:space="preserve">0.139681249856949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142099365592003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141672641038895</t>
   </si>
   <si>
     <t xml:space="preserve">0.142952814698219</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">0.14366403222084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147931292653084</t>
+    <t xml:space="preserve">0.147931277751923</t>
   </si>
   <si>
     <t xml:space="preserve">0.148642495274544</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">0.152554124593735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149353682994843</t>
+    <t xml:space="preserve">0.149353668093681</t>
   </si>
   <si>
     <t xml:space="preserve">0.144375219941139</t>
@@ -1490,22 +1490,22 @@
     <t xml:space="preserve">0.141388162970543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142241612076759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13825885951519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845063090324</t>
+    <t xml:space="preserve">0.142241626977921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138258829712868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845048189163</t>
   </si>
   <si>
     <t xml:space="preserve">0.136125221848488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138543337583542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141530394554138</t>
+    <t xml:space="preserve">0.138543307781219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141530409455299</t>
   </si>
   <si>
     <t xml:space="preserve">0.139254540205002</t>
@@ -1520,25 +1520,25 @@
     <t xml:space="preserve">0.132995903491974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13498729467392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135129526257515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129439875483513</t>
+    <t xml:space="preserve">0.134987279772758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135129541158676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129439860582352</t>
   </si>
   <si>
     <t xml:space="preserve">0.125030368566513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125172629952431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123465716838837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123750194907188</t>
+    <t xml:space="preserve">0.12517261505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123465724289417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123750202357769</t>
   </si>
   <si>
     <t xml:space="preserve">0.126310542225838</t>
@@ -1550,43 +1550,43 @@
     <t xml:space="preserve">0.123892441391945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122327789664268</t>
+    <t xml:space="preserve">0.12232780456543</t>
   </si>
   <si>
     <t xml:space="preserve">0.119482949376106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117633819580078</t>
+    <t xml:space="preserve">0.117633804678917</t>
   </si>
   <si>
     <t xml:space="preserve">0.116922602057457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112513102591038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926913917065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113793283700943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115215711295605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114931233227253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116638131439686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119198486208916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119909673929214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11934071034193</t>
+    <t xml:space="preserve">0.112513110041618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926928818226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113793291151524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115215703845024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114931225776672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116638123989105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119198471307755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119909681379795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119340717792511</t>
   </si>
   <si>
     <t xml:space="preserve">0.123038977384567</t>
@@ -1598,70 +1598,70 @@
     <t xml:space="preserve">0.12005191296339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121616579592228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905376970768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060544133186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111659668385983</t>
+    <t xml:space="preserve">0.121616564691067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905362069607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060521781445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111659675836563</t>
   </si>
   <si>
     <t xml:space="preserve">0.114788979291916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113366566598415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116211384534836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754506766796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127590715885162</t>
+    <t xml:space="preserve">0.113366559147835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116211391985416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754491865635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127590730786324</t>
   </si>
   <si>
     <t xml:space="preserve">0.127875208854675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127306252717972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124745883047581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120763137936592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121901050209999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119056217372417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114504501223564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117349326610565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646725356579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452803611755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12047865241766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120336398482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120194159448147</t>
+    <t xml:space="preserve">0.127306237816811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124745897948742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12076311558485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12190105766058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119056232273579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114504493772984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117349319159985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114646747708321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452788710594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120478644967079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120336413383484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120194166898727</t>
   </si>
   <si>
     <t xml:space="preserve">0.120620884001255</t>
@@ -1670,76 +1670,76 @@
     <t xml:space="preserve">0.118487253785133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113082066178322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111944146454334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112655349075794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11066397279501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110379487276077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111801892518997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370893359184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111232936382294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116069160401821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121332086622715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12261226773262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124319158494473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121758826076984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122185543179512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115642428398132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11649589240551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11862950772047</t>
+    <t xml:space="preserve">0.113082073628902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111944131553173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112655363976955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11066398024559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110379494726658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111801914870739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370878458023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111232943832874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116069167852402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121332094073296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122612275183201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124319165945053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121758840978146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122185558080673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115642435848713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116495884954929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11862950026989</t>
   </si>
   <si>
     <t xml:space="preserve">0.1197674497962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118202768266201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1153579428792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116780355572701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11749155074358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116282515227795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118771746754646</t>
+    <t xml:space="preserve">0.118202783167362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115357950329781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116780363023281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11749155819416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116282522678375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118771739304066</t>
   </si>
   <si>
     <t xml:space="preserve">0.119838558137417</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">0.120549760758877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121629349887371</t>
+    <t xml:space="preserve">0.121629357337952</t>
   </si>
   <si>
     <t xml:space="preserve">0.12126737087965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122715331614017</t>
+    <t xml:space="preserve">0.122715324163437</t>
   </si>
   <si>
     <t xml:space="preserve">0.121991343796253</t>
@@ -1766,10 +1766,10 @@
     <t xml:space="preserve">0.118009448051453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116923466324806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114751502871513</t>
+    <t xml:space="preserve">0.116923473775387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114751510322094</t>
   </si>
   <si>
     <t xml:space="preserve">0.115113489329815</t>
@@ -1778,133 +1778,133 @@
     <t xml:space="preserve">0.116561464965343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11945740878582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116199485957623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115837469696999</t>
+    <t xml:space="preserve">0.119457401335239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116199463605881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11583749204874</t>
   </si>
   <si>
     <t xml:space="preserve">0.113665536046028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114389531314373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114027507603168</t>
+    <t xml:space="preserve">0.114389523863792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11402752250433</t>
   </si>
   <si>
     <t xml:space="preserve">0.11221756786108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110769599676132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111855551600456</t>
+    <t xml:space="preserve">0.110769592225552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111855559051037</t>
   </si>
   <si>
     <t xml:space="preserve">0.107149675488472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107873663306236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107511647045612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10497771948576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108235642313957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106425680220127</t>
+    <t xml:space="preserve">0.107873655855656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107511661946774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104977712035179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108235657215118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106425695121288</t>
   </si>
   <si>
     <t xml:space="preserve">0.108959630131721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109683610498905</t>
+    <t xml:space="preserve">0.109683625400066</t>
   </si>
   <si>
     <t xml:space="preserve">0.110407613217831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111493580043316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111131586134434</t>
+    <t xml:space="preserve">0.111493587493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111131578683853</t>
   </si>
   <si>
     <t xml:space="preserve">0.113303542137146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108597658574581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110045604407787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109321609139442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115475490689278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118733420968056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120181396603584</t>
+    <t xml:space="preserve">0.10859764367342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110045596957207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109321624040604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115475498139858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118733413517475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120181381702423</t>
   </si>
   <si>
     <t xml:space="preserve">0.11981938034296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120543383061886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118371427059174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117285460233688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123801320791245</t>
+    <t xml:space="preserve">0.120543375611305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118371434509754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117285445332527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123801298439503</t>
   </si>
   <si>
     <t xml:space="preserve">0.126335248351097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123439311981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124525308609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12488728761673</t>
+    <t xml:space="preserve">0.123439319431782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124525301158428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12488729506731</t>
   </si>
   <si>
     <t xml:space="preserve">0.124163299798965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1230773255229</t>
+    <t xml:space="preserve">0.12307733297348</t>
   </si>
   <si>
     <t xml:space="preserve">0.144072875380516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154208645224571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146244823932648</t>
+    <t xml:space="preserve">0.154208660125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146244838833809</t>
   </si>
   <si>
     <t xml:space="preserve">0.155656605958939</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177376136183739</t>
+    <t xml:space="preserve">0.1773761510849</t>
   </si>
   <si>
     <t xml:space="preserve">0.191855818033218</t>
@@ -1916,31 +1916,31 @@
     <t xml:space="preserve">0.171584263443947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166516378521919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170136317610741</t>
+    <t xml:space="preserve">0.16651639342308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170136302709579</t>
   </si>
   <si>
     <t xml:space="preserve">0.173756211996078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173032224178314</t>
+    <t xml:space="preserve">0.173032239079475</t>
   </si>
   <si>
     <t xml:space="preserve">0.168688327074051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164344415068626</t>
+    <t xml:space="preserve">0.164344429969788</t>
   </si>
   <si>
     <t xml:space="preserve">0.160724505782127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161448493599892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172481417656</t>
+    <t xml:space="preserve">0.161448508501053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172466516495</t>
   </si>
   <si>
     <t xml:space="preserve">0.165792405605316</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">0.163620442152023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17954808473587</t>
+    <t xml:space="preserve">0.179548099637032</t>
   </si>
   <si>
     <t xml:space="preserve">0.178100138902664</t>
@@ -1967,61 +1967,61 @@
     <t xml:space="preserve">0.156380608677864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153484642505646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149140745401382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14696878194809</t>
+    <t xml:space="preserve">0.153484657406807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149140760302544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146968796849251</t>
   </si>
   <si>
     <t xml:space="preserve">0.152036681771278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170860275626183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172308266162872</t>
+    <t xml:space="preserve">0.170860305428505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172308251261711</t>
   </si>
   <si>
     <t xml:space="preserve">0.169412314891815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145520836114883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149864748120308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151312708854675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138642981648445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13972894847393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136833027005196</t>
+    <t xml:space="preserve">0.145520821213722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149864733219147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151312723755836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138642996549606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139728978276253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136833012104034</t>
   </si>
   <si>
     <t xml:space="preserve">0.131041154265404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122353352606297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10678768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0912220254540443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0970138981938362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0962899103760719</t>
+    <t xml:space="preserve">0.122353337705135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106787666678429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0912220180034637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0970138907432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0962899178266525</t>
   </si>
   <si>
     <t xml:space="preserve">0.0977378785610199</t>
@@ -2033,10 +2033,10 @@
     <t xml:space="preserve">0.10135780274868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.102443762123585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104253731667995</t>
+    <t xml:space="preserve">0.102443769574165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104253724217415</t>
   </si>
   <si>
     <t xml:space="preserve">0.106063693761826</t>
@@ -2045,37 +2045,37 @@
     <t xml:space="preserve">0.102805763483047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.105701707303524</t>
+    <t xml:space="preserve">0.105701699852943</t>
   </si>
   <si>
     <t xml:space="preserve">0.103529751300812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106570489704609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10700486600399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108018457889557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107294462621212</t>
+    <t xml:space="preserve">0.10657049715519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107004880905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108018465340137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107294470071793</t>
   </si>
   <si>
     <t xml:space="preserve">0.102081790566444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103819340467453</t>
+    <t xml:space="preserve">0.103819355368614</t>
   </si>
   <si>
     <t xml:space="preserve">0.103674545884132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103964142501354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104832917451859</t>
+    <t xml:space="preserve">0.103964135050774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10483293235302</t>
   </si>
   <si>
     <t xml:space="preserve">0.105412118136883</t>
@@ -2084,16 +2084,16 @@
     <t xml:space="preserve">0.108452834188938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111203998327255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10686007142067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10671528428793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122208535671234</t>
+    <t xml:space="preserve">0.111203990876675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10686007887125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10671529173851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122208543121815</t>
   </si>
   <si>
     <t xml:space="preserve">0.108163252472878</t>
@@ -2102,25 +2102,25 @@
     <t xml:space="preserve">0.109466411173344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103384956717491</t>
+    <t xml:space="preserve">0.103384949266911</t>
   </si>
   <si>
     <t xml:space="preserve">0.104688130319118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11048000305891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112796753644943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11033520847559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113955125212669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115692675113678</t>
+    <t xml:space="preserve">0.11047999560833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112796738743782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110335201025009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113955110311508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115692682564259</t>
   </si>
   <si>
     <t xml:space="preserve">0.154932633042336</t>
@@ -2129,25 +2129,25 @@
     <t xml:space="preserve">0.139004975557327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152760669589043</t>
+    <t xml:space="preserve">0.152760684490204</t>
   </si>
   <si>
     <t xml:space="preserve">0.157104581594467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151674702763557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149502754211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150588735938072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148416787385941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148054793477058</t>
+    <t xml:space="preserve">0.151674717664719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149502739310265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150588721036911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148416772484779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148054778575897</t>
   </si>
   <si>
     <t xml:space="preserve">0.144652053713799</t>
@@ -2156,16 +2156,16 @@
     <t xml:space="preserve">0.141176924109459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148778781294823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144796848297119</t>
+    <t xml:space="preserve">0.148778766393661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14479686319828</t>
   </si>
   <si>
     <t xml:space="preserve">0.144362464547157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143638491630554</t>
+    <t xml:space="preserve">0.143638476729393</t>
   </si>
   <si>
     <t xml:space="preserve">0.142769694328308</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">0.143928065896034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145158842206001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144507244229317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147330790758133</t>
+    <t xml:space="preserve">0.145158857107162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144507259130478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147330805659294</t>
   </si>
   <si>
     <t xml:space="preserve">0.143493682146072</t>
@@ -2189,28 +2189,28 @@
     <t xml:space="preserve">0.140163347125053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140887334942818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900926828384</t>
+    <t xml:space="preserve">0.140887349843979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900911927223</t>
   </si>
   <si>
     <t xml:space="preserve">0.147692784667015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145882815122604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144217669963837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142624899744987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143059313297272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154570639133453</t>
+    <t xml:space="preserve">0.145882830023766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144217684864998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142624914646149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143059298396111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154570624232292</t>
   </si>
   <si>
     <t xml:space="preserve">0.14320407807827</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">0.143348872661591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143783271312714</t>
+    <t xml:space="preserve">0.143783286213875</t>
   </si>
   <si>
     <t xml:space="preserve">0.142480105161667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138136193156242</t>
+    <t xml:space="preserve">0.138136208057404</t>
   </si>
   <si>
     <t xml:space="preserve">0.13755701482296</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">0.158914551138878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153846651315689</t>
+    <t xml:space="preserve">0.15384666621685</t>
   </si>
   <si>
     <t xml:space="preserve">0.15022674202919</t>
@@ -2258,19 +2258,19 @@
     <t xml:space="preserve">0.157466575503349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156742587685585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159276530146599</t>
+    <t xml:space="preserve">0.156742602586746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159276559948921</t>
   </si>
   <si>
     <t xml:space="preserve">0.169774308800697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168326362967491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173394232988358</t>
+    <t xml:space="preserve">0.16832634806633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173394247889519</t>
   </si>
   <si>
     <t xml:space="preserve">0.167964354157448</t>
@@ -2279,19 +2279,19 @@
     <t xml:space="preserve">0.169050335884094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171222284436226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171946257352829</t>
+    <t xml:space="preserve">0.171222269535065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17194627225399</t>
   </si>
   <si>
     <t xml:space="preserve">0.177014157176018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176290169358253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179910108447075</t>
+    <t xml:space="preserve">0.176290154457092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179910093545914</t>
   </si>
   <si>
     <t xml:space="preserve">0.184254005551338</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">0.179186105728149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177738144993782</t>
+    <t xml:space="preserve">0.177738130092621</t>
   </si>
   <si>
     <t xml:space="preserve">0.17556619644165</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">0.175204187631607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174842208623886</t>
+    <t xml:space="preserve">0.174842193722725</t>
   </si>
   <si>
     <t xml:space="preserve">0.176652163267136</t>
@@ -2327,22 +2327,22 @@
     <t xml:space="preserve">0.182514503598213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180560380220413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179778754711151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179387912154198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177824646234512</t>
+    <t xml:space="preserve">0.180560395121574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17977873980999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179387897253036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177824631333351</t>
   </si>
   <si>
     <t xml:space="preserve">0.175088867545128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17352557182312</t>
+    <t xml:space="preserve">0.173525586724281</t>
   </si>
   <si>
     <t xml:space="preserve">0.174698039889336</t>
@@ -2351,22 +2351,22 @@
     <t xml:space="preserve">0.178997099399567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17547969520092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177042990922928</t>
+    <t xml:space="preserve">0.175479680299759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177042976021767</t>
   </si>
   <si>
     <t xml:space="preserve">0.175870507955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173916384577751</t>
+    <t xml:space="preserve">0.173916399478912</t>
   </si>
   <si>
     <t xml:space="preserve">0.178606271743774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171180620789528</t>
+    <t xml:space="preserve">0.171180635690689</t>
   </si>
   <si>
     <t xml:space="preserve">0.169226512312889</t>
@@ -2378,31 +2378,31 @@
     <t xml:space="preserve">0.167272388935089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168444871902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170789822936058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171571463346481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173134744167328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172743931412697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16961732506752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170008152723312</t>
+    <t xml:space="preserve">0.168444857001305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170789808034897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17157144844532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173134729266167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172743916511536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169617310166359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170008167624474</t>
   </si>
   <si>
     <t xml:space="preserve">0.172353103756905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168054029345512</t>
+    <t xml:space="preserve">0.168054044246674</t>
   </si>
   <si>
     <t xml:space="preserve">0.170398980379105</t>
@@ -2411,25 +2411,25 @@
     <t xml:space="preserve">0.167663216590881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166881561279297</t>
+    <t xml:space="preserve">0.166881576180458</t>
   </si>
   <si>
     <t xml:space="preserve">0.165709093213081</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166490748524666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165318295359612</t>
+    <t xml:space="preserve">0.166490763425827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16531828045845</t>
   </si>
   <si>
     <t xml:space="preserve">0.166099920868874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164536640048027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16141003370285</t>
+    <t xml:space="preserve">0.164536625146866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161410048604012</t>
   </si>
   <si>
     <t xml:space="preserve">0.162582516670227</t>
@@ -2438,7 +2438,7 @@
     <t xml:space="preserve">0.157501801848412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158283472061157</t>
+    <t xml:space="preserve">0.158283457159996</t>
   </si>
   <si>
     <t xml:space="preserve">0.160628408193588</t>
@@ -2456,16 +2456,16 @@
     <t xml:space="preserve">0.160237580537796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162973329424858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164145797491074</t>
+    <t xml:space="preserve">0.162973344326019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164145812392235</t>
   </si>
   <si>
     <t xml:space="preserve">0.161800876259804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15945591032505</t>
+    <t xml:space="preserve">0.159455940127373</t>
   </si>
   <si>
     <t xml:space="preserve">0.158674269914627</t>
@@ -2474,13 +2474,13 @@
     <t xml:space="preserve">0.159846752882004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159065097570419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161019206047058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16336415708065</t>
+    <t xml:space="preserve">0.159065112471581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161019220948219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163364171981812</t>
   </si>
   <si>
     <t xml:space="preserve">0.182905316352844</t>
@@ -2489,19 +2489,19 @@
     <t xml:space="preserve">0.186031922698021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184468612074852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184859454631805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182123675942421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180169567465782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181429490447044</t>
+    <t xml:space="preserve">0.184468626976013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184859439730644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182123690843582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180169552564621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181429505348206</t>
   </si>
   <si>
     <t xml:space="preserve">0.17890964448452</t>
@@ -2513,28 +2513,28 @@
     <t xml:space="preserve">0.184369340538979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178489670157433</t>
+    <t xml:space="preserve">0.178489655256271</t>
   </si>
   <si>
     <t xml:space="preserve">0.178069680929184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176389768719673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181009516119957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177229717373848</t>
+    <t xml:space="preserve">0.176389783620834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181009501218796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177229732275009</t>
   </si>
   <si>
     <t xml:space="preserve">0.174709886312485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177649721503258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179749578237534</t>
+    <t xml:space="preserve">0.177649706602097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179749593138695</t>
   </si>
   <si>
     <t xml:space="preserve">0.182269439101219</t>
@@ -2543,7 +2543,7 @@
     <t xml:space="preserve">0.18058954179287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179329603910446</t>
+    <t xml:space="preserve">0.179329618811607</t>
   </si>
   <si>
     <t xml:space="preserve">0.17554983496666</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">0.188149109482765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187309145927429</t>
+    <t xml:space="preserve">0.18730916082859</t>
   </si>
   <si>
     <t xml:space="preserve">0.188569083809853</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">0.189829006791115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187729135155678</t>
+    <t xml:space="preserve">0.187729120254517</t>
   </si>
   <si>
     <t xml:space="preserve">0.173449948430061</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">0.174289911985397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169670164585114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159254774451256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163118556141853</t>
+    <t xml:space="preserve">0.169670179486275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159254789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163118541240692</t>
   </si>
   <si>
     <t xml:space="preserve">0.171350076794624</t>
@@ -2594,16 +2594,16 @@
     <t xml:space="preserve">0.172190025448799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173869922757149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181849464774132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183529376983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186469212174416</t>
+    <t xml:space="preserve">0.17386993765831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181849479675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183529362082481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186469197273254</t>
   </si>
   <si>
     <t xml:space="preserve">0.183949336409569</t>
@@ -2618,10 +2618,10 @@
     <t xml:space="preserve">0.186049222946167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191928893327713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187119722366333</t>
+    <t xml:space="preserve">0.191928878426552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187119737267494</t>
   </si>
   <si>
     <t xml:space="preserve">0.186245337128639</t>
@@ -2636,10 +2636,10 @@
     <t xml:space="preserve">0.17837581038475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183184966444969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180561780929565</t>
+    <t xml:space="preserve">0.18318498134613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180561795830727</t>
   </si>
   <si>
     <t xml:space="preserve">0.179687410593033</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">0.177501425147057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178813025355339</t>
+    <t xml:space="preserve">0.178813010454178</t>
   </si>
   <si>
     <t xml:space="preserve">0.179250210523605</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">0.180998995900154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181873396039009</t>
+    <t xml:space="preserve">0.181873381137848</t>
   </si>
   <si>
     <t xml:space="preserve">0.174878254532814</t>
@@ -2669,22 +2669,22 @@
     <t xml:space="preserve">0.163161411881447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167183622717857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168757528066635</t>
+    <t xml:space="preserve">0.167183607816696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168757513165474</t>
   </si>
   <si>
     <t xml:space="preserve">0.16788312792778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168932393193245</t>
+    <t xml:space="preserve">0.168932408094406</t>
   </si>
   <si>
     <t xml:space="preserve">0.167008727788925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16560971736908</t>
+    <t xml:space="preserve">0.165609702467918</t>
   </si>
   <si>
     <t xml:space="preserve">0.16176238656044</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">0.16386091709137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175752639770508</t>
+    <t xml:space="preserve">0.175752654671669</t>
   </si>
   <si>
     <t xml:space="preserve">0.174353614449501</t>
@@ -2720,25 +2720,25 @@
     <t xml:space="preserve">0.173479229211807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169107273221016</t>
+    <t xml:space="preserve">0.169107258319855</t>
   </si>
   <si>
     <t xml:space="preserve">0.172080188989639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170856043696404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172429949045181</t>
+    <t xml:space="preserve">0.170856058597565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172429963946342</t>
   </si>
   <si>
     <t xml:space="preserve">0.171555563807487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169631898403168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166484087705612</t>
+    <t xml:space="preserve">0.169631913304329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166484102606773</t>
   </si>
   <si>
     <t xml:space="preserve">0.174003854393959</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">0.171730443835258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16613432765007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170681178569794</t>
+    <t xml:space="preserve">0.166134342551231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170681163668633</t>
   </si>
   <si>
     <t xml:space="preserve">0.16805799305439</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">0.167358487844467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167708232998848</t>
+    <t xml:space="preserve">0.167708247900009</t>
   </si>
   <si>
     <t xml:space="preserve">0.167533367872238</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">0.166833847761154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169457033276558</t>
+    <t xml:space="preserve">0.169457018375397</t>
   </si>
   <si>
     <t xml:space="preserve">0.169806778430939</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">0.176627039909363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176189824938774</t>
+    <t xml:space="preserve">0.17531543970108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176189839839935</t>
   </si>
   <si>
     <t xml:space="preserve">0.174178749322891</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">0.170506283640862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171380683779716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171205803751945</t>
+    <t xml:space="preserve">0.171380668878555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171205818653107</t>
   </si>
   <si>
     <t xml:space="preserve">0.174703374505043</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">0.188868522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185808151960373</t>
+    <t xml:space="preserve">0.185808137059212</t>
   </si>
   <si>
     <t xml:space="preserve">0.189742892980576</t>
@@ -2867,28 +2867,28 @@
     <t xml:space="preserve">0.187994122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186682522296906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183622151613235</t>
+    <t xml:space="preserve">0.186682537198067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183622166514397</t>
   </si>
   <si>
     <t xml:space="preserve">0.184933751821518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185370951890945</t>
+    <t xml:space="preserve">0.185370936989784</t>
   </si>
   <si>
     <t xml:space="preserve">0.18449655175209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182310581207275</t>
+    <t xml:space="preserve">0.182310566306114</t>
   </si>
   <si>
     <t xml:space="preserve">0.196738019585609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194989249110222</t>
+    <t xml:space="preserve">0.194989264011383</t>
   </si>
   <si>
     <t xml:space="preserve">0.197612419724464</t>
@@ -59146,7 +59146,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.6493518519</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>328617</v>
@@ -59167,6 +59167,32 @@
         <v>994</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6496064815</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>766761</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>0.212999999523163</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.210999995470047</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.210999995470047</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>998</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174470037221909</t>
+    <t xml:space="preserve">0.17447005212307</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">0.174941956996918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171099305152893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169144243001938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166178002953529</t>
+    <t xml:space="preserve">0.171099290251732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16914427280426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166178017854691</t>
   </si>
   <si>
     <t xml:space="preserve">0.163481414318085</t>
@@ -65,49 +65,49 @@
     <t xml:space="preserve">0.167324036359787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162672445178032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157144382596016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146627649664879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148515269160271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138335600495338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144740030169487</t>
+    <t xml:space="preserve">0.16267241537571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157144397497177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146627634763718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148515254259109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1383356153965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144740015268326</t>
   </si>
   <si>
     <t xml:space="preserve">0.148313030600548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148380428552628</t>
+    <t xml:space="preserve">0.148380443453789</t>
   </si>
   <si>
     <t xml:space="preserve">0.158223018050194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152357935905457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152088239789009</t>
+    <t xml:space="preserve">0.152357921004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152088269591331</t>
   </si>
   <si>
     <t xml:space="preserve">0.155054524540901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154380410909653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150335490703583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145481571555138</t>
+    <t xml:space="preserve">0.154380366206169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15033546090126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14548160135746</t>
   </si>
   <si>
     <t xml:space="preserve">0.142582759261131</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">0.142717570066452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131324425339699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135504171252251</t>
+    <t xml:space="preserve">0.131324470043182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135504156351089</t>
   </si>
   <si>
     <t xml:space="preserve">0.128223359584808</t>
@@ -128,19 +128,19 @@
     <t xml:space="preserve">0.130785122513771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138874933123589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138200774788857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143459126353264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14022321999073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137998521327972</t>
+    <t xml:space="preserve">0.138874918222427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138200744986534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143459156155586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140223234891891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137998506426811</t>
   </si>
   <si>
     <t xml:space="preserve">0.144605189561844</t>
@@ -152,22 +152,22 @@
     <t xml:space="preserve">0.141975998878479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14372880756855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144065886735916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142987251281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147706270217896</t>
+    <t xml:space="preserve">0.143728822469711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144065871834755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142987221479416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147706285119057</t>
   </si>
   <si>
     <t xml:space="preserve">0.153166905045509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154178127646446</t>
+    <t xml:space="preserve">0.154178112745285</t>
   </si>
   <si>
     <t xml:space="preserve">0.150942206382751</t>
@@ -176,58 +176,58 @@
     <t xml:space="preserve">0.150672554969788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154717445373535</t>
+    <t xml:space="preserve">0.154717460274696</t>
   </si>
   <si>
     <t xml:space="preserve">0.156470239162445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162402749061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164492651820183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161796018481255</t>
+    <t xml:space="preserve">0.162402763962746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16449262201786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161796033382416</t>
   </si>
   <si>
     <t xml:space="preserve">0.160852208733559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158088207244873</t>
+    <t xml:space="preserve">0.158088192343712</t>
   </si>
   <si>
     <t xml:space="preserve">0.15909942984581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15552644431591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154312953352928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148987174034119</t>
+    <t xml:space="preserve">0.155526429414749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154312938451767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14898718893528</t>
   </si>
   <si>
     <t xml:space="preserve">0.15020065009594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150065824389458</t>
+    <t xml:space="preserve">0.150065809488297</t>
   </si>
   <si>
     <t xml:space="preserve">0.149930968880653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146964728832245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144268110394478</t>
+    <t xml:space="preserve">0.146964743733406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144268125295639</t>
   </si>
   <si>
     <t xml:space="preserve">0.142245665192604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138268187642097</t>
+    <t xml:space="preserve">0.138268172740936</t>
   </si>
   <si>
     <t xml:space="preserve">0.1478411257267</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">0.157279223203659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156874731183052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155998304486275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156942129135132</t>
+    <t xml:space="preserve">0.156874746084213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155998319387436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156942144036293</t>
   </si>
   <si>
     <t xml:space="preserve">0.1526949852705</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">0.157009541988373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152560144662857</t>
+    <t xml:space="preserve">0.152560189366341</t>
   </si>
   <si>
     <t xml:space="preserve">0.155122458934784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154429957270622</t>
+    <t xml:space="preserve">0.154429942369461</t>
   </si>
   <si>
     <t xml:space="preserve">0.150274872779846</t>
@@ -272,13 +272,13 @@
     <t xml:space="preserve">0.147781848907471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147712588310242</t>
+    <t xml:space="preserve">0.147712573409081</t>
   </si>
   <si>
     <t xml:space="preserve">0.146812319755554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142657265067101</t>
+    <t xml:space="preserve">0.142657250165939</t>
   </si>
   <si>
     <t xml:space="preserve">0.142103254795074</t>
@@ -293,22 +293,22 @@
     <t xml:space="preserve">0.139887228608131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140579715371132</t>
+    <t xml:space="preserve">0.140579730272293</t>
   </si>
   <si>
     <t xml:space="preserve">0.141272231936455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139748692512512</t>
+    <t xml:space="preserve">0.139748722314835</t>
   </si>
   <si>
     <t xml:space="preserve">0.141202986240387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144042283296585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145427271723747</t>
+    <t xml:space="preserve">0.144042298197746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14542730152607</t>
   </si>
   <si>
     <t xml:space="preserve">0.144734799861908</t>
@@ -317,25 +317,25 @@
     <t xml:space="preserve">0.145219549536705</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147989600896835</t>
+    <t xml:space="preserve">0.147989585995674</t>
   </si>
   <si>
     <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147574082016945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148889869451523</t>
+    <t xml:space="preserve">0.147574111819267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148889854550362</t>
   </si>
   <si>
     <t xml:space="preserve">0.148128092288971</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144180789589882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146673813462257</t>
+    <t xml:space="preserve">0.144180774688721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146673828363419</t>
   </si>
   <si>
     <t xml:space="preserve">0.141826242208481</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">0.133654624223709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132685095071793</t>
+    <t xml:space="preserve">0.132685109972954</t>
   </si>
   <si>
     <t xml:space="preserve">0.134485617280006</t>
@@ -353,121 +353,121 @@
     <t xml:space="preserve">0.121881924569607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123890213668346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126244738698006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12340547144413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125898495316505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116341836750507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787833929062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12257444858551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111903011799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12292069196701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228182852268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118419364094734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113502569496632</t>
+    <t xml:space="preserve">0.123890198767185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126244768500328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123405463993549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125898480415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116341844201088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787826478481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122574426233768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111895561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122920677065849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228190302849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419378995895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11350255459547</t>
   </si>
   <si>
     <t xml:space="preserve">0.110940255224705</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118904128670692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122297428548336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452505588531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124651975929737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126175507903099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130953818559647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128668531775475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128460794687271</t>
+    <t xml:space="preserve">0.118904136121273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297443449497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12645249068737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124651968479156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126175493001938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130953833460808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128668546676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12846077978611</t>
   </si>
   <si>
     <t xml:space="preserve">0.127768263220787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127422019839287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126729503273964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128253027796745</t>
+    <t xml:space="preserve">0.127422004938126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126729518175125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128253057599068</t>
   </si>
   <si>
     <t xml:space="preserve">0.130884557962418</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131161585450172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127976030111313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120496898889542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118211634457111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172874510288</t>
+    <t xml:space="preserve">0.131161570549011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127976045012474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120496913790703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11821161955595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172844707966</t>
   </si>
   <si>
     <t xml:space="preserve">0.114956811070442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116618856787682</t>
+    <t xml:space="preserve">0.116618849337101</t>
   </si>
   <si>
     <t xml:space="preserve">0.118627123534679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119804374873638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765622377396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912417769432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718588232994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319625198841</t>
+    <t xml:space="preserve">0.11980439722538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765644729137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912410318851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718580782413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319640100002</t>
   </si>
   <si>
     <t xml:space="preserve">0.119250386953354</t>
@@ -482,40 +482,40 @@
     <t xml:space="preserve">0.122505187988281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197712004185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125552237033844</t>
+    <t xml:space="preserve">0.123197704553604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552222132683</t>
   </si>
   <si>
     <t xml:space="preserve">0.12569072842598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121743410825729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674180030823</t>
+    <t xml:space="preserve">0.12174341827631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674165129662</t>
   </si>
   <si>
     <t xml:space="preserve">0.120150648057461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121120147407055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488609790802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665890932083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372329950333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926347672939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726869881153</t>
+    <t xml:space="preserve">0.121120154857635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488632142544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665905833244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372337400913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926332771778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726854979992</t>
   </si>
   <si>
     <t xml:space="preserve">0.116826593875885</t>
@@ -524,61 +524,61 @@
     <t xml:space="preserve">0.117103606462479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121189415454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233823657036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118973396718502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118350140750408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128114521503448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126660272479057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12409795820713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125205978751183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123959474265575</t>
+    <t xml:space="preserve">0.121189408004284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233831107616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11897337436676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118350125849247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12811453640461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126660242676735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124097988009453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125205993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123959466814995</t>
   </si>
   <si>
     <t xml:space="preserve">0.11703435331583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117796130478382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117934621870518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116480350494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1150953322649</t>
+    <t xml:space="preserve">0.117796123027802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117934629321098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116480343043804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11509532481432</t>
   </si>
   <si>
     <t xml:space="preserve">0.113433293998241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11149425804615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1154415756464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113571800291538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11467982083559</t>
+    <t xml:space="preserve">0.111494272947311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115441583096981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113571815192699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114679828286171</t>
   </si>
   <si>
     <t xml:space="preserve">0.111771278083324</t>
@@ -587,58 +587,58 @@
     <t xml:space="preserve">0.111009500920773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11156352609396</t>
+    <t xml:space="preserve">0.111563518643379</t>
   </si>
   <si>
     <t xml:space="preserve">0.112186767160892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117588341236115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327936649323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122020423412323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122435942292213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119942896068096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124305717647076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122851446270943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773918926716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596645236015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119527377188206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120358400046825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1218126937747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14189550280571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169665202498436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159970015287399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157199993729591</t>
+    <t xml:space="preserve">0.117588363587856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327929198742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122020430862904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122435949742794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119942888617516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124305732548237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122851438820362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773911476135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596652686596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119527399539948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120358407497406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121812671422958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141895487904549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169665187597275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159970045089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157200008630753</t>
   </si>
   <si>
     <t xml:space="preserve">0.146119803190231</t>
@@ -650,10 +650,10 @@
     <t xml:space="preserve">0.148197337985039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144942536950111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148682102560997</t>
+    <t xml:space="preserve">0.14494252204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148682087659836</t>
   </si>
   <si>
     <t xml:space="preserve">0.149928614497185</t>
@@ -662,19 +662,19 @@
     <t xml:space="preserve">0.154360681772232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157476991415024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159900784492493</t>
+    <t xml:space="preserve">0.157477006316185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159900799393654</t>
   </si>
   <si>
     <t xml:space="preserve">0.15803100168705</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15650749206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147366315126419</t>
+    <t xml:space="preserve">0.156507477164268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14736633002758</t>
   </si>
   <si>
     <t xml:space="preserve">0.143349766731262</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">0.143696025013924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145358040928841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143626779317856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144319280982018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137809693813324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139194697141647</t>
+    <t xml:space="preserve">0.145358070731163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143626764416695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144319295883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137809664011002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139194712042809</t>
   </si>
   <si>
     <t xml:space="preserve">0.140164226293564</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">0.140510484576225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140441223978996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13954097032547</t>
+    <t xml:space="preserve">0.140441238880157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139540955424309</t>
   </si>
   <si>
     <t xml:space="preserve">0.138502195477486</t>
@@ -722,37 +722,37 @@
     <t xml:space="preserve">0.139056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144111514091492</t>
+    <t xml:space="preserve">0.144111528992653</t>
   </si>
   <si>
     <t xml:space="preserve">0.14425003528595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145912066102028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142588004469872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145981326699257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14902837574482</t>
+    <t xml:space="preserve">0.145912051200867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142588019371033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145981311798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149028360843658</t>
   </si>
   <si>
     <t xml:space="preserve">0.147851079702377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148058861494064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150413379073143</t>
+    <t xml:space="preserve">0.148058831691742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150413393974304</t>
   </si>
   <si>
     <t xml:space="preserve">0.148959100246429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152075409889221</t>
+    <t xml:space="preserve">0.152075424790382</t>
   </si>
   <si>
     <t xml:space="preserve">0.152352422475815</t>
@@ -761,34 +761,34 @@
     <t xml:space="preserve">0.155399456620216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160870298743248</t>
+    <t xml:space="preserve">0.160870313644409</t>
   </si>
   <si>
     <t xml:space="preserve">0.159139037132263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158931255340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155814945697784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151936888694763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150967389345169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148612841963768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147920340299606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147297084331512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143142029643059</t>
+    <t xml:space="preserve">0.158931270241737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155814960598946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151936903595924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15096740424633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148612856864929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147920325398445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147297099232674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143142014741898</t>
   </si>
   <si>
     <t xml:space="preserve">0.141687735915184</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.146258309483528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14972086250782</t>
+    <t xml:space="preserve">0.149720877408981</t>
   </si>
   <si>
     <t xml:space="preserve">0.152213901281357</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">0.146189048886299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145773559808731</t>
+    <t xml:space="preserve">0.14577354490757</t>
   </si>
   <si>
     <t xml:space="preserve">0.148474335670471</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">0.145480707287788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145132839679718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146106854081154</t>
+    <t xml:space="preserve">0.145132824778557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146106868982315</t>
   </si>
   <si>
     <t xml:space="preserve">0.144506648182869</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">0.14401963353157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143463045358658</t>
+    <t xml:space="preserve">0.143463030457497</t>
   </si>
   <si>
     <t xml:space="preserve">0.140749603509903</t>
@@ -860,19 +860,19 @@
     <t xml:space="preserve">0.143045589327812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140193030238152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141236618161201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141514927148819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142071530222893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13949728012085</t>
+    <t xml:space="preserve">0.14019301533699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141236647963524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14151494204998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142071515321732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139497265219688</t>
   </si>
   <si>
     <t xml:space="preserve">0.139010265469551</t>
@@ -884,34 +884,34 @@
     <t xml:space="preserve">0.139149412512779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137757897377014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137618750333786</t>
+    <t xml:space="preserve">0.137757912278175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137618765234947</t>
   </si>
   <si>
     <t xml:space="preserve">0.137062162160873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138175368309021</t>
+    <t xml:space="preserve">0.13817535340786</t>
   </si>
   <si>
     <t xml:space="preserve">0.138244926929474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142419412732124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140610456466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141793221235275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141445368528366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141167059540749</t>
+    <t xml:space="preserve">0.142419397830963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140610471367836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141793251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141445353627205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14116707444191</t>
   </si>
   <si>
     <t xml:space="preserve">0.140680029988289</t>
@@ -923,16 +923,16 @@
     <t xml:space="preserve">0.141584515571594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140053883194923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139636427164078</t>
+    <t xml:space="preserve">0.140053868293762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139636412262917</t>
   </si>
   <si>
     <t xml:space="preserve">0.139427691698074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147289633750916</t>
+    <t xml:space="preserve">0.147289648652077</t>
   </si>
   <si>
     <t xml:space="preserve">0.149655178189278</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">0.149724766612053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147985368967056</t>
+    <t xml:space="preserve">0.147985398769379</t>
   </si>
   <si>
     <t xml:space="preserve">0.146246016025543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147428795695305</t>
+    <t xml:space="preserve">0.147428780794144</t>
   </si>
   <si>
     <t xml:space="preserve">0.149237737059593</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">0.150281354784966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148402854800224</t>
+    <t xml:space="preserve">0.148402824997902</t>
   </si>
   <si>
     <t xml:space="preserve">0.151742413640022</t>
@@ -974,31 +974,31 @@
     <t xml:space="preserve">0.152577325701714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152159884572029</t>
+    <t xml:space="preserve">0.152159869670868</t>
   </si>
   <si>
     <t xml:space="preserve">0.150490075349808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151324957609177</t>
+    <t xml:space="preserve">0.151324972510338</t>
   </si>
   <si>
     <t xml:space="preserve">0.150977090001106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150350943207741</t>
+    <t xml:space="preserve">0.15035092830658</t>
   </si>
   <si>
     <t xml:space="preserve">0.149029016494751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148750737309456</t>
+    <t xml:space="preserve">0.148750707507133</t>
   </si>
   <si>
     <t xml:space="preserve">0.149098590016365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151672840118408</t>
+    <t xml:space="preserve">0.151672855019569</t>
   </si>
   <si>
     <t xml:space="preserve">0.166840136051178</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">0.166979283094406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160369709134102</t>
+    <t xml:space="preserve">0.160369664430618</t>
   </si>
   <si>
     <t xml:space="preserve">0.162317782640457</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">0.173797592520714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175954401493073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172893151640892</t>
+    <t xml:space="preserve">0.175954416394234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17289312183857</t>
   </si>
   <si>
     <t xml:space="preserve">0.173936769366264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168718665838242</t>
+    <t xml:space="preserve">0.16871865093708</t>
   </si>
   <si>
     <t xml:space="preserve">0.168509930372238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167675033211708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168996959924698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165866076946259</t>
+    <t xml:space="preserve">0.167675018310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168996945023537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16586609184742</t>
   </si>
   <si>
     <t xml:space="preserve">0.16419629752636</t>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">0.171988651156425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170458033680916</t>
+    <t xml:space="preserve">0.170458018779755</t>
   </si>
   <si>
     <t xml:space="preserve">0.173241004347801</t>
@@ -1064,46 +1064,46 @@
     <t xml:space="preserve">0.175676107406616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185068726539612</t>
+    <t xml:space="preserve">0.185068711638451</t>
   </si>
   <si>
     <t xml:space="preserve">0.187712550163269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184581682085991</t>
+    <t xml:space="preserve">0.18458166718483</t>
   </si>
   <si>
     <t xml:space="preserve">0.189938947558403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.198635756969452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197383418679237</t>
+    <t xml:space="preserve">0.198635771870613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197383403778076</t>
   </si>
   <si>
     <t xml:space="preserve">0.193417653441429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192443609237671</t>
+    <t xml:space="preserve">0.192443639039993</t>
   </si>
   <si>
     <t xml:space="preserve">0.187851697206497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194809168577194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191678300499916</t>
+    <t xml:space="preserve">0.194809153676033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191678315401077</t>
   </si>
   <si>
     <t xml:space="preserve">0.188060417771339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183468505740166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185694888234138</t>
+    <t xml:space="preserve">0.183468490839005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185694873332977</t>
   </si>
   <si>
     <t xml:space="preserve">0.186112329363823</t>
@@ -1112,40 +1112,40 @@
     <t xml:space="preserve">0.183816358447075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183677211403847</t>
+    <t xml:space="preserve">0.183677226305008</t>
   </si>
   <si>
     <t xml:space="preserve">0.178528681397438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176719725131989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172962710261345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177972078323364</t>
+    <t xml:space="preserve">0.17671974003315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172962695360184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177972093224525</t>
   </si>
   <si>
     <t xml:space="preserve">0.179363593459129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180755078792572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180894240736961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177763357758522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174423784017563</t>
+    <t xml:space="preserve">0.18075504899025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1808942258358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177763342857361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174423769116402</t>
   </si>
   <si>
     <t xml:space="preserve">0.174145475029945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185416579246521</t>
+    <t xml:space="preserve">0.18541656434536</t>
   </si>
   <si>
     <t xml:space="preserve">0.185138270258904</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">0.182424858212471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180059313774109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180824667215347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176023975014687</t>
+    <t xml:space="preserve">0.18005932867527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180824652314186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176023989915848</t>
   </si>
   <si>
     <t xml:space="preserve">0.163013532757759</t>
@@ -1169,16 +1169,16 @@
     <t xml:space="preserve">0.162804797291756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165587782859802</t>
+    <t xml:space="preserve">0.165587797760963</t>
   </si>
   <si>
     <t xml:space="preserve">0.166074812412262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166144385933876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166770562529564</t>
+    <t xml:space="preserve">0.166144400835037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166770547628403</t>
   </si>
   <si>
     <t xml:space="preserve">0.167396724224091</t>
@@ -1187,43 +1187,43 @@
     <t xml:space="preserve">0.165935665369034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163918003439903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166492253541946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167535871267319</t>
+    <t xml:space="preserve">0.163917988538742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166492268443108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167535856366158</t>
   </si>
   <si>
     <t xml:space="preserve">0.165448635816574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167327165603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165170326828957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167466312646866</t>
+    <t xml:space="preserve">0.167327150702477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165170356631279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167466297745705</t>
   </si>
   <si>
     <t xml:space="preserve">0.16670098900795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164405018091202</t>
+    <t xml:space="preserve">0.164405032992363</t>
   </si>
   <si>
     <t xml:space="preserve">0.163500547409058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166422680020332</t>
+    <t xml:space="preserve">0.166422694921494</t>
   </si>
   <si>
     <t xml:space="preserve">0.166283532977104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166909709572792</t>
+    <t xml:space="preserve">0.166909724473953</t>
   </si>
   <si>
     <t xml:space="preserve">0.165518224239349</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">0.168022900819778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168370768427849</t>
+    <t xml:space="preserve">0.16837078332901</t>
   </si>
   <si>
     <t xml:space="preserve">0.1648920327425</t>
@@ -1241,55 +1241,55 @@
     <t xml:space="preserve">0.173588886857033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172545239329338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181589961051941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180198490619659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179502710700035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178806990385056</t>
+    <t xml:space="preserve">0.172545254230499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181589975953102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180198475718498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179502725601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178807005286217</t>
   </si>
   <si>
     <t xml:space="preserve">0.18054635822773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182981461286545</t>
+    <t xml:space="preserve">0.182981476187706</t>
   </si>
   <si>
     <t xml:space="preserve">0.182633578777313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183329343795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177415490150452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179154857993126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16454416513443</t>
+    <t xml:space="preserve">0.183329358696938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17741547524929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179154843091965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164544150233269</t>
   </si>
   <si>
     <t xml:space="preserve">0.162456944584846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161761164665222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161413297057152</t>
+    <t xml:space="preserve">0.161761194467545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161413311958313</t>
   </si>
   <si>
     <t xml:space="preserve">0.157586693763733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15932609140873</t>
+    <t xml:space="preserve">0.159326061606407</t>
   </si>
   <si>
     <t xml:space="preserve">0.154803708195686</t>
@@ -1307,31 +1307,31 @@
     <t xml:space="preserve">0.149933487176895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152716472744942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156195223331451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156543061137199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155151605606079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15584734082222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153064355254173</t>
+    <t xml:space="preserve">0.152716487646103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15619520843029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156543076038361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155151575803757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155847325921059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153064340353012</t>
   </si>
   <si>
     <t xml:space="preserve">0.149585604667664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14819410443306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147846236824989</t>
+    <t xml:space="preserve">0.148194119334221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147846221923828</t>
   </si>
   <si>
     <t xml:space="preserve">0.146454751491547</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">0.157934576272964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16002182662487</t>
+    <t xml:space="preserve">0.160021811723709</t>
   </si>
   <si>
     <t xml:space="preserve">0.158282458782196</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">0.157238826155663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161799848079681</t>
+    <t xml:space="preserve">0.16179983317852</t>
   </si>
   <si>
     <t xml:space="preserve">0.16322223842144</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">0.16144423186779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16073302924633</t>
+    <t xml:space="preserve">0.160733014345169</t>
   </si>
   <si>
     <t xml:space="preserve">0.155043363571167</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">0.153620943427086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155398964881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153976544737816</t>
+    <t xml:space="preserve">0.155398949980736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153976529836655</t>
   </si>
   <si>
     <t xml:space="preserve">0.149709299206734</t>
@@ -1394,13 +1394,13 @@
     <t xml:space="preserve">0.145797654986382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14330843091011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138827800750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137974366545677</t>
+    <t xml:space="preserve">0.143308416008949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138827815651894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137974381446838</t>
   </si>
   <si>
     <t xml:space="preserve">0.139965742826462</t>
@@ -1409,19 +1409,19 @@
     <t xml:space="preserve">0.142597213387489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220060229301</t>
+    <t xml:space="preserve">0.147220075130463</t>
   </si>
   <si>
     <t xml:space="preserve">0.14544203877449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13897006213665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140107989311218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138401076197624</t>
+    <t xml:space="preserve">0.138970047235489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140107974410057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138401091098785</t>
   </si>
   <si>
     <t xml:space="preserve">0.141957134008408</t>
@@ -1430,22 +1430,22 @@
     <t xml:space="preserve">0.140676945447922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141245931386948</t>
+    <t xml:space="preserve">0.141245901584625</t>
   </si>
   <si>
     <t xml:space="preserve">0.141103684902191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139112293720245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137263163924217</t>
+    <t xml:space="preserve">0.139112308621407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137263149023056</t>
   </si>
   <si>
     <t xml:space="preserve">0.136551946401596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140534698963165</t>
+    <t xml:space="preserve">0.140534713864326</t>
   </si>
   <si>
     <t xml:space="preserve">0.140819191932678</t>
@@ -1454,22 +1454,22 @@
     <t xml:space="preserve">0.139823511242867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139681249856949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142099365592003</t>
+    <t xml:space="preserve">0.13968126475811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142099380493164</t>
   </si>
   <si>
     <t xml:space="preserve">0.141672641038895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142952814698219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14366403222084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147931277751923</t>
+    <t xml:space="preserve">0.14295282959938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143664047122002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147931292653084</t>
   </si>
   <si>
     <t xml:space="preserve">0.148642495274544</t>
@@ -1478,52 +1478,52 @@
     <t xml:space="preserve">0.152909725904465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152554124593735</t>
+    <t xml:space="preserve">0.152554139494896</t>
   </si>
   <si>
     <t xml:space="preserve">0.149353668093681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144375219941139</t>
+    <t xml:space="preserve">0.1443752348423</t>
   </si>
   <si>
     <t xml:space="preserve">0.141388162970543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142241626977921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138258829712868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845048189163</t>
+    <t xml:space="preserve">0.142241612076759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13825885951519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845063090324</t>
   </si>
   <si>
     <t xml:space="preserve">0.136125221848488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138543307781219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141530409455299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139254540205002</t>
+    <t xml:space="preserve">0.138543337583542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141530394554138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139254525303841</t>
   </si>
   <si>
     <t xml:space="preserve">0.14039246737957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138685554265976</t>
+    <t xml:space="preserve">0.138685569167137</t>
   </si>
   <si>
     <t xml:space="preserve">0.132995903491974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134987279772758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135129541158676</t>
+    <t xml:space="preserve">0.13498729467392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135129526257515</t>
   </si>
   <si>
     <t xml:space="preserve">0.129439860582352</t>
@@ -1535,16 +1535,16 @@
     <t xml:space="preserve">0.12517261505127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123465724289417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123750202357769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126310542225838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126595050096512</t>
+    <t xml:space="preserve">0.123465716838837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12375020980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126310557126999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126595035195351</t>
   </si>
   <si>
     <t xml:space="preserve">0.123892441391945</t>
@@ -1553,91 +1553,91 @@
     <t xml:space="preserve">0.12232780456543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119482949376106</t>
+    <t xml:space="preserve">0.119482956826687</t>
   </si>
   <si>
     <t xml:space="preserve">0.117633804678917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116922602057457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112513110041618</t>
+    <t xml:space="preserve">0.116922616958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112513102591038</t>
   </si>
   <si>
     <t xml:space="preserve">0.115926928818226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113793291151524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115215703845024</t>
+    <t xml:space="preserve">0.113793276250362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115215711295605</t>
   </si>
   <si>
     <t xml:space="preserve">0.114931225776672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116638123989105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119198471307755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119909681379795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119340717792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123038977384567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124461404979229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12005191296339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121616564691067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905362069607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060521781445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111659675836563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114788979291916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113366559147835</t>
+    <t xml:space="preserve">0.116638131439686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119198486208916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119909673929214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11934071034193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123038992285728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124461397528648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120051920413971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121616579592228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905376970768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060544133186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111659668385983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114788971841335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113366566598415</t>
   </si>
   <si>
     <t xml:space="preserve">0.116211391985416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122754491865635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127590730786324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127875208854675</t>
+    <t xml:space="preserve">0.122754514217377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127590715885162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127875223755836</t>
   </si>
   <si>
     <t xml:space="preserve">0.127306237816811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124745897948742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12076311558485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12190105766058</t>
+    <t xml:space="preserve">0.124745883047581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12076310813427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12190106511116</t>
   </si>
   <si>
     <t xml:space="preserve">0.119056232273579</t>
@@ -1649,43 +1649,43 @@
     <t xml:space="preserve">0.117349319159985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114646747708321</t>
+    <t xml:space="preserve">0.11464674025774</t>
   </si>
   <si>
     <t xml:space="preserve">0.126452788710594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120478644967079</t>
+    <t xml:space="preserve">0.12047865241766</t>
   </si>
   <si>
     <t xml:space="preserve">0.120336413383484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120194166898727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120620884001255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487253785133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082073628902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111944131553173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112655363976955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11066398024559</t>
+    <t xml:space="preserve">0.120194159448147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120620876550674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487268686295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082088530064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111944139003754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112655356526375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11066397279501</t>
   </si>
   <si>
     <t xml:space="preserve">0.110379494726658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111801914870739</t>
+    <t xml:space="preserve">0.111801907420158</t>
   </si>
   <si>
     <t xml:space="preserve">0.112370878458023</t>
@@ -1697,49 +1697,49 @@
     <t xml:space="preserve">0.116069167852402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121332094073296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122612275183201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124319165945053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121758840978146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122185558080673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115642435848713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116495884954929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11862950026989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1197674497962</t>
+    <t xml:space="preserve">0.121332086622715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12261226773262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124319173395634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121758826076984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122185543179512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115642428398132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116495877504349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11862950772047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119767434895039</t>
   </si>
   <si>
     <t xml:space="preserve">0.118202783167362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115357950329781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116780363023281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11749155819416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116282522678375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118771739304066</t>
+    <t xml:space="preserve">0.115357935428619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116780340671539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117491565644741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116282507777214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118771731853485</t>
   </si>
   <si>
     <t xml:space="preserve">0.119838558137417</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">0.120549760758877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121629357337952</t>
+    <t xml:space="preserve">0.121629364788532</t>
   </si>
   <si>
     <t xml:space="preserve">0.12126737087965</t>
@@ -1757,46 +1757,46 @@
     <t xml:space="preserve">0.122715324163437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121991343796253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119095414876938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118009448051453</t>
+    <t xml:space="preserve">0.121991358697414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119095399975777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118009433150291</t>
   </si>
   <si>
     <t xml:space="preserve">0.116923473775387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114751510322094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115113489329815</t>
+    <t xml:space="preserve">0.114751502871513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115113496780396</t>
   </si>
   <si>
     <t xml:space="preserve">0.116561464965343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119457401335239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116199463605881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11583749204874</t>
+    <t xml:space="preserve">0.119457393884659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116199485957623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115837477147579</t>
   </si>
   <si>
     <t xml:space="preserve">0.113665536046028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114389523863792</t>
+    <t xml:space="preserve">0.114389516413212</t>
   </si>
   <si>
     <t xml:space="preserve">0.11402752250433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11221756786108</t>
+    <t xml:space="preserve">0.112217552959919</t>
   </si>
   <si>
     <t xml:space="preserve">0.110769592225552</t>
@@ -1808,25 +1808,25 @@
     <t xml:space="preserve">0.107149675488472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107873655855656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107511661946774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104977712035179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108235657215118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106425695121288</t>
+    <t xml:space="preserve">0.107873670756817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107511654496193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104977704584599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108235634863377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106425687670708</t>
   </si>
   <si>
     <t xml:space="preserve">0.108959630131721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109683625400066</t>
+    <t xml:space="preserve">0.109683610498905</t>
   </si>
   <si>
     <t xml:space="preserve">0.110407613217831</t>
@@ -1835,73 +1835,73 @@
     <t xml:space="preserve">0.111493587493896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111131578683853</t>
+    <t xml:space="preserve">0.111131593585014</t>
   </si>
   <si>
     <t xml:space="preserve">0.113303542137146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10859764367342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110045596957207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109321624040604</t>
+    <t xml:space="preserve">0.108597636222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110045611858368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109321616590023</t>
   </si>
   <si>
     <t xml:space="preserve">0.115475498139858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118733413517475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120181381702423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11981938034296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120543375611305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118371434509754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117285445332527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123801298439503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126335248351097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123439319431782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124525301158428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12488729506731</t>
+    <t xml:space="preserve">0.118733420968056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120181374251842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119819402694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120543383061886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118371427059174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117285460233688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123801305890083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126335263252258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123439326882362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124525308609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124887272715569</t>
   </si>
   <si>
     <t xml:space="preserve">0.124163299798965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12307733297348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144072875380516</t>
+    <t xml:space="preserve">0.1230773255229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144072860479355</t>
   </si>
   <si>
     <t xml:space="preserve">0.154208660125732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146244838833809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155656605958939</t>
+    <t xml:space="preserve">0.146244823932648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1556566208601</t>
   </si>
   <si>
     <t xml:space="preserve">0.1773761510849</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">0.184615984559059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171584263443947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16651639342308</t>
+    <t xml:space="preserve">0.171584278345108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166516378521919</t>
   </si>
   <si>
     <t xml:space="preserve">0.170136302709579</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">0.173756211996078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173032239079475</t>
+    <t xml:space="preserve">0.173032224178314</t>
   </si>
   <si>
     <t xml:space="preserve">0.168688327074051</t>
@@ -1937,31 +1937,31 @@
     <t xml:space="preserve">0.160724505782127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161448508501053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172466516495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165792405605316</t>
+    <t xml:space="preserve">0.161448493599892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172481417656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165792390704155</t>
   </si>
   <si>
     <t xml:space="preserve">0.165068402886391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157828569412231</t>
+    <t xml:space="preserve">0.15782855451107</t>
   </si>
   <si>
     <t xml:space="preserve">0.162896454334259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163620442152023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179548099637032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178100138902664</t>
+    <t xml:space="preserve">0.163620457053185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17954808473587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178100124001503</t>
   </si>
   <si>
     <t xml:space="preserve">0.156380608677864</t>
@@ -1970,7 +1970,7 @@
     <t xml:space="preserve">0.153484657406807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149140760302544</t>
+    <t xml:space="preserve">0.149140775203705</t>
   </si>
   <si>
     <t xml:space="preserve">0.146968796849251</t>
@@ -1979,67 +1979,67 @@
     <t xml:space="preserve">0.152036681771278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170860305428505</t>
+    <t xml:space="preserve">0.170860290527344</t>
   </si>
   <si>
     <t xml:space="preserve">0.172308251261711</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169412314891815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145520821213722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149864733219147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151312723755836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138642996549606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139728978276253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136833012104034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131041154265404</t>
+    <t xml:space="preserve">0.169412329792976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145520836114883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149864748120308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151312708854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138642981648445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139728963375092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136833027005196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131041139364243</t>
   </si>
   <si>
     <t xml:space="preserve">0.122353337705135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106787666678429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0912220180034637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0970138907432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0962899178266525</t>
+    <t xml:space="preserve">0.106787674129009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0912220254540443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0970138981938362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0962899103760719</t>
   </si>
   <si>
     <t xml:space="preserve">0.0977378785610199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.100633807480335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10135780274868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102443769574165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104253724217415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106063693761826</t>
+    <t xml:space="preserve">0.100633822381496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1013577952981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102443777024746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104253739118576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106063701212406</t>
   </si>
   <si>
     <t xml:space="preserve">0.102805763483047</t>
@@ -2048,25 +2048,25 @@
     <t xml:space="preserve">0.105701699852943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103529751300812</t>
+    <t xml:space="preserve">0.103529758751392</t>
   </si>
   <si>
     <t xml:space="preserve">0.10657049715519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107004880905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108018465340137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107294470071793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102081790566444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103819355368614</t>
+    <t xml:space="preserve">0.107004873454571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108018457889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107294462621212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102081775665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103819340467453</t>
   </si>
   <si>
     <t xml:space="preserve">0.103674545884132</t>
@@ -2075,28 +2075,28 @@
     <t xml:space="preserve">0.103964135050774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10483293235302</t>
+    <t xml:space="preserve">0.104832924902439</t>
   </si>
   <si>
     <t xml:space="preserve">0.105412118136883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108452834188938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111203990876675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10686007887125</t>
+    <t xml:space="preserve">0.108452841639519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111203983426094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106860086321831</t>
   </si>
   <si>
     <t xml:space="preserve">0.10671529173851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122208543121815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108163252472878</t>
+    <t xml:space="preserve">0.122208550572395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108163237571716</t>
   </si>
   <si>
     <t xml:space="preserve">0.109466411173344</t>
@@ -2105,19 +2105,19 @@
     <t xml:space="preserve">0.103384949266911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104688130319118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11047999560833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112796738743782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110335201025009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113955110311508</t>
+    <t xml:space="preserve">0.104688122868538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11048000305891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112796761095524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11033521592617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113955117762089</t>
   </si>
   <si>
     <t xml:space="preserve">0.115692682564259</t>
@@ -2135,19 +2135,19 @@
     <t xml:space="preserve">0.157104581594467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151674717664719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149502739310265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150588721036911</t>
+    <t xml:space="preserve">0.151674702763557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149502754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150588735938072</t>
   </si>
   <si>
     <t xml:space="preserve">0.148416772484779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148054778575897</t>
+    <t xml:space="preserve">0.148054793477058</t>
   </si>
   <si>
     <t xml:space="preserve">0.144652053713799</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">0.141176924109459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148778766393661</t>
+    <t xml:space="preserve">0.148778781294823</t>
   </si>
   <si>
     <t xml:space="preserve">0.14479686319828</t>
@@ -2174,22 +2174,22 @@
     <t xml:space="preserve">0.143928065896034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145158857107162</t>
+    <t xml:space="preserve">0.145158842206001</t>
   </si>
   <si>
     <t xml:space="preserve">0.144507259130478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147330805659294</t>
+    <t xml:space="preserve">0.147330790758133</t>
   </si>
   <si>
     <t xml:space="preserve">0.143493682146072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140163347125053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140887349843979</t>
+    <t xml:space="preserve">0.140163332223892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140887334942818</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900911927223</t>
@@ -2198,49 +2198,49 @@
     <t xml:space="preserve">0.147692784667015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145882830023766</t>
+    <t xml:space="preserve">0.145882815122604</t>
   </si>
   <si>
     <t xml:space="preserve">0.144217684864998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142624914646149</t>
+    <t xml:space="preserve">0.142624899744987</t>
   </si>
   <si>
     <t xml:space="preserve">0.143059298396111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154570624232292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14320407807827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143348872661591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143783286213875</t>
+    <t xml:space="preserve">0.154570639133453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143204092979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143348902463913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143783271312714</t>
   </si>
   <si>
     <t xml:space="preserve">0.142480105161667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138136208057404</t>
+    <t xml:space="preserve">0.138136193156242</t>
   </si>
   <si>
     <t xml:space="preserve">0.13755701482296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158552542328835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158914551138878</t>
+    <t xml:space="preserve">0.158552557229996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158914566040039</t>
   </si>
   <si>
     <t xml:space="preserve">0.15384666621685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15022674202919</t>
+    <t xml:space="preserve">0.150226727128029</t>
   </si>
   <si>
     <t xml:space="preserve">0.152398690581322</t>
@@ -2249,28 +2249,28 @@
     <t xml:space="preserve">0.150950714945793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155294626951218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160000517964363</t>
+    <t xml:space="preserve">0.155294641852379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160000532865524</t>
   </si>
   <si>
     <t xml:space="preserve">0.157466575503349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156742602586746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159276559948921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169774308800697</t>
+    <t xml:space="preserve">0.156742587685585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159276530146599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169774323701859</t>
   </si>
   <si>
     <t xml:space="preserve">0.16832634806633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173394247889519</t>
+    <t xml:space="preserve">0.173394218087196</t>
   </si>
   <si>
     <t xml:space="preserve">0.167964354157448</t>
@@ -2282,25 +2282,25 @@
     <t xml:space="preserve">0.171222269535065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17194627225399</t>
+    <t xml:space="preserve">0.171946257352829</t>
   </si>
   <si>
     <t xml:space="preserve">0.177014157176018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176290154457092</t>
+    <t xml:space="preserve">0.176290169358253</t>
   </si>
   <si>
     <t xml:space="preserve">0.179910093545914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184254005551338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180272072553635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179186105728149</t>
+    <t xml:space="preserve">0.184253990650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180272087454796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179186090826988</t>
   </si>
   <si>
     <t xml:space="preserve">0.177738130092621</t>
@@ -2309,13 +2309,13 @@
     <t xml:space="preserve">0.17556619644165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175928190350533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175204187631607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174842193722725</t>
+    <t xml:space="preserve">0.175928175449371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175204202532768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174842208623886</t>
   </si>
   <si>
     <t xml:space="preserve">0.176652163267136</t>
@@ -2330,10 +2330,10 @@
     <t xml:space="preserve">0.180560395121574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17977873980999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179387897253036</t>
+    <t xml:space="preserve">0.179778754711151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179387912154198</t>
   </si>
   <si>
     <t xml:space="preserve">0.177824631333351</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">0.175088867545128</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173525586724281</t>
+    <t xml:space="preserve">0.17352557182312</t>
   </si>
   <si>
     <t xml:space="preserve">0.174698039889336</t>
@@ -2351,7 +2351,7 @@
     <t xml:space="preserve">0.178997099399567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175479680299759</t>
+    <t xml:space="preserve">0.17547969520092</t>
   </si>
   <si>
     <t xml:space="preserve">0.177042976021767</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">0.175870507955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173916399478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178606271743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171180635690689</t>
+    <t xml:space="preserve">0.173916384577751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178606256842613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171180620789528</t>
   </si>
   <si>
     <t xml:space="preserve">0.169226512312889</t>
@@ -2378,31 +2378,31 @@
     <t xml:space="preserve">0.167272388935089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168444857001305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170789808034897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17157144844532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173134729266167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172743916511536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169617310166359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170008167624474</t>
+    <t xml:space="preserve">0.168444871902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170789822936058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171571463346481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173134744167328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172743931412697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16961732506752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170008152723312</t>
   </si>
   <si>
     <t xml:space="preserve">0.172353103756905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168054044246674</t>
+    <t xml:space="preserve">0.168054029345512</t>
   </si>
   <si>
     <t xml:space="preserve">0.170398980379105</t>
@@ -2411,13 +2411,13 @@
     <t xml:space="preserve">0.167663216590881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166881576180458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165709093213081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166490763425827</t>
+    <t xml:space="preserve">0.166881561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165709108114243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166490748524666</t>
   </si>
   <si>
     <t xml:space="preserve">0.16531828045845</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">0.166099920868874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164536625146866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161410048604012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162582516670227</t>
+    <t xml:space="preserve">0.164536640048027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161410018801689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162582531571388</t>
   </si>
   <si>
     <t xml:space="preserve">0.157501801848412</t>
@@ -2447,7 +2447,7 @@
     <t xml:space="preserve">0.163754984736443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164927437901497</t>
+    <t xml:space="preserve">0.164927452802658</t>
   </si>
   <si>
     <t xml:space="preserve">0.168835699558258</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">0.160237580537796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162973344326019</t>
+    <t xml:space="preserve">0.162973329424858</t>
   </si>
   <si>
     <t xml:space="preserve">0.164145812392235</t>
@@ -2465,22 +2465,22 @@
     <t xml:space="preserve">0.161800876259804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159455940127373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158674269914627</t>
+    <t xml:space="preserve">0.15945591032505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158674284815788</t>
   </si>
   <si>
     <t xml:space="preserve">0.159846752882004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159065112471581</t>
+    <t xml:space="preserve">0.159065097570419</t>
   </si>
   <si>
     <t xml:space="preserve">0.161019220948219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163364171981812</t>
+    <t xml:space="preserve">0.16336415708065</t>
   </si>
   <si>
     <t xml:space="preserve">0.182905316352844</t>
@@ -2495,13 +2495,13 @@
     <t xml:space="preserve">0.184859439730644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182123690843582</t>
+    <t xml:space="preserve">0.182123675942421</t>
   </si>
   <si>
     <t xml:space="preserve">0.180169552564621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181429505348206</t>
+    <t xml:space="preserve">0.181429490447044</t>
   </si>
   <si>
     <t xml:space="preserve">0.17890964448452</t>
@@ -2513,28 +2513,31 @@
     <t xml:space="preserve">0.184369340538979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178489655256271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178069680929184</t>
+    <t xml:space="preserve">0.178489670157433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178069695830345</t>
   </si>
   <si>
     <t xml:space="preserve">0.176389783620834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181009501218796</t>
+    <t xml:space="preserve">0.181009516119957</t>
   </si>
   <si>
     <t xml:space="preserve">0.177229732275009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174709886312485</t>
+    <t xml:space="preserve">0.174709901213646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180169567465782</t>
   </si>
   <si>
     <t xml:space="preserve">0.177649706602097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179749593138695</t>
+    <t xml:space="preserve">0.179749578237534</t>
   </si>
   <si>
     <t xml:space="preserve">0.182269439101219</t>
@@ -2543,7 +2546,7 @@
     <t xml:space="preserve">0.18058954179287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179329618811607</t>
+    <t xml:space="preserve">0.179329603910446</t>
   </si>
   <si>
     <t xml:space="preserve">0.17554983496666</t>
@@ -2561,7 +2564,7 @@
     <t xml:space="preserve">0.188149109482765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18730916082859</t>
+    <t xml:space="preserve">0.187309145927429</t>
   </si>
   <si>
     <t xml:space="preserve">0.188569083809853</t>
@@ -2570,13 +2573,13 @@
     <t xml:space="preserve">0.189829006791115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187729120254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173449948430061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174289911985397</t>
+    <t xml:space="preserve">0.187729135155678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1734499335289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174289897084236</t>
   </si>
   <si>
     <t xml:space="preserve">0.169670179486275</t>
@@ -2585,7 +2588,7 @@
     <t xml:space="preserve">0.159254789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163118541240692</t>
+    <t xml:space="preserve">0.163118556141853</t>
   </si>
   <si>
     <t xml:space="preserve">0.171350076794624</t>
@@ -2597,13 +2600,13 @@
     <t xml:space="preserve">0.17386993765831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181849479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183529362082481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186469197273254</t>
+    <t xml:space="preserve">0.181849464774132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183529376983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186469212174416</t>
   </si>
   <si>
     <t xml:space="preserve">0.183949336409569</t>
@@ -2621,7 +2624,7 @@
     <t xml:space="preserve">0.191928878426552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187119737267494</t>
+    <t xml:space="preserve">0.187119722366333</t>
   </si>
   <si>
     <t xml:space="preserve">0.186245337128639</t>
@@ -2636,10 +2639,10 @@
     <t xml:space="preserve">0.17837581038475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18318498134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180561795830727</t>
+    <t xml:space="preserve">0.183184966444969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180561780929565</t>
   </si>
   <si>
     <t xml:space="preserve">0.179687410593033</t>
@@ -2648,7 +2651,7 @@
     <t xml:space="preserve">0.177501425147057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178813010454178</t>
+    <t xml:space="preserve">0.178813025355339</t>
   </si>
   <si>
     <t xml:space="preserve">0.179250210523605</t>
@@ -2660,7 +2663,7 @@
     <t xml:space="preserve">0.180998995900154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181873381137848</t>
+    <t xml:space="preserve">0.181873396039009</t>
   </si>
   <si>
     <t xml:space="preserve">0.174878254532814</t>
@@ -2669,22 +2672,22 @@
     <t xml:space="preserve">0.163161411881447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167183607816696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168757513165474</t>
+    <t xml:space="preserve">0.167183622717857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168757528066635</t>
   </si>
   <si>
     <t xml:space="preserve">0.16788312792778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168932408094406</t>
+    <t xml:space="preserve">0.168932393193245</t>
   </si>
   <si>
     <t xml:space="preserve">0.167008727788925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165609702467918</t>
+    <t xml:space="preserve">0.16560971736908</t>
   </si>
   <si>
     <t xml:space="preserve">0.16176238656044</t>
@@ -2696,7 +2699,7 @@
     <t xml:space="preserve">0.16386091709137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175752654671669</t>
+    <t xml:space="preserve">0.175752639770508</t>
   </si>
   <si>
     <t xml:space="preserve">0.174353614449501</t>
@@ -2720,25 +2723,25 @@
     <t xml:space="preserve">0.173479229211807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169107258319855</t>
+    <t xml:space="preserve">0.169107273221016</t>
   </si>
   <si>
     <t xml:space="preserve">0.172080188989639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170856058597565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172429963946342</t>
+    <t xml:space="preserve">0.170856043696404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172429949045181</t>
   </si>
   <si>
     <t xml:space="preserve">0.171555563807487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169631913304329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166484102606773</t>
+    <t xml:space="preserve">0.169631898403168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166484087705612</t>
   </si>
   <si>
     <t xml:space="preserve">0.174003854393959</t>
@@ -2750,10 +2753,10 @@
     <t xml:space="preserve">0.171730443835258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166134342551231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170681163668633</t>
+    <t xml:space="preserve">0.16613432765007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170681178569794</t>
   </si>
   <si>
     <t xml:space="preserve">0.16805799305439</t>
@@ -2765,7 +2768,7 @@
     <t xml:space="preserve">0.167358487844467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167708247900009</t>
+    <t xml:space="preserve">0.167708232998848</t>
   </si>
   <si>
     <t xml:space="preserve">0.167533367872238</t>
@@ -2777,7 +2780,7 @@
     <t xml:space="preserve">0.166833847761154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169457018375397</t>
+    <t xml:space="preserve">0.169457033276558</t>
   </si>
   <si>
     <t xml:space="preserve">0.169806778430939</t>
@@ -2816,10 +2819,10 @@
     <t xml:space="preserve">0.176627039909363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17531543970108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176189839839935</t>
+    <t xml:space="preserve">0.175315454602242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176189824938774</t>
   </si>
   <si>
     <t xml:space="preserve">0.174178749322891</t>
@@ -2834,10 +2837,10 @@
     <t xml:space="preserve">0.170506283640862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171380668878555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171205818653107</t>
+    <t xml:space="preserve">0.171380683779716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171205803751945</t>
   </si>
   <si>
     <t xml:space="preserve">0.174703374505043</t>
@@ -2852,7 +2855,7 @@
     <t xml:space="preserve">0.188868522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185808137059212</t>
+    <t xml:space="preserve">0.185808151960373</t>
   </si>
   <si>
     <t xml:space="preserve">0.189742892980576</t>
@@ -2867,28 +2870,28 @@
     <t xml:space="preserve">0.187994122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186682537198067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183622166514397</t>
+    <t xml:space="preserve">0.186682522296906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183622151613235</t>
   </si>
   <si>
     <t xml:space="preserve">0.184933751821518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185370936989784</t>
+    <t xml:space="preserve">0.185370951890945</t>
   </si>
   <si>
     <t xml:space="preserve">0.18449655175209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182310566306114</t>
+    <t xml:space="preserve">0.182310581207275</t>
   </si>
   <si>
     <t xml:space="preserve">0.196738019585609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194989264011383</t>
+    <t xml:space="preserve">0.194989249110222</t>
   </si>
   <si>
     <t xml:space="preserve">0.197612419724464</t>
@@ -42628,7 +42631,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1511" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42654,7 +42657,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1512" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42680,7 +42683,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1513" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42758,7 +42761,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1516" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42784,7 +42787,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1517" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42810,7 +42813,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1518" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42836,7 +42839,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1519" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42888,7 +42891,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1521" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42914,7 +42917,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1522" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42992,7 +42995,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1525" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43018,7 +43021,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1526" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43044,7 +43047,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1527" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43070,7 +43073,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1528" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43122,7 +43125,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1530" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43148,7 +43151,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1531" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43200,7 +43203,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1533" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43356,7 +43359,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1539" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43434,7 +43437,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1542" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43460,7 +43463,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1543" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43486,7 +43489,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1544" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43564,7 +43567,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1547" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43590,7 +43593,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1548" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43642,7 +43645,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1550" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43668,7 +43671,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1551" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43772,7 +43775,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1555" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43798,7 +43801,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1556" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43824,7 +43827,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1557" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43850,7 +43853,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1558" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43876,7 +43879,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1559" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43902,7 +43905,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1560" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43928,7 +43931,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1561" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43980,7 +43983,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1563" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44006,7 +44009,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1564" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44032,7 +44035,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1565" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44110,7 +44113,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1568" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44136,7 +44139,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1569" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44162,7 +44165,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1570" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44188,7 +44191,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1571" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44214,7 +44217,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1572" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44240,7 +44243,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44266,7 +44269,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1574" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44292,7 +44295,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1575" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44318,7 +44321,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1576" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44344,7 +44347,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1577" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44370,7 +44373,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1578" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44422,7 +44425,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1580" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44448,7 +44451,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1581" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44500,7 +44503,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1583" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44604,7 +44607,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1587" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44630,7 +44633,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1588" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44656,7 +44659,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1589" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44708,7 +44711,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1591" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44734,7 +44737,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1592" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44760,7 +44763,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1593" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44786,7 +44789,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1594" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44838,7 +44841,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1596" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44890,7 +44893,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1598" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44916,7 +44919,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1599" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44942,7 +44945,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1600" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44968,7 +44971,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1601" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44994,7 +44997,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1602" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45020,7 +45023,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1603" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45046,7 +45049,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1604" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45072,7 +45075,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1605" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45098,7 +45101,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1606" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45124,7 +45127,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1607" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45150,7 +45153,7 @@
         <v>0.221499994397163</v>
       </c>
       <c r="G1608" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45176,7 +45179,7 @@
         <v>0.228499993681908</v>
       </c>
       <c r="G1609" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45202,7 +45205,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1610" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45228,7 +45231,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1611" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45254,7 +45257,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1612" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45280,7 +45283,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1613" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45306,7 +45309,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1614" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45332,7 +45335,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45358,7 +45361,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1616" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45384,7 +45387,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1617" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45410,7 +45413,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1618" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45436,7 +45439,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1619" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45462,7 +45465,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45488,7 +45491,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45514,7 +45517,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45540,7 +45543,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1623" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45566,7 +45569,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1624" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45592,7 +45595,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45618,7 +45621,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1626" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45644,7 +45647,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1627" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45670,7 +45673,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1628" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45696,7 +45699,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1629" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45722,7 +45725,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1630" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45748,7 +45751,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1631" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45774,7 +45777,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1632" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45800,7 +45803,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1633" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45826,7 +45829,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1634" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45852,7 +45855,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1635" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45878,7 +45881,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1636" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45904,7 +45907,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1637" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45930,7 +45933,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1638" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45956,7 +45959,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1639" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45982,7 +45985,7 @@
         <v>0.186599999666214</v>
       </c>
       <c r="G1640" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46008,7 +46011,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1641" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46034,7 +46037,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1642" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46060,7 +46063,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1643" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46086,7 +46089,7 @@
         <v>0.193200007081032</v>
       </c>
       <c r="G1644" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46112,7 +46115,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1645" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46138,7 +46141,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1646" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46164,7 +46167,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1647" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46190,7 +46193,7 @@
         <v>0.185000002384186</v>
       </c>
       <c r="G1648" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46216,7 +46219,7 @@
         <v>0.187199994921684</v>
       </c>
       <c r="G1649" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46242,7 +46245,7 @@
         <v>0.187399998307228</v>
       </c>
       <c r="G1650" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46268,7 +46271,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1651" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46294,7 +46297,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1652" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46320,7 +46323,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1653" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46346,7 +46349,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1654" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46372,7 +46375,7 @@
         <v>0.192800000309944</v>
       </c>
       <c r="G1655" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46398,7 +46401,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1656" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46424,7 +46427,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1657" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46450,7 +46453,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1658" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46476,7 +46479,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1659" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46502,7 +46505,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1660" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46528,7 +46531,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1661" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46554,7 +46557,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1662" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46580,7 +46583,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1663" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46606,7 +46609,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1664" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46632,7 +46635,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G1665" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46658,7 +46661,7 @@
         <v>0.197200000286102</v>
       </c>
       <c r="G1666" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46684,7 +46687,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1667" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46710,7 +46713,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1668" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46736,7 +46739,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1669" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46762,7 +46765,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1670" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46788,7 +46791,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1671" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46814,7 +46817,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1672" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46840,7 +46843,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1673" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46866,7 +46869,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1674" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46892,7 +46895,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1675" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46918,7 +46921,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1676" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46944,7 +46947,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1677" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46970,7 +46973,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1678" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46996,7 +46999,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1679" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47022,7 +47025,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1680" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47048,7 +47051,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1681" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47074,7 +47077,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1682" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47100,7 +47103,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1683" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47126,7 +47129,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1684" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47152,7 +47155,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1685" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47178,7 +47181,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1686" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47204,7 +47207,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1687" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47230,7 +47233,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1688" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47256,7 +47259,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1689" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47282,7 +47285,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1690" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47308,7 +47311,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1691" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47334,7 +47337,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1692" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47360,7 +47363,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47386,7 +47389,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1694" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47412,7 +47415,7 @@
         <v>0.190599992871284</v>
       </c>
       <c r="G1695" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47438,7 +47441,7 @@
         <v>0.19140000641346</v>
       </c>
       <c r="G1696" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47464,7 +47467,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1697" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47490,7 +47493,7 @@
         <v>0.191799998283386</v>
       </c>
       <c r="G1698" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47516,7 +47519,7 @@
         <v>0.191599994897842</v>
       </c>
       <c r="G1699" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47542,7 +47545,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1700" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47568,7 +47571,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1701" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47594,7 +47597,7 @@
         <v>0.190799996256828</v>
       </c>
       <c r="G1702" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47620,7 +47623,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1703" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47646,7 +47649,7 @@
         <v>0.193800002336502</v>
       </c>
       <c r="G1704" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47672,7 +47675,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1705" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47698,7 +47701,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1706" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47724,7 +47727,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1707" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47750,7 +47753,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1708" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47776,7 +47779,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1709" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47802,7 +47805,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1710" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47828,7 +47831,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1711" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47854,7 +47857,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1712" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47880,7 +47883,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1713" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47906,7 +47909,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1714" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47932,7 +47935,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1715" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47958,7 +47961,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1716" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47984,7 +47987,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1717" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48010,7 +48013,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1718" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48036,7 +48039,7 @@
         <v>0.192399993538857</v>
       </c>
       <c r="G1719" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48062,7 +48065,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1720" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48088,7 +48091,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1721" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48114,7 +48117,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1722" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48140,7 +48143,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1723" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48166,7 +48169,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1724" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48192,7 +48195,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1725" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48218,7 +48221,7 @@
         <v>0.187000006437302</v>
       </c>
       <c r="G1726" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48244,7 +48247,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1727" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48270,7 +48273,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1728" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48296,7 +48299,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1729" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48322,7 +48325,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1730" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48348,7 +48351,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1731" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48374,7 +48377,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1732" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48400,7 +48403,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1733" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48426,7 +48429,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1734" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48452,7 +48455,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1735" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48478,7 +48481,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1736" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48504,7 +48507,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1737" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48530,7 +48533,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1738" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48556,7 +48559,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1739" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48582,7 +48585,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1740" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48608,7 +48611,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1741" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48634,7 +48637,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1742" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48660,7 +48663,7 @@
         <v>0.195600003004074</v>
       </c>
       <c r="G1743" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48686,7 +48689,7 @@
         <v>0.19480000436306</v>
       </c>
       <c r="G1744" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48712,7 +48715,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1745" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48738,7 +48741,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1746" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48764,7 +48767,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1747" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48790,7 +48793,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1748" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48816,7 +48819,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1749" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48842,7 +48845,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1750" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48868,7 +48871,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1751" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48894,7 +48897,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1752" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48920,7 +48923,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1753" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48946,7 +48949,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1754" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48972,7 +48975,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1755" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48998,7 +49001,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1756" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49024,7 +49027,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1757" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49050,7 +49053,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G1758" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49076,7 +49079,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1759" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49102,7 +49105,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1760" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49128,7 +49131,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1761" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49154,7 +49157,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1762" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49180,7 +49183,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1763" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49206,7 +49209,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1764" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49232,7 +49235,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1765" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49258,7 +49261,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1766" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49284,7 +49287,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1767" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49310,7 +49313,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1768" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49336,7 +49339,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1769" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49362,7 +49365,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1770" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49388,7 +49391,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1771" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49414,7 +49417,7 @@
         <v>0.194999992847443</v>
       </c>
       <c r="G1772" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49440,7 +49443,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1773" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49466,7 +49469,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1774" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49492,7 +49495,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1775" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49518,7 +49521,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1776" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49544,7 +49547,7 @@
         <v>0.195999994874001</v>
       </c>
       <c r="G1777" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49570,7 +49573,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1778" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49596,7 +49599,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1779" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49622,7 +49625,7 @@
         <v>0.195800006389618</v>
       </c>
       <c r="G1780" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49648,7 +49651,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1781" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49674,7 +49677,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1782" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49700,7 +49703,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1783" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49726,7 +49729,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1784" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49752,7 +49755,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1785" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49778,7 +49781,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1786" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49804,7 +49807,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1787" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49830,7 +49833,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1788" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49856,7 +49859,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1789" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49882,7 +49885,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1790" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49908,7 +49911,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1791" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49934,7 +49937,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1792" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49960,7 +49963,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1793" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49986,7 +49989,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1794" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50012,7 +50015,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1795" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50038,7 +50041,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50064,7 +50067,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1797" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50090,7 +50093,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1798" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50116,7 +50119,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1799" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50142,7 +50145,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1800" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50168,7 +50171,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1801" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50194,7 +50197,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1802" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50220,7 +50223,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1803" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50246,7 +50249,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1804" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50272,7 +50275,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1805" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50298,7 +50301,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1806" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50324,7 +50327,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1807" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50350,7 +50353,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1808" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50376,7 +50379,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1809" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50402,7 +50405,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1810" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50428,7 +50431,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1811" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50454,7 +50457,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1812" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50480,7 +50483,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1813" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50506,7 +50509,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1814" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50532,7 +50535,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1815" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50558,7 +50561,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1816" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50584,7 +50587,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1817" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50610,7 +50613,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1818" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50636,7 +50639,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1819" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50662,7 +50665,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1820" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50688,7 +50691,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1821" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50714,7 +50717,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1822" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50740,7 +50743,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1823" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50766,7 +50769,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1824" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50792,7 +50795,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1825" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50818,7 +50821,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1826" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50844,7 +50847,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1827" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50870,7 +50873,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1828" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50896,7 +50899,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1829" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50922,7 +50925,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1830" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50948,7 +50951,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1831" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50974,7 +50977,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1832" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51000,7 +51003,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1833" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51026,7 +51029,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1834" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51052,7 +51055,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1835" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51078,7 +51081,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1836" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51104,7 +51107,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1837" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51130,7 +51133,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1838" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51156,7 +51159,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1839" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51182,7 +51185,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1840" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51208,7 +51211,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1841" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51234,7 +51237,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1842" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51260,7 +51263,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1843" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51286,7 +51289,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1844" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51312,7 +51315,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1845" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51338,7 +51341,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1846" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51364,7 +51367,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1847" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51390,7 +51393,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1848" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51416,7 +51419,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1849" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51442,7 +51445,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1850" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51468,7 +51471,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1851" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51494,7 +51497,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G1852" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51520,7 +51523,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1853" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51546,7 +51549,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1854" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51572,7 +51575,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1855" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51598,7 +51601,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1856" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51624,7 +51627,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1857" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51650,7 +51653,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1858" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51676,7 +51679,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51702,7 +51705,7 @@
         <v>0.228000000119209</v>
       </c>
       <c r="G1860" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51728,7 +51731,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1861" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51754,7 +51757,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1862" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51780,7 +51783,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1863" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51806,7 +51809,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51832,7 +51835,7 @@
         <v>0.231000006198883</v>
       </c>
       <c r="G1865" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51858,7 +51861,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1866" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51884,7 +51887,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1867" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51910,7 +51913,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1868" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51936,7 +51939,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1869" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51962,7 +51965,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1870" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51988,7 +51991,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1871" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52014,7 +52017,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1872" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52040,7 +52043,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1873" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52066,7 +52069,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1874" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52092,7 +52095,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1875" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52118,7 +52121,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1876" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52144,7 +52147,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1877" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52170,7 +52173,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1878" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52196,7 +52199,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1879" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52222,7 +52225,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1880" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52248,7 +52251,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1881" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52274,7 +52277,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1882" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52300,7 +52303,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1883" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52326,7 +52329,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1884" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52352,7 +52355,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1885" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52378,7 +52381,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1886" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52404,7 +52407,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1887" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52430,7 +52433,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1888" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52456,7 +52459,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1889" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52482,7 +52485,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1890" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52508,7 +52511,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1891" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52534,7 +52537,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1892" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52560,7 +52563,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1893" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52586,7 +52589,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1894" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52612,7 +52615,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1895" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52638,7 +52641,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1896" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52664,7 +52667,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1897" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52690,7 +52693,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1898" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52716,7 +52719,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1899" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52742,7 +52745,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1900" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52768,7 +52771,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1901" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52794,7 +52797,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1902" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52820,7 +52823,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1903" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52846,7 +52849,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1904" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52872,7 +52875,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1905" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52898,7 +52901,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1906" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52924,7 +52927,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1907" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52950,7 +52953,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1908" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52976,7 +52979,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1909" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53002,7 +53005,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1910" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53028,7 +53031,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1911" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53054,7 +53057,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1912" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53080,7 +53083,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1913" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53106,7 +53109,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1914" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53132,7 +53135,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1915" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53158,7 +53161,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1916" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53184,7 +53187,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1917" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53210,7 +53213,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1918" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53236,7 +53239,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1919" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53262,7 +53265,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1920" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53288,7 +53291,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1921" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53314,7 +53317,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1922" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53340,7 +53343,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1923" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53366,7 +53369,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1924" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53392,7 +53395,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1925" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53418,7 +53421,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1926" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53444,7 +53447,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1927" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53470,7 +53473,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1928" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53496,7 +53499,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1929" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53522,7 +53525,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1930" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53548,7 +53551,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1931" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53574,7 +53577,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1932" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53600,7 +53603,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1933" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53626,7 +53629,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1934" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53652,7 +53655,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1935" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53678,7 +53681,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1936" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53704,7 +53707,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53730,7 +53733,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1938" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53756,7 +53759,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1939" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53782,7 +53785,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1940" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53808,7 +53811,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1941" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53834,7 +53837,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1942" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53860,7 +53863,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53886,7 +53889,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53912,7 +53915,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1945" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53938,7 +53941,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1946" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53964,7 +53967,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53990,7 +53993,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1948" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54016,7 +54019,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54042,7 +54045,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1950" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54068,7 +54071,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54094,7 +54097,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1952" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54120,7 +54123,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54146,7 +54149,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1954" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54172,7 +54175,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1955" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54198,7 +54201,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1956" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54224,7 +54227,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1957" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54250,7 +54253,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54276,7 +54279,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1959" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54302,7 +54305,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1960" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54328,7 +54331,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1961" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54354,7 +54357,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1962" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54380,7 +54383,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54406,7 +54409,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54432,7 +54435,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1965" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54458,7 +54461,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1966" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54484,7 +54487,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1967" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54510,7 +54513,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1968" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54536,7 +54539,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1969" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54562,7 +54565,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1970" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54588,7 +54591,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1971" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54614,7 +54617,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1972" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54640,7 +54643,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1973" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54666,7 +54669,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1974" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54692,7 +54695,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1975" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54718,7 +54721,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54744,7 +54747,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1977" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54770,7 +54773,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1978" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54796,7 +54799,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1979" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54822,7 +54825,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1980" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54848,7 +54851,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1981" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54874,7 +54877,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1982" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54900,7 +54903,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1983" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54926,7 +54929,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1984" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54952,7 +54955,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1985" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54978,7 +54981,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1986" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55004,7 +55007,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1987" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55030,7 +55033,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55056,7 +55059,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1989" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55082,7 +55085,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55108,7 +55111,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1991" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55134,7 +55137,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1992" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55160,7 +55163,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1993" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55186,7 +55189,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1994" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55212,7 +55215,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1995" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55238,7 +55241,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1996" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55264,7 +55267,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1997" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55290,7 +55293,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1998" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55316,7 +55319,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1999" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55342,7 +55345,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2000" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55368,7 +55371,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55394,7 +55397,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2002" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55420,7 +55423,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55446,7 +55449,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2004" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55472,7 +55475,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55498,7 +55501,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2006" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55524,7 +55527,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2007" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55550,7 +55553,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2008" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55576,7 +55579,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2009" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55602,7 +55605,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2010" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55628,7 +55631,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2011" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55654,7 +55657,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2012" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55680,7 +55683,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2013" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55706,7 +55709,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2014" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55732,7 +55735,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2015" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55758,7 +55761,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2016" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55784,7 +55787,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2017" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55810,7 +55813,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2018" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55836,7 +55839,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2019" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55862,7 +55865,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2020" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55888,7 +55891,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2021" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55914,7 +55917,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55940,7 +55943,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2023" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55966,7 +55969,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2024" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55992,7 +55995,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2025" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56018,7 +56021,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56044,7 +56047,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2027" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56070,7 +56073,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56096,7 +56099,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2029" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56122,7 +56125,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2030" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56148,7 +56151,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2031" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56174,7 +56177,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2032" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56200,7 +56203,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2033" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56226,7 +56229,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2034" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56252,7 +56255,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2035" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56278,7 +56281,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2036" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56304,7 +56307,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2037" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56330,7 +56333,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2038" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56356,7 +56359,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2039" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56382,7 +56385,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56408,7 +56411,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2041" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56434,7 +56437,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2042" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56460,7 +56463,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2043" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56486,7 +56489,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2044" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56512,7 +56515,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2045" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56538,7 +56541,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2046" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56564,7 +56567,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2047" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56590,7 +56593,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2048" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56616,7 +56619,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2049" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56642,7 +56645,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56668,7 +56671,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56694,7 +56697,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2052" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56720,7 +56723,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2053" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56746,7 +56749,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2054" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56772,7 +56775,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2055" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56798,7 +56801,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2056" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56824,7 +56827,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2057" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56850,7 +56853,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2058" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56876,7 +56879,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2059" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56902,7 +56905,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2060" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56928,7 +56931,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2061" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56954,7 +56957,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2062" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56980,7 +56983,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57006,7 +57009,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2064" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57032,7 +57035,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2065" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57058,7 +57061,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57084,7 +57087,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57110,7 +57113,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2068" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57136,7 +57139,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2069" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57162,7 +57165,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57188,7 +57191,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57214,7 +57217,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57240,7 +57243,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57266,7 +57269,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2074" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57292,7 +57295,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57318,7 +57321,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2076" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57344,7 +57347,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2077" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57370,7 +57373,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2078" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57396,7 +57399,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2079" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57422,7 +57425,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2080" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57448,7 +57451,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2081" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57474,7 +57477,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2082" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57500,7 +57503,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2083" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57526,7 +57529,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2084" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57552,7 +57555,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2085" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57578,7 +57581,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2086" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57604,7 +57607,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2087" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57630,7 +57633,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2088" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57656,7 +57659,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2089" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57682,7 +57685,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2090" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57708,7 +57711,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2091" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57734,7 +57737,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2092" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57760,7 +57763,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2093" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57786,7 +57789,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2094" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57812,7 +57815,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2095" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57838,7 +57841,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2096" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57864,7 +57867,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2097" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57890,7 +57893,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2098" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57916,7 +57919,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2099" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57942,7 +57945,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2100" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57968,7 +57971,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2101" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57994,7 +57997,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2102" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58020,7 +58023,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2103" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58046,7 +58049,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2104" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58072,7 +58075,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2105" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58098,7 +58101,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2106" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58124,7 +58127,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2107" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58150,7 +58153,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2108" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58176,7 +58179,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2109" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58202,7 +58205,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2110" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58228,7 +58231,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2111" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58254,7 +58257,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2112" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58280,7 +58283,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2113" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58306,7 +58309,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2114" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58332,7 +58335,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2115" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58358,7 +58361,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2116" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58384,7 +58387,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2117" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58410,7 +58413,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2118" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58436,7 +58439,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2119" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58462,7 +58465,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2120" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58488,7 +58491,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2121" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58514,7 +58517,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2122" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58540,7 +58543,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G2123" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58566,7 +58569,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2124" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58592,7 +58595,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2125" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58618,7 +58621,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2126" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58644,7 +58647,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2127" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58670,7 +58673,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2128" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58696,7 +58699,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2129" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58722,7 +58725,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2130" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58748,7 +58751,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2131" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58774,7 +58777,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2132" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58800,7 +58803,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2133" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58826,7 +58829,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2134" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58852,7 +58855,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2135" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58878,7 +58881,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2136" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58904,7 +58907,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2137" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58930,7 +58933,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2138" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58956,7 +58959,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2139" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58982,7 +58985,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2140" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59008,7 +59011,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2141" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59034,7 +59037,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2142" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59060,7 +59063,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2143" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59086,7 +59089,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2144" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59112,7 +59115,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2145" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59138,7 +59141,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2146" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59164,7 +59167,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2147" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59172,7 +59175,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.6496064815</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>766761</v>
@@ -59190,9 +59193,35 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2148" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6495023148</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>2346829</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.215000003576279</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>0.209999993443489</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.211999997496605</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.209999993443489</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>997</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17447005212307</t>
+    <t xml:space="preserve">0.174470067024231</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
@@ -47,55 +47,55 @@
     <t xml:space="preserve">0.174941956996918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171099290251732</t>
+    <t xml:space="preserve">0.171099305152893</t>
   </si>
   <si>
     <t xml:space="preserve">0.16914427280426</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166178017854691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163481414318085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165908336639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167324051260948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16267241537571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157144397497177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146627634763718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148515269160271</t>
+    <t xml:space="preserve">0.166178002953529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163481399416924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165908351540565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167324066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162672430276871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157144367694855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14662766456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148515254259109</t>
   </si>
   <si>
     <t xml:space="preserve">0.138335600495338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144740030169487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148313030600548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148380443453789</t>
+    <t xml:space="preserve">0.144740045070648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148312985897064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14838045835495</t>
   </si>
   <si>
     <t xml:space="preserve">0.158223032951355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152357921004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152088269591331</t>
+    <t xml:space="preserve">0.152357935905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15208825469017</t>
   </si>
   <si>
     <t xml:space="preserve">0.155054524540901</t>
@@ -104,10 +104,10 @@
     <t xml:space="preserve">0.15438038110733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150335446000099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145481586456299</t>
+    <t xml:space="preserve">0.150335475802422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14548160135746</t>
   </si>
   <si>
     <t xml:space="preserve">0.14258274435997</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">0.131324455142021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135504186153412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128223359584808</t>
+    <t xml:space="preserve">0.135504171252251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12822337448597</t>
   </si>
   <si>
     <t xml:space="preserve">0.130785122513771</t>
@@ -134,97 +134,97 @@
     <t xml:space="preserve">0.138200759887695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143459141254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140223234891891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137998521327972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144605204463005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142515316605568</t>
+    <t xml:space="preserve">0.143459126353264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14022321999073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137998536229134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144605189561844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142515331506729</t>
   </si>
   <si>
     <t xml:space="preserve">0.14197601377964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14372880756855</t>
+    <t xml:space="preserve">0.143728792667389</t>
   </si>
   <si>
     <t xml:space="preserve">0.144065871834755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142987236380577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147706285119057</t>
+    <t xml:space="preserve">0.142987221479416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147706300020218</t>
   </si>
   <si>
     <t xml:space="preserve">0.153166905045509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154178142547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150942221283913</t>
+    <t xml:space="preserve">0.154178112745285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150942206382751</t>
   </si>
   <si>
     <t xml:space="preserve">0.150672554969788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154717445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156470224261284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162402749061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16449262201786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161796003580093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16085222363472</t>
+    <t xml:space="preserve">0.154717460274696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156470254063606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162402778863907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164492636919022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161796033382416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160852208733559</t>
   </si>
   <si>
     <t xml:space="preserve">0.158088207244873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159099414944649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155526429414749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154312983155251</t>
+    <t xml:space="preserve">0.15909942984581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15552644431591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154312938451767</t>
   </si>
   <si>
     <t xml:space="preserve">0.148987174034119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15020065009594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150065794587135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149930968880653</t>
+    <t xml:space="preserve">0.150200620293617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150065824389458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149930983781815</t>
   </si>
   <si>
     <t xml:space="preserve">0.146964713931084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144268125295639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142245680093765</t>
+    <t xml:space="preserve">0.1442681401968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142245650291443</t>
   </si>
   <si>
     <t xml:space="preserve">0.138268172740936</t>
@@ -233,19 +233,19 @@
     <t xml:space="preserve">0.147841110825539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151751160621643</t>
+    <t xml:space="preserve">0.151751190423965</t>
   </si>
   <si>
     <t xml:space="preserve">0.157279223203659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156874731183052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155998319387436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156942158937454</t>
+    <t xml:space="preserve">0.156874746084213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155998349189758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156942129135132</t>
   </si>
   <si>
     <t xml:space="preserve">0.152695000171661</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">0.157009556889534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152560159564018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122458934784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1544299274683</t>
+    <t xml:space="preserve">0.152560189366341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122473835945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154429942369461</t>
   </si>
   <si>
     <t xml:space="preserve">0.150274872779846</t>
@@ -269,67 +269,67 @@
     <t xml:space="preserve">0.150828897953033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14778183400631</t>
+    <t xml:space="preserve">0.147781848907471</t>
   </si>
   <si>
     <t xml:space="preserve">0.147712588310242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146812349557877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142657265067101</t>
+    <t xml:space="preserve">0.146812319755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142657250165939</t>
   </si>
   <si>
     <t xml:space="preserve">0.142103239893913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138155937194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139817982912064</t>
+    <t xml:space="preserve">0.138155922293663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139817968010902</t>
   </si>
   <si>
     <t xml:space="preserve">0.139887228608131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140579715371132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141272217035294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139748707413673</t>
+    <t xml:space="preserve">0.140579730272293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141272231936455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139748737215996</t>
   </si>
   <si>
     <t xml:space="preserve">0.141202986240387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144042298197746</t>
+    <t xml:space="preserve">0.144042268395424</t>
   </si>
   <si>
     <t xml:space="preserve">0.14542730152607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144734799861908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145219549536705</t>
+    <t xml:space="preserve">0.144734784960747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145219534635544</t>
   </si>
   <si>
     <t xml:space="preserve">0.147989600896835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144804030656815</t>
+    <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
     <t xml:space="preserve">0.147574096918106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148889869451523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148128092288971</t>
+    <t xml:space="preserve">0.148889854550362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14812807738781</t>
   </si>
   <si>
     <t xml:space="preserve">0.144180789589882</t>
@@ -350,58 +350,58 @@
     <t xml:space="preserve">0.134485617280006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121881939470768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123890213668346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126244753599167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123405456542969</t>
+    <t xml:space="preserve">0.121881894767284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123890198767185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126244738698006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123405449092388</t>
   </si>
   <si>
     <t xml:space="preserve">0.125898495316505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116341836750507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787841379642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122574426233768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111873209476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12292069196701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228167951107</t>
+    <t xml:space="preserve">0.116341844201088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787833929062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12257444113493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111895561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122920677065849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228190302849</t>
   </si>
   <si>
     <t xml:space="preserve">0.118419378995895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113502539694309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110940255224705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118904143571854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122297398746014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452505588531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124651975929737</t>
+    <t xml:space="preserve">0.11350255459547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110940240323544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118904136121273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297428548336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12645249068737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124651968479156</t>
   </si>
   <si>
     <t xml:space="preserve">0.126175507903099</t>
@@ -410,13 +410,13 @@
     <t xml:space="preserve">0.130953818559647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128668516874313</t>
+    <t xml:space="preserve">0.128668546676636</t>
   </si>
   <si>
     <t xml:space="preserve">0.12846077978611</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127768263220787</t>
+    <t xml:space="preserve">0.127768278121948</t>
   </si>
   <si>
     <t xml:space="preserve">0.127422019839287</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">0.128253027796745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130884557962418</t>
+    <t xml:space="preserve">0.13088458776474</t>
   </si>
   <si>
     <t xml:space="preserve">0.131161570549011</t>
@@ -437,37 +437,37 @@
     <t xml:space="preserve">0.127976015210152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120496913790703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118211634457111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172867059708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114956825971603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11661883443594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118627123534679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119804404675961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765637278557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912417769432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718580782413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319632649422</t>
+    <t xml:space="preserve">0.120496898889542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11821161955595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172859609127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114956803619862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116618849337101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118627138435841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119804382324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765629827976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12091239541769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718573331833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319640100002</t>
   </si>
   <si>
     <t xml:space="preserve">0.119250372052193</t>
@@ -476,37 +476,37 @@
     <t xml:space="preserve">0.118834882974625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121258661150932</t>
+    <t xml:space="preserve">0.121258676052094</t>
   </si>
   <si>
     <t xml:space="preserve">0.122505187988281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197712004185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125552222132683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125690743327141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121743410825729</t>
+    <t xml:space="preserve">0.123197689652443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552237033844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125690758228302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121743433177471</t>
   </si>
   <si>
     <t xml:space="preserve">0.121674165129662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120150648057461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121120162308216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488624691963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665876030922</t>
+    <t xml:space="preserve">0.120150662958622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121120169758797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488632142544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665905833244</t>
   </si>
   <si>
     <t xml:space="preserve">0.115372329950333</t>
@@ -515,130 +515,130 @@
     <t xml:space="preserve">0.115926332771778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117726877331734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116826593875885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117103599011898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121189422905445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233823657036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118973381817341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118350133299828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12811453640461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126660257577896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124097973108292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125205993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123959459364414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117034360766411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117796115577221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117934621870518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116480335593224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1150953322649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433286547661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111494265496731</t>
+    <t xml:space="preserve">0.117726869881153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116826578974724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117103591561317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121189408004284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233816206455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11897337436676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118350125849247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128114551305771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126660272479057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12409795820713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125206008553505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123959466814995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117034338414669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11779610812664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117934614419937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116480357944965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11509532481432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433301448822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111494272947311</t>
   </si>
   <si>
     <t xml:space="preserve">0.1154415756464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113571792840958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11467982083559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111771270632744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111009508371353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111563518643379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112186767160892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117588385939598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327921748161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122020438313484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122435942292213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119942896068096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124305732548237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122851431369781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773918926716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596630334854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119527377188206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120358414947987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121812663972378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141895517706871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169665172696114</t>
+    <t xml:space="preserve">0.113571815192699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114679828286171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111771248281002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111009515821934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111563511192799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112186759710312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117588378489017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327929198742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122020445764065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122435934841633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119942873716354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124305702745914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122851438820362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773911476135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596652686596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119527399539948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120358422398567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12181268632412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14189550280571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169665187597275</t>
   </si>
   <si>
     <t xml:space="preserve">0.15997003018856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15719997882843</t>
+    <t xml:space="preserve">0.157199993729591</t>
   </si>
   <si>
     <t xml:space="preserve">0.146119803190231</t>
@@ -650,19 +650,19 @@
     <t xml:space="preserve">0.148197337985039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144942536950111</t>
+    <t xml:space="preserve">0.144942551851273</t>
   </si>
   <si>
     <t xml:space="preserve">0.148682102560997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149928629398346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154360696673393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157476991415024</t>
+    <t xml:space="preserve">0.149928614497185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154360666871071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157476976513863</t>
   </si>
   <si>
     <t xml:space="preserve">0.159900799393654</t>
@@ -674,19 +674,19 @@
     <t xml:space="preserve">0.156507477164268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14736633002758</t>
+    <t xml:space="preserve">0.147366315126419</t>
   </si>
   <si>
     <t xml:space="preserve">0.143349751830101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143696025013924</t>
+    <t xml:space="preserve">0.143696039915085</t>
   </si>
   <si>
     <t xml:space="preserve">0.145358055830002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143626779317856</t>
+    <t xml:space="preserve">0.143626764416695</t>
   </si>
   <si>
     <t xml:space="preserve">0.144319295883179</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">0.139194712042809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140164196491241</t>
+    <t xml:space="preserve">0.140164226293564</t>
   </si>
   <si>
     <t xml:space="preserve">0.140510469675064</t>
@@ -707,46 +707,46 @@
     <t xml:space="preserve">0.140441238880157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13954097032547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138502180576324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139679446816444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13711716234684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139056190848351</t>
+    <t xml:space="preserve">0.139540955424309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138502195477486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139679461717606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137117147445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139056205749512</t>
   </si>
   <si>
     <t xml:space="preserve">0.144111543893814</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144250020384789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145912066102028</t>
+    <t xml:space="preserve">0.144250005483627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145912051200867</t>
   </si>
   <si>
     <t xml:space="preserve">0.142588004469872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145981311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149028360843658</t>
+    <t xml:space="preserve">0.145981326699257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14902837574482</t>
   </si>
   <si>
     <t xml:space="preserve">0.147851079702377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148058846592903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150413379073143</t>
+    <t xml:space="preserve">0.148058861494064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150413364171982</t>
   </si>
   <si>
     <t xml:space="preserve">0.148959115147591</t>
@@ -758,31 +758,31 @@
     <t xml:space="preserve">0.152352407574654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155399471521378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160870298743248</t>
+    <t xml:space="preserve">0.155399456620216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160870283842087</t>
   </si>
   <si>
     <t xml:space="preserve">0.159139022231102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158931255340576</t>
+    <t xml:space="preserve">0.158931270241737</t>
   </si>
   <si>
     <t xml:space="preserve">0.155814960598946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151936903595924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150967374444008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148612856864929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147920325398445</t>
+    <t xml:space="preserve">0.151936918497086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15096740424633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148612841963768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147920340299606</t>
   </si>
   <si>
     <t xml:space="preserve">0.147297099232674</t>
@@ -791,97 +791,97 @@
     <t xml:space="preserve">0.143142014741898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141687750816345</t>
+    <t xml:space="preserve">0.141687735915184</t>
   </si>
   <si>
     <t xml:space="preserve">0.146258309483528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14972086250782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152213901281357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152006149291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14618906378746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145773559808731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148474350571632</t>
+    <t xml:space="preserve">0.149720877408981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152213886380196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152006164193153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146189048886299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14577354490757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148474335670471</t>
   </si>
   <si>
     <t xml:space="preserve">0.148472413420677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146802619099617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145411118865013</t>
+    <t xml:space="preserve">0.146802604198456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145411133766174</t>
   </si>
   <si>
     <t xml:space="preserve">0.144297927618027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147011339664459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14854197204113</t>
+    <t xml:space="preserve">0.147011309862137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148541986942291</t>
   </si>
   <si>
     <t xml:space="preserve">0.148959428071976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145480692386627</t>
+    <t xml:space="preserve">0.145480707287788</t>
   </si>
   <si>
     <t xml:space="preserve">0.145132824778557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146106883883476</t>
+    <t xml:space="preserve">0.146106868982315</t>
   </si>
   <si>
     <t xml:space="preserve">0.14450666308403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14401963353157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143463045358658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140749618411064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143045589327812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140193030238152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141236633062363</t>
+    <t xml:space="preserve">0.144019618630409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143463030457497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140749603509903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143045574426651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14019301533699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141236647963524</t>
   </si>
   <si>
     <t xml:space="preserve">0.14151494204998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142071545124054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139497265219688</t>
+    <t xml:space="preserve">0.142071530222893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13949728012085</t>
   </si>
   <si>
     <t xml:space="preserve">0.13901025056839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140332162380219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139149397611618</t>
+    <t xml:space="preserve">0.14033217728138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139149412512779</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757897377014</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">0.138244926929474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142419397830963</t>
+    <t xml:space="preserve">0.142419412732124</t>
   </si>
   <si>
     <t xml:space="preserve">0.140610471367836</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">0.141445368528366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141167059540749</t>
+    <t xml:space="preserve">0.14116707444191</t>
   </si>
   <si>
     <t xml:space="preserve">0.14068004488945</t>
@@ -923,28 +923,28 @@
     <t xml:space="preserve">0.141584530472755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140053868293762</t>
+    <t xml:space="preserve">0.140053853392601</t>
   </si>
   <si>
     <t xml:space="preserve">0.139636427164078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139427706599236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147289648652077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149655178189278</t>
+    <t xml:space="preserve">0.139427691698074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147289663553238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149655193090439</t>
   </si>
   <si>
     <t xml:space="preserve">0.149863913655281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150629237294197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149724751710892</t>
+    <t xml:space="preserve">0.150629222393036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149724766612053</t>
   </si>
   <si>
     <t xml:space="preserve">0.147985398769379</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">0.146246016025543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147428810596466</t>
+    <t xml:space="preserve">0.147428780794144</t>
   </si>
   <si>
     <t xml:space="preserve">0.149237737059593</t>
@@ -962,19 +962,19 @@
     <t xml:space="preserve">0.150281354784966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148402824997902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151742428541183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15202072262764</t>
+    <t xml:space="preserve">0.148402839899063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151742413640022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152020737528801</t>
   </si>
   <si>
     <t xml:space="preserve">0.152577325701714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152159869670868</t>
+    <t xml:space="preserve">0.152159884572029</t>
   </si>
   <si>
     <t xml:space="preserve">0.150490075349808</t>
@@ -983,46 +983,46 @@
     <t xml:space="preserve">0.151324972510338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150977104902267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15035092830658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14902900159359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148750707507133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149098590016365</t>
+    <t xml:space="preserve">0.150977090001106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150350943207741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149029016494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148750722408295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149098575115204</t>
   </si>
   <si>
     <t xml:space="preserve">0.151672840118408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166840136051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169762268662453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168649092316628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166979268193245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160369679331779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162317782640457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173797592520714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175954416394234</t>
+    <t xml:space="preserve">0.166840150952339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169762283563614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168649077415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166979283094406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160369694232941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162317767739296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173797607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175954446196556</t>
   </si>
   <si>
     <t xml:space="preserve">0.17289312183857</t>
@@ -1031,76 +1031,76 @@
     <t xml:space="preserve">0.173936754465103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168718680739403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168509945273399</t>
+    <t xml:space="preserve">0.168718665838242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168509930372238</t>
   </si>
   <si>
     <t xml:space="preserve">0.167675018310547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168996945023537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165866076946259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164196282625198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169275254011154</t>
+    <t xml:space="preserve">0.168996959924698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16586609184742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16419629752636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169275239109993</t>
   </si>
   <si>
     <t xml:space="preserve">0.171988666057587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170457988977432</t>
+    <t xml:space="preserve">0.170458018779755</t>
   </si>
   <si>
     <t xml:space="preserve">0.173241004347801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175676122307777</t>
+    <t xml:space="preserve">0.175676107406616</t>
   </si>
   <si>
     <t xml:space="preserve">0.185068711638451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187712550163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184581696987152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189938947558403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198635756969452</t>
+    <t xml:space="preserve">0.18771256506443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184581682085991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189938917756081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.198635786771774</t>
   </si>
   <si>
     <t xml:space="preserve">0.197383433580399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.193417683243752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192443624138832</t>
+    <t xml:space="preserve">0.19341766834259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192443639039993</t>
   </si>
   <si>
     <t xml:space="preserve">0.187851697206497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194809153676033</t>
+    <t xml:space="preserve">0.194809168577194</t>
   </si>
   <si>
     <t xml:space="preserve">0.191678300499916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188060417771339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183468505740166</t>
+    <t xml:space="preserve">0.188060402870178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183468490839005</t>
   </si>
   <si>
     <t xml:space="preserve">0.185694873332977</t>
@@ -1109,73 +1109,73 @@
     <t xml:space="preserve">0.186112344264984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183816373348236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183677211403847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178528666496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17671974003315</t>
+    <t xml:space="preserve">0.183816343545914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183677226305008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178528681397438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176719754934311</t>
   </si>
   <si>
     <t xml:space="preserve">0.172962710261345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177972078323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179363578557968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180755063891411</t>
+    <t xml:space="preserve">0.177972093224525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179363593459129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180755078792572</t>
   </si>
   <si>
     <t xml:space="preserve">0.1808942258358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177763357758522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174423784017563</t>
+    <t xml:space="preserve">0.177763342857361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174423769116402</t>
   </si>
   <si>
     <t xml:space="preserve">0.174145475029945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185416579246521</t>
+    <t xml:space="preserve">0.18541656434536</t>
   </si>
   <si>
     <t xml:space="preserve">0.185138270258904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182424873113632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18005932867527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180824682116508</t>
+    <t xml:space="preserve">0.18242484331131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180059343576431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180824652314186</t>
   </si>
   <si>
     <t xml:space="preserve">0.176023989915848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16301354765892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162804812192917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165587797760963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166074827313423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166144400835037</t>
+    <t xml:space="preserve">0.163013517856598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162804797291756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165587782859802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166074797511101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166144385933876</t>
   </si>
   <si>
     <t xml:space="preserve">0.166770562529564</t>
@@ -1187,16 +1187,16 @@
     <t xml:space="preserve">0.165935665369034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163917973637581</t>
+    <t xml:space="preserve">0.163917988538742</t>
   </si>
   <si>
     <t xml:space="preserve">0.166492253541946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167535871267319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165448650717735</t>
+    <t xml:space="preserve">0.167535856366158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165448635816574</t>
   </si>
   <si>
     <t xml:space="preserve">0.167327150702477</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">0.165170341730118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167466297745705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166700974106789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164405003190041</t>
+    <t xml:space="preserve">0.167466312646866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166700959205627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164405032992363</t>
   </si>
   <si>
     <t xml:space="preserve">0.163500532507896</t>
@@ -1220,43 +1220,43 @@
     <t xml:space="preserve">0.166422680020332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166283532977104</t>
+    <t xml:space="preserve">0.166283503174782</t>
   </si>
   <si>
     <t xml:space="preserve">0.166909694671631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165518239140511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168022900819778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16837078332901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164892047643661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173588871955872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172545254230499</t>
+    <t xml:space="preserve">0.165518224239349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16802291572094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168370753526688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164892062544823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173588886857033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172545284032822</t>
   </si>
   <si>
     <t xml:space="preserve">0.181589975953102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180198475718498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179502695798874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178806990385056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18054635822773</t>
+    <t xml:space="preserve">0.180198490619659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179502710700035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178807005286217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180546328425407</t>
   </si>
   <si>
     <t xml:space="preserve">0.182981476187706</t>
@@ -1268,34 +1268,34 @@
     <t xml:space="preserve">0.183329343795776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177415505051613</t>
+    <t xml:space="preserve">0.177415490150452</t>
   </si>
   <si>
     <t xml:space="preserve">0.179154843091965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164544150233269</t>
+    <t xml:space="preserve">0.164544180035591</t>
   </si>
   <si>
     <t xml:space="preserve">0.162456944584846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161761179566383</t>
+    <t xml:space="preserve">0.161761194467545</t>
   </si>
   <si>
     <t xml:space="preserve">0.161413297057152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157586708664894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159326076507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154803693294525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154107958078384</t>
+    <t xml:space="preserve">0.157586693763733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159326061606407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154803723096848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154107972979546</t>
   </si>
   <si>
     <t xml:space="preserve">0.15236859023571</t>
@@ -1304,13 +1304,13 @@
     <t xml:space="preserve">0.154455840587616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149933472275734</t>
+    <t xml:space="preserve">0.149933487176895</t>
   </si>
   <si>
     <t xml:space="preserve">0.152716472744942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15619520843029</t>
+    <t xml:space="preserve">0.156195193529129</t>
   </si>
   <si>
     <t xml:space="preserve">0.156543076038361</t>
@@ -1319,22 +1319,19 @@
     <t xml:space="preserve">0.155151575803757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15584734082222</t>
+    <t xml:space="preserve">0.155847355723381</t>
   </si>
   <si>
     <t xml:space="preserve">0.153064340353012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149585619568825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148889854550362</t>
+    <t xml:space="preserve">0.149585604667664</t>
   </si>
   <si>
     <t xml:space="preserve">0.14819410443306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147846236824989</t>
+    <t xml:space="preserve">0.147846221923828</t>
   </si>
   <si>
     <t xml:space="preserve">0.146454751491547</t>
@@ -1343,82 +1340,85 @@
     <t xml:space="preserve">0.157934561371803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16002182662487</t>
+    <t xml:space="preserve">0.160021811723709</t>
   </si>
   <si>
     <t xml:space="preserve">0.158282443881035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157238811254501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161799848079681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163222223520279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161444216966629</t>
+    <t xml:space="preserve">0.157238826155663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16179983317852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163222253322601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160021796822548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16144423186779</t>
   </si>
   <si>
     <t xml:space="preserve">0.16073302924633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155043363571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157532557845116</t>
+    <t xml:space="preserve">0.155043348670006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157532587647438</t>
   </si>
   <si>
     <t xml:space="preserve">0.156110167503357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153620958328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155398949980736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153976544737816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149709284305573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147575661540031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146508857607841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145797654986382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143308401107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138827815651894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137974381446838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139965742826462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142597213387489</t>
+    <t xml:space="preserve">0.153620943427086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155398964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153976529836655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149709299206734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147575676441193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146508872509003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14579764008522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14330843091011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138827785849571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137974351644516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139965727925301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142597228288651</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220060229301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14544203877449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138970077037811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140107989311218</t>
+    <t xml:space="preserve">0.145442053675652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138970047235489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140107974410057</t>
   </si>
   <si>
     <t xml:space="preserve">0.138401091098785</t>
@@ -1427,34 +1427,34 @@
     <t xml:space="preserve">0.141957119107246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140676945447922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141245901584625</t>
+    <t xml:space="preserve">0.140676960349083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141245916485786</t>
   </si>
   <si>
     <t xml:space="preserve">0.141103684902191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139112293720245</t>
+    <t xml:space="preserve">0.139112308621407</t>
   </si>
   <si>
     <t xml:space="preserve">0.137263163924217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136551931500435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140534728765488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140819191932678</t>
+    <t xml:space="preserve">0.136551946401596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140534713864326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140819177031517</t>
   </si>
   <si>
     <t xml:space="preserve">0.139823511242867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139681249856949</t>
+    <t xml:space="preserve">0.139681234955788</t>
   </si>
   <si>
     <t xml:space="preserve">0.142099380493164</t>
@@ -1463,7 +1463,7 @@
     <t xml:space="preserve">0.141672641038895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142952814698219</t>
+    <t xml:space="preserve">0.14295282959938</t>
   </si>
   <si>
     <t xml:space="preserve">0.143664047122002</t>
@@ -1475,55 +1475,55 @@
     <t xml:space="preserve">0.148642495274544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152909725904465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152554124593735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149353697896004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144375219941139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141388162970543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142241612076759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138258844614029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845048189163</t>
+    <t xml:space="preserve">0.152909755706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152554139494896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149353682994843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1443752348423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141388148069382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142241597175598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13825885951519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845063090324</t>
   </si>
   <si>
     <t xml:space="preserve">0.136125236749649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138543307781219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141530394554138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139254555106163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14039246737957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138685554265976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132995918393135</t>
+    <t xml:space="preserve">0.138543337583542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141530409455299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139254540205002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140392482280731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138685569167137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132995903491974</t>
   </si>
   <si>
     <t xml:space="preserve">0.134987279772758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135129541158676</t>
+    <t xml:space="preserve">0.135129526257515</t>
   </si>
   <si>
     <t xml:space="preserve">0.129439875483513</t>
@@ -1535,58 +1535,58 @@
     <t xml:space="preserve">0.125172600150108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123465724289417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123750202357769</t>
+    <t xml:space="preserve">0.123465716838837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123750194907188</t>
   </si>
   <si>
     <t xml:space="preserve">0.126310542225838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126595050096512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123892426490784</t>
+    <t xml:space="preserve">0.126595035195351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123892441391945</t>
   </si>
   <si>
     <t xml:space="preserve">0.122327789664268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119482949376106</t>
+    <t xml:space="preserve">0.119482956826687</t>
   </si>
   <si>
     <t xml:space="preserve">0.117633804678917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116922609508038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112513110041618</t>
+    <t xml:space="preserve">0.116922602057457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112513117492199</t>
   </si>
   <si>
     <t xml:space="preserve">0.115926899015903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113793291151524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115215711295605</t>
+    <t xml:space="preserve">0.113793276250362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115215688943863</t>
   </si>
   <si>
     <t xml:space="preserve">0.114931218326092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116638123989105</t>
+    <t xml:space="preserve">0.116638138890266</t>
   </si>
   <si>
     <t xml:space="preserve">0.119198471307755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119909681379795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119340717792511</t>
+    <t xml:space="preserve">0.119909673929214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119340695440769</t>
   </si>
   <si>
     <t xml:space="preserve">0.123038992285728</t>
@@ -1598,109 +1598,109 @@
     <t xml:space="preserve">0.12005191296339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121616594493389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905362069607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060536682606</t>
+    <t xml:space="preserve">0.121616587042809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905376970768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060529232025</t>
   </si>
   <si>
     <t xml:space="preserve">0.111659668385983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114788986742496</t>
+    <t xml:space="preserve">0.114788971841335</t>
   </si>
   <si>
     <t xml:space="preserve">0.113366559147835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116211384534836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754506766796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127590730786324</t>
+    <t xml:space="preserve">0.116211391985416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754529118538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127590715885162</t>
   </si>
   <si>
     <t xml:space="preserve">0.127875223755836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127306222915649</t>
+    <t xml:space="preserve">0.127306237816811</t>
   </si>
   <si>
     <t xml:space="preserve">0.124745897948742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12076311558485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12190105766058</t>
+    <t xml:space="preserve">0.120763137936592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121901080012321</t>
   </si>
   <si>
     <t xml:space="preserve">0.119056217372417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114504486322403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117349348962307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646725356579</t>
+    <t xml:space="preserve">0.114504508674145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117349326610565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11464674025774</t>
   </si>
   <si>
     <t xml:space="preserve">0.126452788710594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120478644967079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120336413383484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120194166898727</t>
+    <t xml:space="preserve">0.12047865241766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120336398482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120194159448147</t>
   </si>
   <si>
     <t xml:space="preserve">0.120620884001255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118487268686295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082073628902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111944146454334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112655363976955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11066397279501</t>
+    <t xml:space="preserve">0.118487253785133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082066178322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111944153904915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112655349075794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110663965344429</t>
   </si>
   <si>
     <t xml:space="preserve">0.110379494726658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111801907420158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370878458023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111232921481133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116069160401821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121332094073296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12261226028204</t>
+    <t xml:space="preserve">0.111801899969578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370885908604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111232943832874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11606914550066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121332101523876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12261226773262</t>
   </si>
   <si>
     <t xml:space="preserve">0.124319158494473</t>
@@ -1715,79 +1715,79 @@
     <t xml:space="preserve">0.115642428398132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116495884954929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11862950026989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1197674497962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118202783167362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1153579428792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116780363023281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11749155819416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116282507777214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118771739304066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119838573038578</t>
+    <t xml:space="preserve">0.116495877504349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118629522621632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119767434895039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118202768266201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115357950329781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116780355572701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117491580545902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116282530128956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118771746754646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119838558137417</t>
   </si>
   <si>
     <t xml:space="preserve">0.120549760758877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121629357337952</t>
+    <t xml:space="preserve">0.121629349887371</t>
   </si>
   <si>
     <t xml:space="preserve">0.12126737087965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122715324163437</t>
+    <t xml:space="preserve">0.122715331614017</t>
   </si>
   <si>
     <t xml:space="preserve">0.121991358697414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119095399975777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11800941824913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116923451423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114751502871513</t>
+    <t xml:space="preserve">0.119095414876938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118009448051453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116923466324806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114751510322094</t>
   </si>
   <si>
     <t xml:space="preserve">0.115113489329815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116561457514763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119457416236401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116199478507042</t>
+    <t xml:space="preserve">0.116561464965343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119457393884659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116199463605881</t>
   </si>
   <si>
     <t xml:space="preserve">0.11583748459816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113665528595448</t>
+    <t xml:space="preserve">0.113665543496609</t>
   </si>
   <si>
     <t xml:space="preserve">0.114389516413212</t>
@@ -1796,13 +1796,13 @@
     <t xml:space="preserve">0.11402752250433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11221756786108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110769599676132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111855551600456</t>
+    <t xml:space="preserve">0.112217552959919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110769592225552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111855566501617</t>
   </si>
   <si>
     <t xml:space="preserve">0.107149675488472</t>
@@ -1814,13 +1814,13 @@
     <t xml:space="preserve">0.107511654496193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104977712035179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108235649764538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106425695121288</t>
+    <t xml:space="preserve">0.104977704584599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108235657215118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106425687670708</t>
   </si>
   <si>
     <t xml:space="preserve">0.108959630131721</t>
@@ -1832,58 +1832,58 @@
     <t xml:space="preserve">0.11040760576725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111493580043316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111131578683853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113303534686565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108597651124001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110045596957207</t>
+    <t xml:space="preserve">0.111493587493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111131586134434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113303542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10859764367342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110045611858368</t>
   </si>
   <si>
     <t xml:space="preserve">0.109321616590023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115475505590439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118733428418636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120181381702423</t>
+    <t xml:space="preserve">0.115475490689278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118733420968056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120181389153004</t>
   </si>
   <si>
     <t xml:space="preserve">0.119819395244122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120543390512466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118371419608593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117285460233688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123801328241825</t>
+    <t xml:space="preserve">0.120543368160725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118371427059174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117285445332527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123801305890083</t>
   </si>
   <si>
     <t xml:space="preserve">0.126335248351097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123439319431782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124525301158428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124887280166149</t>
+    <t xml:space="preserve">0.123439311981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124525308609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12488728761673</t>
   </si>
   <si>
     <t xml:space="preserve">0.124163299798965</t>
@@ -1895,25 +1895,25 @@
     <t xml:space="preserve">0.144072860479355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154208660125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146244838833809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155656605958939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177376136183739</t>
+    <t xml:space="preserve">0.154208645224571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146244823932648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1556566208601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1773761510849</t>
   </si>
   <si>
     <t xml:space="preserve">0.191855803132057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184615969657898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171584263443947</t>
+    <t xml:space="preserve">0.184615984559059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171584278345108</t>
   </si>
   <si>
     <t xml:space="preserve">0.166516378521919</t>
@@ -1922,10 +1922,10 @@
     <t xml:space="preserve">0.170136302709579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173756211996078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173032239079475</t>
+    <t xml:space="preserve">0.17375622689724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173032224178314</t>
   </si>
   <si>
     <t xml:space="preserve">0.168688327074051</t>
@@ -1934,37 +1934,37 @@
     <t xml:space="preserve">0.164344429969788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160724520683289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161448493599892</t>
+    <t xml:space="preserve">0.160724505782127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161448508501053</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172481417656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165792405605316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165068402886391</t>
+    <t xml:space="preserve">0.165792390704155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165068417787552</t>
   </si>
   <si>
     <t xml:space="preserve">0.157828569412231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16289646923542</t>
+    <t xml:space="preserve">0.162896454334259</t>
   </si>
   <si>
     <t xml:space="preserve">0.163620442152023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179548099637032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178100124001503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156380623579025</t>
+    <t xml:space="preserve">0.17954808473587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178100138902664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156380593776703</t>
   </si>
   <si>
     <t xml:space="preserve">0.153484657406807</t>
@@ -1973,22 +1973,22 @@
     <t xml:space="preserve">0.149140760302544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146968796849251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15203669667244</t>
+    <t xml:space="preserve">0.146968811750412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152036681771278</t>
   </si>
   <si>
     <t xml:space="preserve">0.170860290527344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172308266162872</t>
+    <t xml:space="preserve">0.172308251261711</t>
   </si>
   <si>
     <t xml:space="preserve">0.169412314891815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145520821213722</t>
+    <t xml:space="preserve">0.145520836114883</t>
   </si>
   <si>
     <t xml:space="preserve">0.149864748120308</t>
@@ -1997,37 +1997,37 @@
     <t xml:space="preserve">0.151312723755836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138642996549606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139728978276253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136833012104034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131041154265404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122353352606297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106787659227848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0912220180034637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0970138907432556</t>
+    <t xml:space="preserve">0.138642981648445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13972894847393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136833027005196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131041139364243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122353337705135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10678768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0912220254540443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0970138981938362</t>
   </si>
   <si>
     <t xml:space="preserve">0.0962899103760719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0977378785610199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.100633814930916</t>
+    <t xml:space="preserve">0.0977378860116005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.100633807480335</t>
   </si>
   <si>
     <t xml:space="preserve">0.10135780274868</t>
@@ -2036,64 +2036,64 @@
     <t xml:space="preserve">0.102443769574165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104253731667995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106063701212406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102805763483047</t>
+    <t xml:space="preserve">0.104253724217415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106063686311245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102805756032467</t>
   </si>
   <si>
     <t xml:space="preserve">0.105701699852943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103529751300812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106570489704609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107004873454571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108018457889557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107294477522373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102081783115864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103819340467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103674545884132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103964142501354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10483293235302</t>
+    <t xml:space="preserve">0.103529758751392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106570482254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107004880905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108018465340137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107294462621212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102081790566444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103819347918034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103674553334713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103964127600193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1048329398036</t>
   </si>
   <si>
     <t xml:space="preserve">0.105412118136883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108452834188938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111203990876675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10686007142067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10671528428793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122208543121815</t>
+    <t xml:space="preserve">0.108452849090099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111203983426094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106860086321831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10671529173851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122208550572395</t>
   </si>
   <si>
     <t xml:space="preserve">0.108163252472878</t>
@@ -2102,10 +2102,10 @@
     <t xml:space="preserve">0.109466418623924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103384949266911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104688122868538</t>
+    <t xml:space="preserve">0.103384956717491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104688130319118</t>
   </si>
   <si>
     <t xml:space="preserve">0.11047999560833</t>
@@ -2114,73 +2114,73 @@
     <t xml:space="preserve">0.112796738743782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110335201025009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113955125212669</t>
+    <t xml:space="preserve">0.11033520847559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113955102860928</t>
   </si>
   <si>
     <t xml:space="preserve">0.115692682564259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154932618141174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139004960656166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152760669589043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157104551792145</t>
+    <t xml:space="preserve">0.154932647943497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139004975557327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152760654687881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157104581594467</t>
   </si>
   <si>
     <t xml:space="preserve">0.151674702763557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149502754211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150588721036911</t>
+    <t xml:space="preserve">0.149502739310265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150588735938072</t>
   </si>
   <si>
     <t xml:space="preserve">0.148416772484779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148054778575897</t>
+    <t xml:space="preserve">0.148054793477058</t>
   </si>
   <si>
     <t xml:space="preserve">0.14465206861496</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141176924109459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148778766393661</t>
+    <t xml:space="preserve">0.14117693901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148778781294823</t>
   </si>
   <si>
     <t xml:space="preserve">0.14479686319828</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144362464547157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143638476729393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142769709229469</t>
+    <t xml:space="preserve">0.144362449645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143638491630554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142769679427147</t>
   </si>
   <si>
     <t xml:space="preserve">0.143928065896034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145158857107162</t>
+    <t xml:space="preserve">0.145158842206001</t>
   </si>
   <si>
     <t xml:space="preserve">0.144507259130478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147330805659294</t>
+    <t xml:space="preserve">0.147330790758133</t>
   </si>
   <si>
     <t xml:space="preserve">0.143493682146072</t>
@@ -2189,25 +2189,25 @@
     <t xml:space="preserve">0.140163347125053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140887349843979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900911927223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147692799568176</t>
+    <t xml:space="preserve">0.140887334942818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900926828384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147692784667015</t>
   </si>
   <si>
     <t xml:space="preserve">0.145882815122604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144217655062675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142624899744987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143059313297272</t>
+    <t xml:space="preserve">0.144217684864998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142624914646149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143059298396111</t>
   </si>
   <si>
     <t xml:space="preserve">0.154570639133453</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">0.143348872661591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143783256411552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142480105161667</t>
+    <t xml:space="preserve">0.143783286213875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142480090260506</t>
   </si>
   <si>
     <t xml:space="preserve">0.138136193156242</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">0.158552557229996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158914551138878</t>
+    <t xml:space="preserve">0.158914536237717</t>
   </si>
   <si>
     <t xml:space="preserve">0.153846651315689</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">0.150226727128029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152398675680161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150950729846954</t>
+    <t xml:space="preserve">0.152398690581322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150950714945793</t>
   </si>
   <si>
     <t xml:space="preserve">0.155294626951218</t>
@@ -2255,16 +2255,16 @@
     <t xml:space="preserve">0.160000517964363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15746659040451</t>
+    <t xml:space="preserve">0.157466575503349</t>
   </si>
   <si>
     <t xml:space="preserve">0.156742602586746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159276530146599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169774308800697</t>
+    <t xml:space="preserve">0.15927654504776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169774323701859</t>
   </si>
   <si>
     <t xml:space="preserve">0.16832634806633</t>
@@ -2279,10 +2279,10 @@
     <t xml:space="preserve">0.169050335884094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171222269535065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17194627225399</t>
+    <t xml:space="preserve">0.171222284436226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171946242451668</t>
   </si>
   <si>
     <t xml:space="preserve">0.177014157176018</t>
@@ -2303,19 +2303,19 @@
     <t xml:space="preserve">0.179186105728149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177738130092621</t>
+    <t xml:space="preserve">0.177738144993782</t>
   </si>
   <si>
     <t xml:space="preserve">0.17556619644165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175928175449371</t>
+    <t xml:space="preserve">0.175928190350533</t>
   </si>
   <si>
     <t xml:space="preserve">0.175204187631607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174842193722725</t>
+    <t xml:space="preserve">0.174842223525047</t>
   </si>
   <si>
     <t xml:space="preserve">0.176652163267136</t>
@@ -2333,22 +2333,22 @@
     <t xml:space="preserve">0.17977873980999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179387897253036</t>
+    <t xml:space="preserve">0.179387912154198</t>
   </si>
   <si>
     <t xml:space="preserve">0.177824631333351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175088867545128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173525586724281</t>
+    <t xml:space="preserve">0.175088852643967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17352557182312</t>
   </si>
   <si>
     <t xml:space="preserve">0.174698039889336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178997099399567</t>
+    <t xml:space="preserve">0.178997084498405</t>
   </si>
   <si>
     <t xml:space="preserve">0.175479680299759</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">0.175870507955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173916399478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178606271743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171180635690689</t>
+    <t xml:space="preserve">0.17391636967659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178606256842613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171180620789528</t>
   </si>
   <si>
     <t xml:space="preserve">0.169226512312889</t>
@@ -2393,10 +2393,10 @@
     <t xml:space="preserve">0.172743916511536</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169617310166359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170008167624474</t>
+    <t xml:space="preserve">0.16961732506752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170008152723312</t>
   </si>
   <si>
     <t xml:space="preserve">0.172353103756905</t>
@@ -2405,19 +2405,19 @@
     <t xml:space="preserve">0.168054044246674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170398980379105</t>
+    <t xml:space="preserve">0.170398965477943</t>
   </si>
   <si>
     <t xml:space="preserve">0.167663216590881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166881576180458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165709093213081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166490763425827</t>
+    <t xml:space="preserve">0.166881561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165709108114243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166490748524666</t>
   </si>
   <si>
     <t xml:space="preserve">0.16531828045845</t>
@@ -2426,10 +2426,10 @@
     <t xml:space="preserve">0.166099920868874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164536625146866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161410048604012</t>
+    <t xml:space="preserve">0.164536640048027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161410018801689</t>
   </si>
   <si>
     <t xml:space="preserve">0.162582516670227</t>
@@ -2453,55 +2453,55 @@
     <t xml:space="preserve">0.168835699558258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160237580537796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162973344326019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164145812392235</t>
+    <t xml:space="preserve">0.160237565636635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162973329424858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164145797491074</t>
   </si>
   <si>
     <t xml:space="preserve">0.161800876259804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159455940127373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158674269914627</t>
+    <t xml:space="preserve">0.15945591032505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158674284815788</t>
   </si>
   <si>
     <t xml:space="preserve">0.159846752882004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159065112471581</t>
+    <t xml:space="preserve">0.159065097570419</t>
   </si>
   <si>
     <t xml:space="preserve">0.161019220948219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163364171981812</t>
+    <t xml:space="preserve">0.16336415708065</t>
   </si>
   <si>
     <t xml:space="preserve">0.182905316352844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186031922698021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184468626976013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184859439730644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182123690843582</t>
+    <t xml:space="preserve">0.18603190779686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184468612074852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184859454631805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18212366104126</t>
   </si>
   <si>
     <t xml:space="preserve">0.180169552564621</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181429505348206</t>
+    <t xml:space="preserve">0.181429490447044</t>
   </si>
   <si>
     <t xml:space="preserve">0.17890964448452</t>
@@ -2513,28 +2513,31 @@
     <t xml:space="preserve">0.184369340538979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178489655256271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178069680929184</t>
+    <t xml:space="preserve">0.178489670157433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178069695830345</t>
   </si>
   <si>
     <t xml:space="preserve">0.176389783620834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181009501218796</t>
+    <t xml:space="preserve">0.181009516119957</t>
   </si>
   <si>
     <t xml:space="preserve">0.177229732275009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174709886312485</t>
+    <t xml:space="preserve">0.174709901213646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180169567465782</t>
   </si>
   <si>
     <t xml:space="preserve">0.177649706602097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179749593138695</t>
+    <t xml:space="preserve">0.179749578237534</t>
   </si>
   <si>
     <t xml:space="preserve">0.182269439101219</t>
@@ -2543,7 +2546,7 @@
     <t xml:space="preserve">0.18058954179287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179329618811607</t>
+    <t xml:space="preserve">0.179329603910446</t>
   </si>
   <si>
     <t xml:space="preserve">0.17554983496666</t>
@@ -2561,7 +2564,7 @@
     <t xml:space="preserve">0.188149109482765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18730916082859</t>
+    <t xml:space="preserve">0.187309145927429</t>
   </si>
   <si>
     <t xml:space="preserve">0.188569083809853</t>
@@ -2570,13 +2573,13 @@
     <t xml:space="preserve">0.189829006791115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187729120254517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173449948430061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174289911985397</t>
+    <t xml:space="preserve">0.187729135155678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1734499335289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174289897084236</t>
   </si>
   <si>
     <t xml:space="preserve">0.169670179486275</t>
@@ -2585,7 +2588,7 @@
     <t xml:space="preserve">0.159254789352417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163118541240692</t>
+    <t xml:space="preserve">0.163118556141853</t>
   </si>
   <si>
     <t xml:space="preserve">0.171350076794624</t>
@@ -2597,13 +2600,13 @@
     <t xml:space="preserve">0.17386993765831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181849479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183529362082481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186469197273254</t>
+    <t xml:space="preserve">0.181849464774132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183529376983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186469212174416</t>
   </si>
   <si>
     <t xml:space="preserve">0.183949336409569</t>
@@ -2621,7 +2624,7 @@
     <t xml:space="preserve">0.191928878426552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187119737267494</t>
+    <t xml:space="preserve">0.187119722366333</t>
   </si>
   <si>
     <t xml:space="preserve">0.186245337128639</t>
@@ -2636,10 +2639,10 @@
     <t xml:space="preserve">0.17837581038475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18318498134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180561795830727</t>
+    <t xml:space="preserve">0.183184966444969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180561780929565</t>
   </si>
   <si>
     <t xml:space="preserve">0.179687410593033</t>
@@ -2648,7 +2651,7 @@
     <t xml:space="preserve">0.177501425147057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178813010454178</t>
+    <t xml:space="preserve">0.178813025355339</t>
   </si>
   <si>
     <t xml:space="preserve">0.179250210523605</t>
@@ -2660,7 +2663,7 @@
     <t xml:space="preserve">0.180998995900154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181873381137848</t>
+    <t xml:space="preserve">0.181873396039009</t>
   </si>
   <si>
     <t xml:space="preserve">0.174878254532814</t>
@@ -2669,22 +2672,22 @@
     <t xml:space="preserve">0.163161411881447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167183607816696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168757513165474</t>
+    <t xml:space="preserve">0.167183622717857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168757528066635</t>
   </si>
   <si>
     <t xml:space="preserve">0.16788312792778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168932408094406</t>
+    <t xml:space="preserve">0.168932393193245</t>
   </si>
   <si>
     <t xml:space="preserve">0.167008727788925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165609702467918</t>
+    <t xml:space="preserve">0.16560971736908</t>
   </si>
   <si>
     <t xml:space="preserve">0.16176238656044</t>
@@ -2696,7 +2699,7 @@
     <t xml:space="preserve">0.16386091709137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175752654671669</t>
+    <t xml:space="preserve">0.175752639770508</t>
   </si>
   <si>
     <t xml:space="preserve">0.174353614449501</t>
@@ -2720,25 +2723,25 @@
     <t xml:space="preserve">0.173479229211807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169107258319855</t>
+    <t xml:space="preserve">0.169107273221016</t>
   </si>
   <si>
     <t xml:space="preserve">0.172080188989639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170856058597565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172429963946342</t>
+    <t xml:space="preserve">0.170856043696404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172429949045181</t>
   </si>
   <si>
     <t xml:space="preserve">0.171555563807487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169631913304329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166484102606773</t>
+    <t xml:space="preserve">0.169631898403168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166484087705612</t>
   </si>
   <si>
     <t xml:space="preserve">0.174003854393959</t>
@@ -2750,10 +2753,10 @@
     <t xml:space="preserve">0.171730443835258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166134342551231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170681163668633</t>
+    <t xml:space="preserve">0.16613432765007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170681178569794</t>
   </si>
   <si>
     <t xml:space="preserve">0.16805799305439</t>
@@ -2765,7 +2768,7 @@
     <t xml:space="preserve">0.167358487844467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167708247900009</t>
+    <t xml:space="preserve">0.167708232998848</t>
   </si>
   <si>
     <t xml:space="preserve">0.167533367872238</t>
@@ -2777,7 +2780,7 @@
     <t xml:space="preserve">0.166833847761154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169457018375397</t>
+    <t xml:space="preserve">0.169457033276558</t>
   </si>
   <si>
     <t xml:space="preserve">0.169806778430939</t>
@@ -2816,10 +2819,10 @@
     <t xml:space="preserve">0.176627039909363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17531543970108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176189839839935</t>
+    <t xml:space="preserve">0.175315454602242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176189824938774</t>
   </si>
   <si>
     <t xml:space="preserve">0.174178749322891</t>
@@ -2834,10 +2837,10 @@
     <t xml:space="preserve">0.170506283640862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171380668878555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171205818653107</t>
+    <t xml:space="preserve">0.171380683779716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171205803751945</t>
   </si>
   <si>
     <t xml:space="preserve">0.174703374505043</t>
@@ -2852,7 +2855,7 @@
     <t xml:space="preserve">0.188868522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185808137059212</t>
+    <t xml:space="preserve">0.185808151960373</t>
   </si>
   <si>
     <t xml:space="preserve">0.189742892980576</t>
@@ -2867,28 +2870,28 @@
     <t xml:space="preserve">0.187994122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186682537198067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183622166514397</t>
+    <t xml:space="preserve">0.186682522296906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183622151613235</t>
   </si>
   <si>
     <t xml:space="preserve">0.184933751821518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185370936989784</t>
+    <t xml:space="preserve">0.185370951890945</t>
   </si>
   <si>
     <t xml:space="preserve">0.18449655175209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182310566306114</t>
+    <t xml:space="preserve">0.182310581207275</t>
   </si>
   <si>
     <t xml:space="preserve">0.196738019585609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194989264011383</t>
+    <t xml:space="preserve">0.194989249110222</t>
   </si>
   <si>
     <t xml:space="preserve">0.197612419724464</t>
@@ -18188,7 +18191,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G571" t="s">
-        <v>438</v>
+        <v>104</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18214,7 +18217,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G572" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18240,7 +18243,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G573" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18266,7 +18269,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G574" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18292,7 +18295,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G575" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18318,7 +18321,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G576" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18552,7 +18555,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18578,7 +18581,7 @@
         <v>0.230000004172325</v>
       </c>
       <c r="G586" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18630,7 +18633,7 @@
         <v>0.227500006556511</v>
       </c>
       <c r="G588" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18734,7 +18737,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G592" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18760,7 +18763,7 @@
         <v>0.230000004172325</v>
       </c>
       <c r="G593" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18786,7 +18789,7 @@
         <v>0.227500006556511</v>
       </c>
       <c r="G594" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18812,7 +18815,7 @@
         <v>0.229499995708466</v>
       </c>
       <c r="G595" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18838,7 +18841,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G596" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -42628,7 +42631,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1511" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42654,7 +42657,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1512" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42680,7 +42683,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1513" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42758,7 +42761,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1516" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42784,7 +42787,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1517" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42810,7 +42813,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1518" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42836,7 +42839,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1519" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42888,7 +42891,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1521" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42914,7 +42917,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1522" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42992,7 +42995,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1525" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43018,7 +43021,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1526" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43044,7 +43047,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1527" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43070,7 +43073,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1528" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43122,7 +43125,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1530" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43148,7 +43151,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1531" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43200,7 +43203,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1533" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43356,7 +43359,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1539" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43434,7 +43437,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1542" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43460,7 +43463,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1543" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43486,7 +43489,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1544" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43564,7 +43567,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1547" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43590,7 +43593,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1548" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43642,7 +43645,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1550" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43668,7 +43671,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1551" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43772,7 +43775,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1555" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43798,7 +43801,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1556" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43824,7 +43827,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1557" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43850,7 +43853,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1558" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43876,7 +43879,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1559" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43902,7 +43905,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1560" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43928,7 +43931,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1561" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43980,7 +43983,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1563" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44006,7 +44009,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1564" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44032,7 +44035,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1565" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44110,7 +44113,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1568" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44136,7 +44139,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1569" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44162,7 +44165,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1570" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44188,7 +44191,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1571" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44214,7 +44217,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1572" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44240,7 +44243,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44266,7 +44269,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1574" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44292,7 +44295,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1575" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44318,7 +44321,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1576" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44344,7 +44347,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1577" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44370,7 +44373,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1578" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44422,7 +44425,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1580" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44448,7 +44451,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1581" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44500,7 +44503,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1583" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44604,7 +44607,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1587" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44630,7 +44633,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1588" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44656,7 +44659,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1589" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44708,7 +44711,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1591" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44734,7 +44737,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1592" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44760,7 +44763,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1593" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44786,7 +44789,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1594" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44838,7 +44841,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1596" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44890,7 +44893,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1598" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44916,7 +44919,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1599" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44942,7 +44945,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1600" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44968,7 +44971,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1601" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44994,7 +44997,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1602" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45020,7 +45023,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1603" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45046,7 +45049,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1604" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45072,7 +45075,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1605" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45098,7 +45101,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1606" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45124,7 +45127,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1607" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45150,7 +45153,7 @@
         <v>0.221499994397163</v>
       </c>
       <c r="G1608" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45176,7 +45179,7 @@
         <v>0.228499993681908</v>
       </c>
       <c r="G1609" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45202,7 +45205,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1610" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45228,7 +45231,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1611" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45254,7 +45257,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1612" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45280,7 +45283,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1613" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45306,7 +45309,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1614" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45332,7 +45335,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45358,7 +45361,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1616" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45384,7 +45387,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1617" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45410,7 +45413,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1618" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45436,7 +45439,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1619" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45462,7 +45465,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45488,7 +45491,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45514,7 +45517,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45540,7 +45543,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1623" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45566,7 +45569,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1624" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45592,7 +45595,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45618,7 +45621,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1626" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45644,7 +45647,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1627" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45670,7 +45673,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1628" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45696,7 +45699,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1629" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45722,7 +45725,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1630" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45748,7 +45751,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1631" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45774,7 +45777,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1632" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45800,7 +45803,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1633" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45826,7 +45829,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1634" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45852,7 +45855,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1635" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45878,7 +45881,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1636" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45904,7 +45907,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1637" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45930,7 +45933,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1638" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45956,7 +45959,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1639" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45982,7 +45985,7 @@
         <v>0.186599999666214</v>
       </c>
       <c r="G1640" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46008,7 +46011,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1641" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46034,7 +46037,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1642" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46060,7 +46063,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1643" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46086,7 +46089,7 @@
         <v>0.193200007081032</v>
       </c>
       <c r="G1644" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46112,7 +46115,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1645" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46138,7 +46141,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1646" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46164,7 +46167,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1647" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46190,7 +46193,7 @@
         <v>0.185000002384186</v>
       </c>
       <c r="G1648" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46216,7 +46219,7 @@
         <v>0.187199994921684</v>
       </c>
       <c r="G1649" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46242,7 +46245,7 @@
         <v>0.187399998307228</v>
       </c>
       <c r="G1650" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46268,7 +46271,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1651" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46294,7 +46297,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1652" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46320,7 +46323,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1653" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46346,7 +46349,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1654" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46372,7 +46375,7 @@
         <v>0.192800000309944</v>
       </c>
       <c r="G1655" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46398,7 +46401,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1656" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46424,7 +46427,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1657" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46450,7 +46453,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1658" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46476,7 +46479,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1659" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46502,7 +46505,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1660" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46528,7 +46531,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1661" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46554,7 +46557,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1662" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46580,7 +46583,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1663" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46606,7 +46609,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1664" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46632,7 +46635,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G1665" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46658,7 +46661,7 @@
         <v>0.197200000286102</v>
       </c>
       <c r="G1666" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46684,7 +46687,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1667" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46710,7 +46713,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1668" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46736,7 +46739,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1669" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46762,7 +46765,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1670" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46788,7 +46791,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1671" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46814,7 +46817,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1672" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46840,7 +46843,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1673" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46866,7 +46869,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1674" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46892,7 +46895,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1675" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46918,7 +46921,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1676" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46944,7 +46947,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1677" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46970,7 +46973,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1678" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46996,7 +46999,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1679" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47022,7 +47025,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1680" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47048,7 +47051,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1681" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47074,7 +47077,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1682" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47100,7 +47103,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1683" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47126,7 +47129,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1684" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47152,7 +47155,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1685" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47178,7 +47181,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1686" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47204,7 +47207,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1687" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47230,7 +47233,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1688" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47256,7 +47259,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1689" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47282,7 +47285,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1690" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47308,7 +47311,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1691" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47334,7 +47337,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1692" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47360,7 +47363,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47386,7 +47389,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1694" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47412,7 +47415,7 @@
         <v>0.190599992871284</v>
       </c>
       <c r="G1695" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47438,7 +47441,7 @@
         <v>0.19140000641346</v>
       </c>
       <c r="G1696" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47464,7 +47467,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1697" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47490,7 +47493,7 @@
         <v>0.191799998283386</v>
       </c>
       <c r="G1698" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47516,7 +47519,7 @@
         <v>0.191599994897842</v>
       </c>
       <c r="G1699" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47542,7 +47545,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1700" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47568,7 +47571,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1701" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47594,7 +47597,7 @@
         <v>0.190799996256828</v>
       </c>
       <c r="G1702" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47620,7 +47623,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1703" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47646,7 +47649,7 @@
         <v>0.193800002336502</v>
       </c>
       <c r="G1704" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47672,7 +47675,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1705" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47698,7 +47701,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1706" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47724,7 +47727,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1707" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47750,7 +47753,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1708" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47776,7 +47779,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1709" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47802,7 +47805,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1710" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47828,7 +47831,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1711" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47854,7 +47857,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1712" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47880,7 +47883,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1713" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47906,7 +47909,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1714" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47932,7 +47935,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1715" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47958,7 +47961,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1716" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47984,7 +47987,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1717" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48010,7 +48013,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1718" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48036,7 +48039,7 @@
         <v>0.192399993538857</v>
       </c>
       <c r="G1719" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48062,7 +48065,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1720" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48088,7 +48091,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1721" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48114,7 +48117,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1722" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48140,7 +48143,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1723" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48166,7 +48169,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1724" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48192,7 +48195,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1725" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48218,7 +48221,7 @@
         <v>0.187000006437302</v>
       </c>
       <c r="G1726" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48244,7 +48247,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1727" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48270,7 +48273,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1728" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48296,7 +48299,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1729" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48322,7 +48325,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1730" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48348,7 +48351,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1731" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48374,7 +48377,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1732" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48400,7 +48403,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1733" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48426,7 +48429,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1734" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48452,7 +48455,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1735" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48478,7 +48481,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1736" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48504,7 +48507,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1737" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48530,7 +48533,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1738" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48556,7 +48559,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1739" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48582,7 +48585,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1740" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48608,7 +48611,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1741" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48634,7 +48637,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1742" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48660,7 +48663,7 @@
         <v>0.195600003004074</v>
       </c>
       <c r="G1743" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48686,7 +48689,7 @@
         <v>0.19480000436306</v>
       </c>
       <c r="G1744" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48712,7 +48715,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1745" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48738,7 +48741,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1746" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48764,7 +48767,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1747" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48790,7 +48793,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1748" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48816,7 +48819,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1749" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48842,7 +48845,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1750" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48868,7 +48871,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1751" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48894,7 +48897,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1752" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48920,7 +48923,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1753" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48946,7 +48949,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1754" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48972,7 +48975,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1755" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48998,7 +49001,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1756" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49024,7 +49027,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1757" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49050,7 +49053,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G1758" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49076,7 +49079,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1759" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49102,7 +49105,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1760" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49128,7 +49131,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1761" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49154,7 +49157,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1762" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49180,7 +49183,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1763" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49206,7 +49209,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1764" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49232,7 +49235,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1765" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49258,7 +49261,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1766" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49284,7 +49287,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1767" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49310,7 +49313,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1768" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49336,7 +49339,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1769" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49362,7 +49365,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1770" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49388,7 +49391,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1771" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49414,7 +49417,7 @@
         <v>0.194999992847443</v>
       </c>
       <c r="G1772" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49440,7 +49443,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1773" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49466,7 +49469,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1774" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49492,7 +49495,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1775" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49518,7 +49521,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1776" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49544,7 +49547,7 @@
         <v>0.195999994874001</v>
       </c>
       <c r="G1777" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49570,7 +49573,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1778" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49596,7 +49599,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1779" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49622,7 +49625,7 @@
         <v>0.195800006389618</v>
       </c>
       <c r="G1780" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49648,7 +49651,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1781" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49674,7 +49677,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1782" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49700,7 +49703,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1783" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49726,7 +49729,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1784" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49752,7 +49755,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1785" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49778,7 +49781,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1786" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49804,7 +49807,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1787" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49830,7 +49833,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1788" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49856,7 +49859,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1789" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49882,7 +49885,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1790" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49908,7 +49911,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1791" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49934,7 +49937,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1792" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49960,7 +49963,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1793" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49986,7 +49989,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1794" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50012,7 +50015,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1795" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50038,7 +50041,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50064,7 +50067,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1797" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50090,7 +50093,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1798" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50116,7 +50119,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1799" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50142,7 +50145,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1800" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50168,7 +50171,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1801" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50194,7 +50197,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1802" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50220,7 +50223,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1803" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50246,7 +50249,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1804" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50272,7 +50275,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1805" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50298,7 +50301,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1806" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50324,7 +50327,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1807" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50350,7 +50353,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1808" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50376,7 +50379,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1809" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50402,7 +50405,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1810" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50428,7 +50431,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1811" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50454,7 +50457,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1812" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50480,7 +50483,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1813" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50506,7 +50509,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1814" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50532,7 +50535,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1815" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50558,7 +50561,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1816" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50584,7 +50587,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1817" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50610,7 +50613,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1818" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50636,7 +50639,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1819" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50662,7 +50665,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1820" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50688,7 +50691,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1821" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50714,7 +50717,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1822" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50740,7 +50743,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1823" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50766,7 +50769,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1824" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50792,7 +50795,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1825" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50818,7 +50821,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1826" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50844,7 +50847,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1827" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50870,7 +50873,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1828" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50896,7 +50899,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1829" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50922,7 +50925,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1830" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50948,7 +50951,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1831" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50974,7 +50977,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1832" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51000,7 +51003,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1833" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51026,7 +51029,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1834" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51052,7 +51055,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1835" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51078,7 +51081,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1836" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51104,7 +51107,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1837" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51130,7 +51133,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1838" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51156,7 +51159,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1839" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51182,7 +51185,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1840" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51208,7 +51211,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1841" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51234,7 +51237,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1842" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51260,7 +51263,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1843" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51286,7 +51289,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1844" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51312,7 +51315,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1845" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51338,7 +51341,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1846" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51364,7 +51367,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1847" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51390,7 +51393,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1848" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51416,7 +51419,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1849" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51442,7 +51445,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1850" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51468,7 +51471,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1851" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51494,7 +51497,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G1852" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51520,7 +51523,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1853" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51546,7 +51549,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1854" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51572,7 +51575,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1855" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51598,7 +51601,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1856" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51624,7 +51627,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1857" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51650,7 +51653,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1858" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51676,7 +51679,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51702,7 +51705,7 @@
         <v>0.228000000119209</v>
       </c>
       <c r="G1860" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51728,7 +51731,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1861" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51754,7 +51757,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1862" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51780,7 +51783,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1863" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51806,7 +51809,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51832,7 +51835,7 @@
         <v>0.231000006198883</v>
       </c>
       <c r="G1865" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51858,7 +51861,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1866" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51884,7 +51887,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1867" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51910,7 +51913,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1868" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51936,7 +51939,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1869" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51962,7 +51965,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1870" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51988,7 +51991,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1871" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52014,7 +52017,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1872" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52040,7 +52043,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1873" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52066,7 +52069,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1874" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52092,7 +52095,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1875" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52118,7 +52121,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1876" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52144,7 +52147,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1877" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52170,7 +52173,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1878" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52196,7 +52199,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1879" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52222,7 +52225,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1880" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52248,7 +52251,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1881" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52274,7 +52277,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1882" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52300,7 +52303,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1883" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52326,7 +52329,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1884" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52352,7 +52355,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1885" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52378,7 +52381,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1886" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52404,7 +52407,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1887" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52430,7 +52433,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1888" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52456,7 +52459,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1889" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52482,7 +52485,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1890" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52508,7 +52511,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1891" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52534,7 +52537,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1892" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52560,7 +52563,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1893" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52586,7 +52589,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1894" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52612,7 +52615,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1895" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52638,7 +52641,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1896" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52664,7 +52667,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1897" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52690,7 +52693,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1898" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52716,7 +52719,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1899" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52742,7 +52745,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1900" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52768,7 +52771,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1901" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52794,7 +52797,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1902" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52820,7 +52823,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1903" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52846,7 +52849,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1904" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52872,7 +52875,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1905" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52898,7 +52901,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1906" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52924,7 +52927,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1907" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52950,7 +52953,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1908" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52976,7 +52979,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1909" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53002,7 +53005,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1910" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53028,7 +53031,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1911" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53054,7 +53057,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1912" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53080,7 +53083,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1913" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53106,7 +53109,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1914" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53132,7 +53135,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1915" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53158,7 +53161,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1916" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53184,7 +53187,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1917" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53210,7 +53213,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1918" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53236,7 +53239,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1919" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53262,7 +53265,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1920" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53288,7 +53291,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1921" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53314,7 +53317,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1922" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53340,7 +53343,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1923" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53366,7 +53369,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1924" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53392,7 +53395,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1925" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53418,7 +53421,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1926" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53444,7 +53447,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1927" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53470,7 +53473,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1928" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53496,7 +53499,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1929" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53522,7 +53525,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1930" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53548,7 +53551,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1931" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53574,7 +53577,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1932" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53600,7 +53603,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1933" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53626,7 +53629,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1934" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53652,7 +53655,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1935" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53678,7 +53681,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1936" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53704,7 +53707,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53730,7 +53733,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1938" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53756,7 +53759,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1939" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53782,7 +53785,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1940" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53808,7 +53811,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1941" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53834,7 +53837,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1942" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53860,7 +53863,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53886,7 +53889,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53912,7 +53915,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1945" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53938,7 +53941,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1946" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53964,7 +53967,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53990,7 +53993,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1948" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54016,7 +54019,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54042,7 +54045,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1950" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54068,7 +54071,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54094,7 +54097,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1952" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54120,7 +54123,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54146,7 +54149,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1954" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54172,7 +54175,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1955" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54198,7 +54201,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1956" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54224,7 +54227,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1957" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54250,7 +54253,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54276,7 +54279,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1959" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54302,7 +54305,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1960" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54328,7 +54331,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1961" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54354,7 +54357,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1962" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54380,7 +54383,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54406,7 +54409,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54432,7 +54435,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1965" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54458,7 +54461,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1966" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54484,7 +54487,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1967" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54510,7 +54513,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1968" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54536,7 +54539,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1969" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54562,7 +54565,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1970" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54588,7 +54591,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1971" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54614,7 +54617,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1972" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54640,7 +54643,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1973" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54666,7 +54669,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1974" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54692,7 +54695,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1975" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54718,7 +54721,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54744,7 +54747,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1977" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54770,7 +54773,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1978" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54796,7 +54799,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1979" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54822,7 +54825,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1980" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54848,7 +54851,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1981" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54874,7 +54877,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1982" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54900,7 +54903,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1983" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54926,7 +54929,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1984" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54952,7 +54955,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1985" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54978,7 +54981,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1986" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55004,7 +55007,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1987" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55030,7 +55033,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55056,7 +55059,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1989" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55082,7 +55085,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55108,7 +55111,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1991" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55134,7 +55137,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1992" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55160,7 +55163,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1993" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55186,7 +55189,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1994" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55212,7 +55215,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1995" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55238,7 +55241,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1996" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55264,7 +55267,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1997" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55290,7 +55293,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1998" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55316,7 +55319,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1999" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55342,7 +55345,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2000" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55368,7 +55371,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55394,7 +55397,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2002" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55420,7 +55423,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55446,7 +55449,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2004" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55472,7 +55475,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55498,7 +55501,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2006" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55524,7 +55527,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2007" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55550,7 +55553,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2008" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55576,7 +55579,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2009" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55602,7 +55605,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2010" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55628,7 +55631,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2011" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55654,7 +55657,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2012" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55680,7 +55683,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2013" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55706,7 +55709,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2014" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55732,7 +55735,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2015" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55758,7 +55761,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2016" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55784,7 +55787,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2017" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55810,7 +55813,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2018" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55836,7 +55839,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2019" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55862,7 +55865,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2020" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55888,7 +55891,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2021" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55914,7 +55917,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55940,7 +55943,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2023" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55966,7 +55969,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2024" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55992,7 +55995,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2025" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56018,7 +56021,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56044,7 +56047,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2027" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56070,7 +56073,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56096,7 +56099,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2029" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56122,7 +56125,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2030" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56148,7 +56151,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2031" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56174,7 +56177,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2032" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56200,7 +56203,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2033" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56226,7 +56229,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2034" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56252,7 +56255,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2035" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56278,7 +56281,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2036" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56304,7 +56307,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2037" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56330,7 +56333,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2038" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56356,7 +56359,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2039" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56382,7 +56385,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56408,7 +56411,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2041" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56434,7 +56437,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2042" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56460,7 +56463,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2043" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56486,7 +56489,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2044" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56512,7 +56515,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2045" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56538,7 +56541,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2046" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56564,7 +56567,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2047" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56590,7 +56593,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2048" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56616,7 +56619,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2049" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56642,7 +56645,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56668,7 +56671,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56694,7 +56697,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2052" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56720,7 +56723,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2053" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56746,7 +56749,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2054" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56772,7 +56775,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2055" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56798,7 +56801,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2056" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56824,7 +56827,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2057" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56850,7 +56853,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2058" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56876,7 +56879,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2059" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56902,7 +56905,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2060" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56928,7 +56931,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2061" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56954,7 +56957,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2062" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56980,7 +56983,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57006,7 +57009,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2064" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57032,7 +57035,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2065" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57058,7 +57061,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57084,7 +57087,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57110,7 +57113,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2068" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57136,7 +57139,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2069" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57162,7 +57165,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57188,7 +57191,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57214,7 +57217,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57240,7 +57243,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57266,7 +57269,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2074" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57292,7 +57295,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57318,7 +57321,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2076" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57344,7 +57347,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2077" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57370,7 +57373,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2078" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57396,7 +57399,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2079" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57422,7 +57425,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2080" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57448,7 +57451,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2081" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57474,7 +57477,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2082" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57500,7 +57503,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2083" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57526,7 +57529,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2084" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57552,7 +57555,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2085" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57578,7 +57581,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2086" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57604,7 +57607,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2087" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57630,7 +57633,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2088" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57656,7 +57659,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2089" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57682,7 +57685,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2090" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57708,7 +57711,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2091" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57734,7 +57737,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2092" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57760,7 +57763,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2093" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57786,7 +57789,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2094" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57812,7 +57815,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2095" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57838,7 +57841,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2096" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57864,7 +57867,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2097" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57890,7 +57893,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2098" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57916,7 +57919,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2099" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57942,7 +57945,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2100" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57968,7 +57971,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2101" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57994,7 +57997,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2102" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58020,7 +58023,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2103" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58046,7 +58049,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2104" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58072,7 +58075,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2105" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58098,7 +58101,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2106" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58124,7 +58127,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2107" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58150,7 +58153,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2108" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58176,7 +58179,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2109" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58202,7 +58205,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2110" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58228,7 +58231,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2111" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58254,7 +58257,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2112" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58280,7 +58283,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2113" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58306,7 +58309,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2114" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58332,7 +58335,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2115" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58358,7 +58361,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2116" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58384,7 +58387,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2117" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58410,7 +58413,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2118" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58436,7 +58439,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2119" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58462,7 +58465,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2120" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58488,7 +58491,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2121" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58514,7 +58517,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2122" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58540,7 +58543,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G2123" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58566,7 +58569,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2124" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58592,7 +58595,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2125" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58618,7 +58621,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2126" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58644,7 +58647,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2127" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58670,7 +58673,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2128" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58696,7 +58699,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2129" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58722,7 +58725,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2130" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58748,7 +58751,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2131" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58774,7 +58777,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2132" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58800,7 +58803,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2133" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58826,7 +58829,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2134" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58852,7 +58855,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2135" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58878,7 +58881,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2136" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58904,7 +58907,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2137" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58930,7 +58933,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2138" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58956,7 +58959,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2139" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58982,7 +58985,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2140" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59008,7 +59011,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2141" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59034,7 +59037,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2142" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59060,7 +59063,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2143" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59086,7 +59089,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2144" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59112,7 +59115,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2145" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59138,7 +59141,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2146" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59164,7 +59167,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2147" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59190,7 +59193,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2148" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59216,7 +59219,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2149" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59242,7 +59245,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2150" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59268,7 +59271,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2151" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59294,7 +59297,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2152" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59320,7 +59323,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2153" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59328,7 +59331,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6494212963</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>577513</v>
@@ -59346,9 +59349,35 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2154" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6493287037</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>207830</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>0.208000004291534</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.208000004291534</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>996</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,82 +38,82 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174470022320747</t>
+    <t xml:space="preserve">0.17447005212307</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174941942095757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171099305152893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169144257903099</t>
+    <t xml:space="preserve">0.174941971898079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171099275350571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169144287705421</t>
   </si>
   <si>
     <t xml:space="preserve">0.166178002953529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163481399416924</t>
+    <t xml:space="preserve">0.163481414318085</t>
   </si>
   <si>
     <t xml:space="preserve">0.165908336639404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167324066162109</t>
+    <t xml:space="preserve">0.167324051260948</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267241537571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157144382596016</t>
+    <t xml:space="preserve">0.157144367694855</t>
   </si>
   <si>
     <t xml:space="preserve">0.146627649664879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148515254259109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138335630297661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144740045070648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148313015699387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148380428552628</t>
+    <t xml:space="preserve">0.148515269160271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1383356153965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144740030169487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148313000798225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148380413651466</t>
   </si>
   <si>
     <t xml:space="preserve">0.158223018050194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152357921004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152088269591331</t>
+    <t xml:space="preserve">0.152357906103134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152088284492493</t>
   </si>
   <si>
     <t xml:space="preserve">0.155054524540901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15438038110733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150335475802422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14548160135746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14258274435997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142717555165291</t>
+    <t xml:space="preserve">0.154380366206169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150335490703583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145481586456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142582729458809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142717584967613</t>
   </si>
   <si>
     <t xml:space="preserve">0.13132444024086</t>
@@ -134,22 +134,22 @@
     <t xml:space="preserve">0.138200774788857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143459141254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14022321999073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137998506426811</t>
+    <t xml:space="preserve">0.143459156155586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140223205089569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137998536229134</t>
   </si>
   <si>
     <t xml:space="preserve">0.144605189561844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14251534640789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141976028680801</t>
+    <t xml:space="preserve">0.142515331506729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14197601377964</t>
   </si>
   <si>
     <t xml:space="preserve">0.14372880756855</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">0.144065871834755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142987221479416</t>
+    <t xml:space="preserve">0.142987236380577</t>
   </si>
   <si>
     <t xml:space="preserve">0.147706285119057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153166919946671</t>
+    <t xml:space="preserve">0.153166890144348</t>
   </si>
   <si>
     <t xml:space="preserve">0.154178112745285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150942221283913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150672554969788</t>
+    <t xml:space="preserve">0.150942206382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150672540068626</t>
   </si>
   <si>
     <t xml:space="preserve">0.154717430472374</t>
@@ -182,19 +182,19 @@
     <t xml:space="preserve">0.156470239162445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162402778863907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164492636919022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161796003580093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160852208733559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158088237047195</t>
+    <t xml:space="preserve">0.162402763962746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16449262201786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161796018481255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160852193832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158088222146034</t>
   </si>
   <si>
     <t xml:space="preserve">0.15909942984581</t>
@@ -203,79 +203,79 @@
     <t xml:space="preserve">0.155526429414749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154312953352928</t>
+    <t xml:space="preserve">0.154312968254089</t>
   </si>
   <si>
     <t xml:space="preserve">0.148987174034119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15020065009594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150065809488297</t>
+    <t xml:space="preserve">0.150200635194778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150065824389458</t>
   </si>
   <si>
     <t xml:space="preserve">0.149930983781815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146964728832245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144268110394478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142245680093765</t>
+    <t xml:space="preserve">0.146964713931084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144268125295639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142245650291443</t>
   </si>
   <si>
     <t xml:space="preserve">0.138268187642097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1478411257267</t>
+    <t xml:space="preserve">0.147841110825539</t>
   </si>
   <si>
     <t xml:space="preserve">0.151751175522804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157279208302498</t>
+    <t xml:space="preserve">0.157279223203659</t>
   </si>
   <si>
     <t xml:space="preserve">0.156874731183052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155998334288597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156942144036293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152695000171661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157009556889534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152560174465179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122473835945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154429957270622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150274872779846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150828912854195</t>
+    <t xml:space="preserve">0.155998319387436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156942158937454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1526949852705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157009541988373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152560189366341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122458934784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154429942369461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150274857878685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150828897953033</t>
   </si>
   <si>
     <t xml:space="preserve">0.147781848907471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147712603211403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146812319755554</t>
+    <t xml:space="preserve">0.147712588310242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146812334656715</t>
   </si>
   <si>
     <t xml:space="preserve">0.142657250165939</t>
@@ -287,13 +287,13 @@
     <t xml:space="preserve">0.138155937194824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139817968010902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139887228608131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140579730272293</t>
+    <t xml:space="preserve">0.139817953109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13988721370697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140579715371132</t>
   </si>
   <si>
     <t xml:space="preserve">0.141272231936455</t>
@@ -302,31 +302,31 @@
     <t xml:space="preserve">0.139748722314835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141202986240387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144042283296585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14542730152607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144734814763069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145219534635544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147989585995674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144804060459137</t>
+    <t xml:space="preserve">0.141202971339226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144042268395424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145427286624908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144734799861908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145219549536705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147989600896835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
     <t xml:space="preserve">0.147574096918106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1488898396492</t>
+    <t xml:space="preserve">0.148889854550362</t>
   </si>
   <si>
     <t xml:space="preserve">0.148128092288971</t>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">0.144180774688721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146673798561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141826257109642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133654609322548</t>
+    <t xml:space="preserve">0.146673813462257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141826242208481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133654624223709</t>
   </si>
   <si>
     <t xml:space="preserve">0.132685095071793</t>
@@ -353,64 +353,64 @@
     <t xml:space="preserve">0.121881924569607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123890228569508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126244738698006</t>
+    <t xml:space="preserve">0.123890198767185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126244753599167</t>
   </si>
   <si>
     <t xml:space="preserve">0.123405449092388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125898480415344</t>
+    <t xml:space="preserve">0.125898495316505</t>
   </si>
   <si>
     <t xml:space="preserve">0.116341844201088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115787826478481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122574456036091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111895561218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12292069196701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12222820520401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118419386446476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113502539694309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110940262675285</t>
+    <t xml:space="preserve">0.115787833929062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122574433684349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111888110638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12292068451643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228175401688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419378995895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11350254714489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110940255224705</t>
   </si>
   <si>
     <t xml:space="preserve">0.118904136121273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122297428548336</t>
+    <t xml:space="preserve">0.122297435998917</t>
   </si>
   <si>
     <t xml:space="preserve">0.126452505588531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124651983380318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126175493001938</t>
+    <t xml:space="preserve">0.124651990830898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126175507903099</t>
   </si>
   <si>
     <t xml:space="preserve">0.130953833460808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128668531775475</t>
+    <t xml:space="preserve">0.128668546676636</t>
   </si>
   <si>
     <t xml:space="preserve">0.128460764884949</t>
@@ -422,16 +422,16 @@
     <t xml:space="preserve">0.127422019839287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126729503273964</t>
+    <t xml:space="preserve">0.126729488372803</t>
   </si>
   <si>
     <t xml:space="preserve">0.128253042697906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130884543061256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131161600351334</t>
+    <t xml:space="preserve">0.130884572863579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131161570549011</t>
   </si>
   <si>
     <t xml:space="preserve">0.127976030111313</t>
@@ -440,34 +440,34 @@
     <t xml:space="preserve">0.120496913790703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118211627006531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172859609127</t>
+    <t xml:space="preserve">0.118211604654789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172844707966</t>
   </si>
   <si>
     <t xml:space="preserve">0.114956811070442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116618864238262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118627138435841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11980439722538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765629827976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912417769432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718565881252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319640100002</t>
+    <t xml:space="preserve">0.116618849337101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11862713098526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119804382324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765622377396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912410318851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718573331833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319625198841</t>
   </si>
   <si>
     <t xml:space="preserve">0.119250372052193</t>
@@ -476,46 +476,46 @@
     <t xml:space="preserve">0.118834882974625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121258676052094</t>
+    <t xml:space="preserve">0.121258661150932</t>
   </si>
   <si>
     <t xml:space="preserve">0.122505187988281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197689652443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125552237033844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125690758228302</t>
+    <t xml:space="preserve">0.123197712004185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552222132683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125690743327141</t>
   </si>
   <si>
     <t xml:space="preserve">0.12174341827631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121674165129662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120150662958622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121120169758797</t>
+    <t xml:space="preserve">0.121674180030823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120150648057461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121120162308216</t>
   </si>
   <si>
     <t xml:space="preserve">0.118488617241383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119665890932083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372329950333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926340222359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726854979992</t>
+    <t xml:space="preserve">0.119665898382664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372337400913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11592635512352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726840078831</t>
   </si>
   <si>
     <t xml:space="preserve">0.116826593875885</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">0.117103606462479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121189422905445</t>
+    <t xml:space="preserve">0.121189415454865</t>
   </si>
   <si>
     <t xml:space="preserve">0.115233831107616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11897337436676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118350125849247</t>
+    <t xml:space="preserve">0.118973389267921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118350133299828</t>
   </si>
   <si>
     <t xml:space="preserve">0.12811453640461</t>
@@ -545,25 +545,25 @@
     <t xml:space="preserve">0.12409795820713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125205993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123959466814995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117034338414669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117796123027802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117934614419937</t>
+    <t xml:space="preserve">0.125205978751183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123959444463253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117034360766411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11779610812664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117934621870518</t>
   </si>
   <si>
     <t xml:space="preserve">0.116480343043804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115095317363739</t>
+    <t xml:space="preserve">0.115095309913158</t>
   </si>
   <si>
     <t xml:space="preserve">0.113433308899403</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">0.111494265496731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115441583096981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11357182264328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11467981338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111771255731583</t>
+    <t xml:space="preserve">0.1154415756464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113571792840958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114679805934429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111771263182163</t>
   </si>
   <si>
     <t xml:space="preserve">0.111009508371353</t>
@@ -590,64 +590,64 @@
     <t xml:space="preserve">0.111563511192799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112186782062054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117588363587856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327929198742</t>
+    <t xml:space="preserve">0.112186774611473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117588356137276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327906847</t>
   </si>
   <si>
     <t xml:space="preserve">0.122020445764065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122435919940472</t>
+    <t xml:space="preserve">0.122435949742794</t>
   </si>
   <si>
     <t xml:space="preserve">0.119942903518677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124305732548237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122851438820362</t>
+    <t xml:space="preserve">0.124305725097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122851423919201</t>
   </si>
   <si>
     <t xml:space="preserve">0.120773911476135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119596652686596</t>
+    <t xml:space="preserve">0.119596637785435</t>
   </si>
   <si>
     <t xml:space="preserve">0.119527399539948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120358392596245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121812671422958</t>
+    <t xml:space="preserve">0.120358400046825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121812663972378</t>
   </si>
   <si>
     <t xml:space="preserve">0.14189550280571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169665187597275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15997003018856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157199993729591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146119818091393</t>
+    <t xml:space="preserve">0.169665202498436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159970015287399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15719997882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14611978828907</t>
   </si>
   <si>
     <t xml:space="preserve">0.146466061472893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148197323083878</t>
+    <t xml:space="preserve">0.148197337985039</t>
   </si>
   <si>
     <t xml:space="preserve">0.144942551851273</t>
@@ -659,22 +659,22 @@
     <t xml:space="preserve">0.149928614497185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154360681772232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157476991415024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159900784492493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158031016588211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15650749206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14736633002758</t>
+    <t xml:space="preserve">0.154360696673393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157477006316185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159900799393654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158030986785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156507462263107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147366344928741</t>
   </si>
   <si>
     <t xml:space="preserve">0.143349766731262</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">0.143696010112762</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145358040928841</t>
+    <t xml:space="preserve">0.145358055830002</t>
   </si>
   <si>
     <t xml:space="preserve">0.143626764416695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144319280982018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137809678912163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139194712042809</t>
+    <t xml:space="preserve">0.144319295883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137809664011002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139194697141647</t>
   </si>
   <si>
     <t xml:space="preserve">0.140164211392403</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">0.140510469675064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140441238880157</t>
+    <t xml:space="preserve">0.140441223978996</t>
   </si>
   <si>
     <t xml:space="preserve">0.139540955424309</t>
@@ -713,22 +713,22 @@
     <t xml:space="preserve">0.138502195477486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139679446816444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137117177248001</t>
+    <t xml:space="preserve">0.139679476618767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13711716234684</t>
   </si>
   <si>
     <t xml:space="preserve">0.139056205749512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144111558794975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144250020384789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145912051200867</t>
+    <t xml:space="preserve">0.144111514091492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144250050187111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145912066102028</t>
   </si>
   <si>
     <t xml:space="preserve">0.142588004469872</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">0.145981311798096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14902837574482</t>
+    <t xml:space="preserve">0.149028360843658</t>
   </si>
   <si>
     <t xml:space="preserve">0.147851094603539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148058831691742</t>
+    <t xml:space="preserve">0.148058846592903</t>
   </si>
   <si>
     <t xml:space="preserve">0.150413379073143</t>
@@ -755,10 +755,10 @@
     <t xml:space="preserve">0.152075409889221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152352407574654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155399441719055</t>
+    <t xml:space="preserve">0.152352392673492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155399456620216</t>
   </si>
   <si>
     <t xml:space="preserve">0.160870298743248</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">0.159139022231102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158931270241737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155814975500107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151936903595924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150967374444008</t>
+    <t xml:space="preserve">0.158931255340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155814960598946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151936888694763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150967389345169</t>
   </si>
   <si>
     <t xml:space="preserve">0.148612841963768</t>
@@ -788,37 +788,37 @@
     <t xml:space="preserve">0.147297069430351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143142014741898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141687750816345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146258309483528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149720877408981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152213916182518</t>
+    <t xml:space="preserve">0.143141999840736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141687765717506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146258324384689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149720847606659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152213901281357</t>
   </si>
   <si>
     <t xml:space="preserve">0.152006164193153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14618906378746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14577354490757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148474335670471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148472428321838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146802619099617</t>
+    <t xml:space="preserve">0.146189048886299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145773559808731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148474365472794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148472413420677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146802604198456</t>
   </si>
   <si>
     <t xml:space="preserve">0.145411133766174</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">0.144297912716866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147011339664459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148542001843452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148959428071976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145480692386627</t>
+    <t xml:space="preserve">0.14701135456562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148541986942291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148959442973137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145480707287788</t>
   </si>
   <si>
     <t xml:space="preserve">0.145132824778557</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">0.14401963353157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143463045358658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140749618411064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14304555952549</t>
+    <t xml:space="preserve">0.143463030457497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140749633312225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143045574426651</t>
   </si>
   <si>
     <t xml:space="preserve">0.14019301533699</t>
@@ -866,7 +866,7 @@
     <t xml:space="preserve">0.141236647963524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14151494204998</t>
+    <t xml:space="preserve">0.141514956951141</t>
   </si>
   <si>
     <t xml:space="preserve">0.142071545124054</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">0.13949728012085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139010265469551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14033217728138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139149412512779</t>
+    <t xml:space="preserve">0.139010235667229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140332192182541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139149397611618</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757912278175</t>
@@ -890,40 +890,40 @@
     <t xml:space="preserve">0.137618750333786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137062162160873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13817535340786</t>
+    <t xml:space="preserve">0.137062147259712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138175338506699</t>
   </si>
   <si>
     <t xml:space="preserve">0.138244926929474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142419397830963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140610471367836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141793236136436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141445368528366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14116707444191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140680029988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140123441815376</t>
+    <t xml:space="preserve">0.142419427633286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140610456466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141793251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141445353627205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141167059540749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140680059790611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140123456716537</t>
   </si>
   <si>
     <t xml:space="preserve">0.141584515571594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140053853392601</t>
+    <t xml:space="preserve">0.140053868293762</t>
   </si>
   <si>
     <t xml:space="preserve">0.139636427164078</t>
@@ -938,40 +938,40 @@
     <t xml:space="preserve">0.149655178189278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149863913655281</t>
+    <t xml:space="preserve">0.14986389875412</t>
   </si>
   <si>
     <t xml:space="preserve">0.150629222393036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149724766612053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147985398769379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146246001124382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147428780794144</t>
+    <t xml:space="preserve">0.149724751710892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147985368967056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146246016025543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147428765892982</t>
   </si>
   <si>
     <t xml:space="preserve">0.149237737059593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150281339883804</t>
+    <t xml:space="preserve">0.150281354784966</t>
   </si>
   <si>
     <t xml:space="preserve">0.148402839899063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151742428541183</t>
+    <t xml:space="preserve">0.151742413640022</t>
   </si>
   <si>
     <t xml:space="preserve">0.15202072262764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152577325701714</t>
+    <t xml:space="preserve">0.152577310800552</t>
   </si>
   <si>
     <t xml:space="preserve">0.152159869670868</t>
@@ -980,10 +980,10 @@
     <t xml:space="preserve">0.150490075349808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151324972510338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150977104902267</t>
+    <t xml:space="preserve">0.151324987411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150977090001106</t>
   </si>
   <si>
     <t xml:space="preserve">0.15035092830658</t>
@@ -1001,25 +1001,25 @@
     <t xml:space="preserve">0.151672855019569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166840121150017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169762268662453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168649077415466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166979268193245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160369694232941</t>
+    <t xml:space="preserve">0.166840136051178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169762253761292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168649062514305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166979283094406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160369679331779</t>
   </si>
   <si>
     <t xml:space="preserve">0.162317782640457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173797577619553</t>
+    <t xml:space="preserve">0.173797607421875</t>
   </si>
   <si>
     <t xml:space="preserve">0.175954431295395</t>
@@ -1031,16 +1031,16 @@
     <t xml:space="preserve">0.173936739563942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16871865093708</t>
+    <t xml:space="preserve">0.168718665838242</t>
   </si>
   <si>
     <t xml:space="preserve">0.168509930372238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167675048112869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168996959924698</t>
+    <t xml:space="preserve">0.167675033211708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168996945023537</t>
   </si>
   <si>
     <t xml:space="preserve">0.16586609184742</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">0.169275254011154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171988680958748</t>
+    <t xml:space="preserve">0.171988651156425</t>
   </si>
   <si>
     <t xml:space="preserve">0.170458033680916</t>
@@ -1061,7 +1061,7 @@
     <t xml:space="preserve">0.173241004347801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175676107406616</t>
+    <t xml:space="preserve">0.175676122307777</t>
   </si>
   <si>
     <t xml:space="preserve">0.185068711638451</t>
@@ -1070,46 +1070,46 @@
     <t xml:space="preserve">0.187712550163269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184581682085991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189938932657242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198635786771774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197383433580399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193417683243752</t>
+    <t xml:space="preserve">0.184581696987152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189938947558403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.198635771870613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197383403778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19341766834259</t>
   </si>
   <si>
     <t xml:space="preserve">0.192443624138832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187851697206497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194809153676033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191678330302238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188060402870178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183468490839005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185694888234138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186112329363823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183816373348236</t>
+    <t xml:space="preserve">0.187851667404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194809183478355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191678300499916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188060417771339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183468505740166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185694873332977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186112344264984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183816358447075</t>
   </si>
   <si>
     <t xml:space="preserve">0.183677211403847</t>
@@ -1121,25 +1121,25 @@
     <t xml:space="preserve">0.176719754934311</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172962695360184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177972108125687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179363578557968</t>
+    <t xml:space="preserve">0.172962710261345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177972093224525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179363593459129</t>
   </si>
   <si>
     <t xml:space="preserve">0.180755063891411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180894210934639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177763342857361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174423784017563</t>
+    <t xml:space="preserve">0.1808942258358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177763357758522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174423769116402</t>
   </si>
   <si>
     <t xml:space="preserve">0.174145475029945</t>
@@ -1151,25 +1151,25 @@
     <t xml:space="preserve">0.185138270258904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182424858212471</t>
+    <t xml:space="preserve">0.182424873113632</t>
   </si>
   <si>
     <t xml:space="preserve">0.180059343576431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180824667215347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176023989915848</t>
+    <t xml:space="preserve">0.180824682116508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176023975014687</t>
   </si>
   <si>
     <t xml:space="preserve">0.163013532757759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162804797291756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165587782859802</t>
+    <t xml:space="preserve">0.162804812192917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165587797760963</t>
   </si>
   <si>
     <t xml:space="preserve">0.166074812412262</t>
@@ -1178,7 +1178,7 @@
     <t xml:space="preserve">0.166144400835037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166770547628403</t>
+    <t xml:space="preserve">0.166770562529564</t>
   </si>
   <si>
     <t xml:space="preserve">0.167396724224091</t>
@@ -1187,37 +1187,37 @@
     <t xml:space="preserve">0.165935665369034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163917988538742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166492253541946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167535856366158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165448650717735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167327150702477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165170341730118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167466312646866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16670098900795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164405032992363</t>
+    <t xml:space="preserve">0.163918003439903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166492268443108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167535871267319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165448635816574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167327165603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165170326828957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167466297745705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166700974106789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164405018091202</t>
   </si>
   <si>
     <t xml:space="preserve">0.163500547409058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166422665119171</t>
+    <t xml:space="preserve">0.166422694921494</t>
   </si>
   <si>
     <t xml:space="preserve">0.166283532977104</t>
@@ -1229,10 +1229,10 @@
     <t xml:space="preserve">0.165518209338188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168022900819778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16837078332901</t>
+    <t xml:space="preserve">0.168022930622101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168370798230171</t>
   </si>
   <si>
     <t xml:space="preserve">0.1648920327425</t>
@@ -1241,10 +1241,10 @@
     <t xml:space="preserve">0.173588886857033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172545254230499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181589990854263</t>
+    <t xml:space="preserve">0.17254526913166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181589961051941</t>
   </si>
   <si>
     <t xml:space="preserve">0.180198475718498</t>
@@ -1256,25 +1256,25 @@
     <t xml:space="preserve">0.178806975483894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180546343326569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182981476187706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182633563876152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183329328894615</t>
+    <t xml:space="preserve">0.18054635822773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182981461286545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182633578777313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183329343795776</t>
   </si>
   <si>
     <t xml:space="preserve">0.177415490150452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179154857993126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16454416513443</t>
+    <t xml:space="preserve">0.179154843091965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164544150233269</t>
   </si>
   <si>
     <t xml:space="preserve">0.162456929683685</t>
@@ -1283,16 +1283,16 @@
     <t xml:space="preserve">0.161761179566383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161413311958313</t>
+    <t xml:space="preserve">0.161413297057152</t>
   </si>
   <si>
     <t xml:space="preserve">0.157586693763733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159326046705246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154803708195686</t>
+    <t xml:space="preserve">0.159326076507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154803723096848</t>
   </si>
   <si>
     <t xml:space="preserve">0.154107972979546</t>
@@ -1301,22 +1301,22 @@
     <t xml:space="preserve">0.15236859023571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154455840587616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149933487176895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152716472744942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15619520843029</t>
+    <t xml:space="preserve">0.154455855488777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149933472275734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152716487646103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156195193529129</t>
   </si>
   <si>
     <t xml:space="preserve">0.156543076038361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155151575803757</t>
+    <t xml:space="preserve">0.155151590704918</t>
   </si>
   <si>
     <t xml:space="preserve">0.15584734082222</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">0.153064325451851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149585604667664</t>
+    <t xml:space="preserve">0.149585619568825</t>
   </si>
   <si>
     <t xml:space="preserve">0.148194119334221</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">0.157934576272964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160021796822548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158282458782196</t>
+    <t xml:space="preserve">0.160021811723709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158282443881035</t>
   </si>
   <si>
     <t xml:space="preserve">0.157238826155663</t>
@@ -1361,13 +1361,13 @@
     <t xml:space="preserve">0.160733014345169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155043348670006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157532572746277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156110167503357</t>
+    <t xml:space="preserve">0.155043363571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157532587647438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156110182404518</t>
   </si>
   <si>
     <t xml:space="preserve">0.153620943427086</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">0.155398964881897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153976529836655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149709284305573</t>
+    <t xml:space="preserve">0.153976544737816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149709299206734</t>
   </si>
   <si>
     <t xml:space="preserve">0.147575661540031</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">0.146508857607841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14579764008522</t>
+    <t xml:space="preserve">0.145797654986382</t>
   </si>
   <si>
     <t xml:space="preserve">0.143308416008949</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">0.137974366545677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139965713024139</t>
+    <t xml:space="preserve">0.139965742826462</t>
   </si>
   <si>
     <t xml:space="preserve">0.142597213387489</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">0.147220075130463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145442053675652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138970047235489</t>
+    <t xml:space="preserve">0.14544203877449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138970032334328</t>
   </si>
   <si>
     <t xml:space="preserve">0.140107974410057</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">0.141103684902191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139112323522568</t>
+    <t xml:space="preserve">0.139112293720245</t>
   </si>
   <si>
     <t xml:space="preserve">0.137263163924217</t>
@@ -1448,37 +1448,37 @@
     <t xml:space="preserve">0.140819191932678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139823526144028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13968126475811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142099380493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141672655940056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14295282959938</t>
+    <t xml:space="preserve">0.139823511242867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139681279659271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142099350690842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141672626137733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142952814698219</t>
   </si>
   <si>
     <t xml:space="preserve">0.14366403222084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147931292653084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148642480373383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152909725904465</t>
+    <t xml:space="preserve">0.147931262850761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148642495274544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152909740805626</t>
   </si>
   <si>
     <t xml:space="preserve">0.152554124593735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149353668093681</t>
+    <t xml:space="preserve">0.149353682994843</t>
   </si>
   <si>
     <t xml:space="preserve">0.1443752348423</t>
@@ -1490,25 +1490,25 @@
     <t xml:space="preserve">0.142241612076759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13825885951519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845063090324</t>
+    <t xml:space="preserve">0.138258844614029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845048189163</t>
   </si>
   <si>
     <t xml:space="preserve">0.136125221848488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138543337583542</t>
+    <t xml:space="preserve">0.138543322682381</t>
   </si>
   <si>
     <t xml:space="preserve">0.141530394554138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139254525303841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140392482280731</t>
+    <t xml:space="preserve">0.139254540205002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14039246737957</t>
   </si>
   <si>
     <t xml:space="preserve">0.138685554265976</t>
@@ -1517,13 +1517,13 @@
     <t xml:space="preserve">0.132995918393135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134987279772758</t>
+    <t xml:space="preserve">0.13498729467392</t>
   </si>
   <si>
     <t xml:space="preserve">0.135129511356354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129439875483513</t>
+    <t xml:space="preserve">0.129439860582352</t>
   </si>
   <si>
     <t xml:space="preserve">0.125030368566513</t>
@@ -1535,28 +1535,28 @@
     <t xml:space="preserve">0.123465716838837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123750194907188</t>
+    <t xml:space="preserve">0.12375020980835</t>
   </si>
   <si>
     <t xml:space="preserve">0.126310542225838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126595050096512</t>
+    <t xml:space="preserve">0.126595035195351</t>
   </si>
   <si>
     <t xml:space="preserve">0.123892433941364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12232780456543</t>
+    <t xml:space="preserve">0.122327789664268</t>
   </si>
   <si>
     <t xml:space="preserve">0.119482956826687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117633804678917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116922616958618</t>
+    <t xml:space="preserve">0.117633819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116922602057457</t>
   </si>
   <si>
     <t xml:space="preserve">0.112513102591038</t>
@@ -1565,304 +1565,304 @@
     <t xml:space="preserve">0.115926921367645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113793276250362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115215696394444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114931218326092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116638138890266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119198486208916</t>
+    <t xml:space="preserve">0.113793283700943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115215703845024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114931210875511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116638116538525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119198471307755</t>
   </si>
   <si>
     <t xml:space="preserve">0.119909673929214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119340695440769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123038992285728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124461397528648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120051920413971</t>
+    <t xml:space="preserve">0.11934071034193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123038977384567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124461404979229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12005191296339</t>
   </si>
   <si>
     <t xml:space="preserve">0.121616579592228</t>
   </si>
   <si>
+    <t xml:space="preserve">0.120905347168446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060529232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111659660935402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114788979291916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113366559147835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116211399435997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754514217377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127590730786324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127875208854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127306222915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124745897948742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120763123035431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12190106511116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11905624717474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114504501223564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117349341511726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114646732807159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452788710594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12047865241766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120336398482323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120194174349308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120620884001255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487268686295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082081079483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111944131553173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112655356526375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11066398024559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110379502177238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111801907420158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370871007442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111232936382294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116069167852402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121332086622715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122612282633781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124319158494473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121758826076984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122185550630093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115642428398132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11649589240551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11862950772047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119767434895039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118202768266201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115357950329781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116780377924442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117491565644741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116282522678375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118771746754646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119838573038578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120549760758877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121629364788532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121267385780811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122715324163437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121991358697414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119095399975777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118009448051453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116923466324806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114751510322094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115113504230976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116561464965343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11945740878582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116199463605881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115837469696999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113665536046028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114389508962631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114027515053749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11221756786108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110769592225552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111855559051037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107149675488472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107873663306236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107511661946774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104977712035179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108235642313957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106425695121288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108959630131721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109683610498905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110407613217831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111493572592735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111131578683853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113303542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10859764367342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110045611858368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109321616590023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115475505590439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118733420968056</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.120905362069607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118060514330864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111659668385983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114788979291916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113366581499577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116211406886578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754514217377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127590730786324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127875223755836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127306237816811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124745897948742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120763123035431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121901050209999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119056232273579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114504486322403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117349319159985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646747708321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452788710594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12047865241766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120336413383484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120194174349308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120620876550674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487268686295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082088530064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111944139003754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112655356526375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110663957893848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110379487276077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111801907420158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370885908604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111232943832874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116069160401821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121332071721554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12261226773262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124319158494473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121758826076984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122185543179512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115642428398132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116495877504349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118629492819309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119767464697361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118202783167362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1153579428792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116780355572701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117491565644741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116282515227795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118771746754646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119838558137417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120549760758877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121629364788532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12126737087965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122715331614017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121991358697414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119095414876938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118009448051453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116923466324806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114751510322094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115113504230976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116561457514763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119457393884659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116199478507042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115837469696999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113665536046028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114389531314373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11402752250433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112217552959919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110769592225552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111855566501617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107149675488472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107873663306236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107511654496193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104977712035179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108235649764538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106425687670708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108959630131721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109683625400066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11040760576725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111493587493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111131586134434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113303542137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10859764367342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110045611858368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109321609139442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115475490689278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118733435869217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905376970768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120181374251842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119819395244122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120543383061886</t>
+    <t xml:space="preserve">0.120181389153004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119819402694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120543368160725</t>
   </si>
   <si>
     <t xml:space="preserve">0.118371427059174</t>
@@ -1889,7 +1889,7 @@
     <t xml:space="preserve">0.124163299798965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123077318072319</t>
+    <t xml:space="preserve">0.1230773255229</t>
   </si>
   <si>
     <t xml:space="preserve">0.144072860479355</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">0.146244823932648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155656605958939</t>
+    <t xml:space="preserve">0.1556566208601</t>
   </si>
   <si>
     <t xml:space="preserve">0.1773761510849</t>
@@ -1910,10 +1910,10 @@
     <t xml:space="preserve">0.191855818033218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18461599946022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171584278345108</t>
+    <t xml:space="preserve">0.184615969657898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171584263443947</t>
   </si>
   <si>
     <t xml:space="preserve">0.166516378521919</t>
@@ -1922,13 +1922,13 @@
     <t xml:space="preserve">0.170136302709579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17375622689724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173032224178314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16868831217289</t>
+    <t xml:space="preserve">0.173756211996078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173032239079475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168688327074051</t>
   </si>
   <si>
     <t xml:space="preserve">0.164344429969788</t>
@@ -1937,28 +1937,28 @@
     <t xml:space="preserve">0.160724505782127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161448493599892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172466516495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165792375802994</t>
+    <t xml:space="preserve">0.161448508501053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172481417656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165792390704155</t>
   </si>
   <si>
     <t xml:space="preserve">0.165068402886391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157828569412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162896454334259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163620442152023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17954808473587</t>
+    <t xml:space="preserve">0.15782855451107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16289646923542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163620457053185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179548099637032</t>
   </si>
   <si>
     <t xml:space="preserve">0.178100138902664</t>
@@ -1976,16 +1976,16 @@
     <t xml:space="preserve">0.146968796849251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152036681771278</t>
+    <t xml:space="preserve">0.15203669667244</t>
   </si>
   <si>
     <t xml:space="preserve">0.170860290527344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17230823636055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169412299990654</t>
+    <t xml:space="preserve">0.172308251261711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169412329792976</t>
   </si>
   <si>
     <t xml:space="preserve">0.145520836114883</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">0.149864748120308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151312708854675</t>
+    <t xml:space="preserve">0.151312723755836</t>
   </si>
   <si>
     <t xml:space="preserve">0.138642981648445</t>
@@ -2006,22 +2006,22 @@
     <t xml:space="preserve">0.136833012104034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131041139364243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122353352606297</t>
+    <t xml:space="preserve">0.131041154265404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122353337705135</t>
   </si>
   <si>
     <t xml:space="preserve">0.106787674129009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0912220254540443</t>
+    <t xml:space="preserve">0.0912220180034637</t>
   </si>
   <si>
     <t xml:space="preserve">0.0970138981938362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0962899103760719</t>
+    <t xml:space="preserve">0.0962899029254913</t>
   </si>
   <si>
     <t xml:space="preserve">0.0977378785610199</t>
@@ -2030,40 +2030,40 @@
     <t xml:space="preserve">0.100633814930916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1013577952981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102443769574165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104253731667995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106063701212406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102805770933628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105701692402363</t>
+    <t xml:space="preserve">0.10135780274868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102443762123585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104253739118576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106063693761826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102805756032467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105701699852943</t>
   </si>
   <si>
     <t xml:space="preserve">0.103529758751392</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10657049715519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10700486600399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108018457889557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107294470071793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102081783115864</t>
+    <t xml:space="preserve">0.106570489704609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107004873454571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108018450438976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107294477522373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102081775665283</t>
   </si>
   <si>
     <t xml:space="preserve">0.103819340467453</t>
@@ -2072,31 +2072,31 @@
     <t xml:space="preserve">0.103674545884132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103964127600193</t>
+    <t xml:space="preserve">0.103964142501354</t>
   </si>
   <si>
     <t xml:space="preserve">0.10483293235302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.105412118136883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108452849090099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111203983426094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10686007142067</t>
+    <t xml:space="preserve">0.105412110686302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108452841639519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111203990876675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10686007887125</t>
   </si>
   <si>
     <t xml:space="preserve">0.10671528428793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122208550572395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108163252472878</t>
+    <t xml:space="preserve">0.122208535671234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108163245022297</t>
   </si>
   <si>
     <t xml:space="preserve">0.109466426074505</t>
@@ -2114,43 +2114,43 @@
     <t xml:space="preserve">0.112796753644943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11033520847559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113955117762089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115692682564259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154932633042336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139004975557327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152760669589043</t>
+    <t xml:space="preserve">0.110335201025009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113955125212669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115692675113678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154932647943497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139004990458488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152760654687881</t>
   </si>
   <si>
     <t xml:space="preserve">0.157104581594467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151674702763557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149502739310265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150588735938072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148416772484779</t>
+    <t xml:space="preserve">0.151674717664719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149502754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150588721036911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148416787385941</t>
   </si>
   <si>
     <t xml:space="preserve">0.148054793477058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144652053713799</t>
+    <t xml:space="preserve">0.144652038812637</t>
   </si>
   <si>
     <t xml:space="preserve">0.141176924109459</t>
@@ -2162,19 +2162,19 @@
     <t xml:space="preserve">0.144796848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144362464547157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143638491630554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142769679427147</t>
+    <t xml:space="preserve">0.144362449645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143638476729393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142769694328308</t>
   </si>
   <si>
     <t xml:space="preserve">0.143928065896034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145158842206001</t>
+    <t xml:space="preserve">0.145158857107162</t>
   </si>
   <si>
     <t xml:space="preserve">0.144507259130478</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">0.147330790758133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143493667244911</t>
+    <t xml:space="preserve">0.143493682146072</t>
   </si>
   <si>
     <t xml:space="preserve">0.140163347125053</t>
@@ -2198,43 +2198,43 @@
     <t xml:space="preserve">0.147692784667015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145882815122604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144217684864998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142624899744987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143059298396111</t>
+    <t xml:space="preserve">0.145882830023766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144217669963837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142624914646149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143059313297272</t>
   </si>
   <si>
     <t xml:space="preserve">0.154570639133453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14320407807827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143348887562752</t>
+    <t xml:space="preserve">0.143204092979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143348872661591</t>
   </si>
   <si>
     <t xml:space="preserve">0.143783271312714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142480075359344</t>
+    <t xml:space="preserve">0.142480090260506</t>
   </si>
   <si>
     <t xml:space="preserve">0.138136193156242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137556999921799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158552542328835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158914536237717</t>
+    <t xml:space="preserve">0.13755701482296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158552557229996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158914551138878</t>
   </si>
   <si>
     <t xml:space="preserve">0.153846651315689</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">0.157466575503349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156742587685585</t>
+    <t xml:space="preserve">0.156742602586746</t>
   </si>
   <si>
     <t xml:space="preserve">0.159276515245438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169774308800697</t>
+    <t xml:space="preserve">0.169774323701859</t>
   </si>
   <si>
     <t xml:space="preserve">0.16832634806633</t>
@@ -2276,25 +2276,25 @@
     <t xml:space="preserve">0.167964354157448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169050320982933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171222284436226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171946242451668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177014157176018</t>
+    <t xml:space="preserve">0.169050335884094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171222269535065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171946257352829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177014142274857</t>
   </si>
   <si>
     <t xml:space="preserve">0.176290169358253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179910093545914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184254020452499</t>
+    <t xml:space="preserve">0.179910078644753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184254005551338</t>
   </si>
   <si>
     <t xml:space="preserve">0.180272072553635</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">0.175928175449371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175204187631607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174842208623886</t>
+    <t xml:space="preserve">0.175204202532768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174842223525047</t>
   </si>
   <si>
     <t xml:space="preserve">0.176652163267136</t>
@@ -2330,7 +2330,7 @@
     <t xml:space="preserve">0.180560395121574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17977873980999</t>
+    <t xml:space="preserve">0.179778754711151</t>
   </si>
   <si>
     <t xml:space="preserve">0.179387912154198</t>
@@ -2339,16 +2339,16 @@
     <t xml:space="preserve">0.177824631333351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175088852643967</t>
+    <t xml:space="preserve">0.175088867545128</t>
   </si>
   <si>
     <t xml:space="preserve">0.17352557182312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174698039889336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178997084498405</t>
+    <t xml:space="preserve">0.174698024988174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178997099399567</t>
   </si>
   <si>
     <t xml:space="preserve">0.175479680299759</t>
@@ -2360,13 +2360,13 @@
     <t xml:space="preserve">0.175870507955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17391636967659</t>
+    <t xml:space="preserve">0.173916384577751</t>
   </si>
   <si>
     <t xml:space="preserve">0.178606256842613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171180620789528</t>
+    <t xml:space="preserve">0.171180635690689</t>
   </si>
   <si>
     <t xml:space="preserve">0.169226512312889</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">0.171962261199951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167272388935089</t>
+    <t xml:space="preserve">0.16727240383625</t>
   </si>
   <si>
     <t xml:space="preserve">0.168444857001305</t>
@@ -2384,13 +2384,13 @@
     <t xml:space="preserve">0.170789808034897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17157144844532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173134729266167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172743916511536</t>
+    <t xml:space="preserve">0.171571463346481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173134744167328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172743931412697</t>
   </si>
   <si>
     <t xml:space="preserve">0.16961732506752</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">0.166881561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165709108114243</t>
+    <t xml:space="preserve">0.165709093213081</t>
   </si>
   <si>
     <t xml:space="preserve">0.166490748524666</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">0.166099920868874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164536640048027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161410018801689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162582516670227</t>
+    <t xml:space="preserve">0.164536625146866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16141003370285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162582501769066</t>
   </si>
   <si>
     <t xml:space="preserve">0.157501801848412</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">0.160628408193588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163754984736443</t>
+    <t xml:space="preserve">0.163754999637604</t>
   </si>
   <si>
     <t xml:space="preserve">0.164927437901497</t>
@@ -2453,52 +2453,52 @@
     <t xml:space="preserve">0.168835699558258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160237565636635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162973329424858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164145797491074</t>
+    <t xml:space="preserve">0.160237580537796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162973344326019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164145812392235</t>
   </si>
   <si>
     <t xml:space="preserve">0.161800876259804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15945591032505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158674284815788</t>
+    <t xml:space="preserve">0.159455925226212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158674269914627</t>
   </si>
   <si>
     <t xml:space="preserve">0.159846752882004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159065097570419</t>
+    <t xml:space="preserve">0.159065112471581</t>
   </si>
   <si>
     <t xml:space="preserve">0.161019220948219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16336415708065</t>
+    <t xml:space="preserve">0.163364171981812</t>
   </si>
   <si>
     <t xml:space="preserve">0.182905316352844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18603190779686</t>
+    <t xml:space="preserve">0.186031922698021</t>
   </si>
   <si>
     <t xml:space="preserve">0.184468612074852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184859454631805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18212366104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180169552564621</t>
+    <t xml:space="preserve">0.184859439730644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182123675942421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180169567465782</t>
   </si>
   <si>
     <t xml:space="preserve">0.181429490447044</t>
@@ -2516,25 +2516,22 @@
     <t xml:space="preserve">0.178489670157433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178069695830345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176389783620834</t>
+    <t xml:space="preserve">0.178069680929184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176389768719673</t>
   </si>
   <si>
     <t xml:space="preserve">0.181009516119957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177229732275009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174709901213646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180169567465782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177649706602097</t>
+    <t xml:space="preserve">0.177229717373848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174709886312485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177649721503258</t>
   </si>
   <si>
     <t xml:space="preserve">0.179749578237534</t>
@@ -2576,16 +2573,16 @@
     <t xml:space="preserve">0.187729135155678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1734499335289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174289897084236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169670179486275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159254789352417</t>
+    <t xml:space="preserve">0.173449948430061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174289911985397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169670164585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159254774451256</t>
   </si>
   <si>
     <t xml:space="preserve">0.163118556141853</t>
@@ -2597,7 +2594,7 @@
     <t xml:space="preserve">0.172190025448799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17386993765831</t>
+    <t xml:space="preserve">0.173869922757149</t>
   </si>
   <si>
     <t xml:space="preserve">0.181849464774132</t>
@@ -2621,7 +2618,7 @@
     <t xml:space="preserve">0.186049222946167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191928878426552</t>
+    <t xml:space="preserve">0.191928893327713</t>
   </si>
   <si>
     <t xml:space="preserve">0.187119722366333</t>
@@ -42631,7 +42628,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1511" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42657,7 +42654,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1512" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42683,7 +42680,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1513" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42761,7 +42758,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1516" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42787,7 +42784,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1517" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42813,7 +42810,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1518" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42839,7 +42836,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1519" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42891,7 +42888,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1521" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42917,7 +42914,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1522" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42995,7 +42992,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1525" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43021,7 +43018,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1526" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43047,7 +43044,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1527" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43073,7 +43070,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1528" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43125,7 +43122,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1530" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43151,7 +43148,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1531" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43203,7 +43200,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1533" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43359,7 +43356,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1539" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43437,7 +43434,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1542" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43463,7 +43460,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1543" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43489,7 +43486,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1544" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43567,7 +43564,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1547" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43593,7 +43590,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1548" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43645,7 +43642,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1550" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43671,7 +43668,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1551" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43775,7 +43772,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1555" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43801,7 +43798,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1556" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43827,7 +43824,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1557" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43853,7 +43850,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1558" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43879,7 +43876,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1559" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43905,7 +43902,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1560" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43931,7 +43928,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1561" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43983,7 +43980,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1563" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44009,7 +44006,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1564" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44035,7 +44032,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1565" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44113,7 +44110,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1568" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44139,7 +44136,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1569" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44165,7 +44162,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1570" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44191,7 +44188,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1571" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44217,7 +44214,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1572" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44243,7 +44240,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44269,7 +44266,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1574" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44295,7 +44292,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1575" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44321,7 +44318,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1576" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44347,7 +44344,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1577" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44373,7 +44370,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1578" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44425,7 +44422,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1580" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44451,7 +44448,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1581" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44503,7 +44500,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1583" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44607,7 +44604,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1587" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44633,7 +44630,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1588" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44659,7 +44656,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1589" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44711,7 +44708,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1591" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44737,7 +44734,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1592" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44763,7 +44760,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1593" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44789,7 +44786,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1594" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44841,7 +44838,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1596" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44893,7 +44890,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1598" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44919,7 +44916,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1599" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44945,7 +44942,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1600" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44971,7 +44968,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1601" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44997,7 +44994,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1602" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45023,7 +45020,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1603" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45049,7 +45046,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1604" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45075,7 +45072,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1605" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45101,7 +45098,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1606" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45127,7 +45124,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1607" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45153,7 +45150,7 @@
         <v>0.221499994397163</v>
       </c>
       <c r="G1608" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45179,7 +45176,7 @@
         <v>0.228499993681908</v>
       </c>
       <c r="G1609" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45205,7 +45202,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1610" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45231,7 +45228,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1611" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45257,7 +45254,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1612" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45283,7 +45280,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1613" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45309,7 +45306,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1614" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45335,7 +45332,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45361,7 +45358,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1616" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45387,7 +45384,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1617" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45413,7 +45410,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1618" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45439,7 +45436,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1619" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45465,7 +45462,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45491,7 +45488,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45517,7 +45514,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45543,7 +45540,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1623" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45569,7 +45566,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1624" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45595,7 +45592,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45621,7 +45618,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1626" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45647,7 +45644,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1627" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45673,7 +45670,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1628" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45699,7 +45696,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1629" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45725,7 +45722,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1630" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45751,7 +45748,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1631" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45777,7 +45774,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1632" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45803,7 +45800,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1633" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45829,7 +45826,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1634" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45855,7 +45852,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1635" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45881,7 +45878,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1636" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45907,7 +45904,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1637" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45933,7 +45930,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1638" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45959,7 +45956,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1639" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45985,7 +45982,7 @@
         <v>0.186599999666214</v>
       </c>
       <c r="G1640" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46011,7 +46008,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1641" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46037,7 +46034,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1642" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46063,7 +46060,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1643" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46089,7 +46086,7 @@
         <v>0.193200007081032</v>
       </c>
       <c r="G1644" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46115,7 +46112,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1645" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46141,7 +46138,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1646" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46167,7 +46164,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1647" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46193,7 +46190,7 @@
         <v>0.185000002384186</v>
       </c>
       <c r="G1648" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46219,7 +46216,7 @@
         <v>0.187199994921684</v>
       </c>
       <c r="G1649" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46245,7 +46242,7 @@
         <v>0.187399998307228</v>
       </c>
       <c r="G1650" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46271,7 +46268,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1651" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46297,7 +46294,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1652" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46323,7 +46320,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1653" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46349,7 +46346,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1654" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46375,7 +46372,7 @@
         <v>0.192800000309944</v>
       </c>
       <c r="G1655" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46401,7 +46398,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1656" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46427,7 +46424,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1657" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46453,7 +46450,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1658" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46479,7 +46476,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1659" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46505,7 +46502,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1660" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46531,7 +46528,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1661" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46557,7 +46554,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1662" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46583,7 +46580,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1663" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46609,7 +46606,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1664" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46635,7 +46632,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G1665" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46661,7 +46658,7 @@
         <v>0.197200000286102</v>
       </c>
       <c r="G1666" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46687,7 +46684,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1667" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46713,7 +46710,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1668" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46739,7 +46736,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1669" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46765,7 +46762,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1670" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46791,7 +46788,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1671" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46817,7 +46814,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1672" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46843,7 +46840,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1673" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46869,7 +46866,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1674" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46895,7 +46892,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1675" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46921,7 +46918,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1676" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46947,7 +46944,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1677" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46973,7 +46970,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1678" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46999,7 +46996,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1679" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47025,7 +47022,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1680" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47051,7 +47048,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1681" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47077,7 +47074,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1682" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47103,7 +47100,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1683" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47129,7 +47126,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1684" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47155,7 +47152,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1685" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47181,7 +47178,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1686" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47207,7 +47204,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1687" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47233,7 +47230,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1688" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47259,7 +47256,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1689" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47285,7 +47282,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1690" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47311,7 +47308,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1691" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47337,7 +47334,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1692" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47363,7 +47360,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47389,7 +47386,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1694" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47415,7 +47412,7 @@
         <v>0.190599992871284</v>
       </c>
       <c r="G1695" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47441,7 +47438,7 @@
         <v>0.19140000641346</v>
       </c>
       <c r="G1696" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47467,7 +47464,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1697" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47493,7 +47490,7 @@
         <v>0.191799998283386</v>
       </c>
       <c r="G1698" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47519,7 +47516,7 @@
         <v>0.191599994897842</v>
       </c>
       <c r="G1699" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47545,7 +47542,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1700" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47571,7 +47568,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1701" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47597,7 +47594,7 @@
         <v>0.190799996256828</v>
       </c>
       <c r="G1702" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47623,7 +47620,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1703" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47649,7 +47646,7 @@
         <v>0.193800002336502</v>
       </c>
       <c r="G1704" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47675,7 +47672,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1705" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47701,7 +47698,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1706" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47727,7 +47724,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1707" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47753,7 +47750,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1708" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47779,7 +47776,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1709" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47805,7 +47802,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1710" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47831,7 +47828,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1711" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47857,7 +47854,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1712" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47883,7 +47880,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1713" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47909,7 +47906,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1714" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47935,7 +47932,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1715" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47961,7 +47958,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1716" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47987,7 +47984,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1717" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48013,7 +48010,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1718" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48039,7 +48036,7 @@
         <v>0.192399993538857</v>
       </c>
       <c r="G1719" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48065,7 +48062,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1720" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48091,7 +48088,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1721" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48117,7 +48114,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1722" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48143,7 +48140,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1723" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48169,7 +48166,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1724" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48195,7 +48192,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1725" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48221,7 +48218,7 @@
         <v>0.187000006437302</v>
       </c>
       <c r="G1726" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48247,7 +48244,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1727" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48273,7 +48270,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1728" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48299,7 +48296,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1729" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48325,7 +48322,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1730" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48351,7 +48348,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1731" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48377,7 +48374,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1732" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48403,7 +48400,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1733" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48429,7 +48426,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1734" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48455,7 +48452,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1735" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48481,7 +48478,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1736" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48507,7 +48504,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1737" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48533,7 +48530,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1738" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48559,7 +48556,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1739" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48585,7 +48582,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1740" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48611,7 +48608,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1741" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48637,7 +48634,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1742" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48663,7 +48660,7 @@
         <v>0.195600003004074</v>
       </c>
       <c r="G1743" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48689,7 +48686,7 @@
         <v>0.19480000436306</v>
       </c>
       <c r="G1744" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48715,7 +48712,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1745" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48741,7 +48738,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1746" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48767,7 +48764,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1747" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48793,7 +48790,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1748" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48819,7 +48816,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1749" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48845,7 +48842,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1750" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48871,7 +48868,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1751" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48897,7 +48894,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1752" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48923,7 +48920,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1753" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48949,7 +48946,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1754" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48975,7 +48972,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1755" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49001,7 +48998,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1756" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49027,7 +49024,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1757" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49053,7 +49050,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G1758" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49079,7 +49076,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1759" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49105,7 +49102,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1760" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49131,7 +49128,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1761" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49157,7 +49154,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1762" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49183,7 +49180,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1763" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49209,7 +49206,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1764" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49235,7 +49232,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1765" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49261,7 +49258,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1766" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49287,7 +49284,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1767" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49313,7 +49310,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1768" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49339,7 +49336,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1769" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49365,7 +49362,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1770" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49391,7 +49388,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1771" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49417,7 +49414,7 @@
         <v>0.194999992847443</v>
       </c>
       <c r="G1772" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49443,7 +49440,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1773" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49469,7 +49466,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1774" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49495,7 +49492,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1775" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49521,7 +49518,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1776" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49547,7 +49544,7 @@
         <v>0.195999994874001</v>
       </c>
       <c r="G1777" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49573,7 +49570,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1778" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49599,7 +49596,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1779" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49625,7 +49622,7 @@
         <v>0.195800006389618</v>
       </c>
       <c r="G1780" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49651,7 +49648,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1781" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49677,7 +49674,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1782" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49703,7 +49700,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1783" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49729,7 +49726,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1784" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49755,7 +49752,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1785" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49781,7 +49778,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1786" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49807,7 +49804,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1787" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49833,7 +49830,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1788" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49859,7 +49856,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1789" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49885,7 +49882,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1790" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49911,7 +49908,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1791" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49937,7 +49934,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1792" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49963,7 +49960,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1793" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49989,7 +49986,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1794" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50015,7 +50012,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1795" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50041,7 +50038,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50067,7 +50064,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1797" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50093,7 +50090,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1798" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50119,7 +50116,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1799" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50145,7 +50142,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1800" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50171,7 +50168,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1801" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50197,7 +50194,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1802" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50223,7 +50220,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1803" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50249,7 +50246,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1804" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50275,7 +50272,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1805" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50301,7 +50298,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1806" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50327,7 +50324,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1807" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50353,7 +50350,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1808" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50379,7 +50376,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1809" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50405,7 +50402,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1810" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50431,7 +50428,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1811" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50457,7 +50454,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1812" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50483,7 +50480,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1813" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50509,7 +50506,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1814" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50535,7 +50532,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1815" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50561,7 +50558,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1816" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50587,7 +50584,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1817" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50613,7 +50610,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1818" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50639,7 +50636,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1819" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50665,7 +50662,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1820" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50691,7 +50688,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1821" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50717,7 +50714,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1822" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50743,7 +50740,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1823" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50769,7 +50766,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1824" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50795,7 +50792,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1825" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50821,7 +50818,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1826" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50847,7 +50844,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1827" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50873,7 +50870,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1828" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50899,7 +50896,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1829" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50925,7 +50922,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1830" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50951,7 +50948,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1831" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50977,7 +50974,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1832" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51003,7 +51000,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1833" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51029,7 +51026,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1834" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51055,7 +51052,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1835" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51081,7 +51078,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1836" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51107,7 +51104,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1837" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51133,7 +51130,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1838" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51159,7 +51156,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1839" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51185,7 +51182,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1840" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51211,7 +51208,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1841" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51237,7 +51234,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1842" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51263,7 +51260,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1843" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51289,7 +51286,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1844" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51315,7 +51312,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1845" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51341,7 +51338,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1846" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51367,7 +51364,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1847" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51393,7 +51390,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1848" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51419,7 +51416,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1849" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51445,7 +51442,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1850" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51471,7 +51468,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1851" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51497,7 +51494,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G1852" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51523,7 +51520,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1853" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51549,7 +51546,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1854" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51575,7 +51572,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1855" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51601,7 +51598,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1856" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51627,7 +51624,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1857" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51653,7 +51650,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1858" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51679,7 +51676,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51705,7 +51702,7 @@
         <v>0.228000000119209</v>
       </c>
       <c r="G1860" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51731,7 +51728,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1861" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51757,7 +51754,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1862" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51783,7 +51780,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1863" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51809,7 +51806,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51835,7 +51832,7 @@
         <v>0.231000006198883</v>
       </c>
       <c r="G1865" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51861,7 +51858,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1866" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51887,7 +51884,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1867" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51913,7 +51910,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1868" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51939,7 +51936,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1869" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51965,7 +51962,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1870" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51991,7 +51988,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1871" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52017,7 +52014,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1872" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52043,7 +52040,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1873" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52069,7 +52066,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1874" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52095,7 +52092,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1875" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52121,7 +52118,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1876" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52147,7 +52144,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1877" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52173,7 +52170,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1878" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52199,7 +52196,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1879" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52225,7 +52222,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1880" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52251,7 +52248,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1881" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52277,7 +52274,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1882" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52303,7 +52300,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1883" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52329,7 +52326,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1884" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52355,7 +52352,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1885" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52381,7 +52378,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1886" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52407,7 +52404,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1887" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52433,7 +52430,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1888" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52459,7 +52456,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1889" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52485,7 +52482,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1890" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52511,7 +52508,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1891" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52537,7 +52534,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1892" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52563,7 +52560,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1893" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52589,7 +52586,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1894" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52615,7 +52612,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1895" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52641,7 +52638,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1896" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52667,7 +52664,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1897" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52693,7 +52690,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1898" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52719,7 +52716,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1899" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52745,7 +52742,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1900" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52771,7 +52768,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1901" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52797,7 +52794,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1902" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52823,7 +52820,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1903" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52849,7 +52846,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1904" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52875,7 +52872,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1905" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52901,7 +52898,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1906" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52927,7 +52924,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1907" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52953,7 +52950,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1908" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52979,7 +52976,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1909" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53005,7 +53002,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1910" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53031,7 +53028,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1911" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53057,7 +53054,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1912" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53083,7 +53080,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1913" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53109,7 +53106,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1914" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53135,7 +53132,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1915" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53161,7 +53158,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1916" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53187,7 +53184,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1917" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53213,7 +53210,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1918" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53239,7 +53236,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1919" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53265,7 +53262,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1920" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53291,7 +53288,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1921" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53317,7 +53314,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1922" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53343,7 +53340,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1923" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53369,7 +53366,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1924" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53395,7 +53392,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1925" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53421,7 +53418,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1926" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53447,7 +53444,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1927" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53473,7 +53470,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1928" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53499,7 +53496,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1929" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53525,7 +53522,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1930" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53551,7 +53548,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1931" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53577,7 +53574,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1932" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53603,7 +53600,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1933" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53629,7 +53626,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1934" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53655,7 +53652,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1935" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53681,7 +53678,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1936" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53707,7 +53704,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53733,7 +53730,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1938" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53759,7 +53756,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1939" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53785,7 +53782,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1940" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53811,7 +53808,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1941" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53837,7 +53834,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1942" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53863,7 +53860,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53889,7 +53886,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53915,7 +53912,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1945" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53941,7 +53938,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1946" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53967,7 +53964,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53993,7 +53990,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1948" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54019,7 +54016,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54045,7 +54042,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1950" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54071,7 +54068,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54097,7 +54094,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1952" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54123,7 +54120,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54149,7 +54146,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1954" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54175,7 +54172,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1955" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54201,7 +54198,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1956" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54227,7 +54224,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1957" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54253,7 +54250,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54279,7 +54276,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1959" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54305,7 +54302,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1960" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54331,7 +54328,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1961" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54357,7 +54354,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1962" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54383,7 +54380,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54409,7 +54406,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54435,7 +54432,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1965" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54461,7 +54458,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1966" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54487,7 +54484,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1967" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54513,7 +54510,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1968" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54539,7 +54536,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1969" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54565,7 +54562,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1970" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54591,7 +54588,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1971" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54617,7 +54614,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1972" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54643,7 +54640,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1973" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54669,7 +54666,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1974" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54695,7 +54692,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1975" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54721,7 +54718,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54747,7 +54744,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1977" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54773,7 +54770,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1978" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54799,7 +54796,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1979" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54825,7 +54822,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1980" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54851,7 +54848,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1981" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54877,7 +54874,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1982" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54903,7 +54900,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1983" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54929,7 +54926,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1984" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54955,7 +54952,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1985" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54981,7 +54978,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1986" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55007,7 +55004,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1987" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55033,7 +55030,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55059,7 +55056,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1989" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55085,7 +55082,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55111,7 +55108,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1991" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55137,7 +55134,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1992" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55163,7 +55160,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1993" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55189,7 +55186,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1994" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55215,7 +55212,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1995" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55241,7 +55238,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1996" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55267,7 +55264,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1997" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55293,7 +55290,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1998" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55319,7 +55316,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1999" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55345,7 +55342,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2000" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55371,7 +55368,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55397,7 +55394,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2002" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55423,7 +55420,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55449,7 +55446,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2004" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55475,7 +55472,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55501,7 +55498,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2006" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55527,7 +55524,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2007" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55553,7 +55550,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2008" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55579,7 +55576,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2009" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55605,7 +55602,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2010" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55631,7 +55628,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2011" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55657,7 +55654,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2012" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55683,7 +55680,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2013" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55709,7 +55706,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2014" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55735,7 +55732,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2015" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55761,7 +55758,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2016" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55787,7 +55784,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2017" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55813,7 +55810,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2018" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55839,7 +55836,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2019" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55865,7 +55862,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2020" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55891,7 +55888,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2021" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55917,7 +55914,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55943,7 +55940,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2023" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55969,7 +55966,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2024" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55995,7 +55992,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2025" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56021,7 +56018,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56047,7 +56044,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2027" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56073,7 +56070,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56099,7 +56096,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2029" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56125,7 +56122,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2030" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56151,7 +56148,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2031" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56177,7 +56174,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2032" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56203,7 +56200,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2033" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56229,7 +56226,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2034" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56255,7 +56252,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2035" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56281,7 +56278,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2036" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56307,7 +56304,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2037" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56333,7 +56330,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2038" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56359,7 +56356,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2039" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56385,7 +56382,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56411,7 +56408,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2041" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56437,7 +56434,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2042" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56463,7 +56460,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2043" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56489,7 +56486,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2044" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56515,7 +56512,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2045" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56541,7 +56538,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2046" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56567,7 +56564,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2047" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56593,7 +56590,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2048" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56619,7 +56616,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2049" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56645,7 +56642,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56671,7 +56668,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56697,7 +56694,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2052" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56723,7 +56720,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2053" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56749,7 +56746,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2054" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56775,7 +56772,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2055" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56801,7 +56798,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2056" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56827,7 +56824,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2057" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56853,7 +56850,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2058" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56879,7 +56876,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2059" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56905,7 +56902,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2060" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56931,7 +56928,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2061" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56957,7 +56954,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2062" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56983,7 +56980,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57009,7 +57006,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2064" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57035,7 +57032,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2065" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57061,7 +57058,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57087,7 +57084,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57113,7 +57110,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2068" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57139,7 +57136,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2069" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57165,7 +57162,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57191,7 +57188,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57217,7 +57214,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57243,7 +57240,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57269,7 +57266,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2074" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57295,7 +57292,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57321,7 +57318,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2076" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57347,7 +57344,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2077" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57373,7 +57370,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2078" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57399,7 +57396,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2079" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57425,7 +57422,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2080" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57451,7 +57448,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2081" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57477,7 +57474,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2082" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57503,7 +57500,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2083" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57529,7 +57526,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2084" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57555,7 +57552,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2085" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57581,7 +57578,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2086" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57607,7 +57604,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2087" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57633,7 +57630,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2088" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57659,7 +57656,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2089" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57685,7 +57682,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2090" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57711,7 +57708,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2091" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57737,7 +57734,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2092" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57763,7 +57760,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2093" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57789,7 +57786,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2094" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57815,7 +57812,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2095" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57841,7 +57838,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2096" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57867,7 +57864,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2097" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57893,7 +57890,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2098" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57919,7 +57916,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2099" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57945,7 +57942,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2100" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57971,7 +57968,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2101" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57997,7 +57994,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58023,7 +58020,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2103" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58049,7 +58046,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2104" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58075,7 +58072,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2105" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58101,7 +58098,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2106" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58127,7 +58124,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2107" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58153,7 +58150,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2108" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58179,7 +58176,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2109" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58205,7 +58202,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2110" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58231,7 +58228,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2111" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58257,7 +58254,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2112" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58283,7 +58280,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2113" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58309,7 +58306,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2114" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58335,7 +58332,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2115" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58361,7 +58358,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2116" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58387,7 +58384,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2117" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58413,7 +58410,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2118" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58439,7 +58436,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2119" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58465,7 +58462,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2120" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58491,7 +58488,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2121" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58517,7 +58514,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2122" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58543,7 +58540,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G2123" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58569,7 +58566,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2124" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58595,7 +58592,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2125" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58621,7 +58618,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2126" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58647,7 +58644,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2127" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58673,7 +58670,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2128" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58699,7 +58696,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2129" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58725,7 +58722,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2130" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58751,7 +58748,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2131" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58777,7 +58774,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2132" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58803,7 +58800,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2133" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58829,7 +58826,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2134" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58855,7 +58852,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2135" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58881,7 +58878,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2136" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58907,7 +58904,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2137" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58933,7 +58930,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2138" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58959,7 +58956,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2139" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58985,7 +58982,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2140" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59011,7 +59008,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2141" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59037,7 +59034,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2142" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59063,7 +59060,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2143" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59089,7 +59086,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2144" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59115,7 +59112,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2145" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59141,7 +59138,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2146" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59167,7 +59164,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2147" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59193,7 +59190,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2148" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59219,7 +59216,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2149" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59245,7 +59242,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2150" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59271,7 +59268,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2151" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59297,7 +59294,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2152" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59323,7 +59320,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2153" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59349,7 +59346,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2154" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59375,7 +59372,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2155" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59401,7 +59398,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2156" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59427,7 +59424,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2157" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59435,7 +59432,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.649375</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>317826</v>
@@ -59447,15 +59444,41 @@
         <v>0.207000002264977</v>
       </c>
       <c r="E2158" t="n">
-        <v>0.209000006318092</v>
+        <v>0.208000004291534</v>
       </c>
       <c r="F2158" t="n">
         <v>0.208000004291534</v>
       </c>
       <c r="G2158" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6494097222</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>316226</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>992</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -44,19 +44,19 @@
     <t xml:space="preserve">PRO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174941971898079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171099275350571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169144287705421</t>
+    <t xml:space="preserve">0.174941942095757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171099290251732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16914427280426</t>
   </si>
   <si>
     <t xml:space="preserve">0.166178002953529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163481414318085</t>
+    <t xml:space="preserve">0.163481384515762</t>
   </si>
   <si>
     <t xml:space="preserve">0.165908336639404</t>
@@ -65,16 +65,16 @@
     <t xml:space="preserve">0.167324051260948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16267241537571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157144367694855</t>
+    <t xml:space="preserve">0.162672430276871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157144382596016</t>
   </si>
   <si>
     <t xml:space="preserve">0.146627649664879</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148515269160271</t>
+    <t xml:space="preserve">0.148515254259109</t>
   </si>
   <si>
     <t xml:space="preserve">0.1383356153965</t>
@@ -83,40 +83,40 @@
     <t xml:space="preserve">0.144740030169487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148313000798225</t>
+    <t xml:space="preserve">0.148313015699387</t>
   </si>
   <si>
     <t xml:space="preserve">0.148380413651466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158223018050194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152357906103134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152088284492493</t>
+    <t xml:space="preserve">0.158223032951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152357921004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152088269591331</t>
   </si>
   <si>
     <t xml:space="preserve">0.155054524540901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154380366206169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150335490703583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145481586456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142582729458809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142717584967613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13132444024086</t>
+    <t xml:space="preserve">0.15438038110733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150335475802422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14548160135746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142582759261131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142717570066452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131324425339699</t>
   </si>
   <si>
     <t xml:space="preserve">0.135504171252251</t>
@@ -131,16 +131,16 @@
     <t xml:space="preserve">0.138874918222427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138200774788857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143459156155586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140223205089569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137998536229134</t>
+    <t xml:space="preserve">0.138200759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143459141254425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14022321999073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137998521327972</t>
   </si>
   <si>
     <t xml:space="preserve">0.144605189561844</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.14372880756855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144065871834755</t>
+    <t xml:space="preserve">0.144065886735916</t>
   </si>
   <si>
     <t xml:space="preserve">0.142987236380577</t>
@@ -164,10 +164,10 @@
     <t xml:space="preserve">0.147706285119057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153166890144348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154178112745285</t>
+    <t xml:space="preserve">0.153166919946671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154178127646446</t>
   </si>
   <si>
     <t xml:space="preserve">0.150942206382751</t>
@@ -176,28 +176,28 @@
     <t xml:space="preserve">0.150672540068626</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154717430472374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156470239162445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162402763962746</t>
+    <t xml:space="preserve">0.154717460274696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156470224261284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162402749061584</t>
   </si>
   <si>
     <t xml:space="preserve">0.16449262201786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161796018481255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160852193832397</t>
+    <t xml:space="preserve">0.161796003580093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16085222363472</t>
   </si>
   <si>
     <t xml:space="preserve">0.158088222146034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15909942984581</t>
+    <t xml:space="preserve">0.159099414944649</t>
   </si>
   <si>
     <t xml:space="preserve">0.155526429414749</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">0.148987174034119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150200635194778</t>
+    <t xml:space="preserve">0.150200664997101</t>
   </si>
   <si>
     <t xml:space="preserve">0.150065824389458</t>
@@ -218,16 +218,16 @@
     <t xml:space="preserve">0.149930983781815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146964713931084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144268125295639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142245650291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138268187642097</t>
+    <t xml:space="preserve">0.146964728832245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144268110394478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142245680093765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138268172740936</t>
   </si>
   <si>
     <t xml:space="preserve">0.147841110825539</t>
@@ -236,40 +236,40 @@
     <t xml:space="preserve">0.151751175522804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157279223203659</t>
+    <t xml:space="preserve">0.15727923810482</t>
   </si>
   <si>
     <t xml:space="preserve">0.156874731183052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155998319387436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156942158937454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1526949852705</t>
+    <t xml:space="preserve">0.155998334288597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156942144036293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152695000171661</t>
   </si>
   <si>
     <t xml:space="preserve">0.157009541988373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152560189366341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122458934784</t>
+    <t xml:space="preserve">0.152560174465179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122444033623</t>
   </si>
   <si>
     <t xml:space="preserve">0.154429942369461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150274857878685</t>
+    <t xml:space="preserve">0.150274872779846</t>
   </si>
   <si>
     <t xml:space="preserve">0.150828897953033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147781848907471</t>
+    <t xml:space="preserve">0.14778183400631</t>
   </si>
   <si>
     <t xml:space="preserve">0.147712588310242</t>
@@ -278,22 +278,22 @@
     <t xml:space="preserve">0.146812334656715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142657250165939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142103254795074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138155937194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139817953109741</t>
+    <t xml:space="preserve">0.142657265067101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142103269696236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138155922293663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139817968010902</t>
   </si>
   <si>
     <t xml:space="preserve">0.13988721370697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140579715371132</t>
+    <t xml:space="preserve">0.140579700469971</t>
   </si>
   <si>
     <t xml:space="preserve">0.141272231936455</t>
@@ -302,10 +302,10 @@
     <t xml:space="preserve">0.139748722314835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141202971339226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144042268395424</t>
+    <t xml:space="preserve">0.141202956438065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144042253494263</t>
   </si>
   <si>
     <t xml:space="preserve">0.145427286624908</t>
@@ -314,34 +314,34 @@
     <t xml:space="preserve">0.144734799861908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145219549536705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147989600896835</t>
+    <t xml:space="preserve">0.145219534635544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147989615797997</t>
   </si>
   <si>
     <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147574096918106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148889854550362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148128092288971</t>
+    <t xml:space="preserve">0.147574111819267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148889869451523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148128107190132</t>
   </si>
   <si>
     <t xml:space="preserve">0.144180774688721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146673813462257</t>
+    <t xml:space="preserve">0.146673798561096</t>
   </si>
   <si>
     <t xml:space="preserve">0.141826242208481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133654624223709</t>
+    <t xml:space="preserve">0.133654609322548</t>
   </si>
   <si>
     <t xml:space="preserve">0.132685095071793</t>
@@ -356,19 +356,19 @@
     <t xml:space="preserve">0.123890198767185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126244753599167</t>
+    <t xml:space="preserve">0.126244738698006</t>
   </si>
   <si>
     <t xml:space="preserve">0.123405449092388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125898495316505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116341844201088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787833929062</t>
+    <t xml:space="preserve">0.125898465514183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116341859102249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787841379642</t>
   </si>
   <si>
     <t xml:space="preserve">0.122574433684349</t>
@@ -377,10 +377,10 @@
     <t xml:space="preserve">0.119111888110638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12292068451643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228175401688</t>
+    <t xml:space="preserve">0.122920677065849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228182852268</t>
   </si>
   <si>
     <t xml:space="preserve">0.118419378995895</t>
@@ -389,43 +389,43 @@
     <t xml:space="preserve">0.11350254714489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110940255224705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118904136121273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122297435998917</t>
+    <t xml:space="preserve">0.110940262675285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118904128670692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297428548336</t>
   </si>
   <si>
     <t xml:space="preserve">0.126452505588531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124651990830898</t>
+    <t xml:space="preserve">0.124651983380318</t>
   </si>
   <si>
     <t xml:space="preserve">0.126175507903099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130953833460808</t>
+    <t xml:space="preserve">0.130953818559647</t>
   </si>
   <si>
     <t xml:space="preserve">0.128668546676636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128460764884949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127768263220787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127422019839287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126729488372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128253042697906</t>
+    <t xml:space="preserve">0.12846077978611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127768278121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127422034740448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126729503273964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128253027796745</t>
   </si>
   <si>
     <t xml:space="preserve">0.130884572863579</t>
@@ -437,40 +437,40 @@
     <t xml:space="preserve">0.127976030111313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120496913790703</t>
+    <t xml:space="preserve">0.120496898889542</t>
   </si>
   <si>
     <t xml:space="preserve">0.118211604654789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117172844707966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114956811070442</t>
+    <t xml:space="preserve">0.117172852158546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114956825971603</t>
   </si>
   <si>
     <t xml:space="preserve">0.116618849337101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11862713098526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119804382324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765622377396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912410318851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718573331833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319625198841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119250372052193</t>
+    <t xml:space="preserve">0.118627123534679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119804374873638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765637278557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912417769432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718580782413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319632649422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119250386953354</t>
   </si>
   <si>
     <t xml:space="preserve">0.118834882974625</t>
@@ -479,22 +479,22 @@
     <t xml:space="preserve">0.121258661150932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122505187988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197712004185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125552222132683</t>
+    <t xml:space="preserve">0.122505202889442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197697103024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552237033844</t>
   </si>
   <si>
     <t xml:space="preserve">0.125690743327141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12174341827631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674180030823</t>
+    <t xml:space="preserve">0.121743425726891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674165129662</t>
   </si>
   <si>
     <t xml:space="preserve">0.120150648057461</t>
@@ -503,22 +503,22 @@
     <t xml:space="preserve">0.121120162308216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118488617241383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665898382664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372337400913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11592635512352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726840078831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116826593875885</t>
+    <t xml:space="preserve">0.118488624691963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665905833244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372322499752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926347672939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726854979992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116826601326466</t>
   </si>
   <si>
     <t xml:space="preserve">0.117103606462479</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">0.121189415454865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115233831107616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118973389267921</t>
+    <t xml:space="preserve">0.115233816206455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118973396718502</t>
   </si>
   <si>
     <t xml:space="preserve">0.118350133299828</t>
@@ -545,112 +545,112 @@
     <t xml:space="preserve">0.12409795820713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125205978751183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123959444463253</t>
+    <t xml:space="preserve">0.125205993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123959459364414</t>
   </si>
   <si>
     <t xml:space="preserve">0.117034360766411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11779610812664</t>
+    <t xml:space="preserve">0.11779610067606</t>
   </si>
   <si>
     <t xml:space="preserve">0.117934621870518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116480343043804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115095309913158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433308899403</t>
+    <t xml:space="preserve">0.116480335593224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115095317363739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433286547661</t>
   </si>
   <si>
     <t xml:space="preserve">0.111494265496731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1154415756464</t>
+    <t xml:space="preserve">0.115441583096981</t>
   </si>
   <si>
     <t xml:space="preserve">0.113571792840958</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114679805934429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111771263182163</t>
+    <t xml:space="preserve">0.11467981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111771270632744</t>
   </si>
   <si>
     <t xml:space="preserve">0.111009508371353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111563511192799</t>
+    <t xml:space="preserve">0.111563496291637</t>
   </si>
   <si>
     <t xml:space="preserve">0.112186774611473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117588356137276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327906847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122020445764065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122435949742794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119942903518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124305725097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122851423919201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773911476135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596637785435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119527399539948</t>
+    <t xml:space="preserve">0.117588371038437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327921748161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122020438313484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122435942292213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119942910969257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124305732548237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122851431369781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773896574974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596645236015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119527377188206</t>
   </si>
   <si>
     <t xml:space="preserve">0.120358400046825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121812663972378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14189550280571</t>
+    <t xml:space="preserve">0.1218126937747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141895487904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.169665202498436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159970015287399</t>
+    <t xml:space="preserve">0.159970045089722</t>
   </si>
   <si>
     <t xml:space="preserve">0.15719997882843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14611978828907</t>
+    <t xml:space="preserve">0.146119803190231</t>
   </si>
   <si>
     <t xml:space="preserve">0.146466061472893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148197337985039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144942551851273</t>
+    <t xml:space="preserve">0.1481973528862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144942536950111</t>
   </si>
   <si>
     <t xml:space="preserve">0.148682102560997</t>
@@ -662,19 +662,19 @@
     <t xml:space="preserve">0.154360696673393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157477006316185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159900799393654</t>
+    <t xml:space="preserve">0.157476991415024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159900784492493</t>
   </si>
   <si>
     <t xml:space="preserve">0.158030986785889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156507462263107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147366344928741</t>
+    <t xml:space="preserve">0.15650749206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14736633002758</t>
   </si>
   <si>
     <t xml:space="preserve">0.143349766731262</t>
@@ -686,19 +686,19 @@
     <t xml:space="preserve">0.145358055830002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143626764416695</t>
+    <t xml:space="preserve">0.143626749515533</t>
   </si>
   <si>
     <t xml:space="preserve">0.144319295883179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137809664011002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139194697141647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140164211392403</t>
+    <t xml:space="preserve">0.137809678912163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139194712042809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140164226293564</t>
   </si>
   <si>
     <t xml:space="preserve">0.140510469675064</t>
@@ -707,16 +707,16 @@
     <t xml:space="preserve">0.140441223978996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139540955424309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138502195477486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139679476618767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13711716234684</t>
+    <t xml:space="preserve">0.13954097032547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138502180576324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139679461717606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137117177248001</t>
   </si>
   <si>
     <t xml:space="preserve">0.139056205749512</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">0.144111514091492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144250050187111</t>
+    <t xml:space="preserve">0.14425003528595</t>
   </si>
   <si>
     <t xml:space="preserve">0.145912066102028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142588004469872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145981311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149028360843658</t>
+    <t xml:space="preserve">0.142588019371033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145981326699257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149028345942497</t>
   </si>
   <si>
     <t xml:space="preserve">0.147851094603539</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">0.151936888694763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150967389345169</t>
+    <t xml:space="preserve">0.15096740424633</t>
   </si>
   <si>
     <t xml:space="preserve">0.148612841963768</t>
@@ -785,25 +785,25 @@
     <t xml:space="preserve">0.147920340299606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147297069430351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143141999840736</t>
+    <t xml:space="preserve">0.147297084331512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143142014741898</t>
   </si>
   <si>
     <t xml:space="preserve">0.141687765717506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146258324384689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149720847606659</t>
+    <t xml:space="preserve">0.146258309483528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14972086250782</t>
   </si>
   <si>
     <t xml:space="preserve">0.152213901281357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152006164193153</t>
+    <t xml:space="preserve">0.152006149291992</t>
   </si>
   <si>
     <t xml:space="preserve">0.146189048886299</t>
@@ -815,13 +815,13 @@
     <t xml:space="preserve">0.148474365472794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148472413420677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146802604198456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145411133766174</t>
+    <t xml:space="preserve">0.148472398519516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146802619099617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145411118865013</t>
   </si>
   <si>
     <t xml:space="preserve">0.144297912716866</t>
@@ -836,22 +836,22 @@
     <t xml:space="preserve">0.148959442973137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145480707287788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145132824778557</t>
+    <t xml:space="preserve">0.145480692386627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145132839679718</t>
   </si>
   <si>
     <t xml:space="preserve">0.146106868982315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14450666308403</t>
+    <t xml:space="preserve">0.144506648182869</t>
   </si>
   <si>
     <t xml:space="preserve">0.14401963353157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143463030457497</t>
+    <t xml:space="preserve">0.143463045358658</t>
   </si>
   <si>
     <t xml:space="preserve">0.140749633312225</t>
@@ -860,13 +860,13 @@
     <t xml:space="preserve">0.143045574426651</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14019301533699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141236647963524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141514956951141</t>
+    <t xml:space="preserve">0.140193030238152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141236633062363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14151494204998</t>
   </si>
   <si>
     <t xml:space="preserve">0.142071545124054</t>
@@ -875,13 +875,13 @@
     <t xml:space="preserve">0.13949728012085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139010235667229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140332192182541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139149397611618</t>
+    <t xml:space="preserve">0.13901025056839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14033217728138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139149382710457</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757912278175</t>
@@ -890,34 +890,34 @@
     <t xml:space="preserve">0.137618750333786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137062147259712</t>
+    <t xml:space="preserve">0.137062162160873</t>
   </si>
   <si>
     <t xml:space="preserve">0.138175338506699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138244926929474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142419427633286</t>
+    <t xml:space="preserve">0.138244941830635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142419412732124</t>
   </si>
   <si>
     <t xml:space="preserve">0.140610456466675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141793251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141445353627205</t>
+    <t xml:space="preserve">0.141793236136436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141445368528366</t>
   </si>
   <si>
     <t xml:space="preserve">0.141167059540749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140680059790611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140123456716537</t>
+    <t xml:space="preserve">0.140680029988289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140123441815376</t>
   </si>
   <si>
     <t xml:space="preserve">0.141584515571594</t>
@@ -932,28 +932,28 @@
     <t xml:space="preserve">0.139427691698074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147289648652077</t>
+    <t xml:space="preserve">0.147289633750916</t>
   </si>
   <si>
     <t xml:space="preserve">0.149655178189278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14986389875412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150629222393036</t>
+    <t xml:space="preserve">0.149863913655281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150629237294197</t>
   </si>
   <si>
     <t xml:space="preserve">0.149724751710892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147985368967056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146246016025543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147428765892982</t>
+    <t xml:space="preserve">0.147985383868217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146246030926704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147428780794144</t>
   </si>
   <si>
     <t xml:space="preserve">0.149237737059593</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">0.150281354784966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148402839899063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151742413640022</t>
+    <t xml:space="preserve">0.148402824997902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151742428541183</t>
   </si>
   <si>
     <t xml:space="preserve">0.15202072262764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152577310800552</t>
+    <t xml:space="preserve">0.152577325701714</t>
   </si>
   <si>
     <t xml:space="preserve">0.152159869670868</t>
@@ -986,10 +986,10 @@
     <t xml:space="preserve">0.150977090001106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15035092830658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149029016494751</t>
+    <t xml:space="preserve">0.150350943207741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14902900159359</t>
   </si>
   <si>
     <t xml:space="preserve">0.148750707507133</t>
@@ -1004,13 +1004,13 @@
     <t xml:space="preserve">0.166840136051178</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169762253761292</t>
+    <t xml:space="preserve">0.169762268662453</t>
   </si>
   <si>
     <t xml:space="preserve">0.168649062514305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166979283094406</t>
+    <t xml:space="preserve">0.166979268193245</t>
   </si>
   <si>
     <t xml:space="preserve">0.160369679331779</t>
@@ -1022,28 +1022,28 @@
     <t xml:space="preserve">0.173797607421875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175954431295395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172893136739731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173936739563942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168718665838242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168509930372238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167675033211708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168996945023537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16586609184742</t>
+    <t xml:space="preserve">0.175954401493073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172893106937408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173936769366264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16871865093708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168509945273399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167675018310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168996959924698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165866076946259</t>
   </si>
   <si>
     <t xml:space="preserve">0.16419629752636</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">0.169275254011154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171988651156425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170458033680916</t>
+    <t xml:space="preserve">0.171988666057587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170458018779755</t>
   </si>
   <si>
     <t xml:space="preserve">0.173241004347801</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">0.187712550163269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184581696987152</t>
+    <t xml:space="preserve">0.184581682085991</t>
   </si>
   <si>
     <t xml:space="preserve">0.189938947558403</t>
@@ -1079,19 +1079,19 @@
     <t xml:space="preserve">0.198635771870613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197383403778076</t>
+    <t xml:space="preserve">0.197383418679237</t>
   </si>
   <si>
     <t xml:space="preserve">0.19341766834259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192443624138832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187851667404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194809183478355</t>
+    <t xml:space="preserve">0.192443639039993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187851697206497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194809168577194</t>
   </si>
   <si>
     <t xml:space="preserve">0.191678300499916</t>
@@ -1103,10 +1103,10 @@
     <t xml:space="preserve">0.183468505740166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185694873332977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186112344264984</t>
+    <t xml:space="preserve">0.185694888234138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186112329363823</t>
   </si>
   <si>
     <t xml:space="preserve">0.183816358447075</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">0.183677211403847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178528681397438</t>
+    <t xml:space="preserve">0.178528666496277</t>
   </si>
   <si>
     <t xml:space="preserve">0.176719754934311</t>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">0.180755063891411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1808942258358</t>
+    <t xml:space="preserve">0.180894210934639</t>
   </si>
   <si>
     <t xml:space="preserve">0.177763357758522</t>
@@ -1148,13 +1148,13 @@
     <t xml:space="preserve">0.185416579246521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185138270258904</t>
+    <t xml:space="preserve">0.185138285160065</t>
   </si>
   <si>
     <t xml:space="preserve">0.182424873113632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180059343576431</t>
+    <t xml:space="preserve">0.18005932867527</t>
   </si>
   <si>
     <t xml:space="preserve">0.180824682116508</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">0.162804812192917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165587797760963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166074812412262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166144400835037</t>
+    <t xml:space="preserve">0.165587782859802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166074827313423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166144385933876</t>
   </si>
   <si>
     <t xml:space="preserve">0.166770562529564</t>
@@ -1184,25 +1184,25 @@
     <t xml:space="preserve">0.167396724224091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165935665369034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163918003439903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166492268443108</t>
+    <t xml:space="preserve">0.165935680270195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163917988538742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166492253541946</t>
   </si>
   <si>
     <t xml:space="preserve">0.167535871267319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165448635816574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167327165603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165170326828957</t>
+    <t xml:space="preserve">0.165448650717735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167327180504799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165170341730118</t>
   </si>
   <si>
     <t xml:space="preserve">0.167466297745705</t>
@@ -1226,19 +1226,19 @@
     <t xml:space="preserve">0.166909709572792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165518209338188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168022930622101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168370798230171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1648920327425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173588886857033</t>
+    <t xml:space="preserve">0.165518224239349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16802291572094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16837078332901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164892047643661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173588871955872</t>
   </si>
   <si>
     <t xml:space="preserve">0.17254526913166</t>
@@ -1253,31 +1253,31 @@
     <t xml:space="preserve">0.179502725601196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178806975483894</t>
+    <t xml:space="preserve">0.178806990385056</t>
   </si>
   <si>
     <t xml:space="preserve">0.18054635822773</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182981461286545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182633578777313</t>
+    <t xml:space="preserve">0.182981491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182633593678474</t>
   </si>
   <si>
     <t xml:space="preserve">0.183329343795776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177415490150452</t>
+    <t xml:space="preserve">0.17741547524929</t>
   </si>
   <si>
     <t xml:space="preserve">0.179154843091965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164544150233269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162456929683685</t>
+    <t xml:space="preserve">0.16454416513443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162456914782524</t>
   </si>
   <si>
     <t xml:space="preserve">0.161761179566383</t>
@@ -1295,43 +1295,43 @@
     <t xml:space="preserve">0.154803723096848</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154107972979546</t>
+    <t xml:space="preserve">0.154107958078384</t>
   </si>
   <si>
     <t xml:space="preserve">0.15236859023571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154455855488777</t>
+    <t xml:space="preserve">0.154455825686455</t>
   </si>
   <si>
     <t xml:space="preserve">0.149933472275734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152716487646103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156195193529129</t>
+    <t xml:space="preserve">0.152716472744942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15619520843029</t>
   </si>
   <si>
     <t xml:space="preserve">0.156543076038361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155151590704918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15584734082222</t>
+    <t xml:space="preserve">0.155151575803757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155847325921059</t>
   </si>
   <si>
     <t xml:space="preserve">0.153064325451851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149585619568825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148194119334221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147846236824989</t>
+    <t xml:space="preserve">0.149585604667664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148194134235382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147846221923828</t>
   </si>
   <si>
     <t xml:space="preserve">0.146454751491547</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">0.157934576272964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160021811723709</t>
+    <t xml:space="preserve">0.16002182662487</t>
   </si>
   <si>
     <t xml:space="preserve">0.158282443881035</t>
@@ -1358,16 +1358,16 @@
     <t xml:space="preserve">0.16144423186779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160733014345169</t>
+    <t xml:space="preserve">0.16073302924633</t>
   </si>
   <si>
     <t xml:space="preserve">0.155043363571167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157532587647438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156110182404518</t>
+    <t xml:space="preserve">0.157532572746277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156110197305679</t>
   </si>
   <si>
     <t xml:space="preserve">0.153620943427086</t>
@@ -1397,7 +1397,7 @@
     <t xml:space="preserve">0.138827815651894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137974366545677</t>
+    <t xml:space="preserve">0.137974381446838</t>
   </si>
   <si>
     <t xml:space="preserve">0.139965742826462</t>
@@ -1412,13 +1412,13 @@
     <t xml:space="preserve">0.14544203877449</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138970032334328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140107974410057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138401091098785</t>
+    <t xml:space="preserve">0.138970047235489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140107989311218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138401076197624</t>
   </si>
   <si>
     <t xml:space="preserve">0.141957119107246</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">0.142099350690842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141672626137733</t>
+    <t xml:space="preserve">0.141672641038895</t>
   </si>
   <si>
     <t xml:space="preserve">0.142952814698219</t>
@@ -1472,22 +1472,22 @@
     <t xml:space="preserve">0.148642495274544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152909740805626</t>
+    <t xml:space="preserve">0.152909725904465</t>
   </si>
   <si>
     <t xml:space="preserve">0.152554124593735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149353682994843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1443752348423</t>
+    <t xml:space="preserve">0.149353697896004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144375219941139</t>
   </si>
   <si>
     <t xml:space="preserve">0.141388162970543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142241612076759</t>
+    <t xml:space="preserve">0.142241597175598</t>
   </si>
   <si>
     <t xml:space="preserve">0.138258844614029</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">0.138543322682381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141530394554138</t>
+    <t xml:space="preserve">0.141530379652977</t>
   </si>
   <si>
     <t xml:space="preserve">0.139254540205002</t>
@@ -1514,13 +1514,13 @@
     <t xml:space="preserve">0.138685554265976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132995918393135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13498729467392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135129511356354</t>
+    <t xml:space="preserve">0.132995903491974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134987279772758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135129526257515</t>
   </si>
   <si>
     <t xml:space="preserve">0.129439860582352</t>
@@ -1532,31 +1532,31 @@
     <t xml:space="preserve">0.12517261505127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123465716838837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12375020980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126310542225838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126595035195351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123892433941364</t>
+    <t xml:space="preserve">0.123465724289417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123750202357769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126310557126999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126595050096512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123892441391945</t>
   </si>
   <si>
     <t xml:space="preserve">0.122327789664268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119482956826687</t>
+    <t xml:space="preserve">0.119482949376106</t>
   </si>
   <si>
     <t xml:space="preserve">0.117633819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116922602057457</t>
+    <t xml:space="preserve">0.116922609508038</t>
   </si>
   <si>
     <t xml:space="preserve">0.112513102591038</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">0.119198471307755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119909673929214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11934071034193</t>
+    <t xml:space="preserve">0.119909666478634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119340717792511</t>
   </si>
   <si>
     <t xml:space="preserve">0.123038977384567</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">0.120905347168446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118060529232025</t>
+    <t xml:space="preserve">0.118060536682606</t>
   </si>
   <si>
     <t xml:space="preserve">0.111659660935402</t>
@@ -1610,13 +1610,13 @@
     <t xml:space="preserve">0.114788979291916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113366559147835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116211399435997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754514217377</t>
+    <t xml:space="preserve">0.113366551697254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116211406886578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754521667957</t>
   </si>
   <si>
     <t xml:space="preserve">0.127590730786324</t>
@@ -1631,10 +1631,10 @@
     <t xml:space="preserve">0.124745897948742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120763123035431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12190106511116</t>
+    <t xml:space="preserve">0.120763130486012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12190105766058</t>
   </si>
   <si>
     <t xml:space="preserve">0.11905624717474</t>
@@ -1643,22 +1643,22 @@
     <t xml:space="preserve">0.114504501223564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117349341511726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646732807159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452788710594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12047865241766</t>
+    <t xml:space="preserve">0.117349348962307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11464674025774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452773809433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120478644967079</t>
   </si>
   <si>
     <t xml:space="preserve">0.120336398482323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120194174349308</t>
+    <t xml:space="preserve">0.120194166898727</t>
   </si>
   <si>
     <t xml:space="preserve">0.120620884001255</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">0.118487268686295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113082081079483</t>
+    <t xml:space="preserve">0.113082088530064</t>
   </si>
   <si>
     <t xml:space="preserve">0.111944131553173</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">0.110379502177238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111801907420158</t>
+    <t xml:space="preserve">0.111801899969578</t>
   </si>
   <si>
     <t xml:space="preserve">0.112370871007442</t>
@@ -1691,13 +1691,13 @@
     <t xml:space="preserve">0.111232936382294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116069167852402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121332086622715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122612282633781</t>
+    <t xml:space="preserve">0.116069160401821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121332079172134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122612275183201</t>
   </si>
   <si>
     <t xml:space="preserve">0.124319158494473</t>
@@ -1706,37 +1706,37 @@
     <t xml:space="preserve">0.121758826076984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122185550630093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115642428398132</t>
+    <t xml:space="preserve">0.122185543179512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115642420947552</t>
   </si>
   <si>
     <t xml:space="preserve">0.11649589240551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11862950772047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119767434895039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118202768266201</t>
+    <t xml:space="preserve">0.11862950026989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1197674497962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118202775716782</t>
   </si>
   <si>
     <t xml:space="preserve">0.115357950329781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116780377924442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117491565644741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116282522678375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118771746754646</t>
+    <t xml:space="preserve">0.116780370473862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11749155819416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116282515227795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118771739304066</t>
   </si>
   <si>
     <t xml:space="preserve">0.119838573038578</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">0.120549760758877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121629364788532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121267385780811</t>
+    <t xml:space="preserve">0.121629357337952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121267378330231</t>
   </si>
   <si>
     <t xml:space="preserve">0.122715324163437</t>
@@ -1757,13 +1757,13 @@
     <t xml:space="preserve">0.121991358697414</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119095399975777</t>
+    <t xml:space="preserve">0.119095414876938</t>
   </si>
   <si>
     <t xml:space="preserve">0.118009448051453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116923466324806</t>
+    <t xml:space="preserve">0.116923458874226</t>
   </si>
   <si>
     <t xml:space="preserve">0.114751510322094</t>
@@ -1775,16 +1775,16 @@
     <t xml:space="preserve">0.116561464965343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11945740878582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116199463605881</t>
+    <t xml:space="preserve">0.119457401335239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116199471056461</t>
   </si>
   <si>
     <t xml:space="preserve">0.115837469696999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113665536046028</t>
+    <t xml:space="preserve">0.113665528595448</t>
   </si>
   <si>
     <t xml:space="preserve">0.114389508962631</t>
@@ -1799,16 +1799,16 @@
     <t xml:space="preserve">0.110769592225552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111855559051037</t>
+    <t xml:space="preserve">0.111855551600456</t>
   </si>
   <si>
     <t xml:space="preserve">0.107149675488472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107873663306236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107511661946774</t>
+    <t xml:space="preserve">0.107873655855656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107511654496193</t>
   </si>
   <si>
     <t xml:space="preserve">0.104977712035179</t>
@@ -1817,16 +1817,16 @@
     <t xml:space="preserve">0.108235642313957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106425695121288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108959630131721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109683610498905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110407613217831</t>
+    <t xml:space="preserve">0.106425702571869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108959637582302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109683617949486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11040760576725</t>
   </si>
   <si>
     <t xml:space="preserve">0.111493572592735</t>
@@ -1835,7 +1835,7 @@
     <t xml:space="preserve">0.111131578683853</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113303542137146</t>
+    <t xml:space="preserve">0.113303549587727</t>
   </si>
   <si>
     <t xml:space="preserve">0.10859764367342</t>
@@ -1850,58 +1850,58 @@
     <t xml:space="preserve">0.115475505590439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118733420968056</t>
+    <t xml:space="preserve">0.118733428418636</t>
   </si>
   <si>
     <t xml:space="preserve">0.120905362069607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120181389153004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119819402694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120543368160725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118371427059174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117285445332527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123801305890083</t>
+    <t xml:space="preserve">0.120181381702423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119819410145283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120543375611305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118371419608593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117285452783108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123801313340664</t>
   </si>
   <si>
     <t xml:space="preserve">0.126335248351097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123439311981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124525308609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12488728761673</t>
+    <t xml:space="preserve">0.123439304530621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124525316059589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124887280166149</t>
   </si>
   <si>
     <t xml:space="preserve">0.124163299798965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1230773255229</t>
+    <t xml:space="preserve">0.123077318072319</t>
   </si>
   <si>
     <t xml:space="preserve">0.144072860479355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154208645224571</t>
+    <t xml:space="preserve">0.154208660125732</t>
   </si>
   <si>
     <t xml:space="preserve">0.146244823932648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1556566208601</t>
+    <t xml:space="preserve">0.155656605958939</t>
   </si>
   <si>
     <t xml:space="preserve">0.1773761510849</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">0.191855818033218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184615969657898</t>
+    <t xml:space="preserve">0.184615984559059</t>
   </si>
   <si>
     <t xml:space="preserve">0.171584263443947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166516378521919</t>
+    <t xml:space="preserve">0.16651639342308</t>
   </si>
   <si>
     <t xml:space="preserve">0.170136302709579</t>
@@ -1940,22 +1940,22 @@
     <t xml:space="preserve">0.161448508501053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162172481417656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165792390704155</t>
+    <t xml:space="preserve">0.162172466516495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165792405605316</t>
   </si>
   <si>
     <t xml:space="preserve">0.165068402886391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15782855451107</t>
+    <t xml:space="preserve">0.157828569412231</t>
   </si>
   <si>
     <t xml:space="preserve">0.16289646923542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163620457053185</t>
+    <t xml:space="preserve">0.163620442152023</t>
   </si>
   <si>
     <t xml:space="preserve">0.179548099637032</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">0.151312723755836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138642981648445</t>
+    <t xml:space="preserve">0.138642996549606</t>
   </si>
   <si>
     <t xml:space="preserve">0.139728963375092</t>
@@ -2012,19 +2012,19 @@
     <t xml:space="preserve">0.122353337705135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106787674129009</t>
+    <t xml:space="preserve">0.106787666678429</t>
   </si>
   <si>
     <t xml:space="preserve">0.0912220180034637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0970138981938362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0962899029254913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0977378785610199</t>
+    <t xml:space="preserve">0.0970138907432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0962899103760719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0977378711104393</t>
   </si>
   <si>
     <t xml:space="preserve">0.100633814930916</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">0.102443762123585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104253739118576</t>
+    <t xml:space="preserve">0.104253731667995</t>
   </si>
   <si>
     <t xml:space="preserve">0.106063693761826</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">0.10671528428793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122208535671234</t>
+    <t xml:space="preserve">0.122208528220654</t>
   </si>
   <si>
     <t xml:space="preserve">0.108163245022297</t>
@@ -2108,10 +2108,10 @@
     <t xml:space="preserve">0.104688122868538</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11047999560833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112796753644943</t>
+    <t xml:space="preserve">0.11048000305891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112796746194363</t>
   </si>
   <si>
     <t xml:space="preserve">0.110335201025009</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">0.115692675113678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154932647943497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139004990458488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152760654687881</t>
+    <t xml:space="preserve">0.154932633042336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139004975557327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152760669589043</t>
   </si>
   <si>
     <t xml:space="preserve">0.157104581594467</t>
@@ -2138,16 +2138,16 @@
     <t xml:space="preserve">0.151674717664719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149502754211426</t>
+    <t xml:space="preserve">0.149502739310265</t>
   </si>
   <si>
     <t xml:space="preserve">0.150588721036911</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148416787385941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148054793477058</t>
+    <t xml:space="preserve">0.148416772484779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148054778575897</t>
   </si>
   <si>
     <t xml:space="preserve">0.144652038812637</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">0.144796848297119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144362449645996</t>
+    <t xml:space="preserve">0.144362464547157</t>
   </si>
   <si>
     <t xml:space="preserve">0.143638476729393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142769694328308</t>
+    <t xml:space="preserve">0.142769709229469</t>
   </si>
   <si>
     <t xml:space="preserve">0.143928065896034</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">0.144507259130478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147330790758133</t>
+    <t xml:space="preserve">0.147330805659294</t>
   </si>
   <si>
     <t xml:space="preserve">0.143493682146072</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">0.140163347125053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140887334942818</t>
+    <t xml:space="preserve">0.140887349843979</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900926828384</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">0.143348872661591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143783271312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142480090260506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138136193156242</t>
+    <t xml:space="preserve">0.143783256411552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142480105161667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138136178255081</t>
   </si>
   <si>
     <t xml:space="preserve">0.13755701482296</t>
@@ -2237,7 +2237,7 @@
     <t xml:space="preserve">0.158914551138878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153846651315689</t>
+    <t xml:space="preserve">0.15384666621685</t>
   </si>
   <si>
     <t xml:space="preserve">0.150226727128029</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">0.155294626951218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160000517964363</t>
+    <t xml:space="preserve">0.160000532865524</t>
   </si>
   <si>
     <t xml:space="preserve">0.157466575503349</t>
@@ -2261,37 +2261,37 @@
     <t xml:space="preserve">0.156742602586746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159276515245438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169774323701859</t>
+    <t xml:space="preserve">0.159276530146599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169774308800697</t>
   </si>
   <si>
     <t xml:space="preserve">0.16832634806633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173394218087196</t>
+    <t xml:space="preserve">0.173394232988358</t>
   </si>
   <si>
     <t xml:space="preserve">0.167964354157448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169050335884094</t>
+    <t xml:space="preserve">0.169050320982933</t>
   </si>
   <si>
     <t xml:space="preserve">0.171222269535065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171946257352829</t>
+    <t xml:space="preserve">0.17194627225399</t>
   </si>
   <si>
     <t xml:space="preserve">0.177014142274857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176290169358253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179910078644753</t>
+    <t xml:space="preserve">0.176290154457092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179910093545914</t>
   </si>
   <si>
     <t xml:space="preserve">0.184254005551338</t>
@@ -2300,22 +2300,22 @@
     <t xml:space="preserve">0.180272072553635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179186105728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177738144993782</t>
+    <t xml:space="preserve">0.179186120629311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177738130092621</t>
   </si>
   <si>
     <t xml:space="preserve">0.175566181540489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175928175449371</t>
+    <t xml:space="preserve">0.175928190350533</t>
   </si>
   <si>
     <t xml:space="preserve">0.175204202532768</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174842223525047</t>
+    <t xml:space="preserve">0.174842208623886</t>
   </si>
   <si>
     <t xml:space="preserve">0.176652163267136</t>
@@ -2330,7 +2330,7 @@
     <t xml:space="preserve">0.180560395121574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179778754711151</t>
+    <t xml:space="preserve">0.17977873980999</t>
   </si>
   <si>
     <t xml:space="preserve">0.179387912154198</t>
@@ -2345,10 +2345,10 @@
     <t xml:space="preserve">0.17352557182312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174698024988174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178997099399567</t>
+    <t xml:space="preserve">0.174698039889336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178997084498405</t>
   </si>
   <si>
     <t xml:space="preserve">0.175479680299759</t>
@@ -2360,10 +2360,10 @@
     <t xml:space="preserve">0.175870507955551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173916384577751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178606256842613</t>
+    <t xml:space="preserve">0.173916399478912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178606271743774</t>
   </si>
   <si>
     <t xml:space="preserve">0.171180635690689</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">0.170789808034897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171571463346481</t>
+    <t xml:space="preserve">0.17157144844532</t>
   </si>
   <si>
     <t xml:space="preserve">0.173134744167328</t>
@@ -2396,31 +2396,31 @@
     <t xml:space="preserve">0.16961732506752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170008152723312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172353103756905</t>
+    <t xml:space="preserve">0.170008167624474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172353088855743</t>
   </si>
   <si>
     <t xml:space="preserve">0.168054044246674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170398965477943</t>
+    <t xml:space="preserve">0.170398980379105</t>
   </si>
   <si>
     <t xml:space="preserve">0.167663216590881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166881561279297</t>
+    <t xml:space="preserve">0.166881576180458</t>
   </si>
   <si>
     <t xml:space="preserve">0.165709093213081</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166490748524666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16531828045845</t>
+    <t xml:space="preserve">0.166490763425827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165318265557289</t>
   </si>
   <si>
     <t xml:space="preserve">0.166099920868874</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">0.164927437901497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168835699558258</t>
+    <t xml:space="preserve">0.168835684657097</t>
   </si>
   <si>
     <t xml:space="preserve">0.160237580537796</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">0.163364171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182905316352844</t>
+    <t xml:space="preserve">0.182905331254005</t>
   </si>
   <si>
     <t xml:space="preserve">0.186031922698021</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">0.184859439730644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182123675942421</t>
+    <t xml:space="preserve">0.182123690843582</t>
   </si>
   <si>
     <t xml:space="preserve">0.180169567465782</t>
@@ -2513,10 +2513,10 @@
     <t xml:space="preserve">0.184369340538979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178489670157433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178069680929184</t>
+    <t xml:space="preserve">0.178489655256271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178069695830345</t>
   </si>
   <si>
     <t xml:space="preserve">0.176389768719673</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">0.179329603910446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17554983496666</t>
+    <t xml:space="preserve">0.175549849867821</t>
   </si>
   <si>
     <t xml:space="preserve">0.175969809293747</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">0.176809772849083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183109387755394</t>
+    <t xml:space="preserve">0.183109402656555</t>
   </si>
   <si>
     <t xml:space="preserve">0.188149109482765</t>
@@ -2594,13 +2594,13 @@
     <t xml:space="preserve">0.172190025448799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173869922757149</t>
+    <t xml:space="preserve">0.17386993765831</t>
   </si>
   <si>
     <t xml:space="preserve">0.181849464774132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183529376983643</t>
+    <t xml:space="preserve">0.183529362082481</t>
   </si>
   <si>
     <t xml:space="preserve">0.186469212174416</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">0.18562924861908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184789299964905</t>
+    <t xml:space="preserve">0.184789285063744</t>
   </si>
   <si>
     <t xml:space="preserve">0.186049222946167</t>
@@ -2621,7 +2621,7 @@
     <t xml:space="preserve">0.191928893327713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187119722366333</t>
+    <t xml:space="preserve">0.187119737267494</t>
   </si>
   <si>
     <t xml:space="preserve">0.186245337128639</t>
@@ -2636,10 +2636,10 @@
     <t xml:space="preserve">0.17837581038475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183184966444969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180561780929565</t>
+    <t xml:space="preserve">0.18318498134613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180561795830727</t>
   </si>
   <si>
     <t xml:space="preserve">0.179687410593033</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">0.177501425147057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178813025355339</t>
+    <t xml:space="preserve">0.178813010454178</t>
   </si>
   <si>
     <t xml:space="preserve">0.179250210523605</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">0.180998995900154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181873396039009</t>
+    <t xml:space="preserve">0.181873381137848</t>
   </si>
   <si>
     <t xml:space="preserve">0.174878254532814</t>
@@ -2669,22 +2669,22 @@
     <t xml:space="preserve">0.163161411881447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167183622717857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168757528066635</t>
+    <t xml:space="preserve">0.167183607816696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168757513165474</t>
   </si>
   <si>
     <t xml:space="preserve">0.16788312792778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168932393193245</t>
+    <t xml:space="preserve">0.168932408094406</t>
   </si>
   <si>
     <t xml:space="preserve">0.167008727788925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16560971736908</t>
+    <t xml:space="preserve">0.165609702467918</t>
   </si>
   <si>
     <t xml:space="preserve">0.16176238656044</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">0.16386091709137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175752639770508</t>
+    <t xml:space="preserve">0.175752654671669</t>
   </si>
   <si>
     <t xml:space="preserve">0.174353614449501</t>
@@ -2720,25 +2720,25 @@
     <t xml:space="preserve">0.173479229211807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169107273221016</t>
+    <t xml:space="preserve">0.169107258319855</t>
   </si>
   <si>
     <t xml:space="preserve">0.172080188989639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170856043696404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172429949045181</t>
+    <t xml:space="preserve">0.170856058597565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172429963946342</t>
   </si>
   <si>
     <t xml:space="preserve">0.171555563807487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169631898403168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166484087705612</t>
+    <t xml:space="preserve">0.169631913304329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166484102606773</t>
   </si>
   <si>
     <t xml:space="preserve">0.174003854393959</t>
@@ -2750,10 +2750,10 @@
     <t xml:space="preserve">0.171730443835258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16613432765007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170681178569794</t>
+    <t xml:space="preserve">0.166134342551231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170681163668633</t>
   </si>
   <si>
     <t xml:space="preserve">0.16805799305439</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">0.167358487844467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167708232998848</t>
+    <t xml:space="preserve">0.167708247900009</t>
   </si>
   <si>
     <t xml:space="preserve">0.167533367872238</t>
@@ -2777,7 +2777,7 @@
     <t xml:space="preserve">0.166833847761154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169457033276558</t>
+    <t xml:space="preserve">0.169457018375397</t>
   </si>
   <si>
     <t xml:space="preserve">0.169806778430939</t>
@@ -2816,10 +2816,10 @@
     <t xml:space="preserve">0.176627039909363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176189824938774</t>
+    <t xml:space="preserve">0.17531543970108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176189839839935</t>
   </si>
   <si>
     <t xml:space="preserve">0.174178749322891</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">0.170506283640862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171380683779716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171205803751945</t>
+    <t xml:space="preserve">0.171380668878555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171205818653107</t>
   </si>
   <si>
     <t xml:space="preserve">0.174703374505043</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">0.188868522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185808151960373</t>
+    <t xml:space="preserve">0.185808137059212</t>
   </si>
   <si>
     <t xml:space="preserve">0.189742892980576</t>
@@ -2867,28 +2867,28 @@
     <t xml:space="preserve">0.187994122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186682522296906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183622151613235</t>
+    <t xml:space="preserve">0.186682537198067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183622166514397</t>
   </si>
   <si>
     <t xml:space="preserve">0.184933751821518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185370951890945</t>
+    <t xml:space="preserve">0.185370936989784</t>
   </si>
   <si>
     <t xml:space="preserve">0.18449655175209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182310581207275</t>
+    <t xml:space="preserve">0.182310566306114</t>
   </si>
   <si>
     <t xml:space="preserve">0.196738019585609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194989249110222</t>
+    <t xml:space="preserve">0.194989264011383</t>
   </si>
   <si>
     <t xml:space="preserve">0.197612419724464</t>
@@ -59458,7 +59458,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.6494097222</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>316226</v>
@@ -59470,7 +59470,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="E2159" t="n">
-        <v>0.209000006318092</v>
+        <v>0.208000004291534</v>
       </c>
       <c r="F2159" t="n">
         <v>0.207000002264977</v>
@@ -59479,6 +59479,32 @@
         <v>992</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.607650463</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>686705</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>0.209000006318092</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>992</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17447005212307</t>
+    <t xml:space="preserve">0.174470037221909</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">0.174941942095757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171099290251732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16914427280426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166178002953529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163481384515762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165908336639404</t>
+    <t xml:space="preserve">0.171099305152893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169144257903099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166177988052368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163481414318085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165908351540565</t>
   </si>
   <si>
     <t xml:space="preserve">0.167324051260948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162672430276871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157144382596016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146627649664879</t>
+    <t xml:space="preserve">0.162672400474548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157144397497177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146627634763718</t>
   </si>
   <si>
     <t xml:space="preserve">0.148515254259109</t>
@@ -80,13 +80,13 @@
     <t xml:space="preserve">0.1383356153965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144740030169487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148313015699387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148380413651466</t>
+    <t xml:space="preserve">0.144740015268326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148313030600548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148380443453789</t>
   </si>
   <si>
     <t xml:space="preserve">0.158223032951355</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">0.155054524540901</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15438038110733</t>
+    <t xml:space="preserve">0.154380366206169</t>
   </si>
   <si>
     <t xml:space="preserve">0.150335475802422</t>
@@ -110,19 +110,19 @@
     <t xml:space="preserve">0.14548160135746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142582759261131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142717570066452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131324425339699</t>
+    <t xml:space="preserve">0.14258274435997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142717584967613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131324455142021</t>
   </si>
   <si>
     <t xml:space="preserve">0.135504171252251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128223359584808</t>
+    <t xml:space="preserve">0.12822337448597</t>
   </si>
   <si>
     <t xml:space="preserve">0.130785122513771</t>
@@ -131,16 +131,16 @@
     <t xml:space="preserve">0.138874918222427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138200759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143459141254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14022321999073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137998521327972</t>
+    <t xml:space="preserve">0.138200774788857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143459126353264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140223234891891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137998536229134</t>
   </si>
   <si>
     <t xml:space="preserve">0.144605189561844</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.14372880756855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144065886735916</t>
+    <t xml:space="preserve">0.144065871834755</t>
   </si>
   <si>
     <t xml:space="preserve">0.142987236380577</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0.147706285119057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153166919946671</t>
+    <t xml:space="preserve">0.153166905045509</t>
   </si>
   <si>
     <t xml:space="preserve">0.154178127646446</t>
@@ -173,16 +173,16 @@
     <t xml:space="preserve">0.150942206382751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150672540068626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154717460274696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156470224261284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162402749061584</t>
+    <t xml:space="preserve">0.150672554969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154717430472374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156470254063606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162402763962746</t>
   </si>
   <si>
     <t xml:space="preserve">0.16449262201786</t>
@@ -191,25 +191,25 @@
     <t xml:space="preserve">0.161796003580093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16085222363472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158088222146034</t>
+    <t xml:space="preserve">0.160852208733559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158088207244873</t>
   </si>
   <si>
     <t xml:space="preserve">0.159099414944649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155526429414749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154312968254089</t>
+    <t xml:space="preserve">0.155526414513588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154312953352928</t>
   </si>
   <si>
     <t xml:space="preserve">0.148987174034119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150200664997101</t>
+    <t xml:space="preserve">0.15020065009594</t>
   </si>
   <si>
     <t xml:space="preserve">0.150065824389458</t>
@@ -218,22 +218,22 @@
     <t xml:space="preserve">0.149930983781815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146964728832245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144268110394478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142245680093765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138268172740936</t>
+    <t xml:space="preserve">0.146964699029922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144268125295639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142245665192604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138268187642097</t>
   </si>
   <si>
     <t xml:space="preserve">0.147841110825539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151751175522804</t>
+    <t xml:space="preserve">0.151751205325127</t>
   </si>
   <si>
     <t xml:space="preserve">0.15727923810482</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">0.156874731183052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155998334288597</t>
+    <t xml:space="preserve">0.155998319387436</t>
   </si>
   <si>
     <t xml:space="preserve">0.156942144036293</t>
@@ -251,94 +251,94 @@
     <t xml:space="preserve">0.152695000171661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157009541988373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152560174465179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122444033623</t>
+    <t xml:space="preserve">0.157009556889534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152560159564018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122458934784</t>
   </si>
   <si>
     <t xml:space="preserve">0.154429942369461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150274872779846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150828897953033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14778183400631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147712588310242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146812334656715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142657265067101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142103269696236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138155922293663</t>
+    <t xml:space="preserve">0.150274887681007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150828883051872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147781848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147712603211403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146812319755554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142657250165939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142103254795074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138155937194824</t>
   </si>
   <si>
     <t xml:space="preserve">0.139817968010902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13988721370697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140579700469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141272231936455</t>
+    <t xml:space="preserve">0.139887228608131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140579715371132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141272246837616</t>
   </si>
   <si>
     <t xml:space="preserve">0.139748722314835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141202956438065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144042253494263</t>
+    <t xml:space="preserve">0.141202971339226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144042283296585</t>
   </si>
   <si>
     <t xml:space="preserve">0.145427286624908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144734799861908</t>
+    <t xml:space="preserve">0.144734814763069</t>
   </si>
   <si>
     <t xml:space="preserve">0.145219534635544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147989615797997</t>
+    <t xml:space="preserve">0.147989585995674</t>
   </si>
   <si>
     <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147574111819267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148889869451523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148128107190132</t>
+    <t xml:space="preserve">0.147574082016945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1488898396492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14812807738781</t>
   </si>
   <si>
     <t xml:space="preserve">0.144180774688721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146673798561096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141826242208481</t>
+    <t xml:space="preserve">0.146673828363419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14182622730732</t>
   </si>
   <si>
     <t xml:space="preserve">0.133654609322548</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">0.134485632181168</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121881924569607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123890198767185</t>
+    <t xml:space="preserve">0.121881917119026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123890213668346</t>
   </si>
   <si>
     <t xml:space="preserve">0.126244738698006</t>
@@ -362,28 +362,28 @@
     <t xml:space="preserve">0.123405449092388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125898465514183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116341859102249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787841379642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122574433684349</t>
+    <t xml:space="preserve">0.125898495316505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116341844201088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787833929062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122574418783188</t>
   </si>
   <si>
     <t xml:space="preserve">0.119111888110638</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122920677065849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228182852268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118419378995895</t>
+    <t xml:space="preserve">0.122920699417591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228175401688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419386446476</t>
   </si>
   <si>
     <t xml:space="preserve">0.11350254714489</t>
@@ -392,31 +392,31 @@
     <t xml:space="preserve">0.110940262675285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118904128670692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122297428548336</t>
+    <t xml:space="preserve">0.118904136121273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297450900078</t>
   </si>
   <si>
     <t xml:space="preserve">0.126452505588531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124651983380318</t>
+    <t xml:space="preserve">0.124651975929737</t>
   </si>
   <si>
     <t xml:space="preserve">0.126175507903099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130953818559647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128668546676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12846077978611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127768278121948</t>
+    <t xml:space="preserve">0.130953833460808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128668531775475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128460764884949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127768263220787</t>
   </si>
   <si>
     <t xml:space="preserve">0.127422034740448</t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">0.131161570549011</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127976030111313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120496898889542</t>
+    <t xml:space="preserve">0.12797600030899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120496913790703</t>
   </si>
   <si>
     <t xml:space="preserve">0.118211604654789</t>
@@ -446,31 +446,31 @@
     <t xml:space="preserve">0.117172852158546</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114956825971603</t>
+    <t xml:space="preserve">0.114956803619862</t>
   </si>
   <si>
     <t xml:space="preserve">0.116618849337101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118627123534679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119804374873638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765637278557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912417769432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718580782413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319632649422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119250386953354</t>
+    <t xml:space="preserve">0.11862713098526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119804389774799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765622377396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912432670593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718565881252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319625198841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119250379502773</t>
   </si>
   <si>
     <t xml:space="preserve">0.118834882974625</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">0.121258661150932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122505202889442</t>
+    <t xml:space="preserve">0.122505187988281</t>
   </si>
   <si>
     <t xml:space="preserve">0.123197697103024</t>
@@ -488,112 +488,112 @@
     <t xml:space="preserve">0.125552237033844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125690743327141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121743425726891</t>
+    <t xml:space="preserve">0.125690758228302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12174341827631</t>
   </si>
   <si>
     <t xml:space="preserve">0.121674165129662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120150648057461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121120162308216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488624691963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665905833244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372322499752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926347672939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726854979992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116826601326466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117103606462479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121189415454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233816206455</t>
+    <t xml:space="preserve">0.12015064060688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121120154857635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488639593124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665913283825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372329950333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926332771778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726862430573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116826586425304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11710362136364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121189422905445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233838558197</t>
   </si>
   <si>
     <t xml:space="preserve">0.118973396718502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118350133299828</t>
+    <t xml:space="preserve">0.118350125849247</t>
   </si>
   <si>
     <t xml:space="preserve">0.12811453640461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126660242676735</t>
+    <t xml:space="preserve">0.126660257577896</t>
   </si>
   <si>
     <t xml:space="preserve">0.12409795820713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125205993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123959459364414</t>
+    <t xml:space="preserve">0.125205978751183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123959474265575</t>
   </si>
   <si>
     <t xml:space="preserve">0.117034360766411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11779610067606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117934621870518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116480335593224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115095317363739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433286547661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111494265496731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115441583096981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113571792840958</t>
+    <t xml:space="preserve">0.117796115577221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117934614419937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116480343043804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11509532481432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433293998241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11149425804615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115441590547562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113571807742119</t>
   </si>
   <si>
     <t xml:space="preserve">0.11467981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111771270632744</t>
+    <t xml:space="preserve">0.111771278083324</t>
   </si>
   <si>
     <t xml:space="preserve">0.111009508371353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111563496291637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112186774611473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117588371038437</t>
+    <t xml:space="preserve">0.111563511192799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112186767160892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117588363587856</t>
   </si>
   <si>
     <t xml:space="preserve">0.121327921748161</t>
@@ -602,64 +602,64 @@
     <t xml:space="preserve">0.122020438313484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122435942292213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119942910969257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124305732548237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122851431369781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773896574974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596645236015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119527377188206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120358400046825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1218126937747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141895487904549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169665202498436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159970045089722</t>
+    <t xml:space="preserve">0.122435949742794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119942896068096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124305710196495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122851453721523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773904025555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596660137177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119527384638786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120358422398567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12181268632412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14189550280571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169665172696114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15997003018856</t>
   </si>
   <si>
     <t xml:space="preserve">0.15719997882843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146119803190231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146466061472893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1481973528862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144942536950111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148682102560997</t>
+    <t xml:space="preserve">0.14611978828907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146466076374054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148197337985039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144942551851273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148682087659836</t>
   </si>
   <si>
     <t xml:space="preserve">0.149928614497185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154360696673393</t>
+    <t xml:space="preserve">0.154360726475716</t>
   </si>
   <si>
     <t xml:space="preserve">0.157476991415024</t>
@@ -668,25 +668,25 @@
     <t xml:space="preserve">0.159900784492493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158030986785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15650749206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14736633002758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143349766731262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143696010112762</t>
+    <t xml:space="preserve">0.158031016588211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156507462263107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147366315126419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143349781632423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143696025013924</t>
   </si>
   <si>
     <t xml:space="preserve">0.145358055830002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143626749515533</t>
+    <t xml:space="preserve">0.143626764416695</t>
   </si>
   <si>
     <t xml:space="preserve">0.144319295883179</t>
@@ -701,67 +701,67 @@
     <t xml:space="preserve">0.140164226293564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140510469675064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140441223978996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13954097032547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138502180576324</t>
+    <t xml:space="preserve">0.140510499477386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140441238880157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139540955424309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138502195477486</t>
   </si>
   <si>
     <t xml:space="preserve">0.139679461717606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137117177248001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144111514091492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14425003528595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145912066102028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142588019371033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145981326699257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149028345942497</t>
+    <t xml:space="preserve">0.13711716234684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139056190848351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144111528992653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144250020384789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145912081003189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142588004469872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145981311798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149028360843658</t>
   </si>
   <si>
     <t xml:space="preserve">0.147851094603539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148058846592903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150413379073143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148959100246429</t>
+    <t xml:space="preserve">0.148058831691742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150413364171982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148959115147591</t>
   </si>
   <si>
     <t xml:space="preserve">0.152075409889221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152352392673492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155399456620216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160870298743248</t>
+    <t xml:space="preserve">0.152352407574654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155399471521378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160870283842087</t>
   </si>
   <si>
     <t xml:space="preserve">0.159139022231102</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">0.155814960598946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151936888694763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15096740424633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148612841963768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147920340299606</t>
+    <t xml:space="preserve">0.151936903595924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150967389345169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14861287176609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147920325398445</t>
   </si>
   <si>
     <t xml:space="preserve">0.147297084331512</t>
@@ -791,10 +791,10 @@
     <t xml:space="preserve">0.143142014741898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141687765717506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146258309483528</t>
+    <t xml:space="preserve">0.141687735915184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146258324384689</t>
   </si>
   <si>
     <t xml:space="preserve">0.14972086250782</t>
@@ -803,25 +803,25 @@
     <t xml:space="preserve">0.152213901281357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152006149291992</t>
+    <t xml:space="preserve">0.152006164193153</t>
   </si>
   <si>
     <t xml:space="preserve">0.146189048886299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145773559808731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148474365472794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148472398519516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146802619099617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145411118865013</t>
+    <t xml:space="preserve">0.145773574709892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148474335670471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148472413420677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146802604198456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145411133766174</t>
   </si>
   <si>
     <t xml:space="preserve">0.144297912716866</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.14701135456562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148541986942291</t>
+    <t xml:space="preserve">0.14854197204113</t>
   </si>
   <si>
     <t xml:space="preserve">0.148959442973137</t>
@@ -839,31 +839,31 @@
     <t xml:space="preserve">0.145480692386627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145132839679718</t>
+    <t xml:space="preserve">0.145132809877396</t>
   </si>
   <si>
     <t xml:space="preserve">0.146106868982315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144506648182869</t>
+    <t xml:space="preserve">0.14450666308403</t>
   </si>
   <si>
     <t xml:space="preserve">0.14401963353157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143463045358658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140749633312225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143045574426651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140193030238152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141236633062363</t>
+    <t xml:space="preserve">0.143463015556335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140749603509903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143045589327812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14019301533699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141236647963524</t>
   </si>
   <si>
     <t xml:space="preserve">0.14151494204998</t>
@@ -872,22 +872,22 @@
     <t xml:space="preserve">0.142071545124054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13949728012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13901025056839</t>
+    <t xml:space="preserve">0.139497265219688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139010235667229</t>
   </si>
   <si>
     <t xml:space="preserve">0.14033217728138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139149382710457</t>
+    <t xml:space="preserve">0.139149397611618</t>
   </si>
   <si>
     <t xml:space="preserve">0.137757912278175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137618750333786</t>
+    <t xml:space="preserve">0.137618765234947</t>
   </si>
   <si>
     <t xml:space="preserve">0.137062162160873</t>
@@ -896,34 +896,34 @@
     <t xml:space="preserve">0.138175338506699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138244941830635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142419412732124</t>
+    <t xml:space="preserve">0.138244926929474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142419427633286</t>
   </si>
   <si>
     <t xml:space="preserve">0.140610456466675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141793236136436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141445368528366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141167059540749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140680029988289</t>
+    <t xml:space="preserve">0.141793251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141445353627205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14116707444191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14068004488945</t>
   </si>
   <si>
     <t xml:space="preserve">0.140123441815376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141584515571594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140053868293762</t>
+    <t xml:space="preserve">0.141584500670433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140053883194923</t>
   </si>
   <si>
     <t xml:space="preserve">0.139636427164078</t>
@@ -932,28 +932,28 @@
     <t xml:space="preserve">0.139427691698074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147289633750916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149655178189278</t>
+    <t xml:space="preserve">0.147289663553238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149655193090439</t>
   </si>
   <si>
     <t xml:space="preserve">0.149863913655281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150629237294197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149724751710892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147985383868217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146246030926704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147428780794144</t>
+    <t xml:space="preserve">0.150629222393036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149724766612053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147985368967056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146246016025543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147428795695305</t>
   </si>
   <si>
     <t xml:space="preserve">0.149237737059593</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">0.150281354784966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148402824997902</t>
+    <t xml:space="preserve">0.148402854800224</t>
   </si>
   <si>
     <t xml:space="preserve">0.151742428541183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15202072262764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152577325701714</t>
+    <t xml:space="preserve">0.152020707726479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152577310800552</t>
   </si>
   <si>
     <t xml:space="preserve">0.152159869670868</t>
@@ -980,19 +980,19 @@
     <t xml:space="preserve">0.150490075349808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151324987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150977090001106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150350943207741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14902900159359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148750707507133</t>
+    <t xml:space="preserve">0.151324972510338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150977119803429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15035092830658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149029031395912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148750692605972</t>
   </si>
   <si>
     <t xml:space="preserve">0.149098590016365</t>
@@ -1001,19 +1001,19 @@
     <t xml:space="preserve">0.151672855019569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166840136051178</t>
+    <t xml:space="preserve">0.166840150952339</t>
   </si>
   <si>
     <t xml:space="preserve">0.169762268662453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168649062514305</t>
+    <t xml:space="preserve">0.168649077415466</t>
   </si>
   <si>
     <t xml:space="preserve">0.166979268193245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160369679331779</t>
+    <t xml:space="preserve">0.160369694232941</t>
   </si>
   <si>
     <t xml:space="preserve">0.162317782640457</t>
@@ -1022,85 +1022,85 @@
     <t xml:space="preserve">0.173797607421875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175954401493073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172893106937408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173936769366264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16871865093708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168509945273399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167675018310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168996959924698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165866076946259</t>
+    <t xml:space="preserve">0.175954431295395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172893151640892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173936754465103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168718665838242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168509930372238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167675033211708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168996945023537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16586609184742</t>
   </si>
   <si>
     <t xml:space="preserve">0.16419629752636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169275254011154</t>
+    <t xml:space="preserve">0.169275268912315</t>
   </si>
   <si>
     <t xml:space="preserve">0.171988666057587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170458018779755</t>
+    <t xml:space="preserve">0.170458003878593</t>
   </si>
   <si>
     <t xml:space="preserve">0.173241004347801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175676122307777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185068711638451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187712550163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184581682085991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189938947558403</t>
+    <t xml:space="preserve">0.175676107406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185068741440773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187712535262108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184581696987152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189938932657242</t>
   </si>
   <si>
     <t xml:space="preserve">0.198635771870613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197383418679237</t>
+    <t xml:space="preserve">0.197383433580399</t>
   </si>
   <si>
     <t xml:space="preserve">0.19341766834259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192443639039993</t>
+    <t xml:space="preserve">0.192443609237671</t>
   </si>
   <si>
     <t xml:space="preserve">0.187851697206497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194809168577194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191678300499916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188060417771339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183468505740166</t>
+    <t xml:space="preserve">0.194809183478355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191678315401077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188060402870178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183468490839005</t>
   </si>
   <si>
     <t xml:space="preserve">0.185694888234138</t>
@@ -1109,19 +1109,19 @@
     <t xml:space="preserve">0.186112329363823</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183816358447075</t>
+    <t xml:space="preserve">0.183816373348236</t>
   </si>
   <si>
     <t xml:space="preserve">0.183677211403847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178528666496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176719754934311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172962710261345</t>
+    <t xml:space="preserve">0.178528696298599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17671974003315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172962725162506</t>
   </si>
   <si>
     <t xml:space="preserve">0.177972093224525</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">0.177763357758522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174423769116402</t>
+    <t xml:space="preserve">0.17442375421524</t>
   </si>
   <si>
     <t xml:space="preserve">0.174145475029945</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">0.185416579246521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185138285160065</t>
+    <t xml:space="preserve">0.185138270258904</t>
   </si>
   <si>
     <t xml:space="preserve">0.182424873113632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18005932867527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180824682116508</t>
+    <t xml:space="preserve">0.180059313774109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180824652314186</t>
   </si>
   <si>
     <t xml:space="preserve">0.176023975014687</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">0.162804812192917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165587782859802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166074827313423</t>
+    <t xml:space="preserve">0.165587797760963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166074812412262</t>
   </si>
   <si>
     <t xml:space="preserve">0.166144385933876</t>
@@ -1184,91 +1184,91 @@
     <t xml:space="preserve">0.167396724224091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165935680270195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163917988538742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166492253541946</t>
+    <t xml:space="preserve">0.165935665369034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163918003439903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166492268443108</t>
   </si>
   <si>
     <t xml:space="preserve">0.167535871267319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165448650717735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167327180504799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165170341730118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167466297745705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166700974106789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164405018091202</t>
+    <t xml:space="preserve">0.165448635816574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167327165603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165170326828957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167466312646866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166701003909111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164405032992363</t>
   </si>
   <si>
     <t xml:space="preserve">0.163500547409058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166422694921494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166283532977104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166909709572792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165518224239349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16802291572094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16837078332901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164892047643661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173588871955872</t>
+    <t xml:space="preserve">0.166422680020332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166283518075943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166909694671631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165518209338188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168022900819778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168370768427849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164892062544823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173588901758194</t>
   </si>
   <si>
     <t xml:space="preserve">0.17254526913166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181589961051941</t>
+    <t xml:space="preserve">0.181589975953102</t>
   </si>
   <si>
     <t xml:space="preserve">0.180198475718498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179502725601196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178806990385056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18054635822773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182981491088867</t>
+    <t xml:space="preserve">0.179502710700035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178806975483894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180546343326569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182981461286545</t>
   </si>
   <si>
     <t xml:space="preserve">0.182633593678474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183329343795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17741547524929</t>
+    <t xml:space="preserve">0.183329358696938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177415490150452</t>
   </si>
   <si>
     <t xml:space="preserve">0.179154843091965</t>
@@ -1277,22 +1277,22 @@
     <t xml:space="preserve">0.16454416513443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162456914782524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161761179566383</t>
+    <t xml:space="preserve">0.162456944584846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161761164665222</t>
   </si>
   <si>
     <t xml:space="preserve">0.161413297057152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157586693763733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159326076507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154803723096848</t>
+    <t xml:space="preserve">0.157586708664894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159326061606407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154803708195686</t>
   </si>
   <si>
     <t xml:space="preserve">0.154107958078384</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">0.15236859023571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154455825686455</t>
+    <t xml:space="preserve">0.154455855488777</t>
   </si>
   <si>
     <t xml:space="preserve">0.149933472275734</t>
@@ -1310,43 +1310,43 @@
     <t xml:space="preserve">0.152716472744942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15619520843029</t>
+    <t xml:space="preserve">0.156195223331451</t>
   </si>
   <si>
     <t xml:space="preserve">0.156543076038361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155151575803757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155847325921059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153064325451851</t>
+    <t xml:space="preserve">0.155151590704918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15584734082222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153064340353012</t>
   </si>
   <si>
     <t xml:space="preserve">0.149585604667664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148194134235382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147846221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146454751491547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157934576272964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16002182662487</t>
+    <t xml:space="preserve">0.148194119334221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147846236824989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146454766392708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157934561371803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160021811723709</t>
   </si>
   <si>
     <t xml:space="preserve">0.158282443881035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157238826155663</t>
+    <t xml:space="preserve">0.157238811254501</t>
   </si>
   <si>
     <t xml:space="preserve">0.16179983317852</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">0.16322223842144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16144423186779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16073302924633</t>
+    <t xml:space="preserve">0.161444216966629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160732999444008</t>
   </si>
   <si>
     <t xml:space="preserve">0.155043363571167</t>
@@ -1367,22 +1367,22 @@
     <t xml:space="preserve">0.157532572746277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156110197305679</t>
+    <t xml:space="preserve">0.156110167503357</t>
   </si>
   <si>
     <t xml:space="preserve">0.153620943427086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155398964881897</t>
+    <t xml:space="preserve">0.155398949980736</t>
   </si>
   <si>
     <t xml:space="preserve">0.153976544737816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149709299206734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147575661540031</t>
+    <t xml:space="preserve">0.149709314107895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147575676441193</t>
   </si>
   <si>
     <t xml:space="preserve">0.146508857607841</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">0.143308416008949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138827815651894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137974381446838</t>
+    <t xml:space="preserve">0.138827800750732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137974351644516</t>
   </si>
   <si>
     <t xml:space="preserve">0.139965742826462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142597213387489</t>
+    <t xml:space="preserve">0.142597198486328</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220075130463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14544203877449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138970047235489</t>
+    <t xml:space="preserve">0.145442053675652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13897006213665</t>
   </si>
   <si>
     <t xml:space="preserve">0.140107989311218</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">0.141957119107246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140676945447922</t>
+    <t xml:space="preserve">0.140676960349083</t>
   </si>
   <si>
     <t xml:space="preserve">0.141245901584625</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">0.141103684902191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139112293720245</t>
+    <t xml:space="preserve">0.139112308621407</t>
   </si>
   <si>
     <t xml:space="preserve">0.137263163924217</t>
@@ -1442,7 +1442,7 @@
     <t xml:space="preserve">0.136551946401596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140534713864326</t>
+    <t xml:space="preserve">0.140534728765488</t>
   </si>
   <si>
     <t xml:space="preserve">0.140819191932678</t>
@@ -1451,22 +1451,22 @@
     <t xml:space="preserve">0.139823511242867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139681279659271</t>
+    <t xml:space="preserve">0.13968126475811</t>
   </si>
   <si>
     <t xml:space="preserve">0.142099350690842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141672641038895</t>
+    <t xml:space="preserve">0.141672655940056</t>
   </si>
   <si>
     <t xml:space="preserve">0.142952814698219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14366403222084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147931262850761</t>
+    <t xml:space="preserve">0.143664047122002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147931277751923</t>
   </si>
   <si>
     <t xml:space="preserve">0.148642495274544</t>
@@ -1478,34 +1478,34 @@
     <t xml:space="preserve">0.152554124593735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149353697896004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144375219941139</t>
+    <t xml:space="preserve">0.149353682994843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1443752348423</t>
   </si>
   <si>
     <t xml:space="preserve">0.141388162970543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142241597175598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138258844614029</t>
+    <t xml:space="preserve">0.142241612076759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13825885951519</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845048189163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136125221848488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138543322682381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141530379652977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139254540205002</t>
+    <t xml:space="preserve">0.136125236749649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138543337583542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141530409455299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139254525303841</t>
   </si>
   <si>
     <t xml:space="preserve">0.14039246737957</t>
@@ -1523,13 +1523,13 @@
     <t xml:space="preserve">0.135129526257515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129439860582352</t>
+    <t xml:space="preserve">0.12943984568119</t>
   </si>
   <si>
     <t xml:space="preserve">0.125030368566513</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12517261505127</t>
+    <t xml:space="preserve">0.125172600150108</t>
   </si>
   <si>
     <t xml:space="preserve">0.123465724289417</t>
@@ -1538,85 +1538,85 @@
     <t xml:space="preserve">0.123750202357769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126310557126999</t>
+    <t xml:space="preserve">0.126310542225838</t>
   </si>
   <si>
     <t xml:space="preserve">0.126595050096512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123892441391945</t>
+    <t xml:space="preserve">0.123892433941364</t>
   </si>
   <si>
     <t xml:space="preserve">0.122327789664268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119482949376106</t>
+    <t xml:space="preserve">0.119482956826687</t>
   </si>
   <si>
     <t xml:space="preserve">0.117633819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116922609508038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112513102591038</t>
+    <t xml:space="preserve">0.116922602057457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112513110041618</t>
   </si>
   <si>
     <t xml:space="preserve">0.115926921367645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113793283700943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115215703845024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114931210875511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116638116538525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119198471307755</t>
+    <t xml:space="preserve">0.113793291151524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115215696394444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114931225776672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116638123989105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119198478758335</t>
   </si>
   <si>
     <t xml:space="preserve">0.119909666478634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119340717792511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123038977384567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124461404979229</t>
+    <t xml:space="preserve">0.119340695440769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123038984835148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12446141988039</t>
   </si>
   <si>
     <t xml:space="preserve">0.12005191296339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121616579592228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905347168446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060536682606</t>
+    <t xml:space="preserve">0.121616587042809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905369520187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060529232025</t>
   </si>
   <si>
     <t xml:space="preserve">0.111659660935402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114788979291916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113366551697254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116211406886578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754521667957</t>
+    <t xml:space="preserve">0.114788994193077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113366566598415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116211384534836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754499316216</t>
   </si>
   <si>
     <t xml:space="preserve">0.127590730786324</t>
@@ -1625,100 +1625,100 @@
     <t xml:space="preserve">0.127875208854675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127306222915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124745897948742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120763130486012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12190105766058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11905624717474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114504501223564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117349348962307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11464674025774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452773809433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120478644967079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120336398482323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120194166898727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120620884001255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487268686295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082088530064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111944131553173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112655356526375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11066398024559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110379502177238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111801899969578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370871007442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111232936382294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116069160401821</t>
+    <t xml:space="preserve">0.127306252717972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124745883047581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120763123035431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121901050209999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119056232273579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114504493772984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117349326610565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114646747708321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452803611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120478637516499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120336405932903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120194174349308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120620869100094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487261235714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082066178322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111944146454334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112655349075794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110663950443268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110379509627819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111801885068417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370878458023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111232943832874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116069152951241</t>
   </si>
   <si>
     <t xml:space="preserve">0.121332079172134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122612275183201</t>
+    <t xml:space="preserve">0.122612252831459</t>
   </si>
   <si>
     <t xml:space="preserve">0.124319158494473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121758826076984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122185543179512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115642420947552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11649589240551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11862950026989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1197674497962</t>
+    <t xml:space="preserve">0.121758818626404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122185558080673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115642435848713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116495877504349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11862950772047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119767434895039</t>
   </si>
   <si>
     <t xml:space="preserve">0.118202775716782</t>
@@ -1730,85 +1730,85 @@
     <t xml:space="preserve">0.116780370473862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11749155819416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116282515227795</t>
+    <t xml:space="preserve">0.117491573095322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116282522678375</t>
   </si>
   <si>
     <t xml:space="preserve">0.118771739304066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119838573038578</t>
+    <t xml:space="preserve">0.119838558137417</t>
   </si>
   <si>
     <t xml:space="preserve">0.120549760758877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121629357337952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121267378330231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122715324163437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121991358697414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119095414876938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118009448051453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116923458874226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114751510322094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115113504230976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116561464965343</t>
+    <t xml:space="preserve">0.12162934243679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12126736342907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122715339064598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121991351246834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119095422327518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118009425699711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116923466324806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114751502871513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115113481879234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116561472415924</t>
   </si>
   <si>
     <t xml:space="preserve">0.119457401335239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116199471056461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115837469696999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113665528595448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114389508962631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114027515053749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11221756786108</t>
+    <t xml:space="preserve">0.116199493408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11583749204874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113665536046028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114389523863792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11402752250433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1122175604105</t>
   </si>
   <si>
     <t xml:space="preserve">0.110769592225552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111855551600456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107149675488472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107873655855656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107511654496193</t>
+    <t xml:space="preserve">0.111855566501617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107149668037891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107873663306236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107511661946774</t>
   </si>
   <si>
     <t xml:space="preserve">0.104977712035179</t>
@@ -1817,13 +1817,13 @@
     <t xml:space="preserve">0.108235642313957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106425702571869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108959637582302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109683617949486</t>
+    <t xml:space="preserve">0.106425687670708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108959630131721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109683625400066</t>
   </si>
   <si>
     <t xml:space="preserve">0.11040760576725</t>
@@ -1832,40 +1832,40 @@
     <t xml:space="preserve">0.111493572592735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111131578683853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113303549587727</t>
+    <t xml:space="preserve">0.111131586134434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113303542137146</t>
   </si>
   <si>
     <t xml:space="preserve">0.10859764367342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110045611858368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109321616590023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115475505590439</t>
+    <t xml:space="preserve">0.110045604407787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109321624040604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115475483238697</t>
   </si>
   <si>
     <t xml:space="preserve">0.118733428418636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120905362069607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120181381702423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119819410145283</t>
+    <t xml:space="preserve">0.120905384421349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120181389153004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11981938034296</t>
   </si>
   <si>
     <t xml:space="preserve">0.120543375611305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118371419608593</t>
+    <t xml:space="preserve">0.118371434509754</t>
   </si>
   <si>
     <t xml:space="preserve">0.117285452783108</t>
@@ -1877,22 +1877,22 @@
     <t xml:space="preserve">0.126335248351097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123439304530621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124525316059589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124887280166149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124163299798965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123077318072319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144072860479355</t>
+    <t xml:space="preserve">0.123439311981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124525301158428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12488729506731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124163292348385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12307733297348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144072875380516</t>
   </si>
   <si>
     <t xml:space="preserve">0.154208660125732</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">0.146244823932648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155656605958939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1773761510849</t>
+    <t xml:space="preserve">0.1556566208601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177376136183739</t>
   </si>
   <si>
     <t xml:space="preserve">0.191855818033218</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">0.184615984559059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171584263443947</t>
+    <t xml:space="preserve">0.171584278345108</t>
   </si>
   <si>
     <t xml:space="preserve">0.16651639342308</t>
@@ -1925,31 +1925,31 @@
     <t xml:space="preserve">0.173756211996078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173032239079475</t>
+    <t xml:space="preserve">0.173032224178314</t>
   </si>
   <si>
     <t xml:space="preserve">0.168688327074051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164344429969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160724505782127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161448508501053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162172466516495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165792405605316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165068402886391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157828569412231</t>
+    <t xml:space="preserve">0.164344415068626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160724520683289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161448493599892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162172481417656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165792390704155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165068417787552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15782855451107</t>
   </si>
   <si>
     <t xml:space="preserve">0.16289646923542</t>
@@ -1976,13 +1976,13 @@
     <t xml:space="preserve">0.146968796849251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15203669667244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170860290527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172308251261711</t>
+    <t xml:space="preserve">0.152036681771278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170860275626183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172308266162872</t>
   </si>
   <si>
     <t xml:space="preserve">0.169412329792976</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">0.151312723755836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138642996549606</t>
+    <t xml:space="preserve">0.138642966747284</t>
   </si>
   <si>
     <t xml:space="preserve">0.139728963375092</t>
@@ -2009,43 +2009,43 @@
     <t xml:space="preserve">0.131041154265404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122353337705135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106787666678429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0912220180034637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0970138907432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0962899103760719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0977378711104393</t>
+    <t xml:space="preserve">0.122353345155716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106787674129009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0912220254540443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.097013883292675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0962899178266525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0977378785610199</t>
   </si>
   <si>
     <t xml:space="preserve">0.100633814930916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10135780274868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102443762123585</t>
+    <t xml:space="preserve">0.1013577952981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102443769574165</t>
   </si>
   <si>
     <t xml:space="preserve">0.104253731667995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106063693761826</t>
+    <t xml:space="preserve">0.106063701212406</t>
   </si>
   <si>
     <t xml:space="preserve">0.102805756032467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.105701699852943</t>
+    <t xml:space="preserve">0.105701707303524</t>
   </si>
   <si>
     <t xml:space="preserve">0.103529758751392</t>
@@ -2054,28 +2054,28 @@
     <t xml:space="preserve">0.106570489704609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107004873454571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108018450438976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107294477522373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102081775665283</t>
+    <t xml:space="preserve">0.107004880905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108018465340137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107294462621212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102081783115864</t>
   </si>
   <si>
     <t xml:space="preserve">0.103819340467453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103674545884132</t>
+    <t xml:space="preserve">0.103674553334713</t>
   </si>
   <si>
     <t xml:space="preserve">0.103964142501354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10483293235302</t>
+    <t xml:space="preserve">0.104832924902439</t>
   </si>
   <si>
     <t xml:space="preserve">0.105412110686302</t>
@@ -2084,7 +2084,7 @@
     <t xml:space="preserve">0.108452841639519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111203990876675</t>
+    <t xml:space="preserve">0.111203998327255</t>
   </si>
   <si>
     <t xml:space="preserve">0.10686007887125</t>
@@ -2093,34 +2093,34 @@
     <t xml:space="preserve">0.10671528428793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122208528220654</t>
+    <t xml:space="preserve">0.122208543121815</t>
   </si>
   <si>
     <t xml:space="preserve">0.108163245022297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109466426074505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103384949266911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104688122868538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11048000305891</t>
+    <t xml:space="preserve">0.109466418623924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103384956717491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104688130319118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11047999560833</t>
   </si>
   <si>
     <t xml:space="preserve">0.112796746194363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110335201025009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113955125212669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115692675113678</t>
+    <t xml:space="preserve">0.11033521592617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113955117762089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115692690014839</t>
   </si>
   <si>
     <t xml:space="preserve">0.154932633042336</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">0.152760669589043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157104581594467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151674717664719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149502739310265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150588721036911</t>
+    <t xml:space="preserve">0.157104596495628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151674702763557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149502754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150588735938072</t>
   </si>
   <si>
     <t xml:space="preserve">0.148416772484779</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">0.144362464547157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143638476729393</t>
+    <t xml:space="preserve">0.143638491630554</t>
   </si>
   <si>
     <t xml:space="preserve">0.142769709229469</t>
@@ -2174,28 +2174,28 @@
     <t xml:space="preserve">0.143928065896034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145158857107162</t>
+    <t xml:space="preserve">0.14515882730484</t>
   </si>
   <si>
     <t xml:space="preserve">0.144507259130478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147330805659294</t>
+    <t xml:space="preserve">0.147330790758133</t>
   </si>
   <si>
     <t xml:space="preserve">0.143493682146072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140163347125053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140887349843979</t>
+    <t xml:space="preserve">0.140163362026215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140887334942818</t>
   </si>
   <si>
     <t xml:space="preserve">0.141900926828384</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147692784667015</t>
+    <t xml:space="preserve">0.147692799568176</t>
   </si>
   <si>
     <t xml:space="preserve">0.145882830023766</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">0.144217669963837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142624914646149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143059313297272</t>
+    <t xml:space="preserve">0.142624899744987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143059298396111</t>
   </si>
   <si>
     <t xml:space="preserve">0.154570639133453</t>
@@ -2225,25 +2225,25 @@
     <t xml:space="preserve">0.142480105161667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138136178255081</t>
+    <t xml:space="preserve">0.138136193156242</t>
   </si>
   <si>
     <t xml:space="preserve">0.13755701482296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158552557229996</t>
+    <t xml:space="preserve">0.158552542328835</t>
   </si>
   <si>
     <t xml:space="preserve">0.158914551138878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15384666621685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150226727128029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152398675680161</t>
+    <t xml:space="preserve">0.153846651315689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15022674202919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152398690581322</t>
   </si>
   <si>
     <t xml:space="preserve">0.150950714945793</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">0.155294626951218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160000532865524</t>
+    <t xml:space="preserve">0.160000517964363</t>
   </si>
   <si>
     <t xml:space="preserve">0.157466575503349</t>
@@ -2261,10 +2261,10 @@
     <t xml:space="preserve">0.156742602586746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159276530146599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169774308800697</t>
+    <t xml:space="preserve">0.15927654504776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169774323701859</t>
   </si>
   <si>
     <t xml:space="preserve">0.16832634806633</t>
@@ -2273,49 +2273,49 @@
     <t xml:space="preserve">0.173394232988358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167964354157448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169050320982933</t>
+    <t xml:space="preserve">0.167964339256287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169050335884094</t>
   </si>
   <si>
     <t xml:space="preserve">0.171222269535065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17194627225399</t>
+    <t xml:space="preserve">0.171946257352829</t>
   </si>
   <si>
     <t xml:space="preserve">0.177014142274857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176290154457092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179910093545914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184254005551338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180272072553635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179186120629311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177738130092621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175566181540489</t>
+    <t xml:space="preserve">0.176290169358253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179910108447075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184253990650177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180272087454796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179186105728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177738144993782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17556619644165</t>
   </si>
   <si>
     <t xml:space="preserve">0.175928190350533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175204202532768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174842208623886</t>
+    <t xml:space="preserve">0.175204187631607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174842193722725</t>
   </si>
   <si>
     <t xml:space="preserve">0.176652163267136</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">0.174480214715004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182514503598213</t>
+    <t xml:space="preserve">0.182514518499374</t>
   </si>
   <si>
     <t xml:space="preserve">0.180560395121574</t>
@@ -2348,25 +2348,25 @@
     <t xml:space="preserve">0.174698039889336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178997084498405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175479680299759</t>
+    <t xml:space="preserve">0.178997099399567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17547969520092</t>
   </si>
   <si>
     <t xml:space="preserve">0.177042976021767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175870507955551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173916399478912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178606271743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171180635690689</t>
+    <t xml:space="preserve">0.17587049305439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173916384577751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178606286644936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171180620789528</t>
   </si>
   <si>
     <t xml:space="preserve">0.169226512312889</t>
@@ -2375,67 +2375,67 @@
     <t xml:space="preserve">0.171962261199951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16727240383625</t>
+    <t xml:space="preserve">0.167272388935089</t>
   </si>
   <si>
     <t xml:space="preserve">0.168444857001305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170789808034897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17157144844532</t>
+    <t xml:space="preserve">0.170789793133736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171571463346481</t>
   </si>
   <si>
     <t xml:space="preserve">0.173134744167328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172743931412697</t>
+    <t xml:space="preserve">0.172743916511536</t>
   </si>
   <si>
     <t xml:space="preserve">0.16961732506752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170008167624474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172353088855743</t>
+    <t xml:space="preserve">0.170008152723312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172353103756905</t>
   </si>
   <si>
     <t xml:space="preserve">0.168054044246674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170398980379105</t>
+    <t xml:space="preserve">0.170398995280266</t>
   </si>
   <si>
     <t xml:space="preserve">0.167663216590881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166881576180458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165709093213081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166490763425827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165318265557289</t>
+    <t xml:space="preserve">0.166881561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165709108114243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166490748524666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16531828045845</t>
   </si>
   <si>
     <t xml:space="preserve">0.166099920868874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164536625146866</t>
+    <t xml:space="preserve">0.164536640048027</t>
   </si>
   <si>
     <t xml:space="preserve">0.16141003370285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162582501769066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157501801848412</t>
+    <t xml:space="preserve">0.162582516670227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157501816749573</t>
   </si>
   <si>
     <t xml:space="preserve">0.158283457159996</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">0.160628408193588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163754999637604</t>
+    <t xml:space="preserve">0.163754984736443</t>
   </si>
   <si>
     <t xml:space="preserve">0.164927437901497</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">0.168835684657097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160237580537796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162973344326019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164145812392235</t>
+    <t xml:space="preserve">0.160237565636635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162973329424858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164145797491074</t>
   </si>
   <si>
     <t xml:space="preserve">0.161800876259804</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">0.159455925226212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158674269914627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159846752882004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159065112471581</t>
+    <t xml:space="preserve">0.158674284815788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159846767783165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159065097570419</t>
   </si>
   <si>
     <t xml:space="preserve">0.161019220948219</t>
@@ -2483,19 +2483,19 @@
     <t xml:space="preserve">0.163364171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182905331254005</t>
+    <t xml:space="preserve">0.182905316352844</t>
   </si>
   <si>
     <t xml:space="preserve">0.186031922698021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184468612074852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184859439730644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182123690843582</t>
+    <t xml:space="preserve">0.184468626976013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184859454631805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182123675942421</t>
   </si>
   <si>
     <t xml:space="preserve">0.180169567465782</t>
@@ -3009,6 +3009,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.210999995470047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.206000000238419</t>
   </si>
 </sst>
 </file>
@@ -59484,7 +59487,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.607650463</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>686705</v>
@@ -59505,6 +59508,32 @@
         <v>992</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6494444444</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>215909</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>0.208000004291534</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>0.208000004291534</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>0.206000000238419</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>999</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174470037221909</t>
+    <t xml:space="preserve">0.17447005212307</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174941942095757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171099305152893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169144257903099</t>
+    <t xml:space="preserve">0.174941956996918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171099290251732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16914427280426</t>
   </si>
   <si>
     <t xml:space="preserve">0.166177988052368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163481414318085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165908351540565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167324051260948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162672400474548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157144397497177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146627634763718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148515254259109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1383356153965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144740015268326</t>
+    <t xml:space="preserve">0.163481399416924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165908336639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167324036359787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16267241537571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157144367694855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146627649664879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148515269160271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138335600495338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144740030169487</t>
   </si>
   <si>
     <t xml:space="preserve">0.148313030600548</t>
@@ -92,28 +92,28 @@
     <t xml:space="preserve">0.158223032951355</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152357921004295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152088269591331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155054524540901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154380366206169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150335475802422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14548160135746</t>
+    <t xml:space="preserve">0.152357935905457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15208825469017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155054539442062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154380396008492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150335490703583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145481586456299</t>
   </si>
   <si>
     <t xml:space="preserve">0.14258274435997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142717584967613</t>
+    <t xml:space="preserve">0.142717570066452</t>
   </si>
   <si>
     <t xml:space="preserve">0.131324455142021</t>
@@ -134,19 +134,19 @@
     <t xml:space="preserve">0.138200774788857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143459126353264</t>
+    <t xml:space="preserve">0.143459111452103</t>
   </si>
   <si>
     <t xml:space="preserve">0.140223234891891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137998536229134</t>
+    <t xml:space="preserve">0.137998521327972</t>
   </si>
   <si>
     <t xml:space="preserve">0.144605189561844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142515331506729</t>
+    <t xml:space="preserve">0.142515316605568</t>
   </si>
   <si>
     <t xml:space="preserve">0.14197601377964</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">0.142987236380577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147706285119057</t>
+    <t xml:space="preserve">0.147706270217896</t>
   </si>
   <si>
     <t xml:space="preserve">0.153166905045509</t>
@@ -170,16 +170,16 @@
     <t xml:space="preserve">0.154178127646446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150942206382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150672554969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154717430472374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156470254063606</t>
+    <t xml:space="preserve">0.150942221283913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150672540068626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154717445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156470224261284</t>
   </si>
   <si>
     <t xml:space="preserve">0.162402763962746</t>
@@ -188,61 +188,61 @@
     <t xml:space="preserve">0.16449262201786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161796003580093</t>
+    <t xml:space="preserve">0.161796018481255</t>
   </si>
   <si>
     <t xml:space="preserve">0.160852208733559</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158088207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159099414944649</t>
+    <t xml:space="preserve">0.158088192343712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15909942984581</t>
   </si>
   <si>
     <t xml:space="preserve">0.155526414513588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154312953352928</t>
+    <t xml:space="preserve">0.154312968254089</t>
   </si>
   <si>
     <t xml:space="preserve">0.148987174034119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15020065009594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150065824389458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149930983781815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146964699029922</t>
+    <t xml:space="preserve">0.150200635194778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150065809488297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149930998682976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146964728832245</t>
   </si>
   <si>
     <t xml:space="preserve">0.144268125295639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142245665192604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138268187642097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147841110825539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151751205325127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15727923810482</t>
+    <t xml:space="preserve">0.142245680093765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138268172740936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147841095924377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151751190423965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157279208302498</t>
   </si>
   <si>
     <t xml:space="preserve">0.156874731183052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155998319387436</t>
+    <t xml:space="preserve">0.155998334288597</t>
   </si>
   <si>
     <t xml:space="preserve">0.156942144036293</t>
@@ -251,10 +251,10 @@
     <t xml:space="preserve">0.152695000171661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157009556889534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152560159564018</t>
+    <t xml:space="preserve">0.157009527087212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152560174465179</t>
   </si>
   <si>
     <t xml:space="preserve">0.155122458934784</t>
@@ -263,10 +263,10 @@
     <t xml:space="preserve">0.154429942369461</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150274887681007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150828883051872</t>
+    <t xml:space="preserve">0.150274872779846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150828897953033</t>
   </si>
   <si>
     <t xml:space="preserve">0.147781848907471</t>
@@ -275,19 +275,19 @@
     <t xml:space="preserve">0.147712603211403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146812319755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142657250165939</t>
+    <t xml:space="preserve">0.146812334656715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142657265067101</t>
   </si>
   <si>
     <t xml:space="preserve">0.142103254795074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138155937194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139817968010902</t>
+    <t xml:space="preserve">0.138155922293663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139817953109741</t>
   </si>
   <si>
     <t xml:space="preserve">0.139887228608131</t>
@@ -299,22 +299,22 @@
     <t xml:space="preserve">0.141272246837616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139748722314835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141202971339226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144042283296585</t>
+    <t xml:space="preserve">0.139748737215996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141202986240387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144042298197746</t>
   </si>
   <si>
     <t xml:space="preserve">0.145427286624908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144734814763069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145219534635544</t>
+    <t xml:space="preserve">0.144734799861908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145219564437866</t>
   </si>
   <si>
     <t xml:space="preserve">0.147989585995674</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147574082016945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1488898396492</t>
+    <t xml:space="preserve">0.147574096918106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148889854550362</t>
   </si>
   <si>
     <t xml:space="preserve">0.14812807738781</t>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">0.144180774688721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146673828363419</t>
+    <t xml:space="preserve">0.146673813462257</t>
   </si>
   <si>
     <t xml:space="preserve">0.14182622730732</t>
@@ -344,61 +344,61 @@
     <t xml:space="preserve">0.133654609322548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132685095071793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134485632181168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121881917119026</t>
+    <t xml:space="preserve">0.132685109972954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134485617280006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121881909668446</t>
   </si>
   <si>
     <t xml:space="preserve">0.123890213668346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126244738698006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123405449092388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125898495316505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116341844201088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787833929062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122574418783188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111888110638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122920699417591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228175401688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118419386446476</t>
+    <t xml:space="preserve">0.126244753599167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123405463993549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125898480415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116341851651669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787826478481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12257444858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111910462379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12292068451643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228182852268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419378995895</t>
   </si>
   <si>
     <t xml:space="preserve">0.11350254714489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110940262675285</t>
+    <t xml:space="preserve">0.110940270125866</t>
   </si>
   <si>
     <t xml:space="preserve">0.118904136121273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122297450900078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452505588531</t>
+    <t xml:space="preserve">0.122297435998917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12645249068737</t>
   </si>
   <si>
     <t xml:space="preserve">0.124651975929737</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">0.126175507903099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.130953833460808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128668531775475</t>
+    <t xml:space="preserve">0.130953803658485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128668546676636</t>
   </si>
   <si>
     <t xml:space="preserve">0.128460764884949</t>
@@ -419,49 +419,49 @@
     <t xml:space="preserve">0.127768263220787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127422034740448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126729503273964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128253027796745</t>
+    <t xml:space="preserve">0.127422019839287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126729488372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128253012895584</t>
   </si>
   <si>
     <t xml:space="preserve">0.130884572863579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131161570549011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12797600030899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120496913790703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118211604654789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172852158546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114956803619862</t>
+    <t xml:space="preserve">0.131161585450172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127976015210152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120496906340122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11821161210537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172867059708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114956811070442</t>
   </si>
   <si>
     <t xml:space="preserve">0.116618849337101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11862713098526</t>
+    <t xml:space="preserve">0.118627123534679</t>
   </si>
   <si>
     <t xml:space="preserve">0.119804389774799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118765622377396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912432670593</t>
+    <t xml:space="preserve">0.118765637278557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912417769432</t>
   </si>
   <si>
     <t xml:space="preserve">0.115718565881252</t>
@@ -470,67 +470,67 @@
     <t xml:space="preserve">0.119319625198841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119250379502773</t>
+    <t xml:space="preserve">0.119250394403934</t>
   </si>
   <si>
     <t xml:space="preserve">0.118834882974625</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121258661150932</t>
+    <t xml:space="preserve">0.121258653700352</t>
   </si>
   <si>
     <t xml:space="preserve">0.122505187988281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197697103024</t>
+    <t xml:space="preserve">0.123197712004185</t>
   </si>
   <si>
     <t xml:space="preserve">0.125552237033844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125690758228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12174341827631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674165129662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12015064060688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121120154857635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488639593124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665913283825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372329950333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926332771778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726862430573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116826586425304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11710362136364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121189422905445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233838558197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118973396718502</t>
+    <t xml:space="preserve">0.125690743327141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121743425726891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674187481403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120150648057461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121120162308216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488609790802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665890932083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372352302074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926325321198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726869881153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116826601326466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117103599011898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121189415454865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233823657036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118973381817341</t>
   </si>
   <si>
     <t xml:space="preserve">0.118350125849247</t>
@@ -542,22 +542,22 @@
     <t xml:space="preserve">0.126660257577896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12409795820713</t>
+    <t xml:space="preserve">0.124097965657711</t>
   </si>
   <si>
     <t xml:space="preserve">0.125205978751183</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123959474265575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117034360766411</t>
+    <t xml:space="preserve">0.123959444463253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11703435331583</t>
   </si>
   <si>
     <t xml:space="preserve">0.117796115577221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117934614419937</t>
+    <t xml:space="preserve">0.117934629321098</t>
   </si>
   <si>
     <t xml:space="preserve">0.116480343043804</t>
@@ -572,28 +572,28 @@
     <t xml:space="preserve">0.11149425804615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115441590547562</t>
+    <t xml:space="preserve">0.115441583096981</t>
   </si>
   <si>
     <t xml:space="preserve">0.113571807742119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11467981338501</t>
+    <t xml:space="preserve">0.114679805934429</t>
   </si>
   <si>
     <t xml:space="preserve">0.111771278083324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111009508371353</t>
+    <t xml:space="preserve">0.111009515821934</t>
   </si>
   <si>
     <t xml:space="preserve">0.111563511192799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112186767160892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117588363587856</t>
+    <t xml:space="preserve">0.112186774611473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117588356137276</t>
   </si>
   <si>
     <t xml:space="preserve">0.121327921748161</t>
@@ -602,37 +602,37 @@
     <t xml:space="preserve">0.122020438313484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122435949742794</t>
+    <t xml:space="preserve">0.122435934841633</t>
   </si>
   <si>
     <t xml:space="preserve">0.119942896068096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124305710196495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122851453721523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773904025555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596660137177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119527384638786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120358422398567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12181268632412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14189550280571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169665172696114</t>
+    <t xml:space="preserve">0.124305725097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122851438820362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773918926716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596652686596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119527406990528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120358407497406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1218126937747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141895473003387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169665202498436</t>
   </si>
   <si>
     <t xml:space="preserve">0.15997003018856</t>
@@ -653,13 +653,13 @@
     <t xml:space="preserve">0.144942551851273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148682087659836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149928614497185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154360726475716</t>
+    <t xml:space="preserve">0.148682102560997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149928599596024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154360696673393</t>
   </si>
   <si>
     <t xml:space="preserve">0.157476991415024</t>
@@ -668,52 +668,52 @@
     <t xml:space="preserve">0.159900784492493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158031016588211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156507462263107</t>
+    <t xml:space="preserve">0.158030986785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156507477164268</t>
   </si>
   <si>
     <t xml:space="preserve">0.147366315126419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143349781632423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143696025013924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145358055830002</t>
+    <t xml:space="preserve">0.143349766731262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143696010112762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145358040928841</t>
   </si>
   <si>
     <t xml:space="preserve">0.143626764416695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144319295883179</t>
+    <t xml:space="preserve">0.144319280982018</t>
   </si>
   <si>
     <t xml:space="preserve">0.137809678912163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139194712042809</t>
+    <t xml:space="preserve">0.139194697141647</t>
   </si>
   <si>
     <t xml:space="preserve">0.140164226293564</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140510499477386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140441238880157</t>
+    <t xml:space="preserve">0.140510484576225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140441223978996</t>
   </si>
   <si>
     <t xml:space="preserve">0.139540955424309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138502195477486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139679461717606</t>
+    <t xml:space="preserve">0.138502210378647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139679476618767</t>
   </si>
   <si>
     <t xml:space="preserve">0.13711716234684</t>
@@ -722,16 +722,16 @@
     <t xml:space="preserve">0.139056190848351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144111528992653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144250020384789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145912081003189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142588004469872</t>
+    <t xml:space="preserve">0.144111543893814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144250050187111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145912066102028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14258798956871</t>
   </si>
   <si>
     <t xml:space="preserve">0.145981311798096</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">0.147851094603539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148058831691742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150413364171982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148959115147591</t>
+    <t xml:space="preserve">0.148058846592903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150413379073143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148959100246429</t>
   </si>
   <si>
     <t xml:space="preserve">0.152075409889221</t>
@@ -758,10 +758,10 @@
     <t xml:space="preserve">0.152352407574654</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155399471521378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160870283842087</t>
+    <t xml:space="preserve">0.155399456620216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160870298743248</t>
   </si>
   <si>
     <t xml:space="preserve">0.159139022231102</t>
@@ -779,25 +779,25 @@
     <t xml:space="preserve">0.150967389345169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14861287176609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147920325398445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147297084331512</t>
+    <t xml:space="preserve">0.148612856864929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147920340299606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147297069430351</t>
   </si>
   <si>
     <t xml:space="preserve">0.143142014741898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141687735915184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146258324384689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14972086250782</t>
+    <t xml:space="preserve">0.141687765717506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146258309483528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149720877408981</t>
   </si>
   <si>
     <t xml:space="preserve">0.152213901281357</t>
@@ -806,19 +806,19 @@
     <t xml:space="preserve">0.152006164193153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146189048886299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145773574709892</t>
+    <t xml:space="preserve">0.14618906378746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14577354490757</t>
   </si>
   <si>
     <t xml:space="preserve">0.148474335670471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148472413420677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146802604198456</t>
+    <t xml:space="preserve">0.148472428321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146802619099617</t>
   </si>
   <si>
     <t xml:space="preserve">0.145411133766174</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">0.14701135456562</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14854197204113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148959442973137</t>
+    <t xml:space="preserve">0.148541986942291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148959457874298</t>
   </si>
   <si>
     <t xml:space="preserve">0.145480692386627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145132809877396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146106868982315</t>
+    <t xml:space="preserve">0.145132824778557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146106883883476</t>
   </si>
   <si>
     <t xml:space="preserve">0.14450666308403</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">0.14401963353157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143463015556335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140749603509903</t>
+    <t xml:space="preserve">0.143463030457497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140749618411064</t>
   </si>
   <si>
     <t xml:space="preserve">0.143045589327812</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">0.141236647963524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14151494204998</t>
+    <t xml:space="preserve">0.141514956951141</t>
   </si>
   <si>
     <t xml:space="preserve">0.142071545124054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139497265219688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139010235667229</t>
+    <t xml:space="preserve">0.13949728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13901025056839</t>
   </si>
   <si>
     <t xml:space="preserve">0.14033217728138</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">0.137757912278175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137618765234947</t>
+    <t xml:space="preserve">0.137618750333786</t>
   </si>
   <si>
     <t xml:space="preserve">0.137062162160873</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">0.138244926929474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142419427633286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140610456466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141793251037598</t>
+    <t xml:space="preserve">0.142419412732124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140610471367836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141793236136436</t>
   </si>
   <si>
     <t xml:space="preserve">0.141445353627205</t>
@@ -920,22 +920,22 @@
     <t xml:space="preserve">0.140123441815376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141584500670433</t>
+    <t xml:space="preserve">0.141584530472755</t>
   </si>
   <si>
     <t xml:space="preserve">0.140053883194923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139636427164078</t>
+    <t xml:space="preserve">0.139636412262917</t>
   </si>
   <si>
     <t xml:space="preserve">0.139427691698074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147289663553238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149655193090439</t>
+    <t xml:space="preserve">0.147289648652077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149655178189278</t>
   </si>
   <si>
     <t xml:space="preserve">0.149863913655281</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">0.150629222393036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149724766612053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147985368967056</t>
+    <t xml:space="preserve">0.149724751710892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147985383868217</t>
   </si>
   <si>
     <t xml:space="preserve">0.146246016025543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147428795695305</t>
+    <t xml:space="preserve">0.147428780794144</t>
   </si>
   <si>
     <t xml:space="preserve">0.149237737059593</t>
@@ -962,46 +962,46 @@
     <t xml:space="preserve">0.150281354784966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148402854800224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151742428541183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152020707726479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152577310800552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152159869670868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150490075349808</t>
+    <t xml:space="preserve">0.148402839899063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151742413640022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15202072262764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152577325701714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152159884572029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150490060448647</t>
   </si>
   <si>
     <t xml:space="preserve">0.151324972510338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150977119803429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15035092830658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149029031395912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148750692605972</t>
+    <t xml:space="preserve">0.150977090001106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150350943207741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149029016494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148750707507133</t>
   </si>
   <si>
     <t xml:space="preserve">0.149098590016365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151672855019569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166840150952339</t>
+    <t xml:space="preserve">0.151672840118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166840136051178</t>
   </si>
   <si>
     <t xml:space="preserve">0.169762268662453</t>
@@ -1010,13 +1010,13 @@
     <t xml:space="preserve">0.168649077415466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166979268193245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160369694232941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162317782640457</t>
+    <t xml:space="preserve">0.166979283094406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160369679331779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162317767739296</t>
   </si>
   <si>
     <t xml:space="preserve">0.173797607421875</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">0.175954431295395</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172893151640892</t>
+    <t xml:space="preserve">0.172893136739731</t>
   </si>
   <si>
     <t xml:space="preserve">0.173936754465103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168718665838242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168509930372238</t>
+    <t xml:space="preserve">0.16871865093708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168509915471077</t>
   </si>
   <si>
     <t xml:space="preserve">0.167675033211708</t>
@@ -1043,40 +1043,40 @@
     <t xml:space="preserve">0.168996945023537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16586609184742</t>
+    <t xml:space="preserve">0.165866076946259</t>
   </si>
   <si>
     <t xml:space="preserve">0.16419629752636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169275268912315</t>
+    <t xml:space="preserve">0.169275254011154</t>
   </si>
   <si>
     <t xml:space="preserve">0.171988666057587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170458003878593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173241004347801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175676107406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185068741440773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187712535262108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184581696987152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189938932657242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198635771870613</t>
+    <t xml:space="preserve">0.170458033680916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17324098944664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175676122307777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185068711638451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187712550163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184581682085991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189938947558403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.198635756969452</t>
   </si>
   <si>
     <t xml:space="preserve">0.197383433580399</t>
@@ -1085,37 +1085,37 @@
     <t xml:space="preserve">0.19341766834259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192443609237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187851697206497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194809183478355</t>
+    <t xml:space="preserve">0.192443624138832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187851682305336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194809153676033</t>
   </si>
   <si>
     <t xml:space="preserve">0.191678315401077</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188060402870178</t>
+    <t xml:space="preserve">0.188060432672501</t>
   </si>
   <si>
     <t xml:space="preserve">0.183468490839005</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185694888234138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186112329363823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183816373348236</t>
+    <t xml:space="preserve">0.185694873332977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186112344264984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183816358447075</t>
   </si>
   <si>
     <t xml:space="preserve">0.183677211403847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178528696298599</t>
+    <t xml:space="preserve">0.178528681397438</t>
   </si>
   <si>
     <t xml:space="preserve">0.17671974003315</t>
@@ -1127,25 +1127,25 @@
     <t xml:space="preserve">0.177972093224525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179363593459129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180755063891411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180894210934639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177763357758522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17442375421524</t>
+    <t xml:space="preserve">0.179363578557968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180755078792572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1808942258358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177763342857361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174423769116402</t>
   </si>
   <si>
     <t xml:space="preserve">0.174145475029945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185416579246521</t>
+    <t xml:space="preserve">0.185416594147682</t>
   </si>
   <si>
     <t xml:space="preserve">0.185138270258904</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">0.182424873113632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180059313774109</t>
+    <t xml:space="preserve">0.18005932867527</t>
   </si>
   <si>
     <t xml:space="preserve">0.180824652314186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176023975014687</t>
+    <t xml:space="preserve">0.176023989915848</t>
   </si>
   <si>
     <t xml:space="preserve">0.163013532757759</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">0.162804812192917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165587797760963</t>
+    <t xml:space="preserve">0.165587812662125</t>
   </si>
   <si>
     <t xml:space="preserve">0.166074812412262</t>
@@ -1178,22 +1178,22 @@
     <t xml:space="preserve">0.166144385933876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166770562529564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167396724224091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165935665369034</t>
+    <t xml:space="preserve">0.166770577430725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167396739125252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165935650467873</t>
   </si>
   <si>
     <t xml:space="preserve">0.163918003439903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166492268443108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167535871267319</t>
+    <t xml:space="preserve">0.166492283344269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16753588616848</t>
   </si>
   <si>
     <t xml:space="preserve">0.165448635816574</t>
@@ -1205,64 +1205,64 @@
     <t xml:space="preserve">0.165170326828957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167466312646866</t>
+    <t xml:space="preserve">0.167466327548027</t>
   </si>
   <si>
     <t xml:space="preserve">0.166701003909111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164405032992363</t>
+    <t xml:space="preserve">0.164405018091202</t>
   </si>
   <si>
     <t xml:space="preserve">0.163500547409058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166422680020332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166283518075943</t>
+    <t xml:space="preserve">0.166422694921494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166283532977104</t>
   </si>
   <si>
     <t xml:space="preserve">0.166909694671631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165518209338188</t>
+    <t xml:space="preserve">0.165518224239349</t>
   </si>
   <si>
     <t xml:space="preserve">0.168022900819778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168370768427849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164892062544823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173588901758194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17254526913166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181589975953102</t>
+    <t xml:space="preserve">0.168370798230171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164892047643661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173588886857033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172545254230499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181589961051941</t>
   </si>
   <si>
     <t xml:space="preserve">0.180198475718498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179502710700035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178806975483894</t>
+    <t xml:space="preserve">0.179502740502357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178806990385056</t>
   </si>
   <si>
     <t xml:space="preserve">0.180546343326569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182981461286545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182633593678474</t>
+    <t xml:space="preserve">0.182981446385384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182633578777313</t>
   </si>
   <si>
     <t xml:space="preserve">0.183329358696938</t>
@@ -1271,16 +1271,16 @@
     <t xml:space="preserve">0.177415490150452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179154843091965</t>
+    <t xml:space="preserve">0.179154857993126</t>
   </si>
   <si>
     <t xml:space="preserve">0.16454416513443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162456944584846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161761164665222</t>
+    <t xml:space="preserve">0.162456929683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161761179566383</t>
   </si>
   <si>
     <t xml:space="preserve">0.161413297057152</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">0.157586708664894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159326061606407</t>
+    <t xml:space="preserve">0.159326076507568</t>
   </si>
   <si>
     <t xml:space="preserve">0.154803708195686</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">0.154455855488777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149933472275734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152716472744942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156195223331451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156543076038361</t>
+    <t xml:space="preserve">0.149933487176895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152716487646103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15619520843029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156543090939522</t>
   </si>
   <si>
     <t xml:space="preserve">0.155151590704918</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">0.147846236824989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146454766392708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157934561371803</t>
+    <t xml:space="preserve">0.146454736590385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157934576272964</t>
   </si>
   <si>
     <t xml:space="preserve">0.160021811723709</t>
@@ -1346,43 +1346,46 @@
     <t xml:space="preserve">0.158282443881035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157238811254501</t>
+    <t xml:space="preserve">0.157238841056824</t>
   </si>
   <si>
     <t xml:space="preserve">0.16179983317852</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16322223842144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161444216966629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160732999444008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155043363571167</t>
+    <t xml:space="preserve">0.163222223520279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16002182662487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16144423186779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160733044147491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155043348670006</t>
   </si>
   <si>
     <t xml:space="preserve">0.157532572746277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156110167503357</t>
+    <t xml:space="preserve">0.156110182404518</t>
   </si>
   <si>
     <t xml:space="preserve">0.153620943427086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155398949980736</t>
+    <t xml:space="preserve">0.155398964881897</t>
   </si>
   <si>
     <t xml:space="preserve">0.153976544737816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149709314107895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147575676441193</t>
+    <t xml:space="preserve">0.149709284305573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14757564663887</t>
   </si>
   <si>
     <t xml:space="preserve">0.146508857607841</t>
@@ -1394,16 +1397,16 @@
     <t xml:space="preserve">0.143308416008949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138827800750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137974351644516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139965742826462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142597198486328</t>
+    <t xml:space="preserve">0.138827815651894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137974381446838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139965727925301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142597213387489</t>
   </si>
   <si>
     <t xml:space="preserve">0.147220075130463</t>
@@ -1418,13 +1421,13 @@
     <t xml:space="preserve">0.140107989311218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138401076197624</t>
+    <t xml:space="preserve">0.138401091098785</t>
   </si>
   <si>
     <t xml:space="preserve">0.141957119107246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140676960349083</t>
+    <t xml:space="preserve">0.140676945447922</t>
   </si>
   <si>
     <t xml:space="preserve">0.141245901584625</t>
@@ -1433,7 +1436,7 @@
     <t xml:space="preserve">0.141103684902191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139112308621407</t>
+    <t xml:space="preserve">0.139112293720245</t>
   </si>
   <si>
     <t xml:space="preserve">0.137263163924217</t>
@@ -1442,7 +1445,7 @@
     <t xml:space="preserve">0.136551946401596</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140534728765488</t>
+    <t xml:space="preserve">0.140534713864326</t>
   </si>
   <si>
     <t xml:space="preserve">0.140819191932678</t>
@@ -1454,16 +1457,16 @@
     <t xml:space="preserve">0.13968126475811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142099350690842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141672655940056</t>
+    <t xml:space="preserve">0.142099365592003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141672641038895</t>
   </si>
   <si>
     <t xml:space="preserve">0.142952814698219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143664047122002</t>
+    <t xml:space="preserve">0.14366403222084</t>
   </si>
   <si>
     <t xml:space="preserve">0.147931277751923</t>
@@ -1478,7 +1481,7 @@
     <t xml:space="preserve">0.152554124593735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149353682994843</t>
+    <t xml:space="preserve">0.149353697896004</t>
   </si>
   <si>
     <t xml:space="preserve">0.1443752348423</t>
@@ -1490,7 +1493,7 @@
     <t xml:space="preserve">0.142241612076759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13825885951519</t>
+    <t xml:space="preserve">0.138258829712868</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845048189163</t>
@@ -1499,19 +1502,19 @@
     <t xml:space="preserve">0.136125236749649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138543337583542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141530409455299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139254525303841</t>
+    <t xml:space="preserve">0.138543322682381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141530394554138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139254540205002</t>
   </si>
   <si>
     <t xml:space="preserve">0.14039246737957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138685554265976</t>
+    <t xml:space="preserve">0.138685569167137</t>
   </si>
   <si>
     <t xml:space="preserve">0.132995903491974</t>
@@ -1520,10 +1523,10 @@
     <t xml:space="preserve">0.134987279772758</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135129526257515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12943984568119</t>
+    <t xml:space="preserve">0.135129541158676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.129439875483513</t>
   </si>
   <si>
     <t xml:space="preserve">0.125030368566513</t>
@@ -1544,169 +1547,169 @@
     <t xml:space="preserve">0.126595050096512</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123892433941364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122327789664268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119482956826687</t>
+    <t xml:space="preserve">0.123892448842525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12232780456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119482949376106</t>
   </si>
   <si>
     <t xml:space="preserve">0.117633819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116922602057457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112513110041618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926921367645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113793291151524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115215696394444</t>
+    <t xml:space="preserve">0.116922594606876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112513102591038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926906466484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113793283700943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115215703845024</t>
   </si>
   <si>
     <t xml:space="preserve">0.114931225776672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116638123989105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119198478758335</t>
+    <t xml:space="preserve">0.116638116538525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119198471307755</t>
   </si>
   <si>
     <t xml:space="preserve">0.119909666478634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119340695440769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123038984835148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12446141988039</t>
+    <t xml:space="preserve">0.119340717792511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123038992285728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124461404979229</t>
   </si>
   <si>
     <t xml:space="preserve">0.12005191296339</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121616587042809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905369520187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060529232025</t>
+    <t xml:space="preserve">0.121616579592228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905362069607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060536682606</t>
   </si>
   <si>
     <t xml:space="preserve">0.111659660935402</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114788994193077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113366566598415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116211384534836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754499316216</t>
+    <t xml:space="preserve">0.114788979291916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113366551697254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116211377084255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754521667957</t>
   </si>
   <si>
     <t xml:space="preserve">0.127590730786324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127875208854675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127306252717972</t>
+    <t xml:space="preserve">0.127875223755836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127306237816811</t>
   </si>
   <si>
     <t xml:space="preserve">0.124745883047581</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120763123035431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121901050209999</t>
+    <t xml:space="preserve">0.120763130486012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12190105766058</t>
   </si>
   <si>
     <t xml:space="preserve">0.119056232273579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114504493772984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117349326610565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646747708321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452803611755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120478637516499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120336405932903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120194174349308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120620869100094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487261235714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082066178322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111944146454334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112655349075794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110663950443268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110379509627819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111801885068417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370878458023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111232943832874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116069152951241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121332079172134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122612252831459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124319158494473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121758818626404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122185558080673</t>
+    <t xml:space="preserve">0.114504501223564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117349334061146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11464674025774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452773809433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120478644967079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120336413383484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120194166898727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120620884001255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487268686295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082088530064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111944139003754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112655356526375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110663965344429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110379494726658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111801899969578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370871007442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111232936382294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116069160401821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121332094073296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122612245380878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124319143593311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121758826076984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122185543179512</t>
   </si>
   <si>
     <t xml:space="preserve">0.115642435848713</t>
@@ -1715,13 +1718,13 @@
     <t xml:space="preserve">0.116495877504349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11862950772047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119767434895039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118202775716782</t>
+    <t xml:space="preserve">0.118629515171051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1197674497962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118202783167362</t>
   </si>
   <si>
     <t xml:space="preserve">0.115357950329781</t>
@@ -1733,7 +1736,7 @@
     <t xml:space="preserve">0.117491573095322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116282522678375</t>
+    <t xml:space="preserve">0.116282515227795</t>
   </si>
   <si>
     <t xml:space="preserve">0.118771739304066</t>
@@ -1745,55 +1748,55 @@
     <t xml:space="preserve">0.120549760758877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12162934243679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12126736342907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122715339064598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121991351246834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119095422327518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118009425699711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116923466324806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114751502871513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115113481879234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116561472415924</t>
+    <t xml:space="preserve">0.121629357337952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121267378330231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122715324163437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121991343796253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119095414876938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118009433150291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116923458874226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114751510322094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115113489329815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116561464965343</t>
   </si>
   <si>
     <t xml:space="preserve">0.119457401335239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116199493408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11583749204874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113665536046028</t>
+    <t xml:space="preserve">0.116199478507042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115837469696999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113665528595448</t>
   </si>
   <si>
     <t xml:space="preserve">0.114389523863792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11402752250433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1122175604105</t>
+    <t xml:space="preserve">0.11402752995491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112217552959919</t>
   </si>
   <si>
     <t xml:space="preserve">0.110769592225552</t>
@@ -1805,7 +1808,7 @@
     <t xml:space="preserve">0.107149668037891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107873663306236</t>
+    <t xml:space="preserve">0.107873655855656</t>
   </si>
   <si>
     <t xml:space="preserve">0.107511661946774</t>
@@ -1814,16 +1817,16 @@
     <t xml:space="preserve">0.104977712035179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108235642313957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106425687670708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108959630131721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109683625400066</t>
+    <t xml:space="preserve">0.108235649764538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106425695121288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108959637582302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109683632850647</t>
   </si>
   <si>
     <t xml:space="preserve">0.11040760576725</t>
@@ -1835,64 +1838,61 @@
     <t xml:space="preserve">0.111131586134434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113303542137146</t>
+    <t xml:space="preserve">0.113303549587727</t>
   </si>
   <si>
     <t xml:space="preserve">0.10859764367342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110045604407787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109321624040604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115475483238697</t>
+    <t xml:space="preserve">0.110045596957207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109321616590023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115475505590439</t>
   </si>
   <si>
     <t xml:space="preserve">0.118733428418636</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120905384421349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120181389153004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11981938034296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120543375611305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118371434509754</t>
+    <t xml:space="preserve">0.120181381702423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119819410145283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120543390512466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118371419608593</t>
   </si>
   <si>
     <t xml:space="preserve">0.117285452783108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123801313340664</t>
+    <t xml:space="preserve">0.123801328241825</t>
   </si>
   <si>
     <t xml:space="preserve">0.126335248351097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123439311981201</t>
+    <t xml:space="preserve">0.123439319431782</t>
   </si>
   <si>
     <t xml:space="preserve">0.124525301158428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12488729506731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124163292348385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12307733297348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144072875380516</t>
+    <t xml:space="preserve">0.124887280166149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124163299798965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123077318072319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144072860479355</t>
   </si>
   <si>
     <t xml:space="preserve">0.154208660125732</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">0.146244823932648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1556566208601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177376136183739</t>
+    <t xml:space="preserve">0.155656605958939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1773761510849</t>
   </si>
   <si>
     <t xml:space="preserve">0.191855818033218</t>
@@ -1925,40 +1925,40 @@
     <t xml:space="preserve">0.173756211996078</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173032224178314</t>
+    <t xml:space="preserve">0.173032239079475</t>
   </si>
   <si>
     <t xml:space="preserve">0.168688327074051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164344415068626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160724520683289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161448493599892</t>
+    <t xml:space="preserve">0.164344429969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160724505782127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161448508501053</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172481417656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165792390704155</t>
+    <t xml:space="preserve">0.165792405605316</t>
   </si>
   <si>
     <t xml:space="preserve">0.165068417787552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15782855451107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16289646923542</t>
+    <t xml:space="preserve">0.157828584313393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162896454334259</t>
   </si>
   <si>
     <t xml:space="preserve">0.163620442152023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179548099637032</t>
+    <t xml:space="preserve">0.179548114538193</t>
   </si>
   <si>
     <t xml:space="preserve">0.178100138902664</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">0.146968796849251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152036681771278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170860275626183</t>
+    <t xml:space="preserve">0.15203669667244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170860290527344</t>
   </si>
   <si>
     <t xml:space="preserve">0.172308266162872</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">0.145520836114883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149864748120308</t>
+    <t xml:space="preserve">0.149864763021469</t>
   </si>
   <si>
     <t xml:space="preserve">0.151312723755836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138642966747284</t>
+    <t xml:space="preserve">0.138642996549606</t>
   </si>
   <si>
     <t xml:space="preserve">0.139728963375092</t>
@@ -2009,115 +2009,115 @@
     <t xml:space="preserve">0.131041154265404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122353345155716</t>
+    <t xml:space="preserve">0.122353337705135</t>
   </si>
   <si>
     <t xml:space="preserve">0.106787674129009</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0912220254540443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.097013883292675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0962899178266525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0977378785610199</t>
+    <t xml:space="preserve">0.0912220180034637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0970138907432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0962899103760719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0977378711104393</t>
   </si>
   <si>
     <t xml:space="preserve">0.100633814930916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1013577952981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102443769574165</t>
+    <t xml:space="preserve">0.10135780274868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102443762123585</t>
   </si>
   <si>
     <t xml:space="preserve">0.104253731667995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106063701212406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102805756032467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105701707303524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103529758751392</t>
+    <t xml:space="preserve">0.106063708662987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102805763483047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105701699852943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103529751300812</t>
   </si>
   <si>
     <t xml:space="preserve">0.106570489704609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107004880905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108018465340137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107294462621212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102081783115864</t>
+    <t xml:space="preserve">0.107004873454571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108018457889557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107294484972954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102081775665283</t>
   </si>
   <si>
     <t xml:space="preserve">0.103819340467453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103674553334713</t>
+    <t xml:space="preserve">0.103674545884132</t>
   </si>
   <si>
     <t xml:space="preserve">0.103964142501354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104832924902439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105412110686302</t>
+    <t xml:space="preserve">0.10483293235302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105412118136883</t>
   </si>
   <si>
     <t xml:space="preserve">0.108452841639519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111203998327255</t>
+    <t xml:space="preserve">0.111203990876675</t>
   </si>
   <si>
     <t xml:space="preserve">0.10686007887125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10671528428793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122208543121815</t>
+    <t xml:space="preserve">0.106715276837349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122208528220654</t>
   </si>
   <si>
     <t xml:space="preserve">0.108163245022297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109466418623924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103384956717491</t>
+    <t xml:space="preserve">0.109466426074505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103384949266911</t>
   </si>
   <si>
     <t xml:space="preserve">0.104688130319118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11047999560833</t>
+    <t xml:space="preserve">0.11048000305891</t>
   </si>
   <si>
     <t xml:space="preserve">0.112796746194363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11033521592617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113955117762089</t>
+    <t xml:space="preserve">0.110335201025009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113955125212669</t>
   </si>
   <si>
     <t xml:space="preserve">0.115692690014839</t>
@@ -2126,73 +2126,73 @@
     <t xml:space="preserve">0.154932633042336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139004975557327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152760669589043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157104596495628</t>
+    <t xml:space="preserve">0.139004960656166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152760684490204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157104581594467</t>
   </si>
   <si>
     <t xml:space="preserve">0.151674702763557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149502754211426</t>
+    <t xml:space="preserve">0.149502739310265</t>
   </si>
   <si>
     <t xml:space="preserve">0.150588735938072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148416772484779</t>
+    <t xml:space="preserve">0.148416757583618</t>
   </si>
   <si>
     <t xml:space="preserve">0.148054778575897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144652038812637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141176924109459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148778781294823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144796848297119</t>
+    <t xml:space="preserve">0.144652053713799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14117693901062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148778766393661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14479686319828</t>
   </si>
   <si>
     <t xml:space="preserve">0.144362464547157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143638491630554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142769709229469</t>
+    <t xml:space="preserve">0.143638476729393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142769694328308</t>
   </si>
   <si>
     <t xml:space="preserve">0.143928065896034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14515882730484</t>
+    <t xml:space="preserve">0.145158857107162</t>
   </si>
   <si>
     <t xml:space="preserve">0.144507259130478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147330790758133</t>
+    <t xml:space="preserve">0.147330805659294</t>
   </si>
   <si>
     <t xml:space="preserve">0.143493682146072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140163362026215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140887334942818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141900926828384</t>
+    <t xml:space="preserve">0.140163347125053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140887349843979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141900911927223</t>
   </si>
   <si>
     <t xml:space="preserve">0.147692799568176</t>
@@ -2204,55 +2204,55 @@
     <t xml:space="preserve">0.144217669963837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142624899744987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143059298396111</t>
+    <t xml:space="preserve">0.142624914646149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143059313297272</t>
   </si>
   <si>
     <t xml:space="preserve">0.154570639133453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143204092979431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143348872661591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143783256411552</t>
+    <t xml:space="preserve">0.14320407807827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143348887562752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143783271312714</t>
   </si>
   <si>
     <t xml:space="preserve">0.142480105161667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138136193156242</t>
+    <t xml:space="preserve">0.138136178255081</t>
   </si>
   <si>
     <t xml:space="preserve">0.13755701482296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158552542328835</t>
+    <t xml:space="preserve">0.158552557229996</t>
   </si>
   <si>
     <t xml:space="preserve">0.158914551138878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153846651315689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15022674202919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152398690581322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150950714945793</t>
+    <t xml:space="preserve">0.15384666621685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150226727128029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152398675680161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150950700044632</t>
   </si>
   <si>
     <t xml:space="preserve">0.155294626951218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160000517964363</t>
+    <t xml:space="preserve">0.160000532865524</t>
   </si>
   <si>
     <t xml:space="preserve">0.157466575503349</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">0.15927654504776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169774323701859</t>
+    <t xml:space="preserve">0.169774308800697</t>
   </si>
   <si>
     <t xml:space="preserve">0.16832634806633</t>
@@ -2273,58 +2273,58 @@
     <t xml:space="preserve">0.173394232988358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167964339256287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169050335884094</t>
+    <t xml:space="preserve">0.167964354157448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169050320982933</t>
   </si>
   <si>
     <t xml:space="preserve">0.171222269535065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171946257352829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177014142274857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176290169358253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179910108447075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184253990650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180272087454796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179186105728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177738144993782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17556619644165</t>
+    <t xml:space="preserve">0.17194627225399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177014157176018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176290154457092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179910093545914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184254005551338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180272072553635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179186120629311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17773811519146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175566181540489</t>
   </si>
   <si>
     <t xml:space="preserve">0.175928190350533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175204187631607</t>
+    <t xml:space="preserve">0.175204202532768</t>
   </si>
   <si>
     <t xml:space="preserve">0.174842193722725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176652163267136</t>
+    <t xml:space="preserve">0.176652178168297</t>
   </si>
   <si>
     <t xml:space="preserve">0.174480214715004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182514518499374</t>
+    <t xml:space="preserve">0.182514503598213</t>
   </si>
   <si>
     <t xml:space="preserve">0.180560395121574</t>
@@ -2348,25 +2348,25 @@
     <t xml:space="preserve">0.174698039889336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178997099399567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17547969520092</t>
+    <t xml:space="preserve">0.178997084498405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175479680299759</t>
   </si>
   <si>
     <t xml:space="preserve">0.177042976021767</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17587049305439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173916384577751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178606286644936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171180620789528</t>
+    <t xml:space="preserve">0.175870507955551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173916399478912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178606271743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171180635690689</t>
   </si>
   <si>
     <t xml:space="preserve">0.169226512312889</t>
@@ -2375,67 +2375,67 @@
     <t xml:space="preserve">0.171962261199951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167272388935089</t>
+    <t xml:space="preserve">0.16727240383625</t>
   </si>
   <si>
     <t xml:space="preserve">0.168444857001305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170789793133736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171571463346481</t>
+    <t xml:space="preserve">0.170789808034897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17157144844532</t>
   </si>
   <si>
     <t xml:space="preserve">0.173134744167328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172743916511536</t>
+    <t xml:space="preserve">0.172743931412697</t>
   </si>
   <si>
     <t xml:space="preserve">0.16961732506752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170008152723312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172353103756905</t>
+    <t xml:space="preserve">0.170008167624474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172353088855743</t>
   </si>
   <si>
     <t xml:space="preserve">0.168054044246674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170398995280266</t>
+    <t xml:space="preserve">0.170398980379105</t>
   </si>
   <si>
     <t xml:space="preserve">0.167663216590881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166881561279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165709108114243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166490748524666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16531828045845</t>
+    <t xml:space="preserve">0.166881576180458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165709093213081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166490763425827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165318265557289</t>
   </si>
   <si>
     <t xml:space="preserve">0.166099920868874</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164536640048027</t>
+    <t xml:space="preserve">0.164536625146866</t>
   </si>
   <si>
     <t xml:space="preserve">0.16141003370285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162582516670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157501816749573</t>
+    <t xml:space="preserve">0.162582501769066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157501801848412</t>
   </si>
   <si>
     <t xml:space="preserve">0.158283457159996</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">0.160628408193588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163754984736443</t>
+    <t xml:space="preserve">0.163754999637604</t>
   </si>
   <si>
     <t xml:space="preserve">0.164927437901497</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">0.168835684657097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160237565636635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162973329424858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164145797491074</t>
+    <t xml:space="preserve">0.160237580537796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162973344326019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164145812392235</t>
   </si>
   <si>
     <t xml:space="preserve">0.161800876259804</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">0.159455925226212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158674284815788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159846767783165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159065097570419</t>
+    <t xml:space="preserve">0.158674269914627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159846752882004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159065112471581</t>
   </si>
   <si>
     <t xml:space="preserve">0.161019220948219</t>
@@ -2483,19 +2483,19 @@
     <t xml:space="preserve">0.163364171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182905316352844</t>
+    <t xml:space="preserve">0.182905331254005</t>
   </si>
   <si>
     <t xml:space="preserve">0.186031922698021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184468626976013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184859454631805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182123675942421</t>
+    <t xml:space="preserve">0.184468612074852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184859439730644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182123690843582</t>
   </si>
   <si>
     <t xml:space="preserve">0.180169567465782</t>
@@ -18841,7 +18841,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G596" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18867,7 +18867,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G597" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18893,7 +18893,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G598" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18919,7 +18919,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G599" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18945,7 +18945,7 @@
         <v>0.221499994397163</v>
       </c>
       <c r="G600" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18971,7 +18971,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G601" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18997,7 +18997,7 @@
         <v>0.219500005245209</v>
       </c>
       <c r="G602" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19023,7 +19023,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G603" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19049,7 +19049,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G604" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19075,7 +19075,7 @@
         <v>0.219500005245209</v>
       </c>
       <c r="G605" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19101,7 +19101,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G606" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19127,7 +19127,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19153,7 +19153,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G608" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19179,7 +19179,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G609" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19205,7 +19205,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G610" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19231,7 +19231,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G611" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19257,7 +19257,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G612" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19283,7 +19283,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G613" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19309,7 +19309,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G614" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19335,7 +19335,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G615" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19361,7 +19361,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G616" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19387,7 +19387,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G617" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19413,7 +19413,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G618" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19439,7 +19439,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G619" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19465,7 +19465,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G620" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19491,7 +19491,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G621" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19517,7 +19517,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G622" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19543,7 +19543,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G623" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19621,7 +19621,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G626" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19647,7 +19647,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G627" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19673,7 +19673,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G628" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19699,7 +19699,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G629" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19725,7 +19725,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G630" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -19751,7 +19751,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G631" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19777,7 +19777,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G632" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -19803,7 +19803,7 @@
         <v>0.195600003004074</v>
       </c>
       <c r="G633" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -19829,7 +19829,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G634" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -19855,7 +19855,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G635" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -19881,7 +19881,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G636" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -19907,7 +19907,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G637" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -19933,7 +19933,7 @@
         <v>0.196600005030632</v>
       </c>
       <c r="G638" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -19959,7 +19959,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G639" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -19985,7 +19985,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G640" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20011,7 +20011,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G641" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -20037,7 +20037,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G642" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -20063,7 +20063,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G643" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -20089,7 +20089,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G644" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -20115,7 +20115,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G645" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20141,7 +20141,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G646" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -20167,7 +20167,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G647" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -20193,7 +20193,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G648" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -20219,7 +20219,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G649" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -20245,7 +20245,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G650" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -20271,7 +20271,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G651" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -20297,7 +20297,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G652" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20323,7 +20323,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G653" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -20375,7 +20375,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G655" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -20401,7 +20401,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G656" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20427,7 +20427,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G657" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -20453,7 +20453,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G658" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -20479,7 +20479,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G659" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -20505,7 +20505,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G660" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -20531,7 +20531,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G661" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -20557,7 +20557,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G662" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20583,7 +20583,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G663" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -20609,7 +20609,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G664" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20635,7 +20635,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G665" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20661,7 +20661,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G666" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20687,7 +20687,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G667" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -20713,7 +20713,7 @@
         <v>0.19879999756813</v>
       </c>
       <c r="G668" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -20739,7 +20739,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G669" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -20765,7 +20765,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G670" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -20791,7 +20791,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G671" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -20817,7 +20817,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G672" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -20843,7 +20843,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G673" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20869,7 +20869,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G674" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -20895,7 +20895,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G675" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20921,7 +20921,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G676" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -20947,7 +20947,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G677" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -20973,7 +20973,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G678" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -20999,7 +20999,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G679" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -21025,7 +21025,7 @@
         <v>0.194399997591972</v>
       </c>
       <c r="G680" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -21051,7 +21051,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G681" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -21077,7 +21077,7 @@
         <v>0.19140000641346</v>
       </c>
       <c r="G682" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -21103,7 +21103,7 @@
         <v>0.19480000436306</v>
       </c>
       <c r="G683" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -21129,7 +21129,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G684" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -21155,7 +21155,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G685" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -21181,7 +21181,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G686" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -21207,7 +21207,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G687" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21233,7 +21233,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G688" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -21259,7 +21259,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G689" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21285,7 +21285,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G690" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -21311,7 +21311,7 @@
         <v>0.195800006389618</v>
       </c>
       <c r="G691" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -21337,7 +21337,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G692" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -21363,7 +21363,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G693" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21389,7 +21389,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G694" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21415,7 +21415,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G695" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -21441,7 +21441,7 @@
         <v>0.197400003671646</v>
       </c>
       <c r="G696" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -21467,7 +21467,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G697" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -21493,7 +21493,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G698" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -21519,7 +21519,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G699" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -21545,7 +21545,7 @@
         <v>0.194999992847443</v>
       </c>
       <c r="G700" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -21571,7 +21571,7 @@
         <v>0.187000006437302</v>
       </c>
       <c r="G701" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -21597,7 +21597,7 @@
         <v>0.18979999423027</v>
       </c>
       <c r="G702" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -21623,7 +21623,7 @@
         <v>0.18979999423027</v>
       </c>
       <c r="G703" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -21649,7 +21649,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G704" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -21675,7 +21675,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G705" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -21701,7 +21701,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G706" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -21727,7 +21727,7 @@
         <v>0.181999996304512</v>
       </c>
       <c r="G707" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -21753,7 +21753,7 @@
         <v>0.175799995660782</v>
       </c>
       <c r="G708" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -21779,7 +21779,7 @@
         <v>0.175999999046326</v>
       </c>
       <c r="G709" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -21805,7 +21805,7 @@
         <v>0.173600003123283</v>
       </c>
       <c r="G710" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -21831,7 +21831,7 @@
         <v>0.17399999499321</v>
       </c>
       <c r="G711" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -21857,7 +21857,7 @@
         <v>0.177599996328354</v>
       </c>
       <c r="G712" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -21883,7 +21883,7 @@
         <v>0.178000003099442</v>
       </c>
       <c r="G713" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -21909,7 +21909,7 @@
         <v>0.174199998378754</v>
       </c>
       <c r="G714" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -21935,7 +21935,7 @@
         <v>0.172000005841255</v>
       </c>
       <c r="G715" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -21961,7 +21961,7 @@
         <v>0.167999997735023</v>
       </c>
       <c r="G716" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -21987,7 +21987,7 @@
         <v>0.165399998426437</v>
       </c>
       <c r="G717" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -22013,7 +22013,7 @@
         <v>0.164399996399879</v>
       </c>
       <c r="G718" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -22039,7 +22039,7 @@
         <v>0.158199995756149</v>
       </c>
       <c r="G719" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -22065,7 +22065,7 @@
         <v>0.163000002503395</v>
       </c>
       <c r="G720" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -22091,7 +22091,7 @@
         <v>0.159999996423721</v>
       </c>
       <c r="G721" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -22117,7 +22117,7 @@
         <v>0.162000000476837</v>
       </c>
       <c r="G722" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -22143,7 +22143,7 @@
         <v>0.16159999370575</v>
       </c>
       <c r="G723" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -22169,7 +22169,7 @@
         <v>0.163000002503395</v>
       </c>
       <c r="G724" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -22195,7 +22195,7 @@
         <v>0.164000004529953</v>
       </c>
       <c r="G725" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -22221,7 +22221,7 @@
         <v>0.167600005865097</v>
       </c>
       <c r="G726" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -22247,7 +22247,7 @@
         <v>0.168599992990494</v>
       </c>
       <c r="G727" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -22273,7 +22273,7 @@
         <v>0.16779999434948</v>
       </c>
       <c r="G728" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -22299,7 +22299,7 @@
         <v>0.172999992966652</v>
       </c>
       <c r="G729" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -22325,7 +22325,7 @@
         <v>0.174999997019768</v>
       </c>
       <c r="G730" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -22351,7 +22351,7 @@
         <v>0.168599992990494</v>
       </c>
       <c r="G731" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -22377,7 +22377,7 @@
         <v>0.168799996376038</v>
       </c>
       <c r="G732" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -22403,7 +22403,7 @@
         <v>0.171000003814697</v>
       </c>
       <c r="G733" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -22429,7 +22429,7 @@
         <v>0.172000005841255</v>
       </c>
       <c r="G734" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -22455,7 +22455,7 @@
         <v>0.170000001788139</v>
       </c>
       <c r="G735" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -22481,7 +22481,7 @@
         <v>0.168599992990494</v>
       </c>
       <c r="G736" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -22507,7 +22507,7 @@
         <v>0.165999993681908</v>
       </c>
       <c r="G737" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -22533,7 +22533,7 @@
         <v>0.157000005245209</v>
       </c>
       <c r="G738" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -22559,7 +22559,7 @@
         <v>0.161400005221367</v>
       </c>
       <c r="G739" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -22585,7 +22585,7 @@
         <v>0.159400001168251</v>
       </c>
       <c r="G740" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -22611,7 +22611,7 @@
         <v>0.163399994373322</v>
       </c>
       <c r="G741" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -22637,7 +22637,7 @@
         <v>0.16779999434948</v>
       </c>
       <c r="G742" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -22663,7 +22663,7 @@
         <v>0.170000001788139</v>
       </c>
       <c r="G743" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -22689,7 +22689,7 @@
         <v>0.172000005841255</v>
       </c>
       <c r="G744" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -22715,7 +22715,7 @@
         <v>0.172600001096725</v>
       </c>
       <c r="G745" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -22741,7 +22741,7 @@
         <v>0.173600003123283</v>
       </c>
       <c r="G746" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -22767,7 +22767,7 @@
         <v>0.179399996995926</v>
       </c>
       <c r="G747" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -22793,7 +22793,7 @@
         <v>0.179800003767014</v>
       </c>
       <c r="G748" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -22819,7 +22819,7 @@
         <v>0.179000005125999</v>
       </c>
       <c r="G749" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -22845,7 +22845,7 @@
         <v>0.175799995660782</v>
       </c>
       <c r="G750" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -22871,7 +22871,7 @@
         <v>0.175400003790855</v>
       </c>
       <c r="G751" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -22897,7 +22897,7 @@
         <v>0.169799998402596</v>
       </c>
       <c r="G752" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -22923,7 +22923,7 @@
         <v>0.171399995684624</v>
       </c>
       <c r="G753" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -22949,7 +22949,7 @@
         <v>0.172000005841255</v>
       </c>
       <c r="G754" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -22975,7 +22975,7 @@
         <v>0.168799996376038</v>
       </c>
       <c r="G755" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -23001,7 +23001,7 @@
         <v>0.167400002479553</v>
       </c>
       <c r="G756" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -23027,7 +23027,7 @@
         <v>0.165999993681908</v>
       </c>
       <c r="G757" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -23053,7 +23053,7 @@
         <v>0.160999998450279</v>
       </c>
       <c r="G758" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -23079,7 +23079,7 @@
         <v>0.164399996399879</v>
       </c>
       <c r="G759" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -23105,7 +23105,7 @@
         <v>0.165000006556511</v>
       </c>
       <c r="G760" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -23131,7 +23131,7 @@
         <v>0.162000000476837</v>
       </c>
       <c r="G761" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -23157,7 +23157,7 @@
         <v>0.161200001835823</v>
       </c>
       <c r="G762" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -23183,7 +23183,7 @@
         <v>0.177799999713898</v>
       </c>
       <c r="G763" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -23209,7 +23209,7 @@
         <v>0.169400006532669</v>
       </c>
       <c r="G764" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -23235,7 +23235,7 @@
         <v>0.167400002479553</v>
       </c>
       <c r="G765" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -23261,7 +23261,7 @@
         <v>0.168799996376038</v>
       </c>
       <c r="G766" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -23287,7 +23287,7 @@
         <v>0.169200003147125</v>
       </c>
       <c r="G767" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -23313,7 +23313,7 @@
         <v>0.167999997735023</v>
       </c>
       <c r="G768" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -23339,7 +23339,7 @@
         <v>0.168799996376038</v>
       </c>
       <c r="G769" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -23365,7 +23365,7 @@
         <v>0.168999999761581</v>
       </c>
       <c r="G770" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -23391,7 +23391,7 @@
         <v>0.168799996376038</v>
       </c>
       <c r="G771" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -23417,7 +23417,7 @@
         <v>0.172600001096725</v>
       </c>
       <c r="G772" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -23443,7 +23443,7 @@
         <v>0.169400006532669</v>
       </c>
       <c r="G773" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -23469,7 +23469,7 @@
         <v>0.171000003814697</v>
       </c>
       <c r="G774" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -23495,7 +23495,7 @@
         <v>0.171000003814697</v>
       </c>
       <c r="G775" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -23521,7 +23521,7 @@
         <v>0.170000001788139</v>
       </c>
       <c r="G776" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -23547,7 +23547,7 @@
         <v>0.169599995017052</v>
       </c>
       <c r="G777" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -23573,7 +23573,7 @@
         <v>0.166600003838539</v>
       </c>
       <c r="G778" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -23599,7 +23599,7 @@
         <v>0.160999998450279</v>
       </c>
       <c r="G779" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -23625,7 +23625,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G780" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -23651,7 +23651,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G781" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -23677,7 +23677,7 @@
         <v>0.157399997115135</v>
       </c>
       <c r="G782" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -23703,7 +23703,7 @@
         <v>0.159999996423721</v>
       </c>
       <c r="G783" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -23729,7 +23729,7 @@
         <v>0.158399999141693</v>
       </c>
       <c r="G784" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -23755,7 +23755,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G785" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -23781,7 +23781,7 @@
         <v>0.158199995756149</v>
       </c>
       <c r="G786" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -23807,7 +23807,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G787" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -23833,7 +23833,7 @@
         <v>0.155599996447563</v>
       </c>
       <c r="G788" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -23859,7 +23859,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G789" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -23885,7 +23885,7 @@
         <v>0.155200004577637</v>
       </c>
       <c r="G790" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -23911,7 +23911,7 @@
         <v>0.157199993729591</v>
       </c>
       <c r="G791" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -23937,7 +23937,7 @@
         <v>0.158000007271767</v>
       </c>
       <c r="G792" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -23963,7 +23963,7 @@
         <v>0.156399995088577</v>
       </c>
       <c r="G793" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -23989,7 +23989,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G794" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -24015,7 +24015,7 @@
         <v>0.163200005888939</v>
       </c>
       <c r="G795" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -24041,7 +24041,7 @@
         <v>0.17059999704361</v>
       </c>
       <c r="G796" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -24067,7 +24067,7 @@
         <v>0.17399999499321</v>
       </c>
       <c r="G797" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -24093,7 +24093,7 @@
         <v>0.172399997711182</v>
       </c>
       <c r="G798" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -24119,7 +24119,7 @@
         <v>0.174799993634224</v>
       </c>
       <c r="G799" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -24145,7 +24145,7 @@
         <v>0.17059999704361</v>
       </c>
       <c r="G800" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -24171,7 +24171,7 @@
         <v>0.169400006532669</v>
       </c>
       <c r="G801" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -24197,7 +24197,7 @@
         <v>0.175999999046326</v>
       </c>
       <c r="G802" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -24223,7 +24223,7 @@
         <v>0.17399999499321</v>
       </c>
       <c r="G803" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -24249,7 +24249,7 @@
         <v>0.172600001096725</v>
       </c>
       <c r="G804" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -24275,7 +24275,7 @@
         <v>0.171200007200241</v>
       </c>
       <c r="G805" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -24301,7 +24301,7 @@
         <v>0.171800002455711</v>
       </c>
       <c r="G806" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -24327,7 +24327,7 @@
         <v>0.168599992990494</v>
       </c>
       <c r="G807" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -24353,7 +24353,7 @@
         <v>0.169400006532669</v>
       </c>
       <c r="G808" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -24379,7 +24379,7 @@
         <v>0.168599992990494</v>
       </c>
       <c r="G809" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -24405,7 +24405,7 @@
         <v>0.164399996399879</v>
       </c>
       <c r="G810" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -24431,7 +24431,7 @@
         <v>0.162599995732307</v>
       </c>
       <c r="G811" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -24457,7 +24457,7 @@
         <v>0.163800001144409</v>
       </c>
       <c r="G812" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -24483,7 +24483,7 @@
         <v>0.166800007224083</v>
       </c>
       <c r="G813" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -24509,7 +24509,7 @@
         <v>0.166600003838539</v>
       </c>
       <c r="G814" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -24535,7 +24535,7 @@
         <v>0.167600005865097</v>
       </c>
       <c r="G815" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -24561,7 +24561,7 @@
         <v>0.168400004506111</v>
       </c>
       <c r="G816" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -24587,7 +24587,7 @@
         <v>0.169200003147125</v>
       </c>
       <c r="G817" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -24613,7 +24613,7 @@
         <v>0.168999999761581</v>
       </c>
       <c r="G818" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -24639,7 +24639,7 @@
         <v>0.168999999761581</v>
       </c>
       <c r="G819" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -24665,7 +24665,7 @@
         <v>0.168799996376038</v>
       </c>
       <c r="G820" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -24691,7 +24691,7 @@
         <v>0.166199997067451</v>
       </c>
       <c r="G821" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -24717,7 +24717,7 @@
         <v>0.163000002503395</v>
       </c>
       <c r="G822" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -24743,7 +24743,7 @@
         <v>0.162200003862381</v>
       </c>
       <c r="G823" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -24769,7 +24769,7 @@
         <v>0.164199993014336</v>
       </c>
       <c r="G824" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -24795,7 +24795,7 @@
         <v>0.165000006556511</v>
       </c>
       <c r="G825" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -24821,7 +24821,7 @@
         <v>0.165199995040894</v>
       </c>
       <c r="G826" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -24847,7 +24847,7 @@
         <v>0.163499996066093</v>
       </c>
       <c r="G827" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -24873,7 +24873,7 @@
         <v>0.166999995708466</v>
       </c>
       <c r="G828" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -24899,7 +24899,7 @@
         <v>0.166999995708466</v>
       </c>
       <c r="G829" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -24925,7 +24925,7 @@
         <v>0.165999993681908</v>
       </c>
       <c r="G830" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -24951,7 +24951,7 @@
         <v>0.168500006198883</v>
       </c>
       <c r="G831" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -24977,7 +24977,7 @@
         <v>0.16949999332428</v>
       </c>
       <c r="G832" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -25003,7 +25003,7 @@
         <v>0.168999999761581</v>
       </c>
       <c r="G833" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -25029,7 +25029,7 @@
         <v>0.167999997735023</v>
       </c>
       <c r="G834" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -25055,7 +25055,7 @@
         <v>0.166999995708466</v>
       </c>
       <c r="G835" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -25081,7 +25081,7 @@
         <v>0.165999993681908</v>
       </c>
       <c r="G836" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -25107,7 +25107,7 @@
         <v>0.171000003814697</v>
       </c>
       <c r="G837" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -25133,7 +25133,7 @@
         <v>0.171000003814697</v>
       </c>
       <c r="G838" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -25159,7 +25159,7 @@
         <v>0.16949999332428</v>
       </c>
       <c r="G839" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -25185,7 +25185,7 @@
         <v>0.167999997735023</v>
       </c>
       <c r="G840" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -25211,7 +25211,7 @@
         <v>0.171000003814697</v>
       </c>
       <c r="G841" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -25237,7 +25237,7 @@
         <v>0.168500006198883</v>
       </c>
       <c r="G842" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -25263,7 +25263,7 @@
         <v>0.172000005841255</v>
       </c>
       <c r="G843" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -25289,7 +25289,7 @@
         <v>0.170000001788139</v>
       </c>
       <c r="G844" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -25315,7 +25315,7 @@
         <v>0.167999997735023</v>
       </c>
       <c r="G845" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -25341,7 +25341,7 @@
         <v>0.167500004172325</v>
       </c>
       <c r="G846" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -25367,7 +25367,7 @@
         <v>0.16949999332428</v>
       </c>
       <c r="G847" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -25393,7 +25393,7 @@
         <v>0.16949999332428</v>
       </c>
       <c r="G848" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -25419,7 +25419,7 @@
         <v>0.168500006198883</v>
       </c>
       <c r="G849" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -25445,7 +25445,7 @@
         <v>0.167999997735023</v>
       </c>
       <c r="G850" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -25471,7 +25471,7 @@
         <v>0.167999997735023</v>
       </c>
       <c r="G851" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -25497,7 +25497,7 @@
         <v>0.164499998092651</v>
       </c>
       <c r="G852" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -25523,7 +25523,7 @@
         <v>0.167500004172325</v>
       </c>
       <c r="G853" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -25549,7 +25549,7 @@
         <v>0.163000002503395</v>
       </c>
       <c r="G854" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -25575,7 +25575,7 @@
         <v>0.161500006914139</v>
       </c>
       <c r="G855" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -25601,7 +25601,7 @@
         <v>0.158500000834465</v>
       </c>
       <c r="G856" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -25627,7 +25627,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G857" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -25653,7 +25653,7 @@
         <v>0.160999998450279</v>
       </c>
       <c r="G858" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -25679,7 +25679,7 @@
         <v>0.165000006556511</v>
       </c>
       <c r="G859" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -25705,7 +25705,7 @@
         <v>0.160500004887581</v>
       </c>
       <c r="G860" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -25731,7 +25731,7 @@
         <v>0.159999996423721</v>
       </c>
       <c r="G861" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -25757,7 +25757,7 @@
         <v>0.160500004887581</v>
       </c>
       <c r="G862" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -25783,7 +25783,7 @@
         <v>0.160500004887581</v>
       </c>
       <c r="G863" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -25809,7 +25809,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G864" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -25835,7 +25835,7 @@
         <v>0.159999996423721</v>
       </c>
       <c r="G865" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -25861,7 +25861,7 @@
         <v>0.157000005245209</v>
       </c>
       <c r="G866" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -25887,7 +25887,7 @@
         <v>0.158000007271767</v>
       </c>
       <c r="G867" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -25913,7 +25913,7 @@
         <v>0.157499998807907</v>
       </c>
       <c r="G868" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -25939,7 +25939,7 @@
         <v>0.155000001192093</v>
       </c>
       <c r="G869" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -25965,7 +25965,7 @@
         <v>0.159999996423721</v>
       </c>
       <c r="G870" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -25991,7 +25991,7 @@
         <v>0.158000007271767</v>
       </c>
       <c r="G871" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -26017,7 +26017,7 @@
         <v>0.152999997138977</v>
       </c>
       <c r="G872" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -26043,7 +26043,7 @@
         <v>0.154499992728233</v>
       </c>
       <c r="G873" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -26069,7 +26069,7 @@
         <v>0.148000001907349</v>
       </c>
       <c r="G874" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -26095,7 +26095,7 @@
         <v>0.149000003933907</v>
       </c>
       <c r="G875" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -26121,7 +26121,7 @@
         <v>0.148499995470047</v>
       </c>
       <c r="G876" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -26147,7 +26147,7 @@
         <v>0.144999995827675</v>
       </c>
       <c r="G877" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H877" t="s">
         <v>9</v>
@@ -26173,7 +26173,7 @@
         <v>0.149499997496605</v>
       </c>
       <c r="G878" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H878" t="s">
         <v>9</v>
@@ -26199,7 +26199,7 @@
         <v>0.146999999880791</v>
       </c>
       <c r="G879" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -26225,7 +26225,7 @@
         <v>0.148000001907349</v>
       </c>
       <c r="G880" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H880" t="s">
         <v>9</v>
@@ -26251,7 +26251,7 @@
         <v>0.150499999523163</v>
       </c>
       <c r="G881" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H881" t="s">
         <v>9</v>
@@ -26277,7 +26277,7 @@
         <v>0.150499999523163</v>
       </c>
       <c r="G882" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H882" t="s">
         <v>9</v>
@@ -26303,7 +26303,7 @@
         <v>0.151500001549721</v>
       </c>
       <c r="G883" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H883" t="s">
         <v>9</v>
@@ -26329,7 +26329,7 @@
         <v>0.152500003576279</v>
       </c>
       <c r="G884" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H884" t="s">
         <v>9</v>
@@ -26355,7 +26355,7 @@
         <v>0.153999999165535</v>
       </c>
       <c r="G885" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H885" t="s">
         <v>9</v>
@@ -26381,7 +26381,7 @@
         <v>0.152500003576279</v>
       </c>
       <c r="G886" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -26407,7 +26407,7 @@
         <v>0.153500005602837</v>
       </c>
       <c r="G887" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -26433,7 +26433,7 @@
         <v>0.153500005602837</v>
       </c>
       <c r="G888" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H888" t="s">
         <v>9</v>
@@ -26459,7 +26459,7 @@
         <v>0.153999999165535</v>
       </c>
       <c r="G889" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H889" t="s">
         <v>9</v>
@@ -26485,7 +26485,7 @@
         <v>0.152500003576279</v>
       </c>
       <c r="G890" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H890" t="s">
         <v>9</v>
@@ -26511,7 +26511,7 @@
         <v>0.156499996781349</v>
       </c>
       <c r="G891" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H891" t="s">
         <v>9</v>
@@ -26537,7 +26537,7 @@
         <v>0.158000007271767</v>
       </c>
       <c r="G892" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H892" t="s">
         <v>9</v>
@@ -26563,7 +26563,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G893" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H893" t="s">
         <v>9</v>
@@ -26589,7 +26589,7 @@
         <v>0.158500000834465</v>
       </c>
       <c r="G894" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -26615,7 +26615,7 @@
         <v>0.157499998807907</v>
       </c>
       <c r="G895" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -26641,7 +26641,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G896" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -26667,7 +26667,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G897" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -26693,7 +26693,7 @@
         <v>0.159999996423721</v>
       </c>
       <c r="G898" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -26719,7 +26719,7 @@
         <v>0.158500000834465</v>
       </c>
       <c r="G899" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -26745,7 +26745,7 @@
         <v>0.156499996781349</v>
       </c>
       <c r="G900" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -26771,7 +26771,7 @@
         <v>0.157000005245209</v>
       </c>
       <c r="G901" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -26797,7 +26797,7 @@
         <v>0.158000007271767</v>
       </c>
       <c r="G902" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -26823,7 +26823,7 @@
         <v>0.158000007271767</v>
       </c>
       <c r="G903" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -26849,7 +26849,7 @@
         <v>0.157499998807907</v>
       </c>
       <c r="G904" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -26875,7 +26875,7 @@
         <v>0.158500000834465</v>
       </c>
       <c r="G905" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H905" t="s">
         <v>9</v>
@@ -26901,7 +26901,7 @@
         <v>0.158000007271767</v>
       </c>
       <c r="G906" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -26927,7 +26927,7 @@
         <v>0.153999999165535</v>
       </c>
       <c r="G907" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -26953,7 +26953,7 @@
         <v>0.156499996781349</v>
       </c>
       <c r="G908" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -26979,7 +26979,7 @@
         <v>0.158000007271767</v>
       </c>
       <c r="G909" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -27005,7 +27005,7 @@
         <v>0.153999999165535</v>
       </c>
       <c r="G910" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -27031,7 +27031,7 @@
         <v>0.155000001192093</v>
       </c>
       <c r="G911" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -27057,7 +27057,7 @@
         <v>0.150000005960464</v>
       </c>
       <c r="G912" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -27083,7 +27083,7 @@
         <v>0.151999995112419</v>
       </c>
       <c r="G913" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -27109,7 +27109,7 @@
         <v>0.151999995112419</v>
       </c>
       <c r="G914" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -27135,7 +27135,7 @@
         <v>0.152999997138977</v>
       </c>
       <c r="G915" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -27161,7 +27161,7 @@
         <v>0.151999995112419</v>
       </c>
       <c r="G916" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -27187,7 +27187,7 @@
         <v>0.152500003576279</v>
       </c>
       <c r="G917" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -27213,7 +27213,7 @@
         <v>0.151500001549721</v>
       </c>
       <c r="G918" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -27239,7 +27239,7 @@
         <v>0.150499999523163</v>
       </c>
       <c r="G919" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -27265,7 +27265,7 @@
         <v>0.151999995112419</v>
       </c>
       <c r="G920" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -27291,7 +27291,7 @@
         <v>0.151500001549721</v>
       </c>
       <c r="G921" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -27317,7 +27317,7 @@
         <v>0.152999997138977</v>
       </c>
       <c r="G922" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -27343,7 +27343,7 @@
         <v>0.149499997496605</v>
       </c>
       <c r="G923" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -27369,7 +27369,7 @@
         <v>0.150499999523163</v>
       </c>
       <c r="G924" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -27395,7 +27395,7 @@
         <v>0.148499995470047</v>
       </c>
       <c r="G925" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -27421,7 +27421,7 @@
         <v>0.150499999523163</v>
       </c>
       <c r="G926" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -27447,7 +27447,7 @@
         <v>0.150999993085861</v>
       </c>
       <c r="G927" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -27473,7 +27473,7 @@
         <v>0.150999993085861</v>
       </c>
       <c r="G928" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -27499,7 +27499,7 @@
         <v>0.151500001549721</v>
       </c>
       <c r="G929" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -27525,7 +27525,7 @@
         <v>0.151999995112419</v>
       </c>
       <c r="G930" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -27551,7 +27551,7 @@
         <v>0.159999996423721</v>
       </c>
       <c r="G931" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -27577,7 +27577,7 @@
         <v>0.159500002861023</v>
       </c>
       <c r="G932" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -27603,7 +27603,7 @@
         <v>0.163000002503395</v>
       </c>
       <c r="G933" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -27629,7 +27629,7 @@
         <v>0.164000004529953</v>
       </c>
       <c r="G934" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -27655,7 +27655,7 @@
         <v>0.166999995708466</v>
       </c>
       <c r="G935" t="s">
-        <v>613</v>
+        <v>529</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -27785,7 +27785,7 @@
         <v>0.167999997735023</v>
       </c>
       <c r="G940" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -27863,7 +27863,7 @@
         <v>0.166999995708466</v>
       </c>
       <c r="G943" t="s">
-        <v>613</v>
+        <v>529</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -27889,7 +27889,7 @@
         <v>0.166999995708466</v>
       </c>
       <c r="G944" t="s">
-        <v>613</v>
+        <v>529</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -27967,7 +27967,7 @@
         <v>0.163000002503395</v>
       </c>
       <c r="G947" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -28045,7 +28045,7 @@
         <v>0.165000006556511</v>
       </c>
       <c r="G950" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -28071,7 +28071,7 @@
         <v>0.164499998092651</v>
       </c>
       <c r="G951" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -28097,7 +28097,7 @@
         <v>0.164499998092651</v>
       </c>
       <c r="G952" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -28175,7 +28175,7 @@
         <v>0.165000006556511</v>
       </c>
       <c r="G955" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -28227,7 +28227,7 @@
         <v>0.164499998092651</v>
       </c>
       <c r="G957" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -28305,7 +28305,7 @@
         <v>0.161500006914139</v>
       </c>
       <c r="G960" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -28331,7 +28331,7 @@
         <v>0.164000004529953</v>
       </c>
       <c r="G961" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -28357,7 +28357,7 @@
         <v>0.167500004172325</v>
       </c>
       <c r="G962" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -28435,7 +28435,7 @@
         <v>0.165000006556511</v>
       </c>
       <c r="G965" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -28461,7 +28461,7 @@
         <v>0.165000006556511</v>
       </c>
       <c r="G966" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -28539,7 +28539,7 @@
         <v>0.164000004529953</v>
       </c>
       <c r="G969" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -28591,7 +28591,7 @@
         <v>0.160500004887581</v>
       </c>
       <c r="G971" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -28617,7 +28617,7 @@
         <v>0.158500000834465</v>
       </c>
       <c r="G972" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -28643,7 +28643,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G973" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -28669,7 +28669,7 @@
         <v>0.159500002861023</v>
       </c>
       <c r="G974" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -28695,7 +28695,7 @@
         <v>0.159500002861023</v>
       </c>
       <c r="G975" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -28721,7 +28721,7 @@
         <v>0.158999994397163</v>
       </c>
       <c r="G976" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -28799,7 +28799,7 @@
         <v>0.165000006556511</v>
       </c>
       <c r="G979" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -28825,7 +28825,7 @@
         <v>0.166999995708466</v>
       </c>
       <c r="G980" t="s">
-        <v>613</v>
+        <v>529</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -28955,7 +28955,7 @@
         <v>0.167999997735023</v>
       </c>
       <c r="G985" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H985" t="s">
         <v>9</v>
@@ -28981,7 +28981,7 @@
         <v>0.168500006198883</v>
       </c>
       <c r="G986" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -29007,7 +29007,7 @@
         <v>0.16949999332428</v>
       </c>
       <c r="G987" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H987" t="s">
         <v>9</v>
@@ -30983,7 +30983,7 @@
         <v>0.149000003933907</v>
       </c>
       <c r="G1063" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -31035,7 +31035,7 @@
         <v>0.148499995470047</v>
       </c>
       <c r="G1065" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -31295,7 +31295,7 @@
         <v>0.146999999880791</v>
       </c>
       <c r="G1075" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -31321,7 +31321,7 @@
         <v>0.153999999165535</v>
       </c>
       <c r="G1076" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -31347,7 +31347,7 @@
         <v>0.146999999880791</v>
       </c>
       <c r="G1077" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -31373,7 +31373,7 @@
         <v>0.146999999880791</v>
       </c>
       <c r="G1078" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -31555,7 +31555,7 @@
         <v>0.146999999880791</v>
       </c>
       <c r="G1085" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -32023,7 +32023,7 @@
         <v>0.155000001192093</v>
       </c>
       <c r="G1103" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -32049,7 +32049,7 @@
         <v>0.152999997138977</v>
       </c>
       <c r="G1104" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -32127,7 +32127,7 @@
         <v>0.149000003933907</v>
       </c>
       <c r="G1107" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -32153,7 +32153,7 @@
         <v>0.146999999880791</v>
       </c>
       <c r="G1108" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -32179,7 +32179,7 @@
         <v>0.146999999880791</v>
       </c>
       <c r="G1109" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -32205,7 +32205,7 @@
         <v>0.149000003933907</v>
       </c>
       <c r="G1110" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -32465,7 +32465,7 @@
         <v>0.153999999165535</v>
       </c>
       <c r="G1120" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -32517,7 +32517,7 @@
         <v>0.158000007271767</v>
       </c>
       <c r="G1122" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -59513,7 +59513,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6494444444</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>215909</v>
@@ -59522,7 +59522,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="D2161" t="n">
-        <v>0.207000002264977</v>
+        <v>0.206000000238419</v>
       </c>
       <c r="E2161" t="n">
         <v>0.208000004291534</v>
@@ -59534,6 +59534,32 @@
         <v>999</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6493634259</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>705188</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>0.208000004291534</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>0.206000000238419</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>0.207000002264977</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>0.206000000238419</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>999</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174470037221909</t>
+    <t xml:space="preserve">0.174470067024231</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174941971898079</t>
+    <t xml:space="preserve">0.174941942095757</t>
   </si>
   <si>
     <t xml:space="preserve">0.171099305152893</t>
@@ -59,34 +59,34 @@
     <t xml:space="preserve">0.163481399416924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165908336639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167324066162109</t>
+    <t xml:space="preserve">0.165908351540565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167324036359787</t>
   </si>
   <si>
     <t xml:space="preserve">0.16267241537571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157144397497177</t>
+    <t xml:space="preserve">0.157144382596016</t>
   </si>
   <si>
     <t xml:space="preserve">0.146627634763718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148515269160271</t>
+    <t xml:space="preserve">0.148515254259109</t>
   </si>
   <si>
     <t xml:space="preserve">0.138335600495338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144740015268326</t>
+    <t xml:space="preserve">0.144740030169487</t>
   </si>
   <si>
     <t xml:space="preserve">0.148313030600548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148380428552628</t>
+    <t xml:space="preserve">0.148380443453789</t>
   </si>
   <si>
     <t xml:space="preserve">0.158223032951355</t>
@@ -98,16 +98,16 @@
     <t xml:space="preserve">0.152088284492493</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155054524540901</t>
+    <t xml:space="preserve">0.15505450963974</t>
   </si>
   <si>
     <t xml:space="preserve">0.154380366206169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15033546090126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145481571555138</t>
+    <t xml:space="preserve">0.150335490703583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145481586456299</t>
   </si>
   <si>
     <t xml:space="preserve">0.14258274435997</t>
@@ -119,34 +119,34 @@
     <t xml:space="preserve">0.13132444024086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135504171252251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128223344683647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13078510761261</t>
+    <t xml:space="preserve">0.135504186153412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128223359584808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130785137414932</t>
   </si>
   <si>
     <t xml:space="preserve">0.138874933123589</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138200774788857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143459141254425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140223234891891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137998536229134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144605189561844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142515361309052</t>
+    <t xml:space="preserve">0.138200759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143459126353264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14022321999073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137998521327972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144605219364166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14251534640789</t>
   </si>
   <si>
     <t xml:space="preserve">0.14197601377964</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">0.14372880756855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144065886735916</t>
+    <t xml:space="preserve">0.144065871834755</t>
   </si>
   <si>
     <t xml:space="preserve">0.142987236380577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147706300020218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153166905045509</t>
+    <t xml:space="preserve">0.147706285119057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153166919946671</t>
   </si>
   <si>
     <t xml:space="preserve">0.154178112745285</t>
@@ -173,16 +173,16 @@
     <t xml:space="preserve">0.150942206382751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150672540068626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154717430472374</t>
+    <t xml:space="preserve">0.150672554969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154717445373535</t>
   </si>
   <si>
     <t xml:space="preserve">0.156470239162445</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162402763962746</t>
+    <t xml:space="preserve">0.162402749061584</t>
   </si>
   <si>
     <t xml:space="preserve">0.16449262201786</t>
@@ -194,13 +194,13 @@
     <t xml:space="preserve">0.16085222363472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158088222146034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159099414944649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15552644431591</t>
+    <t xml:space="preserve">0.158088192343712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15909942984581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155526414513588</t>
   </si>
   <si>
     <t xml:space="preserve">0.154312953352928</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">0.148987174034119</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15020065009594</t>
+    <t xml:space="preserve">0.150200635194778</t>
   </si>
   <si>
     <t xml:space="preserve">0.150065809488297</t>
@@ -224,10 +224,10 @@
     <t xml:space="preserve">0.1442681401968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142245680093765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138268202543259</t>
+    <t xml:space="preserve">0.142245665192604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138268187642097</t>
   </si>
   <si>
     <t xml:space="preserve">0.1478411257267</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">0.151751190423965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157279223203659</t>
+    <t xml:space="preserve">0.157279208302498</t>
   </si>
   <si>
     <t xml:space="preserve">0.156874731183052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155998319387436</t>
+    <t xml:space="preserve">0.155998334288597</t>
   </si>
   <si>
     <t xml:space="preserve">0.156942144036293</t>
@@ -254,40 +254,40 @@
     <t xml:space="preserve">0.157009556889534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152560159564018</t>
+    <t xml:space="preserve">0.152560174465179</t>
   </si>
   <si>
     <t xml:space="preserve">0.155122458934784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1544299274683</t>
+    <t xml:space="preserve">0.154429942369461</t>
   </si>
   <si>
     <t xml:space="preserve">0.150274872779846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150828897953033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147781848907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147712573409081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146812334656715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142657265067101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142103254795074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138155937194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13981793820858</t>
+    <t xml:space="preserve">0.150828883051872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14778183400631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147712603211403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146812349557877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142657250165939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142103239893913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138155922293663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139817953109741</t>
   </si>
   <si>
     <t xml:space="preserve">0.13988721370697</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">0.141272246837616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139748707413673</t>
+    <t xml:space="preserve">0.139748737215996</t>
   </si>
   <si>
     <t xml:space="preserve">0.141202971339226</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">0.144042283296585</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145427271723747</t>
+    <t xml:space="preserve">0.145427286624908</t>
   </si>
   <si>
     <t xml:space="preserve">0.144734784960747</t>
@@ -317,40 +317,40 @@
     <t xml:space="preserve">0.145219549536705</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147989600896835</t>
+    <t xml:space="preserve">0.147989585995674</t>
   </si>
   <si>
     <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147574082016945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1488898396492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14812807738781</t>
+    <t xml:space="preserve">0.147574096918106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148889854550362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148128107190132</t>
   </si>
   <si>
     <t xml:space="preserve">0.144180774688721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146673813462257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141826257109642</t>
+    <t xml:space="preserve">0.146673828363419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14182622730732</t>
   </si>
   <si>
     <t xml:space="preserve">0.133654624223709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.132685095071793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134485617280006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121881932020187</t>
+    <t xml:space="preserve">0.132685109972954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134485632181168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121881909668446</t>
   </si>
   <si>
     <t xml:space="preserve">0.123890198767185</t>
@@ -359,40 +359,40 @@
     <t xml:space="preserve">0.126244753599167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123405463993549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125898495316505</t>
+    <t xml:space="preserve">0.123405449092388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125898510217667</t>
   </si>
   <si>
     <t xml:space="preserve">0.116341844201088</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115787841379642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12257444858551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111888110638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122920669615269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228175401688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118419364094734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11350255459547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110940270125866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118904136121273</t>
+    <t xml:space="preserve">0.115787819027901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122574433684349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111880660057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122920714318752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228182852268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419386446476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113502562046051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110940255224705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118904121220112</t>
   </si>
   <si>
     <t xml:space="preserve">0.122297435998917</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">0.124651975929737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126175493001938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130953818559647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128668531775475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12846077978611</t>
+    <t xml:space="preserve">0.126175507903099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130953833460808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128668546676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128460764884949</t>
   </si>
   <si>
     <t xml:space="preserve">0.127768263220787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127422004938126</t>
+    <t xml:space="preserve">0.127422019839287</t>
   </si>
   <si>
     <t xml:space="preserve">0.126729503273964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.128253042697906</t>
+    <t xml:space="preserve">0.128253027796745</t>
   </si>
   <si>
     <t xml:space="preserve">0.130884572863579</t>
@@ -434,55 +434,55 @@
     <t xml:space="preserve">0.131161585450172</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127976015210152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120496913790703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118211604654789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172837257385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114956803619862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116618849337101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118627116084099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119804389774799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765637278557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912417769432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718580782413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319640100002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119250379502773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118834868073463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121258676052094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122505187988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197697103024</t>
+    <t xml:space="preserve">0.127976030111313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120496906340122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118211627006531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172844707966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114956818521023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116618856787682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118627123534679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11980439722538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765629827976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912432670593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718573331833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319625198841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119250364601612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118834882974625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121258668601513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122505202889442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197682201862</t>
   </si>
   <si>
     <t xml:space="preserve">0.125552237033844</t>
@@ -491,31 +491,31 @@
     <t xml:space="preserve">0.125690743327141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121743433177471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674165129662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120150655508041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121120154857635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488617241383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665898382664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372344851494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926347672939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726854979992</t>
+    <t xml:space="preserve">0.12174341827631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674180030823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120150648057461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121120162308216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488624691963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665890932083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372329950333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926317870617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726877331734</t>
   </si>
   <si>
     <t xml:space="preserve">0.116826601326466</t>
@@ -524,91 +524,91 @@
     <t xml:space="preserve">0.117103606462479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121189422905445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233823657036</t>
+    <t xml:space="preserve">0.121189430356026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233838558197</t>
   </si>
   <si>
     <t xml:space="preserve">0.11897337436676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118350125849247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128114521503448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126660257577896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12409795820713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125205963850021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123959474265575</t>
+    <t xml:space="preserve">0.118350118398666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128114506602287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126660272479057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124097965657711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125205993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123959459364414</t>
   </si>
   <si>
     <t xml:space="preserve">0.117034360766411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117796130478382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117934614419937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116480343043804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11509532481432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433293998241</t>
+    <t xml:space="preserve">0.117796115577221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117934606969357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116480350494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115095317363739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433286547661</t>
   </si>
   <si>
     <t xml:space="preserve">0.11149425804615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115441590547562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113571800291538</t>
+    <t xml:space="preserve">0.115441583096981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113571785390377</t>
   </si>
   <si>
     <t xml:space="preserve">0.11467981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111771263182163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111009508371353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111563511192799</t>
+    <t xml:space="preserve">0.111771278083324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111009515821934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111563518643379</t>
   </si>
   <si>
     <t xml:space="preserve">0.112186789512634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117588363587856</t>
+    <t xml:space="preserve">0.117588371038437</t>
   </si>
   <si>
     <t xml:space="preserve">0.121327936649323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122020438313484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122435949742794</t>
+    <t xml:space="preserve">0.122020430862904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122435934841633</t>
   </si>
   <si>
     <t xml:space="preserve">0.119942881166935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124305725097656</t>
+    <t xml:space="preserve">0.124305710196495</t>
   </si>
   <si>
     <t xml:space="preserve">0.122851438820362</t>
@@ -620,16 +620,16 @@
     <t xml:space="preserve">0.119596645236015</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119527399539948</t>
+    <t xml:space="preserve">0.119527377188206</t>
   </si>
   <si>
     <t xml:space="preserve">0.120358407497406</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121812671422958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141895517706871</t>
+    <t xml:space="preserve">0.121812678873539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141895487904549</t>
   </si>
   <si>
     <t xml:space="preserve">0.169665187597275</t>
@@ -638,16 +638,16 @@
     <t xml:space="preserve">0.15997003018856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157199993729591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146119818091393</t>
+    <t xml:space="preserve">0.15719997882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14611978828907</t>
   </si>
   <si>
     <t xml:space="preserve">0.146466076374054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1481973528862</t>
+    <t xml:space="preserve">0.148197337985039</t>
   </si>
   <si>
     <t xml:space="preserve">0.144942536950111</t>
@@ -656,40 +656,40 @@
     <t xml:space="preserve">0.148682087659836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149928599596024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154360696673393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157477006316185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159900799393654</t>
+    <t xml:space="preserve">0.149928614497185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154360711574554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157476991415024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159900814294815</t>
   </si>
   <si>
     <t xml:space="preserve">0.15803100168705</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15650749206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14736633002758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143349766731262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143696025013924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145358040928841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143626764416695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144319280982018</t>
+    <t xml:space="preserve">0.156507477164268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147366315126419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143349751830101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143696010112762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145358055830002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143626779317856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14431931078434</t>
   </si>
   <si>
     <t xml:space="preserve">0.137809678912163</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">0.140510469675064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140441223978996</t>
+    <t xml:space="preserve">0.140441238880157</t>
   </si>
   <si>
     <t xml:space="preserve">0.139540955424309</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">0.138502210378647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139679446816444</t>
+    <t xml:space="preserve">0.139679476618767</t>
   </si>
   <si>
     <t xml:space="preserve">0.13711716234684</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">0.139056190848351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144111543893814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144250005483627</t>
+    <t xml:space="preserve">0.144111528992653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14425003528595</t>
   </si>
   <si>
     <t xml:space="preserve">0.145912051200867</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">0.142588019371033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145981296896935</t>
+    <t xml:space="preserve">0.145981326699257</t>
   </si>
   <si>
     <t xml:space="preserve">0.149028360843658</t>
@@ -743,34 +743,34 @@
     <t xml:space="preserve">0.147851094603539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148058861494064</t>
+    <t xml:space="preserve">0.148058846592903</t>
   </si>
   <si>
     <t xml:space="preserve">0.150413364171982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148959100246429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152075409889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152352407574654</t>
+    <t xml:space="preserve">0.148959115147591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152075424790382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152352422475815</t>
   </si>
   <si>
     <t xml:space="preserve">0.155399456620216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160870313644409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159139022231102</t>
+    <t xml:space="preserve">0.160870298743248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159139007329941</t>
   </si>
   <si>
     <t xml:space="preserve">0.158931255340576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155814945697784</t>
+    <t xml:space="preserve">0.155814975500107</t>
   </si>
   <si>
     <t xml:space="preserve">0.151936903595924</t>
@@ -782,34 +782,34 @@
     <t xml:space="preserve">0.148612856864929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147920325398445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147297099232674</t>
+    <t xml:space="preserve">0.147920340299606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147297084331512</t>
   </si>
   <si>
     <t xml:space="preserve">0.143142014741898</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141687765717506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146258339285851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149720877408981</t>
+    <t xml:space="preserve">0.141687735915184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146258309483528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14972086250782</t>
   </si>
   <si>
     <t xml:space="preserve">0.152213901281357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152006179094315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146189078688622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145773559808731</t>
+    <t xml:space="preserve">0.152006164193153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146189048886299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145773574709892</t>
   </si>
   <si>
     <t xml:space="preserve">0.148474335670471</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">0.146802619099617</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145411118865013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144297912716866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147011369466782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14854197204113</t>
+    <t xml:space="preserve">0.145411133766174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144297927618027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14701135456562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148541986942291</t>
   </si>
   <si>
     <t xml:space="preserve">0.148959442973137</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">0.146106854081154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144506648182869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144019618630409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143463045358658</t>
+    <t xml:space="preserve">0.14450666308403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14401963353157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143463030457497</t>
   </si>
   <si>
     <t xml:space="preserve">0.140749618411064</t>
@@ -860,49 +860,49 @@
     <t xml:space="preserve">0.143045589327812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14019301533699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141236647963524</t>
+    <t xml:space="preserve">0.140193030238152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141236633062363</t>
   </si>
   <si>
     <t xml:space="preserve">0.14151494204998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142071545124054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13949728012085</t>
+    <t xml:space="preserve">0.142071530222893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139497265219688</t>
   </si>
   <si>
     <t xml:space="preserve">0.139010265469551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140332162380219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139149397611618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757927179337</t>
+    <t xml:space="preserve">0.14033217728138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139149412512779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757897377014</t>
   </si>
   <si>
     <t xml:space="preserve">0.137618750333786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137062162160873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13817535340786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138244941830635</t>
+    <t xml:space="preserve">0.137062147259712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138175338506699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138244926929474</t>
   </si>
   <si>
     <t xml:space="preserve">0.142419427633286</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140610456466675</t>
+    <t xml:space="preserve">0.140610471367836</t>
   </si>
   <si>
     <t xml:space="preserve">0.141793236136436</t>
@@ -914,31 +914,31 @@
     <t xml:space="preserve">0.141167059540749</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140680029988289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140123441815376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141584515571594</t>
+    <t xml:space="preserve">0.14068004488945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140123456716537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141584500670433</t>
   </si>
   <si>
     <t xml:space="preserve">0.140053868293762</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139636412262917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139427676796913</t>
+    <t xml:space="preserve">0.139636427164078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139427706599236</t>
   </si>
   <si>
     <t xml:space="preserve">0.147289663553238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149655178189278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14986389875412</t>
+    <t xml:space="preserve">0.149655193090439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149863883852959</t>
   </si>
   <si>
     <t xml:space="preserve">0.150629207491875</t>
@@ -947,13 +947,13 @@
     <t xml:space="preserve">0.149724751710892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147985383868217</t>
+    <t xml:space="preserve">0.147985368967056</t>
   </si>
   <si>
     <t xml:space="preserve">0.146246016025543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147428795695305</t>
+    <t xml:space="preserve">0.147428780794144</t>
   </si>
   <si>
     <t xml:space="preserve">0.149237737059593</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">0.151742413640022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15202072262764</t>
+    <t xml:space="preserve">0.152020707726479</t>
   </si>
   <si>
     <t xml:space="preserve">0.152577325701714</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">0.150490075349808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151324972510338</t>
+    <t xml:space="preserve">0.151324957609177</t>
   </si>
   <si>
     <t xml:space="preserve">0.150977090001106</t>
@@ -1001,13 +1001,13 @@
     <t xml:space="preserve">0.151672855019569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166840121150017</t>
+    <t xml:space="preserve">0.166840136051178</t>
   </si>
   <si>
     <t xml:space="preserve">0.169762268662453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168649077415466</t>
+    <t xml:space="preserve">0.168649062514305</t>
   </si>
   <si>
     <t xml:space="preserve">0.166979283094406</t>
@@ -1016,13 +1016,13 @@
     <t xml:space="preserve">0.160369679331779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162317767739296</t>
+    <t xml:space="preserve">0.162317782640457</t>
   </si>
   <si>
     <t xml:space="preserve">0.173797592520714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175954416394234</t>
+    <t xml:space="preserve">0.175954446196556</t>
   </si>
   <si>
     <t xml:space="preserve">0.172893151640892</t>
@@ -1034,7 +1034,7 @@
     <t xml:space="preserve">0.168718665838242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168509930372238</t>
+    <t xml:space="preserve">0.168509915471077</t>
   </si>
   <si>
     <t xml:space="preserve">0.167675033211708</t>
@@ -1058,46 +1058,46 @@
     <t xml:space="preserve">0.170458018779755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173241004347801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175676107406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185068711638451</t>
+    <t xml:space="preserve">0.17324098944664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175676122307777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185068726539612</t>
   </si>
   <si>
     <t xml:space="preserve">0.187712550163269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184581682085991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189938962459564</t>
+    <t xml:space="preserve">0.184581711888313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189938932657242</t>
   </si>
   <si>
     <t xml:space="preserve">0.198635771870613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.197383418679237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193417698144913</t>
+    <t xml:space="preserve">0.197383433580399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19341766834259</t>
   </si>
   <si>
     <t xml:space="preserve">0.192443624138832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187851682305336</t>
+    <t xml:space="preserve">0.187851697206497</t>
   </si>
   <si>
     <t xml:space="preserve">0.194809168577194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191678315401077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188060402870178</t>
+    <t xml:space="preserve">0.191678300499916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188060432672501</t>
   </si>
   <si>
     <t xml:space="preserve">0.183468490839005</t>
@@ -1106,10 +1106,10 @@
     <t xml:space="preserve">0.185694888234138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186112314462662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183816358447075</t>
+    <t xml:space="preserve">0.186112329363823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183816388249397</t>
   </si>
   <si>
     <t xml:space="preserve">0.183677211403847</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">0.178528696298599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176719725131989</t>
+    <t xml:space="preserve">0.17671974003315</t>
   </si>
   <si>
     <t xml:space="preserve">0.172962710261345</t>
@@ -1127,19 +1127,19 @@
     <t xml:space="preserve">0.177972093224525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179363593459129</t>
+    <t xml:space="preserve">0.179363608360291</t>
   </si>
   <si>
     <t xml:space="preserve">0.180755063891411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180894210934639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177763357758522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17442375421524</t>
+    <t xml:space="preserve">0.1808942258358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177763342857361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174423769116402</t>
   </si>
   <si>
     <t xml:space="preserve">0.174145475029945</t>
@@ -1148,40 +1148,40 @@
     <t xml:space="preserve">0.185416579246521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185138270258904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18242484331131</t>
+    <t xml:space="preserve">0.185138255357742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182424858212471</t>
   </si>
   <si>
     <t xml:space="preserve">0.18005932867527</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180824667215347</t>
+    <t xml:space="preserve">0.180824652314186</t>
   </si>
   <si>
     <t xml:space="preserve">0.176023975014687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163013532757759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162804797291756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165587782859802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166074797511101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166144400835037</t>
+    <t xml:space="preserve">0.163013517856598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162804812192917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165587797760963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166074812412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166144415736198</t>
   </si>
   <si>
     <t xml:space="preserve">0.166770547628403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167396739125252</t>
+    <t xml:space="preserve">0.167396724224091</t>
   </si>
   <si>
     <t xml:space="preserve">0.165935665369034</t>
@@ -1190,25 +1190,25 @@
     <t xml:space="preserve">0.163918003439903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166492253541946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167535871267319</t>
+    <t xml:space="preserve">0.166492268443108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167535856366158</t>
   </si>
   <si>
     <t xml:space="preserve">0.165448635816574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167327150702477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165170341730118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167466312646866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16670098900795</t>
+    <t xml:space="preserve">0.167327165603638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165170326828957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167466297745705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166701003909111</t>
   </si>
   <si>
     <t xml:space="preserve">0.164405032992363</t>
@@ -1217,34 +1217,34 @@
     <t xml:space="preserve">0.163500547409058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166422694921494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166283518075943</t>
+    <t xml:space="preserve">0.166422680020332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166283532977104</t>
   </si>
   <si>
     <t xml:space="preserve">0.166909694671631</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165518194437027</t>
+    <t xml:space="preserve">0.165518224239349</t>
   </si>
   <si>
     <t xml:space="preserve">0.168022900819778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16837078332901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164892047643661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173588901758194</t>
+    <t xml:space="preserve">0.168370768427849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1648920327425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173588886857033</t>
   </si>
   <si>
     <t xml:space="preserve">0.172545254230499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181589961051941</t>
+    <t xml:space="preserve">0.181589975953102</t>
   </si>
   <si>
     <t xml:space="preserve">0.180198475718498</t>
@@ -1253,13 +1253,13 @@
     <t xml:space="preserve">0.179502710700035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178807005286217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18054635822773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182981461286545</t>
+    <t xml:space="preserve">0.178806990385056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180546343326569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182981446385384</t>
   </si>
   <si>
     <t xml:space="preserve">0.182633578777313</t>
@@ -1268,16 +1268,16 @@
     <t xml:space="preserve">0.183329358696938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17741547524929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179154843091965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164544150233269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162456944584846</t>
+    <t xml:space="preserve">0.177415490150452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179154857993126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16454416513443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162456929683685</t>
   </si>
   <si>
     <t xml:space="preserve">0.161761179566383</t>
@@ -1295,13 +1295,13 @@
     <t xml:space="preserve">0.154803708195686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154107958078384</t>
+    <t xml:space="preserve">0.154107972979546</t>
   </si>
   <si>
     <t xml:space="preserve">0.152368605136871</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154455840587616</t>
+    <t xml:space="preserve">0.154455855488777</t>
   </si>
   <si>
     <t xml:space="preserve">0.149933487176895</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">0.156543076038361</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155151560902596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15584734082222</t>
+    <t xml:space="preserve">0.155151575803757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155847325921059</t>
   </si>
   <si>
     <t xml:space="preserve">0.153064340353012</t>
@@ -1328,46 +1328,46 @@
     <t xml:space="preserve">0.149585604667664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148889854550362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148194119334221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147846251726151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146454751491547</t>
+    <t xml:space="preserve">0.148194134235382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147846236824989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146454736590385</t>
   </si>
   <si>
     <t xml:space="preserve">0.157934576272964</t>
   </si>
   <si>
+    <t xml:space="preserve">0.160021796822548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158282443881035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157238826155663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16179983317852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16322223842144</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.160021811723709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158282458782196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157238841056824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161799848079681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16322223842144</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.16144423186779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16073302924633</t>
+    <t xml:space="preserve">0.160733014345169</t>
   </si>
   <si>
     <t xml:space="preserve">0.155043363571167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157532572746277</t>
+    <t xml:space="preserve">0.157532587647438</t>
   </si>
   <si>
     <t xml:space="preserve">0.156110182404518</t>
@@ -1376,16 +1376,16 @@
     <t xml:space="preserve">0.153620943427086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155398964881897</t>
+    <t xml:space="preserve">0.155398949980736</t>
   </si>
   <si>
     <t xml:space="preserve">0.153976529836655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149709299206734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147575661540031</t>
+    <t xml:space="preserve">0.149709284305573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147575676441193</t>
   </si>
   <si>
     <t xml:space="preserve">0.146508857607841</t>
@@ -1394,85 +1394,85 @@
     <t xml:space="preserve">0.145797654986382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143308416008949</t>
+    <t xml:space="preserve">0.14330843091011</t>
   </si>
   <si>
     <t xml:space="preserve">0.138827800750732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137974351644516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139965742826462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142597213387489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220060229301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145442053675652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138970032334328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140107989311218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138401076197624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141957134008408</t>
+    <t xml:space="preserve">0.137974366545677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139965727925301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142597198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220075130463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14544203877449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138970047235489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140107974410057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138401091098785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141957119107246</t>
   </si>
   <si>
     <t xml:space="preserve">0.140676945447922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141245916485786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141103699803352</t>
+    <t xml:space="preserve">0.141245901584625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141103684902191</t>
   </si>
   <si>
     <t xml:space="preserve">0.139112293720245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137263163924217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136551961302757</t>
+    <t xml:space="preserve">0.137263149023056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136551946401596</t>
   </si>
   <si>
     <t xml:space="preserve">0.140534713864326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140819206833839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139823526144028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13968126475811</t>
+    <t xml:space="preserve">0.140819177031517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139823511242867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139681249856949</t>
   </si>
   <si>
     <t xml:space="preserve">0.142099380493164</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141672655940056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142952814698219</t>
+    <t xml:space="preserve">0.141672641038895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14295282959938</t>
   </si>
   <si>
     <t xml:space="preserve">0.14366403222084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147931292653084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148642480373383</t>
+    <t xml:space="preserve">0.147931277751923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148642495274544</t>
   </si>
   <si>
     <t xml:space="preserve">0.152909725904465</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">0.149353668093681</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1443752348423</t>
+    <t xml:space="preserve">0.144375219941139</t>
   </si>
   <si>
     <t xml:space="preserve">0.141388162970543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142241612076759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138258844614029</t>
+    <t xml:space="preserve">0.142241626977921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13825885951519</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845048189163</t>
@@ -1508,37 +1508,37 @@
     <t xml:space="preserve">0.141530409455299</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139254525303841</t>
+    <t xml:space="preserve">0.139254540205002</t>
   </si>
   <si>
     <t xml:space="preserve">0.14039246737957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138685554265976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132995903491974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13498729467392</t>
+    <t xml:space="preserve">0.138685569167137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132995918393135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134987279772758</t>
   </si>
   <si>
     <t xml:space="preserve">0.135129526257515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129439875483513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125030368566513</t>
+    <t xml:space="preserve">0.129439860582352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125030353665352</t>
   </si>
   <si>
     <t xml:space="preserve">0.12517261505127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123465709388256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123750202357769</t>
+    <t xml:space="preserve">0.123465731739998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123750194907188</t>
   </si>
   <si>
     <t xml:space="preserve">0.126310542225838</t>
@@ -1547,25 +1547,25 @@
     <t xml:space="preserve">0.126595035195351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123892448842525</t>
+    <t xml:space="preserve">0.123892433941364</t>
   </si>
   <si>
     <t xml:space="preserve">0.122327789664268</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119482956826687</t>
+    <t xml:space="preserve">0.119482949376106</t>
   </si>
   <si>
     <t xml:space="preserve">0.117633804678917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116922587156296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112513095140457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926921367645</t>
+    <t xml:space="preserve">0.116922602057457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112513102591038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926913917065</t>
   </si>
   <si>
     <t xml:space="preserve">0.113793291151524</t>
@@ -1574,49 +1574,49 @@
     <t xml:space="preserve">0.115215711295605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114931218326092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116638109087944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119198478758335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119909681379795</t>
+    <t xml:space="preserve">0.114931225776672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116638116538525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119198471307755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119909673929214</t>
   </si>
   <si>
     <t xml:space="preserve">0.11934071034193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123038984835148</t>
+    <t xml:space="preserve">0.123038992285728</t>
   </si>
   <si>
     <t xml:space="preserve">0.124461404979229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120051927864552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121616572141647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905369520187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060529232025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111659660935402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114788986742496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113366581499577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116211391985416</t>
+    <t xml:space="preserve">0.120051920413971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121616579592228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905362069607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060544133186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111659668385983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114788994193077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113366566598415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116211377084255</t>
   </si>
   <si>
     <t xml:space="preserve">0.122754514217377</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">0.127590730786324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127875223755836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127306237816811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124745897948742</t>
+    <t xml:space="preserve">0.127875208854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127306252717972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124745883047581</t>
   </si>
   <si>
     <t xml:space="preserve">0.120763123035431</t>
@@ -1646,28 +1646,28 @@
     <t xml:space="preserve">0.114504493772984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117349326610565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646747708321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452788710594</t>
+    <t xml:space="preserve">0.117349319159985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11464674025774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452803611755</t>
   </si>
   <si>
     <t xml:space="preserve">0.12047865241766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120336405932903</t>
+    <t xml:space="preserve">0.120336383581161</t>
   </si>
   <si>
     <t xml:space="preserve">0.120194159448147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120620884001255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487261235714</t>
+    <t xml:space="preserve">0.120620876550674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487268686295</t>
   </si>
   <si>
     <t xml:space="preserve">0.113082073628902</t>
@@ -1679,37 +1679,37 @@
     <t xml:space="preserve">0.112655349075794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11066397279501</t>
+    <t xml:space="preserve">0.110663965344429</t>
   </si>
   <si>
     <t xml:space="preserve">0.110379494726658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111801899969578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370871007442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111232928931713</t>
+    <t xml:space="preserve">0.111801892518997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370878458023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111232943832874</t>
   </si>
   <si>
     <t xml:space="preserve">0.116069152951241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121332094073296</t>
+    <t xml:space="preserve">0.121332086622715</t>
   </si>
   <si>
     <t xml:space="preserve">0.12261226773262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124319173395634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121758818626404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122185543179512</t>
+    <t xml:space="preserve">0.124319158494473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121758826076984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122185550630093</t>
   </si>
   <si>
     <t xml:space="preserve">0.115642428398132</t>
@@ -1718,70 +1718,70 @@
     <t xml:space="preserve">0.116495877504349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118629522621632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1197674497962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118202775716782</t>
+    <t xml:space="preserve">0.11862950772047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119767434895039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118202783167362</t>
   </si>
   <si>
     <t xml:space="preserve">0.115357950329781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116780340671539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11749155819416</t>
+    <t xml:space="preserve">0.116780355572701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117491565644741</t>
   </si>
   <si>
     <t xml:space="preserve">0.116282507777214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118771754205227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119838573038578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120549760758877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121629357337952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12126736342907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122715324163437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121991366147995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119095407426357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118009440600872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116923473775387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114751495420933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115113496780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116561457514763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119457401335239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116199493408203</t>
+    <t xml:space="preserve">0.118771761655807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119838558137417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120549775660038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121629349887371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12126737087965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122715331614017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121991358697414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119095414876938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118009433150291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116923466324806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114751502871513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115113481879234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116561464965343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119457393884659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116199485957623</t>
   </si>
   <si>
     <t xml:space="preserve">0.115837477147579</t>
@@ -1790,58 +1790,58 @@
     <t xml:space="preserve">0.113665536046028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114389516413212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114027515053749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1122175604105</t>
+    <t xml:space="preserve">0.114389531314373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11402752250433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112217552959919</t>
   </si>
   <si>
     <t xml:space="preserve">0.110769592225552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111855559051037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107149675488472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107873663306236</t>
+    <t xml:space="preserve">0.111855573952198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107149668037891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107873670756817</t>
   </si>
   <si>
     <t xml:space="preserve">0.107511661946774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104977704584599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108235634863377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106425687670708</t>
+    <t xml:space="preserve">0.104977712035179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108235642313957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106425680220127</t>
   </si>
   <si>
     <t xml:space="preserve">0.108959630131721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109683617949486</t>
+    <t xml:space="preserve">0.109683625400066</t>
   </si>
   <si>
     <t xml:space="preserve">0.110407613217831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111493587493896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111131586134434</t>
+    <t xml:space="preserve">0.111493572592735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111131578683853</t>
   </si>
   <si>
     <t xml:space="preserve">0.113303542137146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108597636222839</t>
+    <t xml:space="preserve">0.108597651124001</t>
   </si>
   <si>
     <t xml:space="preserve">0.110045611858368</t>
@@ -1853,46 +1853,46 @@
     <t xml:space="preserve">0.115475498139858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118733413517475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905384421349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120181374251842</t>
+    <t xml:space="preserve">0.118733420968056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905376970768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120181389153004</t>
   </si>
   <si>
     <t xml:space="preserve">0.119819395244122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120543375611305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118371419608593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117285452783108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123801298439503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126335263252258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123439319431782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124525301158428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124887265264988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124163307249546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12307733297348</t>
+    <t xml:space="preserve">0.120543383061886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118371427059174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117285460233688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123801320791245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126335248351097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123439311981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124525308609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12488728761673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124163284897804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1230773255229</t>
   </si>
   <si>
     <t xml:space="preserve">0.144072875380516</t>
@@ -1907,13 +1907,13 @@
     <t xml:space="preserve">0.1556566208601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1773761510849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191855818033218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184615969657898</t>
+    <t xml:space="preserve">0.177376136183739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191855803132057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18461599946022</t>
   </si>
   <si>
     <t xml:space="preserve">0.171584278345108</t>
@@ -1934,13 +1934,13 @@
     <t xml:space="preserve">0.168688327074051</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164344429969788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160724520683289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16144847869873</t>
+    <t xml:space="preserve">0.164344415068626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160724505782127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161448508501053</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172481417656</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">0.165792390704155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165068402886391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15782855451107</t>
+    <t xml:space="preserve">0.165068417787552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157828569412231</t>
   </si>
   <si>
     <t xml:space="preserve">0.162896454334259</t>
@@ -1961,31 +1961,31 @@
     <t xml:space="preserve">0.163620442152023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179548099637032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178100124001503</t>
+    <t xml:space="preserve">0.17954808473587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178100138902664</t>
   </si>
   <si>
     <t xml:space="preserve">0.156380608677864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153484672307968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149140775203705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146968796849251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152036666870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170860275626183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172308251261711</t>
+    <t xml:space="preserve">0.153484642505646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149140760302544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14696878194809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152036681771278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170860290527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172308266162872</t>
   </si>
   <si>
     <t xml:space="preserve">0.169412329792976</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">0.149864748120308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151312708854675</t>
+    <t xml:space="preserve">0.151312723755836</t>
   </si>
   <si>
     <t xml:space="preserve">0.138642981648445</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">0.139728963375092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136833027005196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131041139364243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122353345155716</t>
+    <t xml:space="preserve">0.136833012104034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131041154265404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122353337705135</t>
   </si>
   <si>
     <t xml:space="preserve">0.106787674129009</t>
@@ -2021,58 +2021,58 @@
     <t xml:space="preserve">0.0912220254540443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0970138981938362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0962899103760719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0977378785610199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.100633822381496</t>
+    <t xml:space="preserve">0.0970138907432556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0962899178266525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0977378860116005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.100633807480335</t>
   </si>
   <si>
     <t xml:space="preserve">0.1013577952981</t>
   </si>
   <si>
-    <t xml:space="preserve">0.102443777024746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104253739118576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106063708662987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102805763483047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105701699852943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103529766201973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10657049715519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107004873454571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108018465340137</t>
+    <t xml:space="preserve">0.102443769574165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104253731667995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106063701212406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102805756032467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105701707303524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103529751300812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106570489704609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107004880905151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108018457889557</t>
   </si>
   <si>
     <t xml:space="preserve">0.107294462621212</t>
   </si>
   <si>
-    <t xml:space="preserve">0.102081775665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103819340467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103674538433552</t>
+    <t xml:space="preserve">0.102081783115864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103819333016872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103674560785294</t>
   </si>
   <si>
     <t xml:space="preserve">0.103964135050774</t>
@@ -2081,49 +2081,49 @@
     <t xml:space="preserve">0.104832924902439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.105412110686302</t>
+    <t xml:space="preserve">0.105412118136883</t>
   </si>
   <si>
     <t xml:space="preserve">0.108452841639519</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111203990876675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106860086321831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10671528428793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122208543121815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108163237571716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109466411173344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103384949266911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104688122868538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110480010509491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112796753644943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11033520847559</t>
+    <t xml:space="preserve">0.111203983426094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10686007142067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10671529173851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122208550572395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108163245022297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109466426074505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103384956717491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104688130319118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110479988157749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112796746194363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11033521592617</t>
   </si>
   <si>
     <t xml:space="preserve">0.113955117762089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115692690014839</t>
+    <t xml:space="preserve">0.115692682564259</t>
   </si>
   <si>
     <t xml:space="preserve">0.154932633042336</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">0.139004975557327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152760684490204</t>
+    <t xml:space="preserve">0.152760669589043</t>
   </si>
   <si>
     <t xml:space="preserve">0.157104581594467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151674702763557</t>
+    <t xml:space="preserve">0.151674687862396</t>
   </si>
   <si>
     <t xml:space="preserve">0.149502754211426</t>
@@ -2147,22 +2147,22 @@
     <t xml:space="preserve">0.150588735938072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148416772484779</t>
+    <t xml:space="preserve">0.148416787385941</t>
   </si>
   <si>
     <t xml:space="preserve">0.148054793477058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14465206861496</t>
+    <t xml:space="preserve">0.144652038812637</t>
   </si>
   <si>
     <t xml:space="preserve">0.141176924109459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148778781294823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144796848297119</t>
+    <t xml:space="preserve">0.148778766393661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14479686319828</t>
   </si>
   <si>
     <t xml:space="preserve">0.144362464547157</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">0.143928065896034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145158842206001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144507259130478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147330805659294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143493697047234</t>
+    <t xml:space="preserve">0.14515882730484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144507244229317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147330790758133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143493682146072</t>
   </si>
   <si>
     <t xml:space="preserve">0.140163347125053</t>
@@ -2195,40 +2195,40 @@
     <t xml:space="preserve">0.140887334942818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900911927223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147692784667015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145882815122604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144217669963837</t>
+    <t xml:space="preserve">0.141900926828384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147692799568176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145882830023766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144217684864998</t>
   </si>
   <si>
     <t xml:space="preserve">0.142624899744987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143059298396111</t>
+    <t xml:space="preserve">0.143059313297272</t>
   </si>
   <si>
     <t xml:space="preserve">0.154570639133453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14320407807827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143348902463913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143783256411552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142480120062828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138136178255081</t>
+    <t xml:space="preserve">0.143204092979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143348872661591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143783271312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142480090260506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138136193156242</t>
   </si>
   <si>
     <t xml:space="preserve">0.13755701482296</t>
@@ -2237,10 +2237,10 @@
     <t xml:space="preserve">0.158552557229996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158914566040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15384666621685</t>
+    <t xml:space="preserve">0.158914551138878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153846651315689</t>
   </si>
   <si>
     <t xml:space="preserve">0.15022674202919</t>
@@ -2255,13 +2255,13 @@
     <t xml:space="preserve">0.155294626951218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160000532865524</t>
+    <t xml:space="preserve">0.160000517964363</t>
   </si>
   <si>
     <t xml:space="preserve">0.157466575503349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156742587685585</t>
+    <t xml:space="preserve">0.156742602586746</t>
   </si>
   <si>
     <t xml:space="preserve">0.159276530146599</t>
@@ -2279,67 +2279,67 @@
     <t xml:space="preserve">0.167964354157448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169050350785255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171222269535065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171946257352829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177014142274857</t>
+    <t xml:space="preserve">0.169050320982933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171222284436226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171946242451668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177014157176018</t>
   </si>
   <si>
     <t xml:space="preserve">0.176290169358253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179910108447075</t>
+    <t xml:space="preserve">0.179910093545914</t>
   </si>
   <si>
     <t xml:space="preserve">0.184253990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180272087454796</t>
+    <t xml:space="preserve">0.180272072553635</t>
   </si>
   <si>
     <t xml:space="preserve">0.179186090826988</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177738130092621</t>
+    <t xml:space="preserve">0.177738144993782</t>
   </si>
   <si>
     <t xml:space="preserve">0.17556619644165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175928175449371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175204202532768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174842208623886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176652163267136</t>
+    <t xml:space="preserve">0.175928190350533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175204187631607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174842193722725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176652148365974</t>
   </si>
   <si>
     <t xml:space="preserve">0.174480214715004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182514518499374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180560410022736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17977873980999</t>
+    <t xml:space="preserve">0.182514503598213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180560380220413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179778754711151</t>
   </si>
   <si>
     <t xml:space="preserve">0.179387912154198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17782461643219</t>
+    <t xml:space="preserve">0.177824646234512</t>
   </si>
   <si>
     <t xml:space="preserve">0.175088867545128</t>
@@ -2357,10 +2357,10 @@
     <t xml:space="preserve">0.17547969520092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177042976021767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17587049305439</t>
+    <t xml:space="preserve">0.177042990922928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175870507955551</t>
   </si>
   <si>
     <t xml:space="preserve">0.173916384577751</t>
@@ -2375,16 +2375,16 @@
     <t xml:space="preserve">0.169226512312889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171962276101112</t>
+    <t xml:space="preserve">0.171962261199951</t>
   </si>
   <si>
     <t xml:space="preserve">0.167272388935089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168444857001305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170789808034897</t>
+    <t xml:space="preserve">0.168444871902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170789822936058</t>
   </si>
   <si>
     <t xml:space="preserve">0.171571463346481</t>
@@ -2393,19 +2393,19 @@
     <t xml:space="preserve">0.173134744167328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172743916511536</t>
+    <t xml:space="preserve">0.172743931412697</t>
   </si>
   <si>
     <t xml:space="preserve">0.16961732506752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170008167624474</t>
+    <t xml:space="preserve">0.170008152723312</t>
   </si>
   <si>
     <t xml:space="preserve">0.172353103756905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168054044246674</t>
+    <t xml:space="preserve">0.168054029345512</t>
   </si>
   <si>
     <t xml:space="preserve">0.170398980379105</t>
@@ -2417,31 +2417,31 @@
     <t xml:space="preserve">0.166881561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165709108114243</t>
+    <t xml:space="preserve">0.165709093213081</t>
   </si>
   <si>
     <t xml:space="preserve">0.166490748524666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16531828045845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166099935770035</t>
+    <t xml:space="preserve">0.165318295359612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166099920868874</t>
   </si>
   <si>
     <t xml:space="preserve">0.164536640048027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161410018801689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162582531571388</t>
+    <t xml:space="preserve">0.16141003370285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162582516670227</t>
   </si>
   <si>
     <t xml:space="preserve">0.157501801848412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158283442258835</t>
+    <t xml:space="preserve">0.158283472061157</t>
   </si>
   <si>
     <t xml:space="preserve">0.160628408193588</t>
@@ -2450,37 +2450,37 @@
     <t xml:space="preserve">0.163754984736443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164927452802658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168835684657097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160237565636635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162973344326019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164145812392235</t>
+    <t xml:space="preserve">0.164927437901497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168835699558258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160237580537796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162973329424858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164145797491074</t>
   </si>
   <si>
     <t xml:space="preserve">0.161800876259804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159455925226212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158674284815788</t>
+    <t xml:space="preserve">0.15945591032505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158674269914627</t>
   </si>
   <si>
     <t xml:space="preserve">0.159846752882004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159065112471581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16101923584938</t>
+    <t xml:space="preserve">0.159065097570419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161019206047058</t>
   </si>
   <si>
     <t xml:space="preserve">0.16336415708065</t>
@@ -2492,16 +2492,16 @@
     <t xml:space="preserve">0.186031922698021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184468626976013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184859439730644</t>
+    <t xml:space="preserve">0.184468612074852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184859454631805</t>
   </si>
   <si>
     <t xml:space="preserve">0.182123675942421</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180169552564621</t>
+    <t xml:space="preserve">0.180169567465782</t>
   </si>
   <si>
     <t xml:space="preserve">0.181429490447044</t>
@@ -2519,25 +2519,22 @@
     <t xml:space="preserve">0.178489670157433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178069695830345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176389783620834</t>
+    <t xml:space="preserve">0.178069680929184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176389768719673</t>
   </si>
   <si>
     <t xml:space="preserve">0.181009516119957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177229732275009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174709901213646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180169567465782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177649706602097</t>
+    <t xml:space="preserve">0.177229717373848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174709886312485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177649721503258</t>
   </si>
   <si>
     <t xml:space="preserve">0.179749578237534</t>
@@ -2579,16 +2576,16 @@
     <t xml:space="preserve">0.187729135155678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1734499335289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174289897084236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169670179486275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159254789352417</t>
+    <t xml:space="preserve">0.173449948430061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174289911985397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169670164585114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159254774451256</t>
   </si>
   <si>
     <t xml:space="preserve">0.163118556141853</t>
@@ -2600,7 +2597,7 @@
     <t xml:space="preserve">0.172190025448799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17386993765831</t>
+    <t xml:space="preserve">0.173869922757149</t>
   </si>
   <si>
     <t xml:space="preserve">0.181849464774132</t>
@@ -2624,7 +2621,7 @@
     <t xml:space="preserve">0.186049222946167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191928878426552</t>
+    <t xml:space="preserve">0.191928893327713</t>
   </si>
   <si>
     <t xml:space="preserve">0.187119722366333</t>
@@ -3024,6 +3021,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.219999998807907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222000002861023</t>
   </si>
 </sst>
 </file>
@@ -18203,7 +18203,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G571" t="s">
-        <v>438</v>
+        <v>104</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18229,7 +18229,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G572" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18255,7 +18255,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G573" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18281,7 +18281,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G574" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18307,7 +18307,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G575" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18333,7 +18333,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G576" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18567,7 +18567,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18593,7 +18593,7 @@
         <v>0.230000004172325</v>
       </c>
       <c r="G586" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18645,7 +18645,7 @@
         <v>0.227500006556511</v>
       </c>
       <c r="G588" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18749,7 +18749,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G592" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18775,7 +18775,7 @@
         <v>0.230000004172325</v>
       </c>
       <c r="G593" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18801,7 +18801,7 @@
         <v>0.227500006556511</v>
       </c>
       <c r="G594" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18827,7 +18827,7 @@
         <v>0.229499995708466</v>
       </c>
       <c r="G595" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18853,7 +18853,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G596" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -42643,7 +42643,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1511" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42669,7 +42669,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1512" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42695,7 +42695,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1513" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42773,7 +42773,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1516" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42799,7 +42799,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1517" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42825,7 +42825,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1518" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42851,7 +42851,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1519" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42903,7 +42903,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1521" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42929,7 +42929,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1522" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -43007,7 +43007,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1525" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43033,7 +43033,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1526" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43059,7 +43059,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1527" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43085,7 +43085,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1528" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43137,7 +43137,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1530" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43163,7 +43163,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1531" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43215,7 +43215,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1533" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43371,7 +43371,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1539" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43449,7 +43449,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1542" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43475,7 +43475,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1543" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43501,7 +43501,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1544" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43579,7 +43579,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1547" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43605,7 +43605,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1548" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43657,7 +43657,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1550" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43683,7 +43683,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1551" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43787,7 +43787,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1555" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43813,7 +43813,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1556" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43839,7 +43839,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1557" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43865,7 +43865,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1558" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43891,7 +43891,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1559" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43917,7 +43917,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1560" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43943,7 +43943,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1561" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43995,7 +43995,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1563" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44021,7 +44021,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1564" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44047,7 +44047,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1565" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44125,7 +44125,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1568" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44151,7 +44151,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1569" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44177,7 +44177,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1570" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44203,7 +44203,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1571" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44229,7 +44229,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1572" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44255,7 +44255,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44281,7 +44281,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1574" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44307,7 +44307,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1575" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44333,7 +44333,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1576" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44359,7 +44359,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1577" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44385,7 +44385,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1578" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44437,7 +44437,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1580" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44463,7 +44463,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1581" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44515,7 +44515,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1583" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44619,7 +44619,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1587" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44645,7 +44645,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1588" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44671,7 +44671,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1589" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44723,7 +44723,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1591" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44749,7 +44749,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1592" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44775,7 +44775,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1593" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44801,7 +44801,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1594" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44853,7 +44853,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1596" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44905,7 +44905,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1598" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44931,7 +44931,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1599" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44957,7 +44957,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1600" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44983,7 +44983,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1601" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -45009,7 +45009,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1602" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45035,7 +45035,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1603" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45061,7 +45061,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1604" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45087,7 +45087,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1605" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45113,7 +45113,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1606" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45139,7 +45139,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1607" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45165,7 +45165,7 @@
         <v>0.221499994397163</v>
       </c>
       <c r="G1608" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45191,7 +45191,7 @@
         <v>0.228499993681908</v>
       </c>
       <c r="G1609" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45217,7 +45217,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1610" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45243,7 +45243,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1611" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45269,7 +45269,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1612" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45295,7 +45295,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1613" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45321,7 +45321,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1614" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45347,7 +45347,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45373,7 +45373,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1616" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45399,7 +45399,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1617" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45425,7 +45425,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1618" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45451,7 +45451,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1619" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45477,7 +45477,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45503,7 +45503,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45529,7 +45529,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45555,7 +45555,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1623" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45581,7 +45581,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1624" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45607,7 +45607,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45633,7 +45633,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1626" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45659,7 +45659,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1627" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45685,7 +45685,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1628" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45711,7 +45711,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1629" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45737,7 +45737,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1630" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45763,7 +45763,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1631" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45789,7 +45789,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1632" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45815,7 +45815,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1633" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45841,7 +45841,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1634" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45867,7 +45867,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1635" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45893,7 +45893,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1636" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45919,7 +45919,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1637" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45945,7 +45945,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1638" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45971,7 +45971,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1639" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45997,7 +45997,7 @@
         <v>0.186599999666214</v>
       </c>
       <c r="G1640" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46023,7 +46023,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1641" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46049,7 +46049,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1642" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46075,7 +46075,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1643" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46101,7 +46101,7 @@
         <v>0.193200007081032</v>
       </c>
       <c r="G1644" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46127,7 +46127,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1645" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46153,7 +46153,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1646" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46179,7 +46179,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1647" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46205,7 +46205,7 @@
         <v>0.185000002384186</v>
       </c>
       <c r="G1648" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46231,7 +46231,7 @@
         <v>0.187199994921684</v>
       </c>
       <c r="G1649" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46257,7 +46257,7 @@
         <v>0.187399998307228</v>
       </c>
       <c r="G1650" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46283,7 +46283,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1651" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46309,7 +46309,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1652" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46335,7 +46335,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1653" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46361,7 +46361,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1654" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46387,7 +46387,7 @@
         <v>0.192800000309944</v>
       </c>
       <c r="G1655" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46413,7 +46413,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1656" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46439,7 +46439,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1657" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46465,7 +46465,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1658" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46491,7 +46491,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1659" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46517,7 +46517,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1660" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46543,7 +46543,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1661" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46569,7 +46569,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1662" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46595,7 +46595,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1663" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46621,7 +46621,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1664" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46647,7 +46647,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G1665" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46673,7 +46673,7 @@
         <v>0.197200000286102</v>
       </c>
       <c r="G1666" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46699,7 +46699,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1667" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46725,7 +46725,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1668" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46751,7 +46751,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1669" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46777,7 +46777,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1670" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46803,7 +46803,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1671" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46829,7 +46829,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1672" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46855,7 +46855,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1673" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46881,7 +46881,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1674" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46907,7 +46907,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1675" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46933,7 +46933,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1676" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46959,7 +46959,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1677" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46985,7 +46985,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1678" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47011,7 +47011,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1679" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47037,7 +47037,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1680" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47063,7 +47063,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1681" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47089,7 +47089,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1682" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47115,7 +47115,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1683" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47141,7 +47141,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1684" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47167,7 +47167,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1685" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47193,7 +47193,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1686" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47219,7 +47219,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1687" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47245,7 +47245,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1688" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47271,7 +47271,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1689" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47297,7 +47297,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1690" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47323,7 +47323,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1691" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47349,7 +47349,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1692" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47375,7 +47375,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47401,7 +47401,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1694" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47427,7 +47427,7 @@
         <v>0.190599992871284</v>
       </c>
       <c r="G1695" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47453,7 +47453,7 @@
         <v>0.19140000641346</v>
       </c>
       <c r="G1696" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47479,7 +47479,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1697" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47505,7 +47505,7 @@
         <v>0.191799998283386</v>
       </c>
       <c r="G1698" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47531,7 +47531,7 @@
         <v>0.191599994897842</v>
       </c>
       <c r="G1699" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47557,7 +47557,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1700" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47583,7 +47583,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1701" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47609,7 +47609,7 @@
         <v>0.190799996256828</v>
       </c>
       <c r="G1702" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47635,7 +47635,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1703" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47661,7 +47661,7 @@
         <v>0.193800002336502</v>
       </c>
       <c r="G1704" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47687,7 +47687,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1705" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47713,7 +47713,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1706" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47739,7 +47739,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1707" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47765,7 +47765,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1708" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47791,7 +47791,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1709" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47817,7 +47817,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1710" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47843,7 +47843,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1711" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47869,7 +47869,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1712" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47895,7 +47895,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1713" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47921,7 +47921,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1714" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47947,7 +47947,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1715" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47973,7 +47973,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1716" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47999,7 +47999,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1717" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48025,7 +48025,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1718" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48051,7 +48051,7 @@
         <v>0.192399993538857</v>
       </c>
       <c r="G1719" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48077,7 +48077,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1720" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48103,7 +48103,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1721" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48129,7 +48129,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1722" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48155,7 +48155,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1723" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48181,7 +48181,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1724" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48207,7 +48207,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1725" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48233,7 +48233,7 @@
         <v>0.187000006437302</v>
       </c>
       <c r="G1726" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48259,7 +48259,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1727" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48285,7 +48285,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1728" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48311,7 +48311,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1729" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48337,7 +48337,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1730" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48363,7 +48363,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1731" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48389,7 +48389,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1732" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48415,7 +48415,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1733" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48441,7 +48441,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1734" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48467,7 +48467,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1735" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48493,7 +48493,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1736" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48519,7 +48519,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1737" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48545,7 +48545,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1738" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48571,7 +48571,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1739" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48597,7 +48597,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1740" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48623,7 +48623,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1741" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48649,7 +48649,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1742" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48675,7 +48675,7 @@
         <v>0.195600003004074</v>
       </c>
       <c r="G1743" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48701,7 +48701,7 @@
         <v>0.19480000436306</v>
       </c>
       <c r="G1744" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48727,7 +48727,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1745" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48753,7 +48753,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1746" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48779,7 +48779,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1747" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48805,7 +48805,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1748" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48831,7 +48831,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1749" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48857,7 +48857,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1750" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48883,7 +48883,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1751" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48909,7 +48909,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1752" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48935,7 +48935,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1753" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48961,7 +48961,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1754" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48987,7 +48987,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1755" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49013,7 +49013,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1756" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49039,7 +49039,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1757" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49065,7 +49065,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G1758" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49091,7 +49091,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1759" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49117,7 +49117,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1760" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49143,7 +49143,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1761" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49169,7 +49169,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1762" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49195,7 +49195,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1763" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49221,7 +49221,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1764" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49247,7 +49247,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1765" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49273,7 +49273,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1766" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49299,7 +49299,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1767" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49325,7 +49325,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1768" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49351,7 +49351,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1769" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49377,7 +49377,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1770" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49403,7 +49403,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1771" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49429,7 +49429,7 @@
         <v>0.194999992847443</v>
       </c>
       <c r="G1772" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49455,7 +49455,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1773" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49481,7 +49481,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1774" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49507,7 +49507,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1775" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49533,7 +49533,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1776" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49559,7 +49559,7 @@
         <v>0.195999994874001</v>
       </c>
       <c r="G1777" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49585,7 +49585,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1778" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49611,7 +49611,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1779" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49637,7 +49637,7 @@
         <v>0.195800006389618</v>
       </c>
       <c r="G1780" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49663,7 +49663,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1781" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49689,7 +49689,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1782" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49715,7 +49715,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1783" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49741,7 +49741,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1784" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49767,7 +49767,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1785" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49793,7 +49793,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1786" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49819,7 +49819,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1787" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49845,7 +49845,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1788" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49871,7 +49871,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1789" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49897,7 +49897,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1790" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49923,7 +49923,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1791" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49949,7 +49949,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1792" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49975,7 +49975,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1793" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50001,7 +50001,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1794" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50027,7 +50027,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1795" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50053,7 +50053,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50079,7 +50079,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1797" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50105,7 +50105,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1798" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50131,7 +50131,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1799" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50157,7 +50157,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1800" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50183,7 +50183,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1801" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50209,7 +50209,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1802" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50235,7 +50235,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1803" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50261,7 +50261,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1804" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50287,7 +50287,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1805" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50313,7 +50313,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1806" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50339,7 +50339,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1807" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50365,7 +50365,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1808" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50391,7 +50391,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1809" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50417,7 +50417,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1810" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50443,7 +50443,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1811" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50469,7 +50469,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1812" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50495,7 +50495,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1813" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50521,7 +50521,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1814" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50547,7 +50547,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1815" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50573,7 +50573,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1816" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50599,7 +50599,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1817" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50625,7 +50625,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1818" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50651,7 +50651,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1819" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50677,7 +50677,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1820" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50703,7 +50703,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1821" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50729,7 +50729,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1822" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50755,7 +50755,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1823" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50781,7 +50781,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1824" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50807,7 +50807,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1825" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50833,7 +50833,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1826" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50859,7 +50859,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1827" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50885,7 +50885,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1828" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50911,7 +50911,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1829" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50937,7 +50937,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1830" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50963,7 +50963,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1831" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50989,7 +50989,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1832" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51015,7 +51015,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1833" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51041,7 +51041,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1834" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51067,7 +51067,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1835" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51093,7 +51093,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1836" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51119,7 +51119,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1837" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51145,7 +51145,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1838" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51171,7 +51171,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1839" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51197,7 +51197,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1840" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51223,7 +51223,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1841" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51249,7 +51249,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1842" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51275,7 +51275,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1843" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51301,7 +51301,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1844" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51327,7 +51327,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1845" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51353,7 +51353,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1846" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51379,7 +51379,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1847" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51405,7 +51405,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1848" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51431,7 +51431,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1849" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51457,7 +51457,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1850" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51483,7 +51483,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1851" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51509,7 +51509,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G1852" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51535,7 +51535,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1853" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51561,7 +51561,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1854" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51587,7 +51587,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1855" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51613,7 +51613,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1856" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51639,7 +51639,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1857" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51665,7 +51665,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1858" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51691,7 +51691,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51717,7 +51717,7 @@
         <v>0.228000000119209</v>
       </c>
       <c r="G1860" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51743,7 +51743,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1861" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51769,7 +51769,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1862" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51795,7 +51795,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1863" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51821,7 +51821,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51847,7 +51847,7 @@
         <v>0.231000006198883</v>
       </c>
       <c r="G1865" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51873,7 +51873,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1866" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51899,7 +51899,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1867" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51925,7 +51925,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1868" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51951,7 +51951,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1869" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51977,7 +51977,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1870" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52003,7 +52003,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1871" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52029,7 +52029,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1872" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52055,7 +52055,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1873" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52081,7 +52081,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1874" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52107,7 +52107,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1875" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52133,7 +52133,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1876" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52159,7 +52159,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1877" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52185,7 +52185,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1878" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52211,7 +52211,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1879" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52237,7 +52237,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1880" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52263,7 +52263,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1881" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52289,7 +52289,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1882" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52315,7 +52315,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1883" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52341,7 +52341,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1884" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52367,7 +52367,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1885" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52393,7 +52393,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1886" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52419,7 +52419,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1887" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52445,7 +52445,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1888" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52471,7 +52471,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1889" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52497,7 +52497,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1890" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52523,7 +52523,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1891" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52549,7 +52549,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1892" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52575,7 +52575,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1893" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52601,7 +52601,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1894" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52627,7 +52627,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1895" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52653,7 +52653,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1896" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52679,7 +52679,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1897" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52705,7 +52705,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1898" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52731,7 +52731,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1899" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52757,7 +52757,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1900" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52783,7 +52783,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1901" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52809,7 +52809,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1902" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52835,7 +52835,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1903" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52861,7 +52861,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1904" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52887,7 +52887,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1905" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52913,7 +52913,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1906" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52939,7 +52939,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1907" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52965,7 +52965,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1908" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52991,7 +52991,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1909" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53017,7 +53017,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1910" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53043,7 +53043,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1911" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53069,7 +53069,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1912" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53095,7 +53095,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1913" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53121,7 +53121,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1914" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53147,7 +53147,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1915" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53173,7 +53173,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1916" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53199,7 +53199,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1917" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53225,7 +53225,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1918" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53251,7 +53251,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1919" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53277,7 +53277,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1920" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53303,7 +53303,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1921" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53329,7 +53329,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1922" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53355,7 +53355,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1923" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53381,7 +53381,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1924" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53407,7 +53407,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1925" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53433,7 +53433,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1926" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53459,7 +53459,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1927" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53485,7 +53485,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1928" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53511,7 +53511,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1929" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53537,7 +53537,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1930" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53563,7 +53563,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1931" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53589,7 +53589,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1932" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53615,7 +53615,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1933" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53641,7 +53641,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1934" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53667,7 +53667,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1935" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53693,7 +53693,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1936" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53719,7 +53719,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53745,7 +53745,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1938" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53771,7 +53771,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1939" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53797,7 +53797,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1940" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53823,7 +53823,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1941" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53849,7 +53849,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1942" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53875,7 +53875,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53901,7 +53901,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53927,7 +53927,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1945" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53953,7 +53953,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1946" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53979,7 +53979,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54005,7 +54005,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1948" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54031,7 +54031,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54057,7 +54057,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1950" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54083,7 +54083,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54109,7 +54109,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1952" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54135,7 +54135,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54161,7 +54161,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1954" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54187,7 +54187,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1955" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54213,7 +54213,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1956" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54239,7 +54239,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1957" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54265,7 +54265,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54291,7 +54291,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1959" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54317,7 +54317,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1960" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54343,7 +54343,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1961" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54369,7 +54369,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1962" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54395,7 +54395,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54421,7 +54421,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54447,7 +54447,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1965" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54473,7 +54473,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1966" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54499,7 +54499,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1967" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54525,7 +54525,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1968" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54551,7 +54551,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1969" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54577,7 +54577,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1970" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54603,7 +54603,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1971" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54629,7 +54629,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1972" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54655,7 +54655,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1973" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54681,7 +54681,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1974" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54707,7 +54707,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1975" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54733,7 +54733,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54759,7 +54759,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1977" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54785,7 +54785,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1978" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54811,7 +54811,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1979" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54837,7 +54837,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1980" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54863,7 +54863,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1981" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54889,7 +54889,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1982" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54915,7 +54915,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1983" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54941,7 +54941,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1984" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54967,7 +54967,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1985" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54993,7 +54993,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1986" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55019,7 +55019,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1987" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55045,7 +55045,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55071,7 +55071,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1989" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55097,7 +55097,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55123,7 +55123,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1991" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55149,7 +55149,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1992" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55175,7 +55175,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1993" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55201,7 +55201,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1994" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55227,7 +55227,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1995" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55253,7 +55253,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1996" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55279,7 +55279,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1997" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55305,7 +55305,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1998" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55331,7 +55331,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1999" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55357,7 +55357,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2000" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55383,7 +55383,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55409,7 +55409,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2002" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55435,7 +55435,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55461,7 +55461,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2004" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55487,7 +55487,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55513,7 +55513,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2006" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55539,7 +55539,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2007" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55565,7 +55565,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2008" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55591,7 +55591,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2009" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55617,7 +55617,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2010" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55643,7 +55643,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2011" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55669,7 +55669,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2012" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55695,7 +55695,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2013" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55721,7 +55721,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2014" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55747,7 +55747,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2015" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55773,7 +55773,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2016" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55799,7 +55799,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2017" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55825,7 +55825,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2018" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55851,7 +55851,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2019" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55877,7 +55877,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2020" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55903,7 +55903,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2021" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55929,7 +55929,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55955,7 +55955,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2023" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55981,7 +55981,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2024" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56007,7 +56007,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2025" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56033,7 +56033,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56059,7 +56059,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2027" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56085,7 +56085,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56111,7 +56111,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2029" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56137,7 +56137,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2030" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56163,7 +56163,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2031" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56189,7 +56189,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2032" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56215,7 +56215,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2033" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56241,7 +56241,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2034" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56267,7 +56267,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2035" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56293,7 +56293,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2036" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56319,7 +56319,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2037" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56345,7 +56345,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2038" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56371,7 +56371,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2039" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56397,7 +56397,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56423,7 +56423,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2041" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56449,7 +56449,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2042" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56475,7 +56475,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2043" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56501,7 +56501,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2044" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56527,7 +56527,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2045" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56553,7 +56553,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2046" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56579,7 +56579,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2047" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56605,7 +56605,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2048" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56631,7 +56631,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2049" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56657,7 +56657,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56683,7 +56683,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56709,7 +56709,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2052" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56735,7 +56735,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2053" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56761,7 +56761,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2054" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56787,7 +56787,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2055" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56813,7 +56813,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2056" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56839,7 +56839,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2057" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56865,7 +56865,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2058" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56891,7 +56891,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2059" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56917,7 +56917,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2060" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56943,7 +56943,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2061" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56969,7 +56969,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2062" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56995,7 +56995,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57021,7 +57021,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2064" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57047,7 +57047,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2065" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57073,7 +57073,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57099,7 +57099,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57125,7 +57125,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2068" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57151,7 +57151,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2069" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57177,7 +57177,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57203,7 +57203,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57229,7 +57229,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57255,7 +57255,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57281,7 +57281,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2074" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57307,7 +57307,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57333,7 +57333,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2076" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57359,7 +57359,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2077" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57385,7 +57385,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2078" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57411,7 +57411,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2079" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57437,7 +57437,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2080" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57463,7 +57463,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2081" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57489,7 +57489,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2082" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57515,7 +57515,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2083" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57541,7 +57541,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2084" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57567,7 +57567,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2085" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57593,7 +57593,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2086" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57619,7 +57619,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2087" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57645,7 +57645,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2088" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57671,7 +57671,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2089" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57697,7 +57697,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2090" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57723,7 +57723,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2091" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57749,7 +57749,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2092" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57775,7 +57775,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2093" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57801,7 +57801,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2094" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57827,7 +57827,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2095" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57853,7 +57853,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2096" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57879,7 +57879,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2097" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57905,7 +57905,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2098" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57931,7 +57931,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2099" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57957,7 +57957,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2100" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57983,7 +57983,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2101" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58009,7 +58009,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2102" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58035,7 +58035,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2103" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58061,7 +58061,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2104" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58087,7 +58087,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2105" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58113,7 +58113,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2106" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58139,7 +58139,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2107" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58165,7 +58165,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2108" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58191,7 +58191,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2109" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58217,7 +58217,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2110" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58243,7 +58243,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2111" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58269,7 +58269,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2112" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58295,7 +58295,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2113" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58321,7 +58321,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2114" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58347,7 +58347,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2115" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58373,7 +58373,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2116" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58399,7 +58399,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2117" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58425,7 +58425,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2118" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58451,7 +58451,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2119" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58477,7 +58477,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2120" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58503,7 +58503,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2121" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58529,7 +58529,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2122" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58555,7 +58555,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G2123" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58581,7 +58581,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2124" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58607,7 +58607,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2125" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58633,7 +58633,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2126" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58659,7 +58659,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2127" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58685,7 +58685,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2128" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58711,7 +58711,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2129" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58737,7 +58737,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2130" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58763,7 +58763,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2131" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58789,7 +58789,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2132" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58815,7 +58815,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2133" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58841,7 +58841,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2134" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58867,7 +58867,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2135" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58893,7 +58893,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2136" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58919,7 +58919,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2137" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58945,7 +58945,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2138" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58971,7 +58971,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2139" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58997,7 +58997,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2140" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59023,7 +59023,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2141" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59049,7 +59049,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2142" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59075,7 +59075,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2143" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59101,7 +59101,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2144" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59127,7 +59127,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2145" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59153,7 +59153,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2146" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59179,7 +59179,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2147" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59205,7 +59205,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2148" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59231,7 +59231,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2149" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59257,7 +59257,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2150" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59283,7 +59283,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2151" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59309,7 +59309,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2152" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59335,7 +59335,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2153" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59361,7 +59361,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2154" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59387,7 +59387,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2155" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59413,7 +59413,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2156" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59439,7 +59439,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2157" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59465,7 +59465,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2158" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59491,7 +59491,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2159" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59517,7 +59517,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2160" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59543,7 +59543,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2161" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59569,7 +59569,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2162" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59595,7 +59595,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2163" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59621,7 +59621,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2164" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59647,7 +59647,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2165" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59673,7 +59673,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G2166" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59699,7 +59699,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2167" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -59707,7 +59707,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6493865741</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>2288626</v>
@@ -59725,9 +59725,35 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2168" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6511574074</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>492522</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>0.222000002861023</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>0.222000002861023</v>
+      </c>
+      <c r="G2169" t="s">
         <v>1003</v>
       </c>
-      <c r="H2168" t="s">
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="1004">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17447005212307</t>
+    <t xml:space="preserve">0.174470067024231</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174941956996918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171099305152893</t>
+    <t xml:space="preserve">0.174941927194595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171099290251732</t>
   </si>
   <si>
     <t xml:space="preserve">0.169144257903099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166178017854691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163481414318085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165908336639404</t>
+    <t xml:space="preserve">0.166178002953529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163481399416924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165908321738243</t>
   </si>
   <si>
     <t xml:space="preserve">0.167324066162109</t>
@@ -68,76 +68,76 @@
     <t xml:space="preserve">0.16267241537571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157144382596016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146627634763718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148515269160271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1383356153965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144740030169487</t>
+    <t xml:space="preserve">0.157144397497177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14662766456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148515284061432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138335600495338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144740045070648</t>
   </si>
   <si>
     <t xml:space="preserve">0.148313000798225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148380428552628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158223032951355</t>
+    <t xml:space="preserve">0.148380443453789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158223018050194</t>
   </si>
   <si>
     <t xml:space="preserve">0.152357921004295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152088269591331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155054524540901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154380351305008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150335490703583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145481586456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142582729458809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142717555165291</t>
+    <t xml:space="preserve">0.15208825469017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15505450963974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154380396008492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150335475802422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145481571555138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142582759261131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142717570066452</t>
   </si>
   <si>
     <t xml:space="preserve">0.13132444024086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.135504171252251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128223359584808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130785137414932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138874933123589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138200759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143459126353264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140223205089569</t>
+    <t xml:space="preserve">0.135504186153412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128223344683647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130785122513771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138874918222427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138200774788857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143459141254425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14022321999073</t>
   </si>
   <si>
     <t xml:space="preserve">0.137998521327972</t>
@@ -146,100 +146,100 @@
     <t xml:space="preserve">0.144605174660683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14251534640789</t>
+    <t xml:space="preserve">0.142515331506729</t>
   </si>
   <si>
     <t xml:space="preserve">0.141976028680801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143728792667389</t>
+    <t xml:space="preserve">0.14372880756855</t>
   </si>
   <si>
     <t xml:space="preserve">0.144065886735916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142987221479416</t>
+    <t xml:space="preserve">0.142987236380577</t>
   </si>
   <si>
     <t xml:space="preserve">0.147706285119057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153166919946671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154178142547607</t>
+    <t xml:space="preserve">0.153166890144348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154178127646446</t>
   </si>
   <si>
     <t xml:space="preserve">0.150942206382751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150672540068626</t>
+    <t xml:space="preserve">0.150672554969788</t>
   </si>
   <si>
     <t xml:space="preserve">0.154717430472374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156470224261284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162402763962746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164492636919022</t>
+    <t xml:space="preserve">0.156470239162445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162402749061584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16449262201786</t>
   </si>
   <si>
     <t xml:space="preserve">0.161796018481255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16085222363472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158088207244873</t>
+    <t xml:space="preserve">0.160852208733559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158088222146034</t>
   </si>
   <si>
     <t xml:space="preserve">0.159099414944649</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155526414513588</t>
+    <t xml:space="preserve">0.155526429414749</t>
   </si>
   <si>
     <t xml:space="preserve">0.154312953352928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148987174034119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15020065009594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150065794587135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149930968880653</t>
+    <t xml:space="preserve">0.148987159132957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150200635194778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150065824389458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149930998682976</t>
   </si>
   <si>
     <t xml:space="preserve">0.146964728832245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144268095493317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142245650291443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138268172740936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147841110825539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151751175522804</t>
+    <t xml:space="preserve">0.144268125295639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142245665192604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138268187642097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1478411257267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151751190423965</t>
   </si>
   <si>
     <t xml:space="preserve">0.157279223203659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156874731183052</t>
+    <t xml:space="preserve">0.156874746084213</t>
   </si>
   <si>
     <t xml:space="preserve">0.155998334288597</t>
@@ -248,25 +248,25 @@
     <t xml:space="preserve">0.156942144036293</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1526949852705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157009541988373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152560174465179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122458934784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154429957270622</t>
+    <t xml:space="preserve">0.152695015072823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157009556889534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152560144662857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122444033623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154429942369461</t>
   </si>
   <si>
     <t xml:space="preserve">0.150274857878685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150828883051872</t>
+    <t xml:space="preserve">0.150828897953033</t>
   </si>
   <si>
     <t xml:space="preserve">0.147781819105148</t>
@@ -278,7 +278,7 @@
     <t xml:space="preserve">0.146812334656715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142657265067101</t>
+    <t xml:space="preserve">0.142657250165939</t>
   </si>
   <si>
     <t xml:space="preserve">0.142103254795074</t>
@@ -287,16 +287,16 @@
     <t xml:space="preserve">0.138155937194824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139817968010902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139887228608131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140579715371132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141272231936455</t>
+    <t xml:space="preserve">0.139817982912064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139887198805809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140579730272293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141272217035294</t>
   </si>
   <si>
     <t xml:space="preserve">0.139748722314835</t>
@@ -305,7 +305,7 @@
     <t xml:space="preserve">0.141202971339226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144042268395424</t>
+    <t xml:space="preserve">0.144042283296585</t>
   </si>
   <si>
     <t xml:space="preserve">0.14542730152607</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">0.147989600896835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144804045557976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147574096918106</t>
+    <t xml:space="preserve">0.144804030656815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147574082016945</t>
   </si>
   <si>
     <t xml:space="preserve">0.148889854550362</t>
@@ -332,97 +332,97 @@
     <t xml:space="preserve">0.148128107190132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144180774688721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146673798561096</t>
+    <t xml:space="preserve">0.144180789589882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146673813462257</t>
   </si>
   <si>
     <t xml:space="preserve">0.141826242208481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.133654594421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132685109972954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134485632181168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121881939470768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123890213668346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126244768500328</t>
+    <t xml:space="preserve">0.133654624223709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132685095071793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134485617280006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121881917119026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123890221118927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126244738698006</t>
   </si>
   <si>
     <t xml:space="preserve">0.123405456542969</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125898480415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116341851651669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787841379642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122574433684349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111873209476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12292069196701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228167951107</t>
+    <t xml:space="preserve">0.125898495316505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116341836750507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787848830223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122574456036091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111903011799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122920699417591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228160500526</t>
   </si>
   <si>
     <t xml:space="preserve">0.118419378995895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11350254714489</t>
+    <t xml:space="preserve">0.113502539694309</t>
   </si>
   <si>
     <t xml:space="preserve">0.110940262675285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118904143571854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122297413647175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452505588531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124651975929737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126175507903099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130953818559647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128668531775475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12846077978611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127768278121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127422019839287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126729488372803</t>
+    <t xml:space="preserve">0.118904121220112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297428548336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12645249068737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124651983380318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126175493001938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130953803658485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128668546676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128460764884949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127768263220787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127422034740448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126729503273964</t>
   </si>
   <si>
     <t xml:space="preserve">0.128253042697906</t>
@@ -431,79 +431,79 @@
     <t xml:space="preserve">0.130884572863579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131161585450172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127976015210152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120496913790703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11821161955595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172867059708</t>
+    <t xml:space="preserve">0.131161570549011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127976030111313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120496898889542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118211627006531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172874510288</t>
   </si>
   <si>
     <t xml:space="preserve">0.114956811070442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116618864238262</t>
+    <t xml:space="preserve">0.116618871688843</t>
   </si>
   <si>
     <t xml:space="preserve">0.118627123534679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119804389774799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765644729137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912402868271</t>
+    <t xml:space="preserve">0.119804404675961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765629827976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912425220013</t>
   </si>
   <si>
     <t xml:space="preserve">0.115718580782413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119319632649422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119250386953354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118834882974625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121258661150932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122505202889442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197697103024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125552237033844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125690758228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121743410825729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674165129662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120150648057461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121120162308216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488624691963</t>
+    <t xml:space="preserve">0.119319625198841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119250379502773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118834868073463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121258676052094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122505187988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197712004185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552251935005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125690743327141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121743425726891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674172580242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120150662958622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121120154857635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488632142544</t>
   </si>
   <si>
     <t xml:space="preserve">0.119665890932083</t>
@@ -512,31 +512,31 @@
     <t xml:space="preserve">0.115372329950333</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115926347672939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726877331734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116826593875885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117103599011898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121189415454865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233823657036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118973396718502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118350140750408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12811453640461</t>
+    <t xml:space="preserve">0.115926332771778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726847529411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116826601326466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11710362136364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121189437806606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233831107616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118973381817341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118350133299828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128114521503448</t>
   </si>
   <si>
     <t xml:space="preserve">0.126660257577896</t>
@@ -545,139 +545,139 @@
     <t xml:space="preserve">0.124097973108292</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125205993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123959459364414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117034360766411</t>
+    <t xml:space="preserve">0.125205963850021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123959474265575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11703435331583</t>
   </si>
   <si>
     <t xml:space="preserve">0.117796115577221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117934621870518</t>
+    <t xml:space="preserve">0.117934629321098</t>
   </si>
   <si>
     <t xml:space="preserve">0.116480335593224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1150953322649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433286547661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111494272947311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1154415756464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113571785390377</t>
+    <t xml:space="preserve">0.115095309913158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433301448822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111494265496731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115441590547562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113571800291538</t>
   </si>
   <si>
     <t xml:space="preserve">0.11467981338501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111771278083324</t>
+    <t xml:space="preserve">0.111771263182163</t>
   </si>
   <si>
     <t xml:space="preserve">0.111009508371353</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111563511192799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112186789512634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117588371038437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327906847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122020438313484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122435942292213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119942910969257</t>
+    <t xml:space="preserve">0.111563496291637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112186782062054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117588356137276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327929198742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122020423412323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122435934841633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119942896068096</t>
   </si>
   <si>
     <t xml:space="preserve">0.124305702745914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122851431369781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773911476135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596630334854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119527392089367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120358414947987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121812663972378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141895517706871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169665202498436</t>
+    <t xml:space="preserve">0.122851446270943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773918926716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596652686596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119527399539948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120358407497406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121812678873539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141895487904549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169665187597275</t>
   </si>
   <si>
     <t xml:space="preserve">0.159970045089722</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15719997882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14611978828907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146466061472893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148197323083878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144942536950111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148682102560997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149928614497185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154360696673393</t>
+    <t xml:space="preserve">0.157199993729591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146119803190231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146466076374054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1481973528862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144942551851273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148682117462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149928629398346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154360681772232</t>
   </si>
   <si>
     <t xml:space="preserve">0.157476991415024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159900799393654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158030986785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15650749206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147366315126419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143349766731262</t>
+    <t xml:space="preserve">0.159900814294815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158031016588211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156507477164268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14736633002758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143349796533585</t>
   </si>
   <si>
     <t xml:space="preserve">0.143696025013924</t>
@@ -686,37 +686,37 @@
     <t xml:space="preserve">0.145358055830002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143626779317856</t>
+    <t xml:space="preserve">0.143626764416695</t>
   </si>
   <si>
     <t xml:space="preserve">0.144319295883179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137809678912163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139194697141647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140164226293564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140510469675064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140441223978996</t>
+    <t xml:space="preserve">0.137809693813324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139194712042809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140164211392403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140510484576225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140441209077835</t>
   </si>
   <si>
     <t xml:space="preserve">0.139540955424309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138502195477486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139679476618767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13711716234684</t>
+    <t xml:space="preserve">0.138502180576324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139679446816444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137117147445679</t>
   </si>
   <si>
     <t xml:space="preserve">0.139056205749512</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">0.145912066102028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142588004469872</t>
+    <t xml:space="preserve">0.142588019371033</t>
   </si>
   <si>
     <t xml:space="preserve">0.145981326699257</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">0.149028360843658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147851094603539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148058861494064</t>
+    <t xml:space="preserve">0.147851079702377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148058831691742</t>
   </si>
   <si>
     <t xml:space="preserve">0.150413379073143</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148959115147591</t>
+    <t xml:space="preserve">0.148959100246429</t>
   </si>
   <si>
     <t xml:space="preserve">0.152075424790382</t>
@@ -758,34 +758,34 @@
     <t xml:space="preserve">0.152352392673492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155399486422539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160870298743248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159139007329941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158931255340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155814945697784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151936873793602</t>
+    <t xml:space="preserve">0.155399471521378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160870283842087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159139022231102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158931240439415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155814960598946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151936888694763</t>
   </si>
   <si>
     <t xml:space="preserve">0.150967389345169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148612856864929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147920325398445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147297069430351</t>
+    <t xml:space="preserve">0.148612841963768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147920355200768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14729705452919</t>
   </si>
   <si>
     <t xml:space="preserve">0.143142014741898</t>
@@ -797,25 +797,25 @@
     <t xml:space="preserve">0.146258309483528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14972086250782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152213916182518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152006164193153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14618906378746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145773559808731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148474350571632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148472398519516</t>
+    <t xml:space="preserve">0.149720877408981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152213901281357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152006179094315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146189048886299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14577354490757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148474335670471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148472413420677</t>
   </si>
   <si>
     <t xml:space="preserve">0.146802604198456</t>
@@ -836,19 +836,19 @@
     <t xml:space="preserve">0.148959442973137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145480707287788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145132809877396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146106883883476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14450666308403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144019648432732</t>
+    <t xml:space="preserve">0.145480692386627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145132824778557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146106868982315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144506648182869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144019618630409</t>
   </si>
   <si>
     <t xml:space="preserve">0.143463045358658</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">0.140749618411064</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143045589327812</t>
+    <t xml:space="preserve">0.14304555952549</t>
   </si>
   <si>
     <t xml:space="preserve">0.14019301533699</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141236633062363</t>
+    <t xml:space="preserve">0.141236647963524</t>
   </si>
   <si>
     <t xml:space="preserve">0.14151494204998</t>
@@ -872,13 +872,13 @@
     <t xml:space="preserve">0.142071530222893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139497265219688</t>
+    <t xml:space="preserve">0.13949728012085</t>
   </si>
   <si>
     <t xml:space="preserve">0.139010235667229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140332192182541</t>
+    <t xml:space="preserve">0.140332162380219</t>
   </si>
   <si>
     <t xml:space="preserve">0.139149412512779</t>
@@ -887,10 +887,10 @@
     <t xml:space="preserve">0.137757897377014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137618750333786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137062162160873</t>
+    <t xml:space="preserve">0.137618765234947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137062177062035</t>
   </si>
   <si>
     <t xml:space="preserve">0.13817535340786</t>
@@ -899,22 +899,22 @@
     <t xml:space="preserve">0.138244926929474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142419397830963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140610456466675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141793221235275</t>
+    <t xml:space="preserve">0.142419412732124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140610471367836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141793236136436</t>
   </si>
   <si>
     <t xml:space="preserve">0.141445368528366</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141167059540749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140680029988289</t>
+    <t xml:space="preserve">0.141167089343071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14068004488945</t>
   </si>
   <si>
     <t xml:space="preserve">0.140123441815376</t>
@@ -923,31 +923,31 @@
     <t xml:space="preserve">0.141584515571594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140053853392601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139636427164078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139427706599236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147289633750916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149655178189278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149863913655281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150629222393036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149724751710892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147985368967056</t>
+    <t xml:space="preserve">0.140053883194923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139636412262917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139427691698074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147289648652077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149655193090439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14986389875412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150629237294197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149724736809731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147985383868217</t>
   </si>
   <si>
     <t xml:space="preserve">0.146246016025543</t>
@@ -962,37 +962,37 @@
     <t xml:space="preserve">0.150281369686127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148402824997902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151742413640022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152020707726479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152577310800552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152159869670868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150490075349808</t>
+    <t xml:space="preserve">0.148402839899063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151742398738861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152020737528801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152577325701714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152159884572029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150490060448647</t>
   </si>
   <si>
     <t xml:space="preserve">0.151324972510338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150977090001106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15035092830658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149029016494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148750722408295</t>
+    <t xml:space="preserve">0.150977075099945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150350943207741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149029031395912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148750707507133</t>
   </si>
   <si>
     <t xml:space="preserve">0.149098590016365</t>
@@ -1001,61 +1001,61 @@
     <t xml:space="preserve">0.151672855019569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166840121150017</t>
+    <t xml:space="preserve">0.166840136051178</t>
   </si>
   <si>
     <t xml:space="preserve">0.169762283563614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168649092316628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166979283094406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160369679331779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162317782640457</t>
+    <t xml:space="preserve">0.168649077415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166979268193245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160369664430618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162317797541618</t>
   </si>
   <si>
     <t xml:space="preserve">0.173797607421875</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175954446196556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17289312183857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173936769366264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168718665838242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168509930372238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167675033211708</t>
+    <t xml:space="preserve">0.175954431295395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172893151640892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173936754465103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16871865093708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168509945273399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167675018310547</t>
   </si>
   <si>
     <t xml:space="preserve">0.168996945023537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165866076946259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16419629752636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169275239109993</t>
+    <t xml:space="preserve">0.165866062045097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164196282625198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169275254011154</t>
   </si>
   <si>
     <t xml:space="preserve">0.171988651156425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170458018779755</t>
+    <t xml:space="preserve">0.170458033680916</t>
   </si>
   <si>
     <t xml:space="preserve">0.173241004347801</t>
@@ -1070,49 +1070,49 @@
     <t xml:space="preserve">0.187712535262108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184581682085991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189938947558403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198635756969452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197383433580399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19341766834259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192443624138832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187851697206497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194809168577194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191678315401077</t>
+    <t xml:space="preserve">0.184581696987152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189938932657242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.198635742068291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197383418679237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193417653441429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192443639039993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187851682305336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194809153676033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191678300499916</t>
   </si>
   <si>
     <t xml:space="preserve">0.188060432672501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183468505740166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185694888234138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186112329363823</t>
+    <t xml:space="preserve">0.183468475937843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185694858431816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186112344264984</t>
   </si>
   <si>
     <t xml:space="preserve">0.183816358447075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183677211403847</t>
+    <t xml:space="preserve">0.183677196502686</t>
   </si>
   <si>
     <t xml:space="preserve">0.178528666496277</t>
@@ -1121,19 +1121,19 @@
     <t xml:space="preserve">0.17671974003315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172962710261345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177972093224525</t>
+    <t xml:space="preserve">0.172962725162506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177972078323364</t>
   </si>
   <si>
     <t xml:space="preserve">0.179363593459129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180755063891411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180894210934639</t>
+    <t xml:space="preserve">0.180755078792572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180894240736961</t>
   </si>
   <si>
     <t xml:space="preserve">0.177763342857361</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">0.174145475029945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185416594147682</t>
+    <t xml:space="preserve">0.185416579246521</t>
   </si>
   <si>
     <t xml:space="preserve">0.185138270258904</t>
@@ -1160,40 +1160,40 @@
     <t xml:space="preserve">0.180824652314186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176023989915848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163013532757759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162804797291756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165587797760963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166074827313423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166144371032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166770547628403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167396724224091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165935665369034</t>
+    <t xml:space="preserve">0.176023975014687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16301354765892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162804812192917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165587782859802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166074812412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166144385933876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166770577430725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167396739125252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165935680270195</t>
   </si>
   <si>
     <t xml:space="preserve">0.163917988538742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166492253541946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167535901069641</t>
+    <t xml:space="preserve">0.166492268443108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167535871267319</t>
   </si>
   <si>
     <t xml:space="preserve">0.165448635816574</t>
@@ -1202,16 +1202,16 @@
     <t xml:space="preserve">0.167327150702477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165170341730118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167466312646866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166700974106789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164405003190041</t>
+    <t xml:space="preserve">0.165170356631279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167466297745705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16670098900795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164405032992363</t>
   </si>
   <si>
     <t xml:space="preserve">0.163500547409058</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">0.166283547878265</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166909709572792</t>
+    <t xml:space="preserve">0.166909694671631</t>
   </si>
   <si>
     <t xml:space="preserve">0.165518224239349</t>
@@ -1232,13 +1232,13 @@
     <t xml:space="preserve">0.16802291572094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168370768427849</t>
+    <t xml:space="preserve">0.16837078332901</t>
   </si>
   <si>
     <t xml:space="preserve">0.164892047643661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173588886857033</t>
+    <t xml:space="preserve">0.173588871955872</t>
   </si>
   <si>
     <t xml:space="preserve">0.172545254230499</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">0.181589975953102</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180198475718498</t>
+    <t xml:space="preserve">0.180198460817337</t>
   </si>
   <si>
     <t xml:space="preserve">0.179502725601196</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">0.182981476187706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182633578777313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183329343795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17741547524929</t>
+    <t xml:space="preserve">0.182633593678474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183329328894615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177415490150452</t>
   </si>
   <si>
     <t xml:space="preserve">0.179154857993126</t>
@@ -1280,19 +1280,19 @@
     <t xml:space="preserve">0.162456929683685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161761194467545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161413297057152</t>
+    <t xml:space="preserve">0.161761209368706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161413311958313</t>
   </si>
   <si>
     <t xml:space="preserve">0.157586708664894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159326046705246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154803693294525</t>
+    <t xml:space="preserve">0.159326076507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154803708195686</t>
   </si>
   <si>
     <t xml:space="preserve">0.154107958078384</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">0.154455840587616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149933472275734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152716487646103</t>
+    <t xml:space="preserve">0.149933502078056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152716472744942</t>
   </si>
   <si>
     <t xml:space="preserve">0.156195193529129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156543061137199</t>
+    <t xml:space="preserve">0.156543076038361</t>
   </si>
   <si>
     <t xml:space="preserve">0.155151605606079</t>
@@ -1325,7 +1325,7 @@
     <t xml:space="preserve">0.153064325451851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149585604667664</t>
+    <t xml:space="preserve">0.149585619568825</t>
   </si>
   <si>
     <t xml:space="preserve">0.148194119334221</t>
@@ -1337,49 +1337,52 @@
     <t xml:space="preserve">0.146454751491547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157934561371803</t>
+    <t xml:space="preserve">0.157934576272964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16002182662487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158282458782196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157238826155663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161799818277359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16322223842144</t>
   </si>
   <si>
     <t xml:space="preserve">0.160021811723709</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158282443881035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157238826155663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161799848079681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163222223520279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161444216966629</t>
+    <t xml:space="preserve">0.16144423186779</t>
   </si>
   <si>
     <t xml:space="preserve">0.16073302924633</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155043378472328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157532572746277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156110167503357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153620943427086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155398949980736</t>
+    <t xml:space="preserve">0.155043363571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157532587647438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156110182404518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153620958328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155398964881897</t>
   </si>
   <si>
     <t xml:space="preserve">0.153976544737816</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149709284305573</t>
+    <t xml:space="preserve">0.149709299206734</t>
   </si>
   <si>
     <t xml:space="preserve">0.147575661540031</t>
@@ -1388,10 +1391,10 @@
     <t xml:space="preserve">0.146508872509003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14579764008522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143308416008949</t>
+    <t xml:space="preserve">0.145797654986382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14330843091011</t>
   </si>
   <si>
     <t xml:space="preserve">0.138827815651894</t>
@@ -1409,13 +1412,13 @@
     <t xml:space="preserve">0.147220075130463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14544203877449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13897006213665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140108004212379</t>
+    <t xml:space="preserve">0.145442053675652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138970047235489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140107974410057</t>
   </si>
   <si>
     <t xml:space="preserve">0.138401105999947</t>
@@ -1424,55 +1427,52 @@
     <t xml:space="preserve">0.141957119107246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14401963353157</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.140676945447922</t>
   </si>
   <si>
     <t xml:space="preserve">0.141245916485786</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141103684902191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139112293720245</t>
+    <t xml:space="preserve">0.14110367000103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139112308621407</t>
   </si>
   <si>
     <t xml:space="preserve">0.137263149023056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.136551931500435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140534728765488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140819206833839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139823511242867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13968126475811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142099365592003</t>
+    <t xml:space="preserve">0.136551961302757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140534713864326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140819191932678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139823526144028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139681279659271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142099350690842</t>
   </si>
   <si>
     <t xml:space="preserve">0.141672641038895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14295282959938</t>
+    <t xml:space="preserve">0.142952814698219</t>
   </si>
   <si>
     <t xml:space="preserve">0.14366403222084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147931292653084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148642495274544</t>
+    <t xml:space="preserve">0.147931262850761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148642480373383</t>
   </si>
   <si>
     <t xml:space="preserve">0.152909725904465</t>
@@ -1481,28 +1481,28 @@
     <t xml:space="preserve">0.152554124593735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149353697896004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144375219941139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141388162970543</t>
+    <t xml:space="preserve">0.149353682994843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1443752348423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141388148069382</t>
   </si>
   <si>
     <t xml:space="preserve">0.142241612076759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138258844614029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134845048189163</t>
+    <t xml:space="preserve">0.13825885951519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134845033288002</t>
   </si>
   <si>
     <t xml:space="preserve">0.136125221848488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138543322682381</t>
+    <t xml:space="preserve">0.138543337583542</t>
   </si>
   <si>
     <t xml:space="preserve">0.141530394554138</t>
@@ -1511,13 +1511,13 @@
     <t xml:space="preserve">0.139254555106163</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14039246737957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138685569167137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132995918393135</t>
+    <t xml:space="preserve">0.140392452478409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138685554265976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132995903491974</t>
   </si>
   <si>
     <t xml:space="preserve">0.134987279772758</t>
@@ -1529,40 +1529,40 @@
     <t xml:space="preserve">0.129439860582352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125030368566513</t>
+    <t xml:space="preserve">0.125030383467674</t>
   </si>
   <si>
     <t xml:space="preserve">0.125172600150108</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123465724289417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123750202357769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126310542225838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126595050096512</t>
+    <t xml:space="preserve">0.123465716838837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123750194907188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126310527324677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126595020294189</t>
   </si>
   <si>
     <t xml:space="preserve">0.123892441391945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122327789664268</t>
+    <t xml:space="preserve">0.12232780456543</t>
   </si>
   <si>
     <t xml:space="preserve">0.119482949376106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117633804678917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116922594606876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112513110041618</t>
+    <t xml:space="preserve">0.117633812129498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116922616958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112513102591038</t>
   </si>
   <si>
     <t xml:space="preserve">0.115926913917065</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">0.113793276250362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115215703845024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114931225776672</t>
+    <t xml:space="preserve">0.115215718746185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114931210875511</t>
   </si>
   <si>
     <t xml:space="preserve">0.116638123989105</t>
@@ -1583,55 +1583,55 @@
     <t xml:space="preserve">0.119198471307755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119909681379795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11934070289135</t>
+    <t xml:space="preserve">0.119909673929214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11934071034193</t>
   </si>
   <si>
     <t xml:space="preserve">0.123038992285728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124461404979229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12005190551281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121616594493389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905362069607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060536682606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111659668385983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114788971841335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113366551697254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116211384534836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754521667957</t>
+    <t xml:space="preserve">0.12446141242981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120051920413971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121616587042809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905369520187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060529232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111659660935402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114788986742496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113366566598415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116211391985416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754529118538</t>
   </si>
   <si>
     <t xml:space="preserve">0.127590715885162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127875208854675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127306222915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124745883047581</t>
+    <t xml:space="preserve">0.127875223755836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127306237816811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124745897948742</t>
   </si>
   <si>
     <t xml:space="preserve">0.12076311558485</t>
@@ -1640,91 +1640,91 @@
     <t xml:space="preserve">0.12190105766058</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119056232273579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114504493772984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117349334061146</t>
+    <t xml:space="preserve">0.119056217372417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114504501223564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117349319159985</t>
   </si>
   <si>
     <t xml:space="preserve">0.114646732807159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126452773809433</t>
+    <t xml:space="preserve">0.126452788710594</t>
   </si>
   <si>
     <t xml:space="preserve">0.120478630065918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120336413383484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120194151997566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120620884001255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487268686295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082073628902</t>
+    <t xml:space="preserve">0.120336405932903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120194166898727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120620891451836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487261235714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082081079483</t>
   </si>
   <si>
     <t xml:space="preserve">0.111944146454334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112655349075794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11066398024559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110379494726658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111801907420158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370885908604</t>
+    <t xml:space="preserve">0.112655356526375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11066397279501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110379487276077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111801899969578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370871007442</t>
   </si>
   <si>
     <t xml:space="preserve">0.111232928931713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116069160401821</t>
+    <t xml:space="preserve">0.116069167852402</t>
   </si>
   <si>
     <t xml:space="preserve">0.121332094073296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12261226028204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124319158494473</t>
+    <t xml:space="preserve">0.122612275183201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124319173395634</t>
   </si>
   <si>
     <t xml:space="preserve">0.121758826076984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122185543179512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115642428398132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116495870053768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11862950026989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119767434895039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118202783167362</t>
+    <t xml:space="preserve">0.122185535728931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115642435848713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116495877504349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118629515171051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119767442345619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118202768266201</t>
   </si>
   <si>
     <t xml:space="preserve">0.115357957780361</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">0.117491573095322</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116282507777214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118771739304066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119838558137417</t>
+    <t xml:space="preserve">0.116282515227795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118771724402905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119838565587997</t>
   </si>
   <si>
     <t xml:space="preserve">0.120549760758877</t>
@@ -1751,16 +1751,16 @@
     <t xml:space="preserve">0.121629357337952</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121267378330231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122715324163437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121991343796253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119095414876938</t>
+    <t xml:space="preserve">0.12126736342907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122715316712856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121991351246834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119095407426357</t>
   </si>
   <si>
     <t xml:space="preserve">0.118009433150291</t>
@@ -1772,49 +1772,49 @@
     <t xml:space="preserve">0.114751510322094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115113489329815</t>
+    <t xml:space="preserve">0.115113496780396</t>
   </si>
   <si>
     <t xml:space="preserve">0.116561464965343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119457401335239</t>
+    <t xml:space="preserve">0.11945740878582</t>
   </si>
   <si>
     <t xml:space="preserve">0.116199478507042</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115837469696999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113665528595448</t>
+    <t xml:space="preserve">0.115837477147579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113665536046028</t>
   </si>
   <si>
     <t xml:space="preserve">0.114389523863792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11402752995491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112217552959919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110769592225552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111855566501617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107149668037891</t>
+    <t xml:space="preserve">0.11402752250433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1122175604105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110769599676132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111855559051037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107149675488472</t>
   </si>
   <si>
     <t xml:space="preserve">0.107873655855656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107511661946774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104977712035179</t>
+    <t xml:space="preserve">0.107511654496193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10497771948576</t>
   </si>
   <si>
     <t xml:space="preserve">0.108235649764538</t>
@@ -1823,43 +1823,43 @@
     <t xml:space="preserve">0.106425695121288</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108959637582302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109683632850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11040760576725</t>
+    <t xml:space="preserve">0.108959622681141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109683617949486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110407620668411</t>
   </si>
   <si>
     <t xml:space="preserve">0.111493572592735</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111131586134434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113303549587727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10859764367342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110045596957207</t>
+    <t xml:space="preserve">0.111131578683853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113303542137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108597651124001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110045604407787</t>
   </si>
   <si>
     <t xml:space="preserve">0.109321616590023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115475505590439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118733428418636</t>
+    <t xml:space="preserve">0.115475490689278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118733420968056</t>
   </si>
   <si>
     <t xml:space="preserve">0.120181381702423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119819410145283</t>
+    <t xml:space="preserve">0.119819395244122</t>
   </si>
   <si>
     <t xml:space="preserve">0.120543390512466</t>
@@ -1868,64 +1868,64 @@
     <t xml:space="preserve">0.118371419608593</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117285452783108</t>
+    <t xml:space="preserve">0.117285460233688</t>
   </si>
   <si>
     <t xml:space="preserve">0.123801328241825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126335248351097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123439319431782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124525301158428</t>
+    <t xml:space="preserve">0.126335263252258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123439304530621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124525316059589</t>
   </si>
   <si>
     <t xml:space="preserve">0.124887280166149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124163299798965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123077318072319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144072860479355</t>
+    <t xml:space="preserve">0.124163307249546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1230773255229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144072875380516</t>
   </si>
   <si>
     <t xml:space="preserve">0.154208660125732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146244823932648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155656605958939</t>
+    <t xml:space="preserve">0.146244838833809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1556566208601</t>
   </si>
   <si>
     <t xml:space="preserve">0.1773761510849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191855818033218</t>
+    <t xml:space="preserve">0.191855803132057</t>
   </si>
   <si>
     <t xml:space="preserve">0.184615984559059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171584278345108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16651639342308</t>
+    <t xml:space="preserve">0.171584263443947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166516378521919</t>
   </si>
   <si>
     <t xml:space="preserve">0.170136302709579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173756211996078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173032239079475</t>
+    <t xml:space="preserve">0.17375622689724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173032253980637</t>
   </si>
   <si>
     <t xml:space="preserve">0.168688327074051</t>
@@ -1934,37 +1934,37 @@
     <t xml:space="preserve">0.164344429969788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160724505782127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161448508501053</t>
+    <t xml:space="preserve">0.160724520683289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161448493599892</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172481417656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165792405605316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165068417787552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157828584313393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162896454334259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163620442152023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179548114538193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178100138902664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156380608677864</t>
+    <t xml:space="preserve">0.165792390704155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165068402886391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157828569412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16289646923542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163620457053185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179548099637032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178100124001503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156380623579025</t>
   </si>
   <si>
     <t xml:space="preserve">0.153484657406807</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">0.172308266162872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169412329792976</t>
+    <t xml:space="preserve">0.169412314891815</t>
   </si>
   <si>
     <t xml:space="preserve">0.145520836114883</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149864763021469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151312723755836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138642996549606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139728963375092</t>
+    <t xml:space="preserve">0.149864748120308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151312708854675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138642981648445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139728978276253</t>
   </si>
   <si>
     <t xml:space="preserve">0.136833012104034</t>
@@ -2009,13 +2009,13 @@
     <t xml:space="preserve">0.131041154265404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122353337705135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106787674129009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0912220180034637</t>
+    <t xml:space="preserve">0.122353345155716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106787666678429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0912220105528831</t>
   </si>
   <si>
     <t xml:space="preserve">0.0970138907432556</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">0.0962899103760719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0977378711104393</t>
+    <t xml:space="preserve">0.0977378785610199</t>
   </si>
   <si>
     <t xml:space="preserve">0.100633814930916</t>
@@ -2042,46 +2042,46 @@
     <t xml:space="preserve">0.106063708662987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.102805763483047</t>
+    <t xml:space="preserve">0.102805770933628</t>
   </si>
   <si>
     <t xml:space="preserve">0.105701699852943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103529751300812</t>
+    <t xml:space="preserve">0.103529758751392</t>
   </si>
   <si>
     <t xml:space="preserve">0.106570489704609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107004873454571</t>
+    <t xml:space="preserve">0.107004880905151</t>
   </si>
   <si>
     <t xml:space="preserve">0.108018457889557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107294484972954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102081775665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103819340467453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103674545884132</t>
+    <t xml:space="preserve">0.107294470071793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102081783115864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103819333016872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103674538433552</t>
   </si>
   <si>
     <t xml:space="preserve">0.103964142501354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10483293235302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105412118136883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108452841639519</t>
+    <t xml:space="preserve">0.104832924902439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105412110686302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108452834188938</t>
   </si>
   <si>
     <t xml:space="preserve">0.111203990876675</t>
@@ -2090,31 +2090,31 @@
     <t xml:space="preserve">0.10686007887125</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106715276837349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122208528220654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108163245022297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109466426074505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103384949266911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104688130319118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11048000305891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112796746194363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110335201025009</t>
+    <t xml:space="preserve">0.10671528428793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122208535671234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108163259923458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109466418623924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103384956717491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104688122868538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11047999560833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112796738743782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11033520847559</t>
   </si>
   <si>
     <t xml:space="preserve">0.113955125212669</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">0.115692690014839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154932633042336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139004960656166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152760684490204</t>
+    <t xml:space="preserve">0.154932618141174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139004975557327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152760669589043</t>
   </si>
   <si>
     <t xml:space="preserve">0.157104581594467</t>
@@ -2138,13 +2138,13 @@
     <t xml:space="preserve">0.151674702763557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149502739310265</t>
+    <t xml:space="preserve">0.149502754211426</t>
   </si>
   <si>
     <t xml:space="preserve">0.150588735938072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148416757583618</t>
+    <t xml:space="preserve">0.148416772484779</t>
   </si>
   <si>
     <t xml:space="preserve">0.148054778575897</t>
@@ -2153,16 +2153,16 @@
     <t xml:space="preserve">0.144652053713799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14117693901062</t>
+    <t xml:space="preserve">0.141176924109459</t>
   </si>
   <si>
     <t xml:space="preserve">0.148778766393661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14479686319828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144362464547157</t>
+    <t xml:space="preserve">0.144796848297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144362449645996</t>
   </si>
   <si>
     <t xml:space="preserve">0.143638476729393</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">0.147330805659294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143493682146072</t>
+    <t xml:space="preserve">0.143493697047234</t>
   </si>
   <si>
     <t xml:space="preserve">0.140163347125053</t>
@@ -2192,79 +2192,79 @@
     <t xml:space="preserve">0.140887349843979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900911927223</t>
+    <t xml:space="preserve">0.141900897026062</t>
   </si>
   <si>
     <t xml:space="preserve">0.147692799568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.145882830023766</t>
+    <t xml:space="preserve">0.145882815122604</t>
   </si>
   <si>
     <t xml:space="preserve">0.144217669963837</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142624914646149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143059313297272</t>
+    <t xml:space="preserve">0.142624884843826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143059298396111</t>
   </si>
   <si>
     <t xml:space="preserve">0.154570639133453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14320407807827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143348887562752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143783271312714</t>
+    <t xml:space="preserve">0.143204092979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143348872661591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143783256411552</t>
   </si>
   <si>
     <t xml:space="preserve">0.142480105161667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138136178255081</t>
+    <t xml:space="preserve">0.138136193156242</t>
   </si>
   <si>
     <t xml:space="preserve">0.13755701482296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158552557229996</t>
+    <t xml:space="preserve">0.158552542328835</t>
   </si>
   <si>
     <t xml:space="preserve">0.158914551138878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15384666621685</t>
+    <t xml:space="preserve">0.153846651315689</t>
   </si>
   <si>
     <t xml:space="preserve">0.150226727128029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152398675680161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150950700044632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155294626951218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160000532865524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157466575503349</t>
+    <t xml:space="preserve">0.152398690581322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150950729846954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155294612050056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160000517964363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15746659040451</t>
   </si>
   <si>
     <t xml:space="preserve">0.156742602586746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15927654504776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169774308800697</t>
+    <t xml:space="preserve">0.159276515245438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169774323701859</t>
   </si>
   <si>
     <t xml:space="preserve">0.16832634806633</t>
@@ -2276,49 +2276,49 @@
     <t xml:space="preserve">0.167964354157448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169050320982933</t>
+    <t xml:space="preserve">0.169050335884094</t>
   </si>
   <si>
     <t xml:space="preserve">0.171222269535065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17194627225399</t>
+    <t xml:space="preserve">0.171946257352829</t>
   </si>
   <si>
     <t xml:space="preserve">0.177014157176018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176290154457092</t>
+    <t xml:space="preserve">0.176290169358253</t>
   </si>
   <si>
     <t xml:space="preserve">0.179910093545914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184254005551338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180272072553635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179186120629311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17773811519146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175566181540489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175928190350533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175204202532768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174842193722725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176652178168297</t>
+    <t xml:space="preserve">0.184254020452499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180272087454796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179186105728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177738130092621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17556619644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17592816054821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175204187631607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174842208623886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176652163267136</t>
   </si>
   <si>
     <t xml:space="preserve">0.174480214715004</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">0.182514503598213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180560395121574</t>
+    <t xml:space="preserve">0.180560380220413</t>
   </si>
   <si>
     <t xml:space="preserve">0.17977873980999</t>
@@ -2348,10 +2348,10 @@
     <t xml:space="preserve">0.174698039889336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178997084498405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175479680299759</t>
+    <t xml:space="preserve">0.178997099399567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17547969520092</t>
   </si>
   <si>
     <t xml:space="preserve">0.177042976021767</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">0.171962261199951</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16727240383625</t>
+    <t xml:space="preserve">0.167272388935089</t>
   </si>
   <si>
     <t xml:space="preserve">0.168444857001305</t>
@@ -2390,16 +2390,16 @@
     <t xml:space="preserve">0.173134744167328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172743931412697</t>
+    <t xml:space="preserve">0.172743916511536</t>
   </si>
   <si>
     <t xml:space="preserve">0.16961732506752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170008167624474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172353088855743</t>
+    <t xml:space="preserve">0.170008152723312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172353118658066</t>
   </si>
   <si>
     <t xml:space="preserve">0.168054044246674</t>
@@ -2408,10 +2408,10 @@
     <t xml:space="preserve">0.170398980379105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167663216590881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166881576180458</t>
+    <t xml:space="preserve">0.16766320168972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166881561279297</t>
   </si>
   <si>
     <t xml:space="preserve">0.165709093213081</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">0.166490763425827</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165318265557289</t>
+    <t xml:space="preserve">0.16531828045845</t>
   </si>
   <si>
     <t xml:space="preserve">0.166099920868874</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">0.164536625146866</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16141003370285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162582501769066</t>
+    <t xml:space="preserve">0.161410048604012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162582531571388</t>
   </si>
   <si>
     <t xml:space="preserve">0.157501801848412</t>
@@ -2444,19 +2444,19 @@
     <t xml:space="preserve">0.160628408193588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163754999637604</t>
+    <t xml:space="preserve">0.163754969835281</t>
   </si>
   <si>
     <t xml:space="preserve">0.164927437901497</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168835684657097</t>
+    <t xml:space="preserve">0.168835699558258</t>
   </si>
   <si>
     <t xml:space="preserve">0.160237580537796</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162973344326019</t>
+    <t xml:space="preserve">0.162973329424858</t>
   </si>
   <si>
     <t xml:space="preserve">0.164145812392235</t>
@@ -2465,13 +2465,13 @@
     <t xml:space="preserve">0.161800876259804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159455925226212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158674269914627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159846752882004</t>
+    <t xml:space="preserve">0.159455940127373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158674284815788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159846737980843</t>
   </si>
   <si>
     <t xml:space="preserve">0.159065112471581</t>
@@ -2483,7 +2483,7 @@
     <t xml:space="preserve">0.163364171981812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182905331254005</t>
+    <t xml:space="preserve">0.182905316352844</t>
   </si>
   <si>
     <t xml:space="preserve">0.186031922698021</t>
@@ -2495,13 +2495,13 @@
     <t xml:space="preserve">0.184859439730644</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182123690843582</t>
+    <t xml:space="preserve">0.182123675942421</t>
   </si>
   <si>
     <t xml:space="preserve">0.180169567465782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181429490447044</t>
+    <t xml:space="preserve">0.181429505348206</t>
   </si>
   <si>
     <t xml:space="preserve">0.17890964448452</t>
@@ -2516,25 +2516,25 @@
     <t xml:space="preserve">0.178489655256271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178069695830345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176389768719673</t>
+    <t xml:space="preserve">0.178069680929184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176389783620834</t>
   </si>
   <si>
     <t xml:space="preserve">0.181009516119957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177229717373848</t>
+    <t xml:space="preserve">0.177229732275009</t>
   </si>
   <si>
     <t xml:space="preserve">0.174709886312485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177649721503258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179749578237534</t>
+    <t xml:space="preserve">0.177649706602097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179749593138695</t>
   </si>
   <si>
     <t xml:space="preserve">0.182269439101219</t>
@@ -2543,13 +2543,13 @@
     <t xml:space="preserve">0.18058954179287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179329603910446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175549849867821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175969809293747</t>
+    <t xml:space="preserve">0.179329618811607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17554983496666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175969824194908</t>
   </si>
   <si>
     <t xml:space="preserve">0.176809772849083</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">0.188149109482765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187309145927429</t>
+    <t xml:space="preserve">0.18730916082859</t>
   </si>
   <si>
     <t xml:space="preserve">0.188569083809853</t>
@@ -2573,13 +2573,13 @@
     <t xml:space="preserve">0.187729135155678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173449948430061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174289911985397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169670164585114</t>
+    <t xml:space="preserve">0.173449963331223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174289897084236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169670179486275</t>
   </si>
   <si>
     <t xml:space="preserve">0.159254774451256</t>
@@ -2600,10 +2600,10 @@
     <t xml:space="preserve">0.181849464774132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183529362082481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186469212174416</t>
+    <t xml:space="preserve">0.183529376983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186469197273254</t>
   </si>
   <si>
     <t xml:space="preserve">0.183949336409569</t>
@@ -2612,13 +2612,13 @@
     <t xml:space="preserve">0.18562924861908</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184789285063744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186049222946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191928893327713</t>
+    <t xml:space="preserve">0.184789299964905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186049208045006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191928878426552</t>
   </si>
   <si>
     <t xml:space="preserve">0.187119737267494</t>
@@ -3021,6 +3021,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.222000002861023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.217999994754791</t>
   </si>
 </sst>
 </file>
@@ -18850,7 +18853,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G596" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18876,7 +18879,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G597" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18902,7 +18905,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G598" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18928,7 +18931,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G599" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18954,7 +18957,7 @@
         <v>0.221499994397163</v>
       </c>
       <c r="G600" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18980,7 +18983,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G601" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19006,7 +19009,7 @@
         <v>0.219500005245209</v>
       </c>
       <c r="G602" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19032,7 +19035,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G603" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19058,7 +19061,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G604" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19084,7 +19087,7 @@
         <v>0.219500005245209</v>
       </c>
       <c r="G605" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19110,7 +19113,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G606" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19136,7 +19139,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19162,7 +19165,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G608" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19188,7 +19191,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G609" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19214,7 +19217,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G610" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19240,7 +19243,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G611" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19266,7 +19269,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G612" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19292,7 +19295,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G613" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19318,7 +19321,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G614" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19344,7 +19347,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G615" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19370,7 +19373,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G616" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19396,7 +19399,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G617" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19422,7 +19425,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G618" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19448,7 +19451,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G619" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19474,7 +19477,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G620" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19500,7 +19503,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G621" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19526,7 +19529,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G622" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19552,7 +19555,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G623" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19578,7 +19581,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G624" t="s">
-        <v>470</v>
+        <v>278</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19604,7 +19607,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G625" t="s">
-        <v>470</v>
+        <v>278</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19630,7 +19633,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G626" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19656,7 +19659,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G627" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19708,7 +19711,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G629" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19760,7 +19763,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G631" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -19994,7 +19997,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G640" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20124,7 +20127,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G645" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20306,7 +20309,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G652" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20358,7 +20361,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G654" t="s">
-        <v>470</v>
+        <v>278</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20410,7 +20413,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G656" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20566,7 +20569,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G662" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20618,7 +20621,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G664" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20644,7 +20647,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G665" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20670,7 +20673,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G666" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20852,7 +20855,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G673" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20904,7 +20907,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G675" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20930,7 +20933,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G676" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21216,7 +21219,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G687" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21268,7 +21271,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G689" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21372,7 +21375,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G693" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21398,7 +21401,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G694" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21502,7 +21505,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G698" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -59756,7 +59759,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.649375</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>1359694</v>
@@ -59777,6 +59780,32 @@
         <v>991</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6496412037</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>481096</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>0.217999994754791</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="1006">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">0.174941956996918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171099305152893</t>
+    <t xml:space="preserve">0.171099290251732</t>
   </si>
   <si>
     <t xml:space="preserve">0.169144243001938</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166178002953529</t>
+    <t xml:space="preserve">0.166178017854691</t>
   </si>
   <si>
     <t xml:space="preserve">0.163481414318085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165908351540565</t>
+    <t xml:space="preserve">0.165908336639404</t>
   </si>
   <si>
     <t xml:space="preserve">0.167324051260948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16267241537571</t>
+    <t xml:space="preserve">0.162672430276871</t>
   </si>
   <si>
     <t xml:space="preserve">0.157144382596016</t>
@@ -74,25 +74,25 @@
     <t xml:space="preserve">0.146627634763718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148515269160271</t>
+    <t xml:space="preserve">0.148515254259109</t>
   </si>
   <si>
     <t xml:space="preserve">0.138335600495338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144740015268326</t>
+    <t xml:space="preserve">0.144740030169487</t>
   </si>
   <si>
     <t xml:space="preserve">0.148313030600548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148380443453789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158223018050194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152357921004295</t>
+    <t xml:space="preserve">0.148380413651466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158223032951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152357906103134</t>
   </si>
   <si>
     <t xml:space="preserve">0.15208825469017</t>
@@ -110,34 +110,34 @@
     <t xml:space="preserve">0.14548160135746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142582774162292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142717599868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131324470043182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135504156351089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12822337448597</t>
+    <t xml:space="preserve">0.14258274435997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142717584967613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13132444024086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135504171252251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128223344683647</t>
   </si>
   <si>
     <t xml:space="preserve">0.130785122513771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138874918222427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138200759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143459126353264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14022321999073</t>
+    <t xml:space="preserve">0.138874903321266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138200744986534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143459141254425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140223234891891</t>
   </si>
   <si>
     <t xml:space="preserve">0.137998521327972</t>
@@ -146,34 +146,34 @@
     <t xml:space="preserve">0.144605189561844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142515331506729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14197601377964</t>
+    <t xml:space="preserve">0.142515316605568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141976028680801</t>
   </si>
   <si>
     <t xml:space="preserve">0.14372880756855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144065871834755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142987236380577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147706285119057</t>
+    <t xml:space="preserve">0.144065886735916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142987221479416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147706300020218</t>
   </si>
   <si>
     <t xml:space="preserve">0.153166905045509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154178127646446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150942206382751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150672554969788</t>
+    <t xml:space="preserve">0.154178142547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150942221283913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150672540068626</t>
   </si>
   <si>
     <t xml:space="preserve">0.154717445373535</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.162402763962746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16449262201786</t>
+    <t xml:space="preserve">0.164492636919022</t>
   </si>
   <si>
     <t xml:space="preserve">0.161796018481255</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160852208733559</t>
+    <t xml:space="preserve">0.16085222363472</t>
   </si>
   <si>
     <t xml:space="preserve">0.158088207244873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159099414944649</t>
+    <t xml:space="preserve">0.15909942984581</t>
   </si>
   <si>
     <t xml:space="preserve">0.155526429414749</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">0.154312953352928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14898718893528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150200664997101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150065824389458</t>
+    <t xml:space="preserve">0.148987174034119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150200635194778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150065809488297</t>
   </si>
   <si>
     <t xml:space="preserve">0.149930968880653</t>
@@ -224,22 +224,22 @@
     <t xml:space="preserve">0.144268110394478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142245680093765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138268187642097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1478411257267</t>
+    <t xml:space="preserve">0.142245665192604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138268202543259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147841110825539</t>
   </si>
   <si>
     <t xml:space="preserve">0.151751190423965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157279223203659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156874746084213</t>
+    <t xml:space="preserve">0.15727923810482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156874731183052</t>
   </si>
   <si>
     <t xml:space="preserve">0.155998334288597</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">0.152695000171661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157009556889534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152560174465179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122458934784</t>
+    <t xml:space="preserve">0.157009541988373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152560159564018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122473835945</t>
   </si>
   <si>
     <t xml:space="preserve">0.154429942369461</t>
@@ -266,43 +266,43 @@
     <t xml:space="preserve">0.150274872779846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150828883051872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14778183400631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147712588310242</t>
+    <t xml:space="preserve">0.150828897953033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147781848907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147712603211403</t>
   </si>
   <si>
     <t xml:space="preserve">0.146812319755554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142657235264778</t>
+    <t xml:space="preserve">0.142657250165939</t>
   </si>
   <si>
     <t xml:space="preserve">0.142103239893913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138155922293663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139817982912064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13988721370697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140579700469971</t>
+    <t xml:space="preserve">0.138155937194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139817968010902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139887228608131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140579730272293</t>
   </si>
   <si>
     <t xml:space="preserve">0.141272246837616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139748722314835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141202971339226</t>
+    <t xml:space="preserve">0.139748692512512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141203001141548</t>
   </si>
   <si>
     <t xml:space="preserve">0.144042283296585</t>
@@ -320,94 +320,94 @@
     <t xml:space="preserve">0.147989585995674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144804030656815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147574082016945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1488898396492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148128107190132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144180789589882</t>
+    <t xml:space="preserve">0.144804045557976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147574096918106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148889854550362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148128092288971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14418075978756</t>
   </si>
   <si>
     <t xml:space="preserve">0.146673828363419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141826242208481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133654624223709</t>
+    <t xml:space="preserve">0.141826257109642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133654609322548</t>
   </si>
   <si>
     <t xml:space="preserve">0.132685095071793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.134485647082329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121881924569607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123890228569508</t>
+    <t xml:space="preserve">0.134485617280006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121881917119026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123890213668346</t>
   </si>
   <si>
     <t xml:space="preserve">0.126244753599167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123405449092388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125898495316505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116341829299927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787841379642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122574426233768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111895561218</t>
+    <t xml:space="preserve">0.123405456542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125898510217667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116341836750507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787833929062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12257444858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111910462379</t>
   </si>
   <si>
     <t xml:space="preserve">0.12292069196701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122228190302849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118419386446476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11350255459547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110940255224705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118904121220112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122297443449497</t>
+    <t xml:space="preserve">0.122228197753429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419371545315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113502539694309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110940277576447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118904128670692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297435998917</t>
   </si>
   <si>
     <t xml:space="preserve">0.126452505588531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124651968479156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126175507903099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130953833460808</t>
+    <t xml:space="preserve">0.124651975929737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126175493001938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130953818559647</t>
   </si>
   <si>
     <t xml:space="preserve">0.128668546676636</t>
@@ -416,19 +416,19 @@
     <t xml:space="preserve">0.128460764884949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127768263220787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127422019839287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126729518175125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128253042697906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130884543061256</t>
+    <t xml:space="preserve">0.127768278121948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127422004938126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126729503273964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128253027796745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130884557962418</t>
   </si>
   <si>
     <t xml:space="preserve">0.131161570549011</t>
@@ -437,103 +437,103 @@
     <t xml:space="preserve">0.127976030111313</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120496898889542</t>
+    <t xml:space="preserve">0.120496913790703</t>
   </si>
   <si>
     <t xml:space="preserve">0.11821161955595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117172844707966</t>
+    <t xml:space="preserve">0.117172859609127</t>
   </si>
   <si>
     <t xml:space="preserve">0.114956811070442</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116618864238262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118627123534679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119804382324219</t>
+    <t xml:space="preserve">0.116618849337101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118627108633518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119804389774799</t>
   </si>
   <si>
     <t xml:space="preserve">0.118765614926815</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120912417769432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718565881252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319625198841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119250386953354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118834882974625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121258676052094</t>
+    <t xml:space="preserve">0.120912432670593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718580782413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319647550583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119250379502773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118834875524044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121258668601513</t>
   </si>
   <si>
     <t xml:space="preserve">0.122505187988281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123197704553604</t>
+    <t xml:space="preserve">0.123197697103024</t>
   </si>
   <si>
     <t xml:space="preserve">0.125552237033844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125690743327141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121743403375149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674180030823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120150648057461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121120169758797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488632142544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665890932083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372315049171</t>
+    <t xml:space="preserve">0.125690758228302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121743410825729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674165129662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120150655508041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121120154857635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488639593124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665898382664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372329950333</t>
   </si>
   <si>
     <t xml:space="preserve">0.115926332771778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117726869881153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116826593875885</t>
+    <t xml:space="preserve">0.117726847529411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116826601326466</t>
   </si>
   <si>
     <t xml:space="preserve">0.117103606462479</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121189422905445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233823657036</t>
+    <t xml:space="preserve">0.121189408004284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233838558197</t>
   </si>
   <si>
     <t xml:space="preserve">0.118973389267921</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118350125849247</t>
+    <t xml:space="preserve">0.118350133299828</t>
   </si>
   <si>
     <t xml:space="preserve">0.12811453640461</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">0.12409795820713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.125205993652344</t>
+    <t xml:space="preserve">0.125205978751183</t>
   </si>
   <si>
     <t xml:space="preserve">0.123959466814995</t>
@@ -554,52 +554,52 @@
     <t xml:space="preserve">0.117034368216991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11779610812664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117934614419937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116480357944965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115095317363739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433293998241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11149425804615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115441597998142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113571800291538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11467981338501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111771285533905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111009500920773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11156353354454</t>
+    <t xml:space="preserve">0.117796115577221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117934629321098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116480335593224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11509532481432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433301448822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111494272947311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115441583096981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113571807742119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114679828286171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111771255731583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111009515821934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111563518643379</t>
   </si>
   <si>
     <t xml:space="preserve">0.112186767160892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117588378489017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327944099903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122020445764065</t>
+    <t xml:space="preserve">0.117588363587856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327921748161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122020430862904</t>
   </si>
   <si>
     <t xml:space="preserve">0.122435934841633</t>
@@ -608,7 +608,7 @@
     <t xml:space="preserve">0.119942903518677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124305717647076</t>
+    <t xml:space="preserve">0.124305695295334</t>
   </si>
   <si>
     <t xml:space="preserve">0.122851438820362</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">0.120773904025555</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119596637785435</t>
+    <t xml:space="preserve">0.119596652686596</t>
   </si>
   <si>
     <t xml:space="preserve">0.119527384638786</t>
@@ -626,22 +626,22 @@
     <t xml:space="preserve">0.120358422398567</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12181268632412</t>
+    <t xml:space="preserve">0.121812663972378</t>
   </si>
   <si>
     <t xml:space="preserve">0.141895487904549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169665187597275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159970045089722</t>
+    <t xml:space="preserve">0.169665172696114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159970015287399</t>
   </si>
   <si>
     <t xml:space="preserve">0.157199993729591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146119818091393</t>
+    <t xml:space="preserve">0.146119803190231</t>
   </si>
   <si>
     <t xml:space="preserve">0.146466076374054</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">0.148197337985039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144942536950111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148682102560997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149928614497185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154360711574554</t>
+    <t xml:space="preserve">0.144942566752434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148682117462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149928629398346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154360696673393</t>
   </si>
   <si>
     <t xml:space="preserve">0.157476991415024</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159900784492493</t>
+    <t xml:space="preserve">0.15990075469017</t>
   </si>
   <si>
     <t xml:space="preserve">0.15803100168705</t>
@@ -677,19 +677,19 @@
     <t xml:space="preserve">0.147366315126419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143349766731262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143696039915085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145358055830002</t>
+    <t xml:space="preserve">0.143349751830101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143696025013924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145358070731163</t>
   </si>
   <si>
     <t xml:space="preserve">0.143626764416695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144319295883179</t>
+    <t xml:space="preserve">0.144319280982018</t>
   </si>
   <si>
     <t xml:space="preserve">0.137809678912163</t>
@@ -698,82 +698,82 @@
     <t xml:space="preserve">0.139194712042809</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140164226293564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140510484576225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140441223978996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13954097032547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138502195477486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139679476618767</t>
+    <t xml:space="preserve">0.140164211392403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140510469675064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140441238880157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139540940523148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138502210378647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139679461717606</t>
   </si>
   <si>
     <t xml:space="preserve">0.13711716234684</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139056220650673</t>
+    <t xml:space="preserve">0.139056205749512</t>
   </si>
   <si>
     <t xml:space="preserve">0.144111528992653</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14425003528595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145912051200867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142588034272194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145981326699257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149028360843658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147851079702377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148058831691742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150413393974304</t>
+    <t xml:space="preserve">0.144250020384789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145912081003189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142588004469872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145981311798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14902837574482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147851094603539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148058861494064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150413364171982</t>
   </si>
   <si>
     <t xml:space="preserve">0.148959115147591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15207539498806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152352422475815</t>
+    <t xml:space="preserve">0.152075409889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152352437376976</t>
   </si>
   <si>
     <t xml:space="preserve">0.155399456620216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160870283842087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159139022231102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158931255340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155814975500107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151936903595924</t>
+    <t xml:space="preserve">0.160870298743248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159139037132263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158931270241737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155814945697784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151936918497086</t>
   </si>
   <si>
     <t xml:space="preserve">0.150967389345169</t>
@@ -782,22 +782,22 @@
     <t xml:space="preserve">0.148612856864929</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147920325398445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147297084331512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143141999840736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141687750816345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146258324384689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149720877408981</t>
+    <t xml:space="preserve">0.147920340299606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147297069430351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143142014741898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141687765717506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146258309483528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14972086250782</t>
   </si>
   <si>
     <t xml:space="preserve">0.152213901281357</t>
@@ -812,13 +812,13 @@
     <t xml:space="preserve">0.145773559808731</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148474335670471</t>
+    <t xml:space="preserve">0.148474365472794</t>
   </si>
   <si>
     <t xml:space="preserve">0.148472413420677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146802619099617</t>
+    <t xml:space="preserve">0.146802604198456</t>
   </si>
   <si>
     <t xml:space="preserve">0.145411133766174</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.147011324763298</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148541986942291</t>
+    <t xml:space="preserve">0.14854197204113</t>
   </si>
   <si>
     <t xml:space="preserve">0.148959428071976</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">0.146106868982315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14450666308403</t>
+    <t xml:space="preserve">0.144506648182869</t>
   </si>
   <si>
     <t xml:space="preserve">0.14401963353157</t>
@@ -857,40 +857,40 @@
     <t xml:space="preserve">0.140749603509903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143045574426651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140193030238152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141236618161201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14151494204998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142071515321732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139497265219688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13901025056839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14033217728138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139149412512779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757912278175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137618765234947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137062177062035</t>
+    <t xml:space="preserve">0.143045604228973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14019301533699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141236662864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141514927148819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142071545124054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13949728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139010235667229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140332162380219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139149397611618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757897377014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137618750333786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137062162160873</t>
   </si>
   <si>
     <t xml:space="preserve">0.13817535340786</t>
@@ -905,31 +905,31 @@
     <t xml:space="preserve">0.140610471367836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141793236136436</t>
+    <t xml:space="preserve">0.141793251037598</t>
   </si>
   <si>
     <t xml:space="preserve">0.141445353627205</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14116707444191</t>
+    <t xml:space="preserve">0.141167089343071</t>
   </si>
   <si>
     <t xml:space="preserve">0.14068004488945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140123426914215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141584515571594</t>
+    <t xml:space="preserve">0.140123456716537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141584500670433</t>
   </si>
   <si>
     <t xml:space="preserve">0.140053883194923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139636442065239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139427706599236</t>
+    <t xml:space="preserve">0.139636412262917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139427691698074</t>
   </si>
   <si>
     <t xml:space="preserve">0.147289648652077</t>
@@ -941,37 +941,37 @@
     <t xml:space="preserve">0.149863913655281</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150629222393036</t>
+    <t xml:space="preserve">0.150629237294197</t>
   </si>
   <si>
     <t xml:space="preserve">0.149724766612053</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147985383868217</t>
+    <t xml:space="preserve">0.147985368967056</t>
   </si>
   <si>
     <t xml:space="preserve">0.146246016025543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147428780794144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149237737059593</t>
+    <t xml:space="preserve">0.147428795695305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149237722158432</t>
   </si>
   <si>
     <t xml:space="preserve">0.150281354784966</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148402839899063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151742413640022</t>
+    <t xml:space="preserve">0.148402854800224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151742428541183</t>
   </si>
   <si>
     <t xml:space="preserve">0.15202072262764</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152577310800552</t>
+    <t xml:space="preserve">0.152577325701714</t>
   </si>
   <si>
     <t xml:space="preserve">0.152159869670868</t>
@@ -980,13 +980,13 @@
     <t xml:space="preserve">0.150490075349808</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151324987411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150977090001106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150350943207741</t>
+    <t xml:space="preserve">0.151324972510338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150977104902267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15035092830658</t>
   </si>
   <si>
     <t xml:space="preserve">0.149029016494751</t>
@@ -998,19 +998,19 @@
     <t xml:space="preserve">0.149098590016365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151672840118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166840136051178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169762253761292</t>
+    <t xml:space="preserve">0.151672855019569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166840150952339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169762283563614</t>
   </si>
   <si>
     <t xml:space="preserve">0.168649077415466</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166979268193245</t>
+    <t xml:space="preserve">0.166979283094406</t>
   </si>
   <si>
     <t xml:space="preserve">0.160369694232941</t>
@@ -1040,22 +1040,22 @@
     <t xml:space="preserve">0.167675033211708</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168996959924698</t>
+    <t xml:space="preserve">0.168996945023537</t>
   </si>
   <si>
     <t xml:space="preserve">0.16586609184742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164196282625198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169275268912315</t>
+    <t xml:space="preserve">0.164196312427521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169275254011154</t>
   </si>
   <si>
     <t xml:space="preserve">0.171988666057587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170458018779755</t>
+    <t xml:space="preserve">0.170458003878593</t>
   </si>
   <si>
     <t xml:space="preserve">0.173241004347801</t>
@@ -1067,16 +1067,16 @@
     <t xml:space="preserve">0.185068726539612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187712550163269</t>
+    <t xml:space="preserve">0.18771256506443</t>
   </si>
   <si>
     <t xml:space="preserve">0.184581682085991</t>
   </si>
   <si>
-    <t xml:space="preserve">0.189938917756081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198635771870613</t>
+    <t xml:space="preserve">0.189938932657242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.198635756969452</t>
   </si>
   <si>
     <t xml:space="preserve">0.197383433580399</t>
@@ -1085,19 +1085,19 @@
     <t xml:space="preserve">0.193417653441429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.192443624138832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187851697206497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194809153676033</t>
+    <t xml:space="preserve">0.192443639039993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187851712107658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194809183478355</t>
   </si>
   <si>
     <t xml:space="preserve">0.191678300499916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.188060432672501</t>
+    <t xml:space="preserve">0.188060387969017</t>
   </si>
   <si>
     <t xml:space="preserve">0.183468490839005</t>
@@ -1106,25 +1106,25 @@
     <t xml:space="preserve">0.185694888234138</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186112329363823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183816388249397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183677211403847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178528681397438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176719754934311</t>
+    <t xml:space="preserve">0.186112344264984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183816373348236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183677226305008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178528666496277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176719725131989</t>
   </si>
   <si>
     <t xml:space="preserve">0.172962710261345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177972093224525</t>
+    <t xml:space="preserve">0.177972078323364</t>
   </si>
   <si>
     <t xml:space="preserve">0.179363593459129</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">0.180755063891411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1808942258358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177763342857361</t>
+    <t xml:space="preserve">0.180894210934639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177763357758522</t>
   </si>
   <si>
     <t xml:space="preserve">0.174423769116402</t>
@@ -1145,73 +1145,73 @@
     <t xml:space="preserve">0.174145475029945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185416579246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185138270258904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182424858212471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18005932867527</t>
+    <t xml:space="preserve">0.18541656434536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185138285160065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182424873113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180059313774109</t>
   </si>
   <si>
     <t xml:space="preserve">0.180824667215347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176023989915848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163013532757759</t>
+    <t xml:space="preserve">0.176023975014687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163013517856598</t>
   </si>
   <si>
     <t xml:space="preserve">0.162804797291756</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165587812662125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166074812412262</t>
+    <t xml:space="preserve">0.165587797760963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166074797511101</t>
   </si>
   <si>
     <t xml:space="preserve">0.166144385933876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166770547628403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167396709322929</t>
+    <t xml:space="preserve">0.166770577430725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167396739125252</t>
   </si>
   <si>
     <t xml:space="preserve">0.165935665369034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.163918003439903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166492268443108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167535871267319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165448620915413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167327165603638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165170341730118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167466297745705</t>
+    <t xml:space="preserve">0.163917988538742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166492253541946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16753588616848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165448650717735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167327150702477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165170326828957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167466312646866</t>
   </si>
   <si>
     <t xml:space="preserve">0.16670098900795</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164405032992363</t>
+    <t xml:space="preserve">0.164405018091202</t>
   </si>
   <si>
     <t xml:space="preserve">0.163500562310219</t>
@@ -1223,13 +1223,13 @@
     <t xml:space="preserve">0.166283532977104</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166909709572792</t>
+    <t xml:space="preserve">0.166909694671631</t>
   </si>
   <si>
     <t xml:space="preserve">0.165518209338188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168022900819778</t>
+    <t xml:space="preserve">0.16802291572094</t>
   </si>
   <si>
     <t xml:space="preserve">0.168370768427849</t>
@@ -1238,16 +1238,16 @@
     <t xml:space="preserve">0.1648920327425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173588871955872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17254526913166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181589990854263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180198490619659</t>
+    <t xml:space="preserve">0.173588886857033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172545254230499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181589961051941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180198460817337</t>
   </si>
   <si>
     <t xml:space="preserve">0.179502710700035</t>
@@ -1256,19 +1256,19 @@
     <t xml:space="preserve">0.178806975483894</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180546343326569</t>
+    <t xml:space="preserve">0.18054635822773</t>
   </si>
   <si>
     <t xml:space="preserve">0.182981476187706</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182633578777313</t>
+    <t xml:space="preserve">0.182633593678474</t>
   </si>
   <si>
     <t xml:space="preserve">0.183329343795776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177415490150452</t>
+    <t xml:space="preserve">0.17741547524929</t>
   </si>
   <si>
     <t xml:space="preserve">0.179154843091965</t>
@@ -1280,16 +1280,16 @@
     <t xml:space="preserve">0.162456929683685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161761194467545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161413297057152</t>
+    <t xml:space="preserve">0.161761179566383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161413311958313</t>
   </si>
   <si>
     <t xml:space="preserve">0.157586693763733</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159326061606407</t>
+    <t xml:space="preserve">0.159326046705246</t>
   </si>
   <si>
     <t xml:space="preserve">0.154803708195686</t>
@@ -1304,115 +1304,112 @@
     <t xml:space="preserve">0.154455840587616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.149933472275734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152716487646103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15619520843029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156543076038361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155151575803757</t>
+    <t xml:space="preserve">0.149933487176895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152716472744942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156195223331451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156543046236038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155151590704918</t>
   </si>
   <si>
     <t xml:space="preserve">0.155847325921059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153064340353012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149585589766502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148889854550362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148194119334221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147846221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146454766392708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157934561371803</t>
+    <t xml:space="preserve">0.153064355254173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149585619568825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14819410443306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147846236824989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146454751491547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157934576272964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160021811723709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158282443881035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157238826155663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16179983317852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163222253322601</t>
   </si>
   <si>
     <t xml:space="preserve">0.160021796822548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158282458782196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157238826155663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161799848079681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16322223842144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160021811723709</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.16144423186779</t>
   </si>
   <si>
     <t xml:space="preserve">0.160733014345169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155043348670006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157532587647438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156110182404518</t>
+    <t xml:space="preserve">0.155043363571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157532572746277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156110167503357</t>
   </si>
   <si>
     <t xml:space="preserve">0.153620943427086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.155398949980736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153976529836655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149709299206734</t>
+    <t xml:space="preserve">0.155398964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153976544737816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149709314107895</t>
   </si>
   <si>
     <t xml:space="preserve">0.147575676441193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14650884270668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145797654986382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14330843091011</t>
+    <t xml:space="preserve">0.146508857607841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14579764008522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143308416008949</t>
   </si>
   <si>
     <t xml:space="preserve">0.138827800750732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137974381446838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139965727925301</t>
+    <t xml:space="preserve">0.137974351644516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139965757727623</t>
   </si>
   <si>
     <t xml:space="preserve">0.142597213387489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147220075130463</t>
+    <t xml:space="preserve">0.147220060229301</t>
   </si>
   <si>
     <t xml:space="preserve">0.145442053675652</t>
@@ -1424,34 +1421,37 @@
     <t xml:space="preserve">0.140107989311218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138401105999947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141957119107246</t>
+    <t xml:space="preserve">0.138401076197624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141957134008408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144019618630409</t>
   </si>
   <si>
     <t xml:space="preserve">0.140676960349083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141245901584625</t>
+    <t xml:space="preserve">0.141245931386948</t>
   </si>
   <si>
     <t xml:space="preserve">0.141103684902191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139112308621407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137263149023056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136551931500435</t>
+    <t xml:space="preserve">0.139112293720245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137263163924217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136551946401596</t>
   </si>
   <si>
     <t xml:space="preserve">0.140534713864326</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140819177031517</t>
+    <t xml:space="preserve">0.140819191932678</t>
   </si>
   <si>
     <t xml:space="preserve">0.139823511242867</t>
@@ -1463,40 +1463,40 @@
     <t xml:space="preserve">0.142099365592003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141672641038895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14295282959938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14366403222084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147931292653084</t>
+    <t xml:space="preserve">0.141672655940056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142952814698219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143664047122002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147931277751923</t>
   </si>
   <si>
     <t xml:space="preserve">0.148642495274544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152909725904465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152554139494896</t>
+    <t xml:space="preserve">0.152909740805626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152554124593735</t>
   </si>
   <si>
     <t xml:space="preserve">0.149353682994843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144375219941139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141388162970543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142241626977921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13825885951519</t>
+    <t xml:space="preserve">0.144375249743462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141388148069382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142241612076759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138258844614029</t>
   </si>
   <si>
     <t xml:space="preserve">0.134845048189163</t>
@@ -1505,22 +1505,22 @@
     <t xml:space="preserve">0.136125221848488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138543352484703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141530394554138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139254540205002</t>
+    <t xml:space="preserve">0.138543322682381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141530409455299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139254525303841</t>
   </si>
   <si>
     <t xml:space="preserve">0.14039246737957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138685569167137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132995918393135</t>
+    <t xml:space="preserve">0.138685554265976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132995903491974</t>
   </si>
   <si>
     <t xml:space="preserve">0.134987279772758</t>
@@ -1529,46 +1529,46 @@
     <t xml:space="preserve">0.135129526257515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.129439860582352</t>
+    <t xml:space="preserve">0.12943984568119</t>
   </si>
   <si>
     <t xml:space="preserve">0.125030353665352</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12517261505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123465716838837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123750194907188</t>
+    <t xml:space="preserve">0.125172600150108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123465724289417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123750202357769</t>
   </si>
   <si>
     <t xml:space="preserve">0.126310542225838</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126595035195351</t>
+    <t xml:space="preserve">0.126595050096512</t>
   </si>
   <si>
     <t xml:space="preserve">0.123892433941364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122327789664268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119482949376106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117633804678917</t>
+    <t xml:space="preserve">0.12232780456543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119482956826687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117633819580078</t>
   </si>
   <si>
     <t xml:space="preserve">0.116922602057457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112513117492199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926913917065</t>
+    <t xml:space="preserve">0.112513110041618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926921367645</t>
   </si>
   <si>
     <t xml:space="preserve">0.113793291151524</t>
@@ -1577,70 +1577,70 @@
     <t xml:space="preserve">0.115215696394444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114931225776672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116638116538525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119198486208916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119909673929214</t>
+    <t xml:space="preserve">0.114931218326092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116638123989105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119198463857174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119909666478634</t>
   </si>
   <si>
     <t xml:space="preserve">0.11934071034193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.123038992285728</t>
+    <t xml:space="preserve">0.123038984835148</t>
   </si>
   <si>
     <t xml:space="preserve">0.124461404979229</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120051920413971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121616579592228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120905376970768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060544133186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111659668385983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114788994193077</t>
+    <t xml:space="preserve">0.12005191296339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121616572141647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120905369520187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060529232025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111659660935402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114788979291916</t>
   </si>
   <si>
     <t xml:space="preserve">0.113366566598415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116211377084255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754506766796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127590715885162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127875208854675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127306237816811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124745883047581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120763137936592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12190106511116</t>
+    <t xml:space="preserve">0.116211384534836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754499316216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127590730786324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127875223755836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127306252717972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124745905399323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120763123035431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121901050209999</t>
   </si>
   <si>
     <t xml:space="preserve">0.119056232273579</t>
@@ -1649,43 +1649,43 @@
     <t xml:space="preserve">0.114504493772984</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117349319159985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646732807159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452803611755</t>
+    <t xml:space="preserve">0.117349311709404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114646747708321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452788710594</t>
   </si>
   <si>
     <t xml:space="preserve">0.12047865241766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120336398482323</t>
+    <t xml:space="preserve">0.120336413383484</t>
   </si>
   <si>
     <t xml:space="preserve">0.120194174349308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120620876550674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487253785133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082073628902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111944153904915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112655356526375</t>
+    <t xml:space="preserve">0.120620869100094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487261235714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082066178322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111944146454334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112655363976955</t>
   </si>
   <si>
     <t xml:space="preserve">0.110663965344429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110379509627819</t>
+    <t xml:space="preserve">0.110379494726658</t>
   </si>
   <si>
     <t xml:space="preserve">0.111801892518997</t>
@@ -1694,13 +1694,13 @@
     <t xml:space="preserve">0.112370878458023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111232943832874</t>
+    <t xml:space="preserve">0.111232936382294</t>
   </si>
   <si>
     <t xml:space="preserve">0.116069152951241</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121332101523876</t>
+    <t xml:space="preserve">0.121332079172134</t>
   </si>
   <si>
     <t xml:space="preserve">0.12261226773262</t>
@@ -1709,13 +1709,13 @@
     <t xml:space="preserve">0.124319158494473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.121758826076984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122185550630093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115642428398132</t>
+    <t xml:space="preserve">0.121758818626404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122185558080673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115642435848713</t>
   </si>
   <si>
     <t xml:space="preserve">0.116495877504349</t>
@@ -1724,139 +1724,139 @@
     <t xml:space="preserve">0.11862950772047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1197674497962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118202768266201</t>
+    <t xml:space="preserve">0.119767434895039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118202783167362</t>
   </si>
   <si>
     <t xml:space="preserve">0.115357950329781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116780355572701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117491565644741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116282522678375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118771746754646</t>
+    <t xml:space="preserve">0.116780370473862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117491573095322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116282507777214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118771739304066</t>
   </si>
   <si>
     <t xml:space="preserve">0.119838558137417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120549775660038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121629349887371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12126737087965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122715331614017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121991358697414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119095414876938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118009433150291</t>
+    <t xml:space="preserve">0.120549760758877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12162934243679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12126736342907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122715339064598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121991351246834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119095422327518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118009440600872</t>
   </si>
   <si>
     <t xml:space="preserve">0.116923466324806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114751502871513</t>
+    <t xml:space="preserve">0.114751517772675</t>
   </si>
   <si>
     <t xml:space="preserve">0.115113481879234</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116561464965343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119457393884659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116199485957623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115837477147579</t>
+    <t xml:space="preserve">0.116561472415924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119457386434078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116199463605881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11583749204874</t>
   </si>
   <si>
     <t xml:space="preserve">0.113665536046028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114389531314373</t>
+    <t xml:space="preserve">0.114389508962631</t>
   </si>
   <si>
     <t xml:space="preserve">0.11402752250433</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112217552959919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110769592225552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111855573952198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107149668037891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107873670756817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107511661946774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104977712035179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108235642313957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106425680220127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108959630131721</t>
+    <t xml:space="preserve">0.11221756786108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110769584774971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111855551600456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107149675488472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107873655855656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107511654496193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104977704584599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108235657215118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106425695121288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108959637582302</t>
   </si>
   <si>
     <t xml:space="preserve">0.109683625400066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110407613217831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111493572592735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111131578683853</t>
+    <t xml:space="preserve">0.11040760576725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111493587493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111131586134434</t>
   </si>
   <si>
     <t xml:space="preserve">0.113303542137146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108597651124001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110045611858368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109321616590023</t>
+    <t xml:space="preserve">0.108597636222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110045604407787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109321624040604</t>
   </si>
   <si>
     <t xml:space="preserve">0.115475498139858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118733420968056</t>
+    <t xml:space="preserve">0.118733428418636</t>
   </si>
   <si>
     <t xml:space="preserve">0.120181389153004</t>
@@ -1865,40 +1865,40 @@
     <t xml:space="preserve">0.119819395244122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120543383061886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118371427059174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117285460233688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123801320791245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126335248351097</t>
+    <t xml:space="preserve">0.120543375611305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118371419608593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117285452783108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123801298439503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126335263252258</t>
   </si>
   <si>
     <t xml:space="preserve">0.123439311981201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124525308609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12488728761673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124163284897804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1230773255229</t>
+    <t xml:space="preserve">0.124525316059589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12488729506731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124163292348385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12307733297348</t>
   </si>
   <si>
     <t xml:space="preserve">0.144072875380516</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154208660125732</t>
+    <t xml:space="preserve">0.15420863032341</t>
   </si>
   <si>
     <t xml:space="preserve">0.146244823932648</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">0.177376136183739</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191855803132057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18461599946022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171584278345108</t>
+    <t xml:space="preserve">0.191855818033218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184615969657898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171584248542786</t>
   </si>
   <si>
     <t xml:space="preserve">0.166516378521919</t>
@@ -1925,22 +1925,22 @@
     <t xml:space="preserve">0.170136302709579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173756211996078</t>
+    <t xml:space="preserve">0.17375622689724</t>
   </si>
   <si>
     <t xml:space="preserve">0.173032224178314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168688327074051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164344415068626</t>
+    <t xml:space="preserve">0.168688341975212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164344429969788</t>
   </si>
   <si>
     <t xml:space="preserve">0.160724505782127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.161448508501053</t>
+    <t xml:space="preserve">0.161448493599892</t>
   </si>
   <si>
     <t xml:space="preserve">0.162172481417656</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">0.165068417787552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157828569412231</t>
+    <t xml:space="preserve">0.15782855451107</t>
   </si>
   <si>
     <t xml:space="preserve">0.162896454334259</t>
@@ -1970,13 +1970,13 @@
     <t xml:space="preserve">0.156380608677864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153484642505646</t>
+    <t xml:space="preserve">0.153484672307968</t>
   </si>
   <si>
     <t xml:space="preserve">0.149140760302544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14696878194809</t>
+    <t xml:space="preserve">0.146968811750412</t>
   </si>
   <si>
     <t xml:space="preserve">0.152036681771278</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">0.172308266162872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169412329792976</t>
+    <t xml:space="preserve">0.169412314891815</t>
   </si>
   <si>
     <t xml:space="preserve">0.145520836114883</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">0.151312723755836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138642981648445</t>
+    <t xml:space="preserve">0.138642966747284</t>
   </si>
   <si>
     <t xml:space="preserve">0.139728963375092</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">0.136833012104034</t>
   </si>
   <si>
-    <t xml:space="preserve">0.131041154265404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122353337705135</t>
+    <t xml:space="preserve">0.131041139364243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122353345155716</t>
   </si>
   <si>
     <t xml:space="preserve">0.106787674129009</t>
@@ -2021,46 +2021,46 @@
     <t xml:space="preserve">0.0912220254540443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0970138907432556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0962899178266525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0977378860116005</t>
+    <t xml:space="preserve">0.0970138981938362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0962899103760719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0977378785610199</t>
   </si>
   <si>
     <t xml:space="preserve">0.100633807480335</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1013577952981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102443769574165</t>
+    <t xml:space="preserve">0.10135780274868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102443777024746</t>
   </si>
   <si>
     <t xml:space="preserve">0.104253731667995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.106063701212406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102805756032467</t>
+    <t xml:space="preserve">0.106063693761826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102805763483047</t>
   </si>
   <si>
     <t xml:space="preserve">0.105701707303524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103529751300812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106570489704609</t>
+    <t xml:space="preserve">0.103529758751392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106570474803448</t>
   </si>
   <si>
     <t xml:space="preserve">0.107004880905151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.108018457889557</t>
+    <t xml:space="preserve">0.108018465340137</t>
   </si>
   <si>
     <t xml:space="preserve">0.107294462621212</t>
@@ -2069,40 +2069,40 @@
     <t xml:space="preserve">0.102081783115864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.103819333016872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103674560785294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103964135050774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104832924902439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105412118136883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108452841639519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111203983426094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10686007142067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10671529173851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122208550572395</t>
+    <t xml:space="preserve">0.103819347918034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103674545884132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103964142501354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10483293235302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105412110686302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108452849090099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111203990876675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10686007887125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10671528428793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122208543121815</t>
   </si>
   <si>
     <t xml:space="preserve">0.108163245022297</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109466426074505</t>
+    <t xml:space="preserve">0.109466403722763</t>
   </si>
   <si>
     <t xml:space="preserve">0.103384956717491</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">0.104688130319118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110479988157749</t>
+    <t xml:space="preserve">0.11047999560833</t>
   </si>
   <si>
     <t xml:space="preserve">0.112796746194363</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">0.113955117762089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.115692682564259</t>
+    <t xml:space="preserve">0.115692675113678</t>
   </si>
   <si>
     <t xml:space="preserve">0.154932633042336</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">0.152760669589043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157104581594467</t>
+    <t xml:space="preserve">0.157104596495628</t>
   </si>
   <si>
     <t xml:space="preserve">0.151674687862396</t>
@@ -2147,40 +2147,40 @@
     <t xml:space="preserve">0.150588735938072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148416787385941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148054793477058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144652038812637</t>
+    <t xml:space="preserve">0.148416757583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148054778575897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144652053713799</t>
   </si>
   <si>
     <t xml:space="preserve">0.141176924109459</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148778766393661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14479686319828</t>
+    <t xml:space="preserve">0.148778781294823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144796848297119</t>
   </si>
   <si>
     <t xml:space="preserve">0.144362464547157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143638476729393</t>
+    <t xml:space="preserve">0.143638491630554</t>
   </si>
   <si>
     <t xml:space="preserve">0.142769694328308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143928065896034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14515882730484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144507244229317</t>
+    <t xml:space="preserve">0.143928050994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145158842206001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144507259130478</t>
   </si>
   <si>
     <t xml:space="preserve">0.147330790758133</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">0.143493682146072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140163347125053</t>
+    <t xml:space="preserve">0.140163362026215</t>
   </si>
   <si>
     <t xml:space="preserve">0.140887334942818</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">0.145882830023766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144217684864998</t>
+    <t xml:space="preserve">0.144217669963837</t>
   </si>
   <si>
     <t xml:space="preserve">0.142624899744987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143059313297272</t>
+    <t xml:space="preserve">0.143059283494949</t>
   </si>
   <si>
     <t xml:space="preserve">0.154570639133453</t>
@@ -2219,13 +2219,13 @@
     <t xml:space="preserve">0.143204092979431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143348872661591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143783271312714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142480090260506</t>
+    <t xml:space="preserve">0.143348887562752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143783286213875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142480120062828</t>
   </si>
   <si>
     <t xml:space="preserve">0.138136193156242</t>
@@ -2234,7 +2234,7 @@
     <t xml:space="preserve">0.13755701482296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158552557229996</t>
+    <t xml:space="preserve">0.158552542328835</t>
   </si>
   <si>
     <t xml:space="preserve">0.158914551138878</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">0.156742602586746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159276530146599</t>
+    <t xml:space="preserve">0.159276559948921</t>
   </si>
   <si>
     <t xml:space="preserve">0.169774323701859</t>
@@ -2282,13 +2282,13 @@
     <t xml:space="preserve">0.169050320982933</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171222284436226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171946242451668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177014157176018</t>
+    <t xml:space="preserve">0.171222269535065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171946257352829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177014142274857</t>
   </si>
   <si>
     <t xml:space="preserve">0.176290169358253</t>
@@ -2300,13 +2300,13 @@
     <t xml:space="preserve">0.184253990650177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180272072553635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179186090826988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177738144993782</t>
+    <t xml:space="preserve">0.180272087454796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179186120629311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177738130092621</t>
   </si>
   <si>
     <t xml:space="preserve">0.17556619644165</t>
@@ -2318,28 +2318,28 @@
     <t xml:space="preserve">0.175204187631607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174842193722725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176652148365974</t>
+    <t xml:space="preserve">0.174842208623886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176652163267136</t>
   </si>
   <si>
     <t xml:space="preserve">0.174480214715004</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182514503598213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180560380220413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179778754711151</t>
+    <t xml:space="preserve">0.182514518499374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180560395121574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17977873980999</t>
   </si>
   <si>
     <t xml:space="preserve">0.179387912154198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177824646234512</t>
+    <t xml:space="preserve">0.177824631333351</t>
   </si>
   <si>
     <t xml:space="preserve">0.175088867545128</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">0.17352557182312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174698039889336</t>
+    <t xml:space="preserve">0.174698024988174</t>
   </si>
   <si>
     <t xml:space="preserve">0.178997099399567</t>
@@ -2357,13 +2357,13 @@
     <t xml:space="preserve">0.17547969520092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177042990922928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175870507955551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173916384577751</t>
+    <t xml:space="preserve">0.177042976021767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17587049305439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173916399478912</t>
   </si>
   <si>
     <t xml:space="preserve">0.178606271743774</t>
@@ -2372,19 +2372,19 @@
     <t xml:space="preserve">0.171180620789528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169226512312889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171962261199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167272388935089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168444871902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170789822936058</t>
+    <t xml:space="preserve">0.16922652721405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171962276101112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16727240383625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168444857001305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170789793133736</t>
   </si>
   <si>
     <t xml:space="preserve">0.171571463346481</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">0.173134744167328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172743931412697</t>
+    <t xml:space="preserve">0.172743916511536</t>
   </si>
   <si>
     <t xml:space="preserve">0.16961732506752</t>
@@ -2405,16 +2405,16 @@
     <t xml:space="preserve">0.172353103756905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168054029345512</t>
+    <t xml:space="preserve">0.168054044246674</t>
   </si>
   <si>
     <t xml:space="preserve">0.170398980379105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167663216590881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166881561279297</t>
+    <t xml:space="preserve">0.16766320168972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166881576180458</t>
   </si>
   <si>
     <t xml:space="preserve">0.165709093213081</t>
@@ -2423,7 +2423,7 @@
     <t xml:space="preserve">0.166490748524666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165318295359612</t>
+    <t xml:space="preserve">0.16531828045845</t>
   </si>
   <si>
     <t xml:space="preserve">0.166099920868874</t>
@@ -2438,49 +2438,49 @@
     <t xml:space="preserve">0.162582516670227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.157501801848412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158283472061157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160628408193588</t>
+    <t xml:space="preserve">0.157501816749573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158283442258835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160628393292427</t>
   </si>
   <si>
     <t xml:space="preserve">0.163754984736443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164927437901497</t>
+    <t xml:space="preserve">0.164927452802658</t>
   </si>
   <si>
     <t xml:space="preserve">0.168835699558258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160237580537796</t>
+    <t xml:space="preserve">0.160237565636635</t>
   </si>
   <si>
     <t xml:space="preserve">0.162973329424858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164145797491074</t>
+    <t xml:space="preserve">0.164145812392235</t>
   </si>
   <si>
     <t xml:space="preserve">0.161800876259804</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15945591032505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158674269914627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159846752882004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159065097570419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161019206047058</t>
+    <t xml:space="preserve">0.159455925226212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158674284815788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159846767783165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159065112471581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161019220948219</t>
   </si>
   <si>
     <t xml:space="preserve">0.16336415708065</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">0.186031922698021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184468612074852</t>
+    <t xml:space="preserve">0.184468626976013</t>
   </si>
   <si>
     <t xml:space="preserve">0.184859454631805</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">0.180169567465782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181429490447044</t>
+    <t xml:space="preserve">0.181429505348206</t>
   </si>
   <si>
     <t xml:space="preserve">0.17890964448452</t>
@@ -2516,28 +2516,31 @@
     <t xml:space="preserve">0.184369340538979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178489670157433</t>
+    <t xml:space="preserve">0.178489655256271</t>
   </si>
   <si>
     <t xml:space="preserve">0.178069680929184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.176389768719673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181009516119957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177229717373848</t>
+    <t xml:space="preserve">0.176389783620834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181009501218796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177229732275009</t>
   </si>
   <si>
     <t xml:space="preserve">0.174709886312485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.177649721503258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179749578237534</t>
+    <t xml:space="preserve">0.180169552564621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177649706602097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179749593138695</t>
   </si>
   <si>
     <t xml:space="preserve">0.182269439101219</t>
@@ -2546,7 +2549,7 @@
     <t xml:space="preserve">0.18058954179287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179329603910446</t>
+    <t xml:space="preserve">0.179329618811607</t>
   </si>
   <si>
     <t xml:space="preserve">0.17554983496666</t>
@@ -2564,7 +2567,7 @@
     <t xml:space="preserve">0.188149109482765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187309145927429</t>
+    <t xml:space="preserve">0.18730916082859</t>
   </si>
   <si>
     <t xml:space="preserve">0.188569083809853</t>
@@ -2573,7 +2576,7 @@
     <t xml:space="preserve">0.189829006791115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187729135155678</t>
+    <t xml:space="preserve">0.187729120254517</t>
   </si>
   <si>
     <t xml:space="preserve">0.173449948430061</t>
@@ -2582,13 +2585,13 @@
     <t xml:space="preserve">0.174289911985397</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169670164585114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159254774451256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163118556141853</t>
+    <t xml:space="preserve">0.169670179486275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159254789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163118541240692</t>
   </si>
   <si>
     <t xml:space="preserve">0.171350076794624</t>
@@ -2597,16 +2600,16 @@
     <t xml:space="preserve">0.172190025448799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173869922757149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181849464774132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183529376983643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186469212174416</t>
+    <t xml:space="preserve">0.17386993765831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181849479675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183529362082481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186469197273254</t>
   </si>
   <si>
     <t xml:space="preserve">0.183949336409569</t>
@@ -2621,10 +2624,10 @@
     <t xml:space="preserve">0.186049222946167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.191928893327713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187119722366333</t>
+    <t xml:space="preserve">0.191928878426552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187119737267494</t>
   </si>
   <si>
     <t xml:space="preserve">0.186245337128639</t>
@@ -2639,10 +2642,10 @@
     <t xml:space="preserve">0.17837581038475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183184966444969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180561780929565</t>
+    <t xml:space="preserve">0.18318498134613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180561795830727</t>
   </si>
   <si>
     <t xml:space="preserve">0.179687410593033</t>
@@ -2651,7 +2654,7 @@
     <t xml:space="preserve">0.177501425147057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178813025355339</t>
+    <t xml:space="preserve">0.178813010454178</t>
   </si>
   <si>
     <t xml:space="preserve">0.179250210523605</t>
@@ -2663,7 +2666,7 @@
     <t xml:space="preserve">0.180998995900154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181873396039009</t>
+    <t xml:space="preserve">0.181873381137848</t>
   </si>
   <si>
     <t xml:space="preserve">0.174878254532814</t>
@@ -2672,22 +2675,22 @@
     <t xml:space="preserve">0.163161411881447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167183622717857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168757528066635</t>
+    <t xml:space="preserve">0.167183607816696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168757513165474</t>
   </si>
   <si>
     <t xml:space="preserve">0.16788312792778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168932393193245</t>
+    <t xml:space="preserve">0.168932408094406</t>
   </si>
   <si>
     <t xml:space="preserve">0.167008727788925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16560971736908</t>
+    <t xml:space="preserve">0.165609702467918</t>
   </si>
   <si>
     <t xml:space="preserve">0.16176238656044</t>
@@ -2699,7 +2702,7 @@
     <t xml:space="preserve">0.16386091709137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175752639770508</t>
+    <t xml:space="preserve">0.175752654671669</t>
   </si>
   <si>
     <t xml:space="preserve">0.174353614449501</t>
@@ -2723,25 +2726,25 @@
     <t xml:space="preserve">0.173479229211807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169107273221016</t>
+    <t xml:space="preserve">0.169107258319855</t>
   </si>
   <si>
     <t xml:space="preserve">0.172080188989639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170856043696404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172429949045181</t>
+    <t xml:space="preserve">0.170856058597565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172429963946342</t>
   </si>
   <si>
     <t xml:space="preserve">0.171555563807487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169631898403168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166484087705612</t>
+    <t xml:space="preserve">0.169631913304329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166484102606773</t>
   </si>
   <si>
     <t xml:space="preserve">0.174003854393959</t>
@@ -2753,10 +2756,10 @@
     <t xml:space="preserve">0.171730443835258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16613432765007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170681178569794</t>
+    <t xml:space="preserve">0.166134342551231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170681163668633</t>
   </si>
   <si>
     <t xml:space="preserve">0.16805799305439</t>
@@ -2768,7 +2771,7 @@
     <t xml:space="preserve">0.167358487844467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167708232998848</t>
+    <t xml:space="preserve">0.167708247900009</t>
   </si>
   <si>
     <t xml:space="preserve">0.167533367872238</t>
@@ -2780,7 +2783,7 @@
     <t xml:space="preserve">0.166833847761154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169457033276558</t>
+    <t xml:space="preserve">0.169457018375397</t>
   </si>
   <si>
     <t xml:space="preserve">0.169806778430939</t>
@@ -2819,10 +2822,10 @@
     <t xml:space="preserve">0.176627039909363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175315454602242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176189824938774</t>
+    <t xml:space="preserve">0.17531543970108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176189839839935</t>
   </si>
   <si>
     <t xml:space="preserve">0.174178749322891</t>
@@ -2837,10 +2840,10 @@
     <t xml:space="preserve">0.170506283640862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171380683779716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171205803751945</t>
+    <t xml:space="preserve">0.171380668878555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171205818653107</t>
   </si>
   <si>
     <t xml:space="preserve">0.174703374505043</t>
@@ -2855,7 +2858,7 @@
     <t xml:space="preserve">0.188868522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185808151960373</t>
+    <t xml:space="preserve">0.185808137059212</t>
   </si>
   <si>
     <t xml:space="preserve">0.189742892980576</t>
@@ -2870,28 +2873,28 @@
     <t xml:space="preserve">0.187994122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186682522296906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183622151613235</t>
+    <t xml:space="preserve">0.186682537198067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183622166514397</t>
   </si>
   <si>
     <t xml:space="preserve">0.184933751821518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185370951890945</t>
+    <t xml:space="preserve">0.185370936989784</t>
   </si>
   <si>
     <t xml:space="preserve">0.18449655175209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182310581207275</t>
+    <t xml:space="preserve">0.182310566306114</t>
   </si>
   <si>
     <t xml:space="preserve">0.196738019585609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194989249110222</t>
+    <t xml:space="preserve">0.194989264011383</t>
   </si>
   <si>
     <t xml:space="preserve">0.197612419724464</t>
@@ -18206,7 +18209,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G571" t="s">
-        <v>438</v>
+        <v>104</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18232,7 +18235,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G572" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18258,7 +18261,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G573" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18284,7 +18287,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G574" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18310,7 +18313,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G575" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18336,7 +18339,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G576" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18570,7 +18573,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18596,7 +18599,7 @@
         <v>0.230000004172325</v>
       </c>
       <c r="G586" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18648,7 +18651,7 @@
         <v>0.227500006556511</v>
       </c>
       <c r="G588" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18752,7 +18755,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G592" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18778,7 +18781,7 @@
         <v>0.230000004172325</v>
       </c>
       <c r="G593" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18804,7 +18807,7 @@
         <v>0.227500006556511</v>
       </c>
       <c r="G594" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18830,7 +18833,7 @@
         <v>0.229499995708466</v>
       </c>
       <c r="G595" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18856,7 +18859,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G596" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -18882,7 +18885,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G597" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -18908,7 +18911,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G598" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18934,7 +18937,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G599" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18960,7 +18963,7 @@
         <v>0.221499994397163</v>
       </c>
       <c r="G600" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18986,7 +18989,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G601" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -19012,7 +19015,7 @@
         <v>0.219500005245209</v>
       </c>
       <c r="G602" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -19038,7 +19041,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G603" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -19064,7 +19067,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G604" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -19090,7 +19093,7 @@
         <v>0.219500005245209</v>
       </c>
       <c r="G605" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -19116,7 +19119,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G606" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -19142,7 +19145,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G607" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -19168,7 +19171,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G608" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -19194,7 +19197,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G609" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -19220,7 +19223,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G610" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -19246,7 +19249,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G611" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -19272,7 +19275,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G612" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -19298,7 +19301,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G613" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -19324,7 +19327,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G614" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -19350,7 +19353,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G615" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -19376,7 +19379,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G616" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -19402,7 +19405,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G617" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -19428,7 +19431,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G618" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19454,7 +19457,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G619" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -19480,7 +19483,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G620" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -19506,7 +19509,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G621" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -19532,7 +19535,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G622" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -19558,7 +19561,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G623" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -19584,7 +19587,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G624" t="s">
-        <v>278</v>
+        <v>471</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -19610,7 +19613,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G625" t="s">
-        <v>278</v>
+        <v>471</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19636,7 +19639,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G626" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19662,7 +19665,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G627" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19714,7 +19717,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G629" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19766,7 +19769,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G631" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -20000,7 +20003,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G640" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -20130,7 +20133,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G645" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -20312,7 +20315,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G652" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -20364,7 +20367,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G654" t="s">
-        <v>278</v>
+        <v>471</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -20416,7 +20419,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G656" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -20572,7 +20575,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G662" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -20624,7 +20627,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G664" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -20650,7 +20653,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G665" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -20676,7 +20679,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G666" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -20858,7 +20861,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G673" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -20910,7 +20913,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G675" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -20936,7 +20939,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G676" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -21222,7 +21225,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G687" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -21274,7 +21277,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G689" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -21378,7 +21381,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G693" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -21404,7 +21407,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G694" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -21508,7 +21511,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G698" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -42646,7 +42649,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1511" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42672,7 +42675,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1512" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42698,7 +42701,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1513" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42776,7 +42779,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1516" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42802,7 +42805,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1517" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42828,7 +42831,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1518" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42854,7 +42857,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1519" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42906,7 +42909,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1521" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42932,7 +42935,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1522" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -43010,7 +43013,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1525" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -43036,7 +43039,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1526" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -43062,7 +43065,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1527" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -43088,7 +43091,7 @@
         <v>0.214499995112419</v>
       </c>
       <c r="G1528" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -43140,7 +43143,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1530" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -43166,7 +43169,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1531" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -43218,7 +43221,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1533" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -43374,7 +43377,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1539" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -43452,7 +43455,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1542" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -43478,7 +43481,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1543" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43504,7 +43507,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1544" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43582,7 +43585,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1547" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43608,7 +43611,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1548" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43660,7 +43663,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1550" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43686,7 +43689,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1551" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43790,7 +43793,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1555" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -43816,7 +43819,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1556" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43842,7 +43845,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1557" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43868,7 +43871,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1558" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43894,7 +43897,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1559" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43920,7 +43923,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1560" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43946,7 +43949,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1561" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43998,7 +44001,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1563" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -44024,7 +44027,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1564" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -44050,7 +44053,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1565" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -44128,7 +44131,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1568" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -44154,7 +44157,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1569" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -44180,7 +44183,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1570" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -44206,7 +44209,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1571" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -44232,7 +44235,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1572" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -44258,7 +44261,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1573" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44284,7 +44287,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1574" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -44310,7 +44313,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1575" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -44336,7 +44339,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1576" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -44362,7 +44365,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1577" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -44388,7 +44391,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1578" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -44440,7 +44443,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1580" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -44466,7 +44469,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1581" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -44518,7 +44521,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1583" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -44622,7 +44625,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1587" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44648,7 +44651,7 @@
         <v>0.216499999165535</v>
       </c>
       <c r="G1588" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44674,7 +44677,7 @@
         <v>0.223499998450279</v>
       </c>
       <c r="G1589" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44726,7 +44729,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1591" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44752,7 +44755,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G1592" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44778,7 +44781,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1593" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44804,7 +44807,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1594" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44856,7 +44859,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1596" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44908,7 +44911,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1598" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44934,7 +44937,7 @@
         <v>0.218500003218651</v>
       </c>
       <c r="G1599" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44960,7 +44963,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1600" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44986,7 +44989,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1601" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -45012,7 +45015,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1602" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -45038,7 +45041,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1603" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -45064,7 +45067,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1604" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -45090,7 +45093,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1605" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -45116,7 +45119,7 @@
         <v>0.224500000476837</v>
       </c>
       <c r="G1606" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -45142,7 +45145,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G1607" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -45168,7 +45171,7 @@
         <v>0.221499994397163</v>
       </c>
       <c r="G1608" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -45194,7 +45197,7 @@
         <v>0.228499993681908</v>
       </c>
       <c r="G1609" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -45220,7 +45223,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1610" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -45246,7 +45249,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1611" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -45272,7 +45275,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1612" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -45298,7 +45301,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1613" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -45324,7 +45327,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1614" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -45350,7 +45353,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1615" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -45376,7 +45379,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1616" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -45402,7 +45405,7 @@
         <v>0.209499999880791</v>
       </c>
       <c r="G1617" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -45428,7 +45431,7 @@
         <v>0.206499993801117</v>
       </c>
       <c r="G1618" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -45454,7 +45457,7 @@
         <v>0.207499995827675</v>
       </c>
       <c r="G1619" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -45480,7 +45483,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45506,7 +45509,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45532,7 +45535,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1622" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45558,7 +45561,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1623" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45584,7 +45587,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1624" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45610,7 +45613,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45636,7 +45639,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1626" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45662,7 +45665,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1627" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45688,7 +45691,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1628" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45714,7 +45717,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1629" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45740,7 +45743,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1630" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45766,7 +45769,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1631" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45792,7 +45795,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1632" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45818,7 +45821,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1633" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45844,7 +45847,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1634" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45870,7 +45873,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1635" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45896,7 +45899,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1636" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45922,7 +45925,7 @@
         <v>0.20550000667572</v>
       </c>
       <c r="G1637" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45948,7 +45951,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1638" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45974,7 +45977,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1639" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -46000,7 +46003,7 @@
         <v>0.186599999666214</v>
       </c>
       <c r="G1640" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -46026,7 +46029,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1641" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -46052,7 +46055,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1642" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -46078,7 +46081,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1643" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -46104,7 +46107,7 @@
         <v>0.193200007081032</v>
       </c>
       <c r="G1644" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -46130,7 +46133,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1645" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -46156,7 +46159,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1646" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -46182,7 +46185,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1647" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -46208,7 +46211,7 @@
         <v>0.185000002384186</v>
       </c>
       <c r="G1648" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -46234,7 +46237,7 @@
         <v>0.187199994921684</v>
       </c>
       <c r="G1649" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -46260,7 +46263,7 @@
         <v>0.187399998307228</v>
       </c>
       <c r="G1650" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -46286,7 +46289,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1651" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -46312,7 +46315,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1652" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -46338,7 +46341,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1653" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -46364,7 +46367,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1654" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -46390,7 +46393,7 @@
         <v>0.192800000309944</v>
       </c>
       <c r="G1655" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -46416,7 +46419,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1656" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -46442,7 +46445,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1657" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -46468,7 +46471,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1658" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46494,7 +46497,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1659" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46520,7 +46523,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1660" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46546,7 +46549,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1661" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46572,7 +46575,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1662" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46598,7 +46601,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1663" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46624,7 +46627,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1664" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46650,7 +46653,7 @@
         <v>0.19539999961853</v>
       </c>
       <c r="G1665" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46676,7 +46679,7 @@
         <v>0.197200000286102</v>
       </c>
       <c r="G1666" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46702,7 +46705,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1667" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46728,7 +46731,7 @@
         <v>0.191200003027916</v>
       </c>
       <c r="G1668" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46754,7 +46757,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1669" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46780,7 +46783,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1670" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46806,7 +46809,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1671" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46832,7 +46835,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1672" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46858,7 +46861,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1673" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46884,7 +46887,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1674" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46910,7 +46913,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1675" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46936,7 +46939,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1676" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46962,7 +46965,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1677" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46988,7 +46991,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1678" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -47014,7 +47017,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1679" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -47040,7 +47043,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1680" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -47066,7 +47069,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1681" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -47092,7 +47095,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1682" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -47118,7 +47121,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1683" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -47144,7 +47147,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1684" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -47170,7 +47173,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1685" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -47196,7 +47199,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1686" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -47222,7 +47225,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1687" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -47248,7 +47251,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1688" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -47274,7 +47277,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1689" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -47300,7 +47303,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1690" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -47326,7 +47329,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1691" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -47352,7 +47355,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1692" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -47378,7 +47381,7 @@
         <v>0.194000005722046</v>
       </c>
       <c r="G1693" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -47404,7 +47407,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1694" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -47430,7 +47433,7 @@
         <v>0.190599992871284</v>
       </c>
       <c r="G1695" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -47456,7 +47459,7 @@
         <v>0.19140000641346</v>
       </c>
       <c r="G1696" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -47482,7 +47485,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1697" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47508,7 +47511,7 @@
         <v>0.191799998283386</v>
       </c>
       <c r="G1698" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47534,7 +47537,7 @@
         <v>0.191599994897842</v>
       </c>
       <c r="G1699" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47560,7 +47563,7 @@
         <v>0.192200005054474</v>
       </c>
       <c r="G1700" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47586,7 +47589,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1701" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47612,7 +47615,7 @@
         <v>0.190799996256828</v>
       </c>
       <c r="G1702" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47638,7 +47641,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1703" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47664,7 +47667,7 @@
         <v>0.193800002336502</v>
       </c>
       <c r="G1704" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47690,7 +47693,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1705" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47716,7 +47719,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1706" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47742,7 +47745,7 @@
         <v>0.193599998950958</v>
       </c>
       <c r="G1707" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47768,7 +47771,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1708" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47794,7 +47797,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1709" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47820,7 +47823,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1710" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47846,7 +47849,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1711" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47872,7 +47875,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1712" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47898,7 +47901,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1713" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47924,7 +47927,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1714" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47950,7 +47953,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1715" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47976,7 +47979,7 @@
         <v>0.194199994206429</v>
       </c>
       <c r="G1716" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -48002,7 +48005,7 @@
         <v>0.194600000977516</v>
       </c>
       <c r="G1717" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -48028,7 +48031,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1718" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -48054,7 +48057,7 @@
         <v>0.192399993538857</v>
       </c>
       <c r="G1719" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -48080,7 +48083,7 @@
         <v>0.193399995565414</v>
       </c>
       <c r="G1720" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -48106,7 +48109,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1721" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -48132,7 +48135,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1722" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -48158,7 +48161,7 @@
         <v>0.190999999642372</v>
       </c>
       <c r="G1723" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -48184,7 +48187,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1724" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -48210,7 +48213,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1725" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -48236,7 +48239,7 @@
         <v>0.187000006437302</v>
       </c>
       <c r="G1726" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -48262,7 +48265,7 @@
         <v>0.187999993562698</v>
       </c>
       <c r="G1727" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -48288,7 +48291,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1728" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -48314,7 +48317,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1729" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -48340,7 +48343,7 @@
         <v>0.190400004386902</v>
       </c>
       <c r="G1730" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -48366,7 +48369,7 @@
         <v>0.189600005745888</v>
       </c>
       <c r="G1731" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -48392,7 +48395,7 @@
         <v>0.189400002360344</v>
       </c>
       <c r="G1732" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -48418,7 +48421,7 @@
         <v>0.188999995589256</v>
       </c>
       <c r="G1733" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -48444,7 +48447,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1734" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -48470,7 +48473,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1735" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48496,7 +48499,7 @@
         <v>0.189999997615814</v>
       </c>
       <c r="G1736" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48522,7 +48525,7 @@
         <v>0.190200001001358</v>
       </c>
       <c r="G1737" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48548,7 +48551,7 @@
         <v>0.19200000166893</v>
       </c>
       <c r="G1738" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48574,7 +48577,7 @@
         <v>0.193000003695488</v>
       </c>
       <c r="G1739" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48600,7 +48603,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1740" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48626,7 +48629,7 @@
         <v>0.196999996900558</v>
       </c>
       <c r="G1741" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48652,7 +48655,7 @@
         <v>0.196799993515015</v>
       </c>
       <c r="G1742" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48678,7 +48681,7 @@
         <v>0.195600003004074</v>
       </c>
       <c r="G1743" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48704,7 +48707,7 @@
         <v>0.19480000436306</v>
       </c>
       <c r="G1744" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48730,7 +48733,7 @@
         <v>0.195199996232986</v>
       </c>
       <c r="G1745" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48756,7 +48759,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1746" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48782,7 +48785,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1747" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48808,7 +48811,7 @@
         <v>0.204500004649162</v>
       </c>
       <c r="G1748" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48834,7 +48837,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1749" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48860,7 +48863,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1750" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48886,7 +48889,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1751" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48912,7 +48915,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1752" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48938,7 +48941,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1753" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48964,7 +48967,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1754" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48990,7 +48993,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1755" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -49016,7 +49019,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1756" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -49042,7 +49045,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1757" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -49068,7 +49071,7 @@
         <v>0.199599996209145</v>
       </c>
       <c r="G1758" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -49094,7 +49097,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1759" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -49120,7 +49123,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1760" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -49146,7 +49149,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1761" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -49172,7 +49175,7 @@
         <v>0.200499996542931</v>
       </c>
       <c r="G1762" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -49198,7 +49201,7 @@
         <v>0.201499998569489</v>
       </c>
       <c r="G1763" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -49224,7 +49227,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1764" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -49250,7 +49253,7 @@
         <v>0.199000000953674</v>
       </c>
       <c r="G1765" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -49276,7 +49279,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1766" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -49302,7 +49305,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1767" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -49328,7 +49331,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1768" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -49354,7 +49357,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1769" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -49380,7 +49383,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1770" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -49406,7 +49409,7 @@
         <v>0.196199998259544</v>
       </c>
       <c r="G1771" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -49432,7 +49435,7 @@
         <v>0.194999992847443</v>
       </c>
       <c r="G1772" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -49458,7 +49461,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1773" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -49484,7 +49487,7 @@
         <v>0.196400001645088</v>
       </c>
       <c r="G1774" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49510,7 +49513,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1775" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49536,7 +49539,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1776" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49562,7 +49565,7 @@
         <v>0.195999994874001</v>
       </c>
       <c r="G1777" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49588,7 +49591,7 @@
         <v>0.198400005698204</v>
       </c>
       <c r="G1778" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49614,7 +49617,7 @@
         <v>0.198599994182587</v>
       </c>
       <c r="G1779" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49640,7 +49643,7 @@
         <v>0.195800006389618</v>
       </c>
       <c r="G1780" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49666,7 +49669,7 @@
         <v>0.19760000705719</v>
       </c>
       <c r="G1781" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49692,7 +49695,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1782" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49718,7 +49721,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1783" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49744,7 +49747,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1784" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49770,7 +49773,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1785" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49796,7 +49799,7 @@
         <v>0.197799995541573</v>
       </c>
       <c r="G1786" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49822,7 +49825,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1787" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49848,7 +49851,7 @@
         <v>0.199200004339218</v>
       </c>
       <c r="G1788" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49874,7 +49877,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1789" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49900,7 +49903,7 @@
         <v>0.199799999594688</v>
       </c>
       <c r="G1790" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49926,7 +49929,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1791" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49952,7 +49955,7 @@
         <v>0.197999998927116</v>
       </c>
       <c r="G1792" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49978,7 +49981,7 @@
         <v>0.199399992823601</v>
       </c>
       <c r="G1793" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -50004,7 +50007,7 @@
         <v>0.19820000231266</v>
       </c>
       <c r="G1794" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -50030,7 +50033,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1795" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -50056,7 +50059,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1796" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -50082,7 +50085,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1797" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -50108,7 +50111,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1798" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -50134,7 +50137,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1799" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -50160,7 +50163,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1800" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -50186,7 +50189,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1801" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -50212,7 +50215,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1802" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -50238,7 +50241,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1803" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -50264,7 +50267,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1804" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -50290,7 +50293,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1805" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -50316,7 +50319,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1806" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -50342,7 +50345,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1807" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -50368,7 +50371,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1808" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -50394,7 +50397,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1809" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -50420,7 +50423,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1810" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -50446,7 +50449,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1811" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -50472,7 +50475,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1812" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50498,7 +50501,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1813" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50524,7 +50527,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1814" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50550,7 +50553,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1815" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50576,7 +50579,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1816" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50602,7 +50605,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1817" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50628,7 +50631,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1818" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50654,7 +50657,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1819" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50680,7 +50683,7 @@
         <v>0.211500003933907</v>
       </c>
       <c r="G1820" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50706,7 +50709,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1821" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50732,7 +50735,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G1822" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50758,7 +50761,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1823" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50784,7 +50787,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1824" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50810,7 +50813,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1825" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50836,7 +50839,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1826" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50862,7 +50865,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1827" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50888,7 +50891,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1828" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50914,7 +50917,7 @@
         <v>0.213499993085861</v>
       </c>
       <c r="G1829" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50940,7 +50943,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G1830" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50966,7 +50969,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1831" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50992,7 +50995,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1832" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -51018,7 +51021,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1833" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -51044,7 +51047,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1834" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -51070,7 +51073,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1835" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -51096,7 +51099,7 @@
         <v>0.202500000596046</v>
       </c>
       <c r="G1836" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -51122,7 +51125,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1837" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -51148,7 +51151,7 @@
         <v>0.203500002622604</v>
       </c>
       <c r="G1838" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -51174,7 +51177,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1839" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -51200,7 +51203,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1840" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -51226,7 +51229,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1841" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -51252,7 +51255,7 @@
         <v>0.208499997854233</v>
       </c>
       <c r="G1842" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -51278,7 +51281,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1843" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -51304,7 +51307,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1844" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -51330,7 +51333,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1845" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -51356,7 +51359,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1846" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -51382,7 +51385,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1847" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -51408,7 +51411,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1848" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -51434,7 +51437,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1849" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -51460,7 +51463,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1850" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -51486,7 +51489,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1851" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51512,7 +51515,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G1852" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51538,7 +51541,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1853" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51564,7 +51567,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1854" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51590,7 +51593,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1855" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51616,7 +51619,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G1856" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51642,7 +51645,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1857" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51668,7 +51671,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1858" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51694,7 +51697,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1859" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51720,7 +51723,7 @@
         <v>0.228000000119209</v>
       </c>
       <c r="G1860" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51746,7 +51749,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1861" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51772,7 +51775,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G1862" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51798,7 +51801,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G1863" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51824,7 +51827,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G1864" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51850,7 +51853,7 @@
         <v>0.231000006198883</v>
       </c>
       <c r="G1865" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51876,7 +51879,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1866" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51902,7 +51905,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1867" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51928,7 +51931,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G1868" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51954,7 +51957,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1869" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51980,7 +51983,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G1870" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -52006,7 +52009,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1871" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -52032,7 +52035,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1872" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -52058,7 +52061,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G1873" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -52084,7 +52087,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1874" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -52110,7 +52113,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1875" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -52136,7 +52139,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1876" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -52162,7 +52165,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1877" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -52188,7 +52191,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1878" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -52214,7 +52217,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1879" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -52240,7 +52243,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1880" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -52266,7 +52269,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G1881" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -52292,7 +52295,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1882" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -52318,7 +52321,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1883" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -52344,7 +52347,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1884" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -52370,7 +52373,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1885" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -52396,7 +52399,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1886" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -52422,7 +52425,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1887" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -52448,7 +52451,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1888" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -52474,7 +52477,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1889" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52500,7 +52503,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1890" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52526,7 +52529,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1891" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52552,7 +52555,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1892" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52578,7 +52581,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1893" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52604,7 +52607,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1894" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52630,7 +52633,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1895" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52656,7 +52659,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1896" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52682,7 +52685,7 @@
         <v>0.215000003576279</v>
       </c>
       <c r="G1897" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52708,7 +52711,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1898" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52734,7 +52737,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1899" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52760,7 +52763,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1900" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52786,7 +52789,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1901" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52812,7 +52815,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1902" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52838,7 +52841,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1903" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52864,7 +52867,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1904" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52890,7 +52893,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1905" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52916,7 +52919,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1906" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52942,7 +52945,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1907" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52968,7 +52971,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1908" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52994,7 +52997,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1909" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -53020,7 +53023,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1910" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -53046,7 +53049,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1911" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -53072,7 +53075,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1912" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -53098,7 +53101,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1913" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -53124,7 +53127,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1914" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -53150,7 +53153,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1915" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -53176,7 +53179,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1916" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -53202,7 +53205,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1917" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -53228,7 +53231,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1918" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -53254,7 +53257,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1919" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -53280,7 +53283,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1920" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -53306,7 +53309,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1921" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -53332,7 +53335,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G1922" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -53358,7 +53361,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1923" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -53384,7 +53387,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1924" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -53410,7 +53413,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1925" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -53436,7 +53439,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1926" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -53462,7 +53465,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1927" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -53488,7 +53491,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1928" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53514,7 +53517,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1929" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53540,7 +53543,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G1930" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53566,7 +53569,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1931" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53592,7 +53595,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G1932" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53618,7 +53621,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1933" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53644,7 +53647,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1934" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53670,7 +53673,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1935" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53696,7 +53699,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1936" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53722,7 +53725,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1937" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53748,7 +53751,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1938" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53774,7 +53777,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1939" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53800,7 +53803,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1940" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53826,7 +53829,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1941" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53852,7 +53855,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1942" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53878,7 +53881,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1943" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53904,7 +53907,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53930,7 +53933,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1945" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53956,7 +53959,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1946" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53982,7 +53985,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -54008,7 +54011,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1948" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -54034,7 +54037,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1949" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -54060,7 +54063,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1950" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -54086,7 +54089,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1951" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -54112,7 +54115,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1952" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -54138,7 +54141,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1953" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -54164,7 +54167,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1954" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -54190,7 +54193,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1955" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -54216,7 +54219,7 @@
         <v>0.20100000500679</v>
       </c>
       <c r="G1956" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -54242,7 +54245,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1957" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -54268,7 +54271,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1958" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -54294,7 +54297,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1959" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -54320,7 +54323,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1960" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -54346,7 +54349,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1961" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -54372,7 +54375,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1962" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -54398,7 +54401,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1963" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -54424,7 +54427,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1964" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -54450,7 +54453,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1965" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -54476,7 +54479,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G1966" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54502,7 +54505,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1967" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54528,7 +54531,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G1968" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54554,7 +54557,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G1969" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54580,7 +54583,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1970" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54606,7 +54609,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G1971" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54632,7 +54635,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1972" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54658,7 +54661,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1973" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54684,7 +54687,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1974" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54710,7 +54713,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1975" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54736,7 +54739,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54762,7 +54765,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1977" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54788,7 +54791,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G1978" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54814,7 +54817,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1979" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54840,7 +54843,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1980" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54866,7 +54869,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1981" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54892,7 +54895,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1982" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54918,7 +54921,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1983" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54944,7 +54947,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1984" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54970,7 +54973,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1985" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54996,7 +54999,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1986" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -55022,7 +55025,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1987" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -55048,7 +55051,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1988" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -55074,7 +55077,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1989" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -55100,7 +55103,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1990" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -55126,7 +55129,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G1991" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -55152,7 +55155,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1992" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -55178,7 +55181,7 @@
         <v>0.200000002980232</v>
       </c>
       <c r="G1993" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -55204,7 +55207,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1994" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -55230,7 +55233,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G1995" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -55256,7 +55259,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G1996" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -55282,7 +55285,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G1997" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -55308,7 +55311,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G1998" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -55334,7 +55337,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G1999" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -55360,7 +55363,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2000" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -55386,7 +55389,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2001" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -55412,7 +55415,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2002" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -55438,7 +55441,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2003" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -55464,7 +55467,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2004" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -55490,7 +55493,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2005" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55516,7 +55519,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2006" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55542,7 +55545,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2007" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55568,7 +55571,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2008" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55594,7 +55597,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2009" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55620,7 +55623,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2010" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55646,7 +55649,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2011" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55672,7 +55675,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2012" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55698,7 +55701,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2013" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55724,7 +55727,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2014" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55750,7 +55753,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2015" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55776,7 +55779,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2016" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55802,7 +55805,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2017" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55828,7 +55831,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2018" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55854,7 +55857,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2019" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55880,7 +55883,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2020" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55906,7 +55909,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2021" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55932,7 +55935,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2022" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55958,7 +55961,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2023" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55984,7 +55987,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2024" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -56010,7 +56013,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2025" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -56036,7 +56039,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -56062,7 +56065,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2027" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -56088,7 +56091,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2028" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -56114,7 +56117,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2029" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -56140,7 +56143,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2030" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -56166,7 +56169,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2031" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -56192,7 +56195,7 @@
         <v>0.202000007033348</v>
       </c>
       <c r="G2032" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -56218,7 +56221,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2033" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -56244,7 +56247,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2034" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -56270,7 +56273,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2035" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -56296,7 +56299,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2036" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -56322,7 +56325,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2037" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -56348,7 +56351,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2038" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -56374,7 +56377,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2039" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -56400,7 +56403,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2040" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -56426,7 +56429,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2041" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -56452,7 +56455,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2042" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -56478,7 +56481,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2043" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56504,7 +56507,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2044" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56530,7 +56533,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2045" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56556,7 +56559,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2046" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56582,7 +56585,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2047" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56608,7 +56611,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2048" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56634,7 +56637,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2049" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56660,7 +56663,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2050" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56686,7 +56689,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2051" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56712,7 +56715,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2052" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56738,7 +56741,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2053" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56764,7 +56767,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2054" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56790,7 +56793,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2055" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56816,7 +56819,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2056" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56842,7 +56845,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2057" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56868,7 +56871,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2058" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56894,7 +56897,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2059" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56920,7 +56923,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2060" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56946,7 +56949,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2061" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56972,7 +56975,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2062" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56998,7 +57001,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2063" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -57024,7 +57027,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2064" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -57050,7 +57053,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2065" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -57076,7 +57079,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2066" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -57102,7 +57105,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2067" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -57128,7 +57131,7 @@
         <v>0.202999994158745</v>
       </c>
       <c r="G2068" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -57154,7 +57157,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2069" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -57180,7 +57183,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2070" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -57206,7 +57209,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2071" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -57232,7 +57235,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2072" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -57258,7 +57261,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2073" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -57284,7 +57287,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2074" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -57310,7 +57313,7 @@
         <v>0.203999996185303</v>
       </c>
       <c r="G2075" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -57336,7 +57339,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2076" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -57362,7 +57365,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2077" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -57388,7 +57391,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2078" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -57414,7 +57417,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2079" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57440,7 +57443,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2080" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -57466,7 +57469,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2081" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57492,7 +57495,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2082" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57518,7 +57521,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2083" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57544,7 +57547,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2084" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57570,7 +57573,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2085" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57596,7 +57599,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2086" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57622,7 +57625,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2087" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57648,7 +57651,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2088" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57674,7 +57677,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2089" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57700,7 +57703,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2090" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57726,7 +57729,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2091" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57752,7 +57755,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2092" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57778,7 +57781,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2093" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57804,7 +57807,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2094" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57830,7 +57833,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2095" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57856,7 +57859,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2096" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57882,7 +57885,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2097" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57908,7 +57911,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2098" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57934,7 +57937,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2099" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57960,7 +57963,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2100" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57986,7 +57989,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2101" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -58012,7 +58015,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2102" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -58038,7 +58041,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2103" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -58064,7 +58067,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2104" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -58090,7 +58093,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2105" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -58116,7 +58119,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2106" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -58142,7 +58145,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2107" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -58168,7 +58171,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2108" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -58194,7 +58197,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2109" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -58220,7 +58223,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2110" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -58246,7 +58249,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2111" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -58272,7 +58275,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2112" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -58298,7 +58301,7 @@
         <v>0.223000004887581</v>
       </c>
       <c r="G2113" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -58324,7 +58327,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2114" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -58350,7 +58353,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2115" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -58376,7 +58379,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2116" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -58402,7 +58405,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2117" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -58428,7 +58431,7 @@
         <v>0.221000000834465</v>
       </c>
       <c r="G2118" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -58454,7 +58457,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2119" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -58480,7 +58483,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2120" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58506,7 +58509,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2121" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58532,7 +58535,7 @@
         <v>0.224000006914139</v>
       </c>
       <c r="G2122" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58558,7 +58561,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G2123" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58584,7 +58587,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2124" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58610,7 +58613,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2125" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58636,7 +58639,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2126" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58662,7 +58665,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2127" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58688,7 +58691,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2128" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58714,7 +58717,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2129" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58740,7 +58743,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2130" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58766,7 +58769,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2131" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58792,7 +58795,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2132" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58818,7 +58821,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2133" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58844,7 +58847,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2134" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58870,7 +58873,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2135" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58896,7 +58899,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2136" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58922,7 +58925,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2137" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58948,7 +58951,7 @@
         <v>0.211999997496605</v>
       </c>
       <c r="G2138" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58974,7 +58977,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2139" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -59000,7 +59003,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2140" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -59026,7 +59029,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2141" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -59052,7 +59055,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2142" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -59078,7 +59081,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2143" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -59104,7 +59107,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2144" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -59130,7 +59133,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2145" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -59156,7 +59159,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2146" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -59182,7 +59185,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2147" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -59208,7 +59211,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2148" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -59234,7 +59237,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2149" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -59260,7 +59263,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2150" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -59286,7 +59289,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2151" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -59312,7 +59315,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2152" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -59338,7 +59341,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2153" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -59364,7 +59367,7 @@
         <v>0.209000006318092</v>
       </c>
       <c r="G2154" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -59390,7 +59393,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2155" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -59416,7 +59419,7 @@
         <v>0.209999993443489</v>
       </c>
       <c r="G2156" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -59442,7 +59445,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2157" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -59468,7 +59471,7 @@
         <v>0.208000004291534</v>
       </c>
       <c r="G2158" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59494,7 +59497,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2159" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59520,7 +59523,7 @@
         <v>0.207000002264977</v>
       </c>
       <c r="G2160" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59546,7 +59549,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2161" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59572,7 +59575,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2162" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59598,7 +59601,7 @@
         <v>0.206000000238419</v>
       </c>
       <c r="G2163" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59624,7 +59627,7 @@
         <v>0.204999998211861</v>
       </c>
       <c r="G2164" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59650,7 +59653,7 @@
         <v>0.210999995470047</v>
       </c>
       <c r="G2165" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59676,7 +59679,7 @@
         <v>0.216000005602837</v>
       </c>
       <c r="G2166" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59702,7 +59705,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2167" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -59728,7 +59731,7 @@
         <v>0.219999998807907</v>
       </c>
       <c r="G2168" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -59754,7 +59757,7 @@
         <v>0.222000002861023</v>
       </c>
       <c r="G2169" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -59780,7 +59783,7 @@
         <v>0.218999996781349</v>
       </c>
       <c r="G2170" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -59806,7 +59809,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2171" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -59832,7 +59835,7 @@
         <v>0.216999992728233</v>
       </c>
       <c r="G2172" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -59858,7 +59861,7 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2173" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -59866,7 +59869,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6496412037</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>159659</v>
@@ -59884,9 +59887,35 @@
         <v>0.217999994754791</v>
       </c>
       <c r="G2174" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6495138889</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>230621</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>0.217999994754791</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>0.216000005602837</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.217999994754791</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>992</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174470037221909</t>
+    <t xml:space="preserve">0.174470067024231</t>
   </si>
   <si>
     <t xml:space="preserve">PRO.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174941956996918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171099290251732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169144243001938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166178017854691</t>
+    <t xml:space="preserve">0.174941942095757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171099320054054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169144257903099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166178002953529</t>
   </si>
   <si>
     <t xml:space="preserve">0.163481414318085</t>
@@ -65,40 +65,40 @@
     <t xml:space="preserve">0.167324051260948</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162672430276871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157144382596016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146627634763718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148515254259109</t>
+    <t xml:space="preserve">0.162672400474548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157144367694855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146627649664879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148515269160271</t>
   </si>
   <si>
     <t xml:space="preserve">0.138335600495338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144740030169487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148313030600548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148380413651466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158223032951355</t>
+    <t xml:space="preserve">0.144740015268326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148313015699387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148380428552628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158223018050194</t>
   </si>
   <si>
     <t xml:space="preserve">0.152357906103134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15208825469017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155054524540901</t>
+    <t xml:space="preserve">0.152088269591331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15505450963974</t>
   </si>
   <si>
     <t xml:space="preserve">0.154380366206169</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">0.15033546090126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.14548160135746</t>
+    <t xml:space="preserve">0.145481586456299</t>
   </si>
   <si>
     <t xml:space="preserve">0.14258274435997</t>
@@ -116,40 +116,40 @@
     <t xml:space="preserve">0.142717584967613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13132444024086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135504171252251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128223344683647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130785122513771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138874903321266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138200744986534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143459141254425</t>
+    <t xml:space="preserve">0.131324455142021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135504186153412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128223359584808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130785137414932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138874918222427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138200759887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143459126353264</t>
   </si>
   <si>
     <t xml:space="preserve">0.140223234891891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137998521327972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144605189561844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142515316605568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141976028680801</t>
+    <t xml:space="preserve">0.137998506426811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144605174660683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142515331506729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14197601377964</t>
   </si>
   <si>
     <t xml:space="preserve">0.14372880756855</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">0.144065886735916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142987221479416</t>
+    <t xml:space="preserve">0.142987236380577</t>
   </si>
   <si>
     <t xml:space="preserve">0.147706300020218</t>
@@ -167,22 +167,22 @@
     <t xml:space="preserve">0.153166905045509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.154178142547607</t>
+    <t xml:space="preserve">0.154178112745285</t>
   </si>
   <si>
     <t xml:space="preserve">0.150942221283913</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150672540068626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154717445373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156470239162445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162402763962746</t>
+    <t xml:space="preserve">0.150672569870949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154717460274696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156470254063606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162402749061584</t>
   </si>
   <si>
     <t xml:space="preserve">0.164492636919022</t>
@@ -194,16 +194,16 @@
     <t xml:space="preserve">0.16085222363472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.158088207244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15909942984581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155526429414749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154312953352928</t>
+    <t xml:space="preserve">0.158088222146034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159099414944649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155526414513588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154312968254089</t>
   </si>
   <si>
     <t xml:space="preserve">0.148987174034119</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">0.150200635194778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150065809488297</t>
+    <t xml:space="preserve">0.150065779685974</t>
   </si>
   <si>
     <t xml:space="preserve">0.149930968880653</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">0.146964728832245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144268110394478</t>
+    <t xml:space="preserve">0.144268095493317</t>
   </si>
   <si>
     <t xml:space="preserve">0.142245665192604</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">0.151751190423965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.15727923810482</t>
+    <t xml:space="preserve">0.157279208302498</t>
   </si>
   <si>
     <t xml:space="preserve">0.156874731183052</t>
@@ -248,22 +248,22 @@
     <t xml:space="preserve">0.156942158937454</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152695000171661</t>
+    <t xml:space="preserve">0.1526949852705</t>
   </si>
   <si>
     <t xml:space="preserve">0.157009541988373</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152560159564018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122473835945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154429942369461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150274872779846</t>
+    <t xml:space="preserve">0.152560174465179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122488737106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1544299274683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150274902582169</t>
   </si>
   <si>
     <t xml:space="preserve">0.150828897953033</t>
@@ -272,16 +272,16 @@
     <t xml:space="preserve">0.147781848907471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147712603211403</t>
+    <t xml:space="preserve">0.147712588310242</t>
   </si>
   <si>
     <t xml:space="preserve">0.146812319755554</t>
   </si>
   <si>
-    <t xml:space="preserve">0.142657250165939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142103239893913</t>
+    <t xml:space="preserve">0.142657265067101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142103254795074</t>
   </si>
   <si>
     <t xml:space="preserve">0.138155937194824</t>
@@ -293,25 +293,25 @@
     <t xml:space="preserve">0.139887228608131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140579730272293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141272246837616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139748692512512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141203001141548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144042283296585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14542730152607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144734799861908</t>
+    <t xml:space="preserve">0.140579715371132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141272217035294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139748707413673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141202986240387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144042298197746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145427316427231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144734784960747</t>
   </si>
   <si>
     <t xml:space="preserve">0.145219549536705</t>
@@ -323,1120 +323,1120 @@
     <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147574096918106</t>
+    <t xml:space="preserve">0.147574082016945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148889869451523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148128092288971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14418075978756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146673828363419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141826257109642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133654609322548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132685095071793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134485617280006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121881917119026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123890213668346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126244753599167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123405449092388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125898480415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116341844201088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787826478481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12257444858551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111895561218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122920662164688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228182852268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419371545315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113502539694309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110940270125866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118904128670692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297443449497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452505588531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124651975929737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126175493001938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130953848361969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128668531775475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128460794687271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127768248319626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127422004938126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126729503273964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128253027796745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130884543061256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131161570549011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127976030111313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120496913790703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118211634457111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172859609127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114956811070442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116618849337101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118627123534679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119804389774799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765637278557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912417769432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718565881252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319647550583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119250372052193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118834875524044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121258668601513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122505210340023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197682201862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552237033844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125690743327141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121743410825729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674172580242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120150655508041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121120169758797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118488624691963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119665898382664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115372352302074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926332771778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117726877331734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116826601326466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117103606462479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121189422905445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115233823657036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11897336691618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118350118398666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12811453640461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126660242676735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12409795820713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125205978751183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123959466814995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11703435331583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117796115577221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117934629321098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116480350494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115095317363739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113433308899403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11149425804615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115441583096981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113571807742119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11467981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111771270632744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111009515821934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.111563511192799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112186774611473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117588348686695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121327936649323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122020445764065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122435934841633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119942903518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124305717647076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122851453721523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120773911476135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119596667587757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119527384638786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120358422398567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121812678873539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141895487904549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169665202498436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159970045089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157199993729591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146119803190231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146466061472893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148197323083878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144942551851273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148682087659836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149928614497185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154360696673393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157476991415024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159900799393654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158031016588211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156507477164268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147366315126419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143349781632423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143696010112762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145358055830002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143626764416695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144319295883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137809678912163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13919472694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140164211392403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140510484576225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140441223978996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139540955424309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138502195477486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139679461717606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13711716234684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139056205749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144111528992653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14425003528595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145912066102028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142588004469872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145981326699257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149028345942497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147851094603539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148058846592903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150413364171982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148959115147591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152075409889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152352407574654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155399456620216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160870313644409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159139022231102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158931270241737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155814960598946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151936918497086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150967389345169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148612856864929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147920340299606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147297084331512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143142014741898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141687750816345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146258339285851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14972086250782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152213916182518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152006164193153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14618906378746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145773559808731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148474335670471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148472428321838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146802619099617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145411133766174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144297927618027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147011339664459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148541986942291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148959428071976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145480707287788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145132824778557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146106868982315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144506648182869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144019648432732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143463030457497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140749618411064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143045589327812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14019301533699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141236618161201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141514956951141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142071545124054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13949728012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139010265469551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14033217728138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139149397611618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137757912278175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137618750333786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137062162160873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13817535340786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138244926929474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142419397830963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140610486268997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141793236136436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141445353627205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141167089343071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14068004488945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140123456716537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141584515571594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140053868293762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139636427164078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139427691698074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147289648652077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149655193090439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149863913655281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150629237294197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149724751710892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147985398769379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146246016025543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147428795695305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149237707257271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150281339883804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148402839899063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151742413640022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152020737528801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152577325701714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152159884572029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150490075349808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151324972510338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150977104902267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150350943207741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149029031395912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148750707507133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149098590016365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151672855019569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166840121150017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169762268662453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168649077415466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166979283094406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160369679331779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162317767739296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173797592520714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175954416394234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17289312183857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173936739563942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168718665838242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168509930372238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167675033211708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168996959924698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16586609184742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16419629752636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.169275268912315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171988666057587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170458033680916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173241004347801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175676107406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185068711638451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187712550163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184581682085991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.189938947558403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.198635756969452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197383433580399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193417683243752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.192443624138832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.187851682305336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.194809138774872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191678315401077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188060402870178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183468475937843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185694888234138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186112329363823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183816373348236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183677226305008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178528666496277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17671974003315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172962710261345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177972093224525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179363608360291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18075504899025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1808942258358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177763357758522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174423769116402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174145460128784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185416579246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185138270258904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182424873113632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180059343576431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180824652314186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176023975014687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163013517856598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162804797291756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165587782859802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166074812412262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166144400835037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166770562529564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167396754026413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165935665369034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163917988538742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166492253541946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167535871267319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165448635816574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167327150702477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165170326828957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167466327548027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166700974106789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164405032992363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163500547409058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166422680020332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166283547878265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166909709572792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165518209338188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168022900819778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168370768427849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1648920327425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173588901758194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172545254230499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181589990854263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180198460817337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179502725601196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178806975483894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18054635822773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182981446385384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182633578777313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183329343795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177415490150452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179154843091965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16454416513443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.162456929683685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161761194467545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161413311958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157586678862572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.159326061606407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154803708195686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154107958078384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152368575334549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154455855488777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149933487176895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152716472744942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156195193529129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156543061137199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155151575803757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155847355723381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153064340353012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149585619568825</t>
   </si>
   <si>
     <t xml:space="preserve">0.148889854550362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148128092288971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14418075978756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146673828363419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141826257109642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133654609322548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132685095071793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134485617280006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121881917119026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123890213668346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126244753599167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123405456542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125898510217667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116341836750507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115787833929062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12257444858551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119111910462379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12292069196701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122228197753429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118419371545315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113502539694309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110940277576447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118904128670692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122297435998917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452505588531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124651975929737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126175493001938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130953818559647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128668546676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128460764884949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127768278121948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127422004938126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126729503273964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128253027796745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130884557962418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131161570549011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127976030111313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120496913790703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11821161955595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117172859609127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114956811070442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116618849337101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118627108633518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119804389774799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118765614926815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120912432670593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115718580782413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119319647550583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119250379502773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118834875524044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121258668601513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122505187988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123197697103024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125552237033844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125690758228302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121743410825729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121674165129662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120150655508041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121120154857635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118488639593124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119665898382664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115372329950333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926332771778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117726847529411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116826601326466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117103606462479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121189408004284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115233838558197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118973389267921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118350133299828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12811453640461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126660242676735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12409795820713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125205978751183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123959466814995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117034368216991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117796115577221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117934629321098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116480335593224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11509532481432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113433301448822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111494272947311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115441583096981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113571807742119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114679828286171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111771255731583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111009515821934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.111563518643379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112186767160892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117588363587856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121327921748161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122020430862904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122435934841633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119942903518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124305695295334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122851438820362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120773904025555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119596652686596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.119527384638786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120358422398567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121812663972378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141895487904549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169665172696114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159970015287399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157199993729591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146119803190231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146466076374054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148197337985039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144942566752434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148682117462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149928629398346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154360696673393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157476991415024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15990075469017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15803100168705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156507477164268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147366315126419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143349751830101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143696025013924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145358070731163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143626764416695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144319280982018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137809678912163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139194712042809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140164211392403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140510469675064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140441238880157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139540940523148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138502210378647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139679461717606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13711716234684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139056205749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144111528992653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144250020384789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145912081003189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142588004469872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145981311798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14902837574482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147851094603539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148058861494064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150413364171982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148959115147591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152075409889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152352437376976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155399456620216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160870298743248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159139037132263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158931270241737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155814945697784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151936918497086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150967389345169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148612856864929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147920340299606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147297069430351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143142014741898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141687765717506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146258309483528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14972086250782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152213901281357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152006164193153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146189048886299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145773559808731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148474365472794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148472413420677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146802604198456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145411133766174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144297927618027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147011324763298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14854197204113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148959428071976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145480692386627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145132824778557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146106868982315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144506648182869</t>
+    <t xml:space="preserve">0.148194119334221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147846251726151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146454751491547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157934591174126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160021811723709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158282443881035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157238826155663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16179983317852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163222253322601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16144423186779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160733014345169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155043363571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157532572746277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156110167503357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153620958328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155398964881897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153976544737816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149709299206734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147575661540031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146508857607841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145797669887543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.143308401107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138827815651894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137974366545677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139965742826462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142597213387489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147220060229301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145442053675652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138970047235489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140108004212379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138401076197624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141957134008408</t>
   </si>
   <si>
     <t xml:space="preserve">0.14401963353157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143463030457497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140749603509903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143045604228973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14019301533699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141236662864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141514927148819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142071545124054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13949728012085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139010235667229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140332162380219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139149397611618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137757897377014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137618750333786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137062162160873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13817535340786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138244926929474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142419412732124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140610471367836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141793251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141445353627205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141167089343071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14068004488945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140123456716537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141584500670433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140053883194923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139636412262917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139427691698074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147289648652077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149655193090439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149863913655281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150629237294197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149724766612053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147985368967056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146246016025543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147428795695305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149237722158432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150281354784966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148402854800224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151742428541183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15202072262764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152577325701714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152159869670868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150490075349808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151324972510338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150977104902267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15035092830658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149029016494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148750707507133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149098590016365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151672855019569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166840150952339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169762283563614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168649077415466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166979283094406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160369694232941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162317782640457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173797607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175954431295395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172893136739731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173936754465103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16871865093708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168509930372238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167675033211708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168996945023537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16586609184742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164196312427521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.169275254011154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171988666057587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170458003878593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173241004347801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175676107406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185068726539612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18771256506443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184581682085991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.189938932657242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198635756969452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197383433580399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193417653441429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.192443639039993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.187851712107658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194809183478355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191678300499916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188060387969017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183468490839005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185694888234138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186112344264984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183816373348236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183677226305008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178528666496277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176719725131989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172962710261345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177972078323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179363593459129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180755063891411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180894210934639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177763357758522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174423769116402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174145475029945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18541656434536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185138285160065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182424873113632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180059313774109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180824667215347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176023975014687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163013517856598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162804797291756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165587797760963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166074797511101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166144385933876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166770577430725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167396739125252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165935665369034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163917988538742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166492253541946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16753588616848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165448650717735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167327150702477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165170326828957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167466312646866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16670098900795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164405018091202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163500562310219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166422680020332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166283532977104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166909694671631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165518209338188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16802291572094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168370768427849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1648920327425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173588886857033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172545254230499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181589961051941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180198460817337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179502710700035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178806975483894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18054635822773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182981476187706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182633593678474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183329343795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17741547524929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179154843091965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16454416513443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162456929683685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161761179566383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161413311958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157586693763733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159326046705246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154803708195686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154107958078384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15236859023571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154455840587616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149933487176895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152716472744942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156195223331451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156543046236038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155151590704918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155847325921059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153064355254173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149585619568825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14819410443306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147846236824989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146454751491547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157934576272964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160021811723709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158282443881035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157238826155663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16179983317852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163222253322601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160021796822548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16144423186779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160733014345169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155043363571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157532572746277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156110167503357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153620943427086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155398964881897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153976544737816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149709314107895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147575676441193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146508857607841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14579764008522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.143308416008949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138827800750732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137974351644516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139965757727623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142597213387489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147220060229301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145442053675652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13897006213665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140107989311218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138401076197624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141957134008408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144019618630409</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.140676960349083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141245931386948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.141103684902191</t>
+    <t xml:space="preserve">0.141245916485786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141103699803352</t>
   </si>
   <si>
     <t xml:space="preserve">0.139112293720245</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">0.139823511242867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.13968126475811</t>
+    <t xml:space="preserve">0.139681249856949</t>
   </si>
   <si>
     <t xml:space="preserve">0.142099365592003</t>
@@ -1469,13 +1469,13 @@
     <t xml:space="preserve">0.142952814698219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143664047122002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147931277751923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148642495274544</t>
+    <t xml:space="preserve">0.14366403222084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147931292653084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148642465472221</t>
   </si>
   <si>
     <t xml:space="preserve">0.152909740805626</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">0.149353682994843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144375249743462</t>
+    <t xml:space="preserve">0.1443752348423</t>
   </si>
   <si>
     <t xml:space="preserve">0.141388148069382</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">0.138543322682381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141530409455299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139254525303841</t>
+    <t xml:space="preserve">0.141530394554138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139254540205002</t>
   </si>
   <si>
     <t xml:space="preserve">0.14039246737957</t>
@@ -1529,67 +1529,67 @@
     <t xml:space="preserve">0.135129526257515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12943984568119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125030353665352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125172600150108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.123465724289417</t>
+    <t xml:space="preserve">0.129439860582352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125030368566513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12517261505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123465709388256</t>
   </si>
   <si>
     <t xml:space="preserve">0.123750202357769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126310542225838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126595050096512</t>
+    <t xml:space="preserve">0.126310557126999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126595020294189</t>
   </si>
   <si>
     <t xml:space="preserve">0.123892433941364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12232780456543</t>
+    <t xml:space="preserve">0.122327789664268</t>
   </si>
   <si>
     <t xml:space="preserve">0.119482956826687</t>
   </si>
   <si>
-    <t xml:space="preserve">0.117633819580078</t>
+    <t xml:space="preserve">0.117633804678917</t>
   </si>
   <si>
     <t xml:space="preserve">0.116922602057457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.112513110041618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115926921367645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113793291151524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115215696394444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114931218326092</t>
+    <t xml:space="preserve">0.112513102591038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115926906466484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113793283700943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115215711295605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114931210875511</t>
   </si>
   <si>
     <t xml:space="preserve">0.116638123989105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119198463857174</t>
+    <t xml:space="preserve">0.119198478758335</t>
   </si>
   <si>
     <t xml:space="preserve">0.119909666478634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11934071034193</t>
+    <t xml:space="preserve">0.119340695440769</t>
   </si>
   <si>
     <t xml:space="preserve">0.123038984835148</t>
@@ -1604,10 +1604,10 @@
     <t xml:space="preserve">0.121616572141647</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120905369520187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118060529232025</t>
+    <t xml:space="preserve">0.120905354619026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118060544133186</t>
   </si>
   <si>
     <t xml:space="preserve">0.111659660935402</t>
@@ -1619,13 +1619,13 @@
     <t xml:space="preserve">0.113366566598415</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116211384534836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122754499316216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127590730786324</t>
+    <t xml:space="preserve">0.116211391985416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122754521667957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127590715885162</t>
   </si>
   <si>
     <t xml:space="preserve">0.127875223755836</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">0.127306252717972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124745905399323</t>
+    <t xml:space="preserve">0.124745883047581</t>
   </si>
   <si>
     <t xml:space="preserve">0.120763123035431</t>
@@ -1646,34 +1646,34 @@
     <t xml:space="preserve">0.119056232273579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114504493772984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117349311709404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114646747708321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126452788710594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12047865241766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120336413383484</t>
+    <t xml:space="preserve">0.114504501223564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117349341511726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11464674025774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452803611755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12047865986824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120336405932903</t>
   </si>
   <si>
     <t xml:space="preserve">0.120194174349308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120620869100094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118487261235714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113082066178322</t>
+    <t xml:space="preserve">0.120620884001255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118487276136875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113082081079483</t>
   </si>
   <si>
     <t xml:space="preserve">0.111944146454334</t>
@@ -1682,37 +1682,37 @@
     <t xml:space="preserve">0.112655363976955</t>
   </si>
   <si>
-    <t xml:space="preserve">0.110663965344429</t>
+    <t xml:space="preserve">0.11066397279501</t>
   </si>
   <si>
     <t xml:space="preserve">0.110379494726658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111801892518997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.112370878458023</t>
+    <t xml:space="preserve">0.111801907420158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112370885908604</t>
   </si>
   <si>
     <t xml:space="preserve">0.111232936382294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116069152951241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121332079172134</t>
+    <t xml:space="preserve">0.116069160401821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121332094073296</t>
   </si>
   <si>
     <t xml:space="preserve">0.12261226773262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124319158494473</t>
+    <t xml:space="preserve">0.124319188296795</t>
   </si>
   <si>
     <t xml:space="preserve">0.121758818626404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122185558080673</t>
+    <t xml:space="preserve">0.122185543179512</t>
   </si>
   <si>
     <t xml:space="preserve">0.115642435848713</t>
@@ -1721,19 +1721,19 @@
     <t xml:space="preserve">0.116495877504349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11862950772047</t>
+    <t xml:space="preserve">0.118629492819309</t>
   </si>
   <si>
     <t xml:space="preserve">0.119767434895039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118202783167362</t>
+    <t xml:space="preserve">0.118202775716782</t>
   </si>
   <si>
     <t xml:space="preserve">0.115357950329781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.116780370473862</t>
+    <t xml:space="preserve">0.116780355572701</t>
   </si>
   <si>
     <t xml:space="preserve">0.117491573095322</t>
@@ -1742,16 +1742,16 @@
     <t xml:space="preserve">0.116282507777214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.118771739304066</t>
+    <t xml:space="preserve">0.118771724402905</t>
   </si>
   <si>
     <t xml:space="preserve">0.119838558137417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120549760758877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12162934243679</t>
+    <t xml:space="preserve">0.120549768209457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121629357337952</t>
   </si>
   <si>
     <t xml:space="preserve">0.12126736342907</t>
@@ -1763,46 +1763,46 @@
     <t xml:space="preserve">0.121991351246834</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119095422327518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118009440600872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116923466324806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114751517772675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115113481879234</t>
+    <t xml:space="preserve">0.119095407426357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118009425699711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116923473775387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114751495420933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115113496780396</t>
   </si>
   <si>
     <t xml:space="preserve">0.116561472415924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.119457386434078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116199463605881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11583749204874</t>
+    <t xml:space="preserve">0.119457416236401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116199478507042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115837477147579</t>
   </si>
   <si>
     <t xml:space="preserve">0.113665536046028</t>
   </si>
   <si>
-    <t xml:space="preserve">0.114389508962631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11402752250433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11221756786108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.110769584774971</t>
+    <t xml:space="preserve">0.114389523863792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114027515053749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112217552959919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110769592225552</t>
   </si>
   <si>
     <t xml:space="preserve">0.111855551600456</t>
@@ -1811,49 +1811,49 @@
     <t xml:space="preserve">0.107149675488472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.107873655855656</t>
+    <t xml:space="preserve">0.107873663306236</t>
   </si>
   <si>
     <t xml:space="preserve">0.107511654496193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104977704584599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108235657215118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106425695121288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108959637582302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109683625400066</t>
+    <t xml:space="preserve">0.104977712035179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108235649764538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106425687670708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108959630131721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109683617949486</t>
   </si>
   <si>
     <t xml:space="preserve">0.11040760576725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111493587493896</t>
+    <t xml:space="preserve">0.111493580043316</t>
   </si>
   <si>
     <t xml:space="preserve">0.111131586134434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.113303542137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108597636222839</t>
+    <t xml:space="preserve">0.113303549587727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10859764367342</t>
   </si>
   <si>
     <t xml:space="preserve">0.110045604407787</t>
   </si>
   <si>
-    <t xml:space="preserve">0.109321624040604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115475498139858</t>
+    <t xml:space="preserve">0.109321609139442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115475490689278</t>
   </si>
   <si>
     <t xml:space="preserve">0.118733428418636</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">0.119819395244122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.120543375611305</t>
+    <t xml:space="preserve">0.120543390512466</t>
   </si>
   <si>
     <t xml:space="preserve">0.118371419608593</t>
@@ -1877,34 +1877,34 @@
     <t xml:space="preserve">0.123801298439503</t>
   </si>
   <si>
-    <t xml:space="preserve">0.126335263252258</t>
+    <t xml:space="preserve">0.126335248351097</t>
   </si>
   <si>
     <t xml:space="preserve">0.123439311981201</t>
   </si>
   <si>
-    <t xml:space="preserve">0.124525316059589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12488729506731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.124163292348385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12307733297348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144072875380516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15420863032341</t>
+    <t xml:space="preserve">0.124525301158428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124887280166149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124163307249546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123077318072319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144072860479355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154208645224571</t>
   </si>
   <si>
     <t xml:space="preserve">0.146244823932648</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1556566208601</t>
+    <t xml:space="preserve">0.155656635761261</t>
   </si>
   <si>
     <t xml:space="preserve">0.177376136183739</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">0.191855818033218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184615969657898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171584248542786</t>
+    <t xml:space="preserve">0.184615984559059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171584278345108</t>
   </si>
   <si>
     <t xml:space="preserve">0.166516378521919</t>
@@ -1931,13 +1931,13 @@
     <t xml:space="preserve">0.173032224178314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168688341975212</t>
+    <t xml:space="preserve">0.168688327074051</t>
   </si>
   <si>
     <t xml:space="preserve">0.164344429969788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160724505782127</t>
+    <t xml:space="preserve">0.160724520683289</t>
   </si>
   <si>
     <t xml:space="preserve">0.161448493599892</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">0.165792390704155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165068417787552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15782855451107</t>
+    <t xml:space="preserve">0.165068402886391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157828569412231</t>
   </si>
   <si>
     <t xml:space="preserve">0.162896454334259</t>
@@ -1961,13 +1961,13 @@
     <t xml:space="preserve">0.163620442152023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17954808473587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178100138902664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156380608677864</t>
+    <t xml:space="preserve">0.179548099637032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178100124001503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156380623579025</t>
   </si>
   <si>
     <t xml:space="preserve">0.153484672307968</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">0.149140760302544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146968811750412</t>
+    <t xml:space="preserve">0.146968796849251</t>
   </si>
   <si>
     <t xml:space="preserve">0.152036681771278</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">0.170860290527344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.172308266162872</t>
+    <t xml:space="preserve">0.172308251261711</t>
   </si>
   <si>
     <t xml:space="preserve">0.169412314891815</t>
@@ -1997,25 +1997,25 @@
     <t xml:space="preserve">0.149864748120308</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151312723755836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138642966747284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139728963375092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136833012104034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131041139364243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122353345155716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106787674129009</t>
+    <t xml:space="preserve">0.151312693953514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138642981648445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139728978276253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.136833027005196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131041154265404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122353360056877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106787666678429</t>
   </si>
   <si>
     <t xml:space="preserve">0.0912220254540443</t>
@@ -2030,64 +2030,64 @@
     <t xml:space="preserve">0.0977378785610199</t>
   </si>
   <si>
-    <t xml:space="preserve">0.100633807480335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10135780274868</t>
+    <t xml:space="preserve">0.100633822381496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.101357787847519</t>
   </si>
   <si>
     <t xml:space="preserve">0.102443777024746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.104253731667995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106063693761826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102805763483047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105701707303524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103529758751392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106570474803448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107004880905151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108018465340137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.107294462621212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102081783115864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103819347918034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103674545884132</t>
+    <t xml:space="preserve">0.104253739118576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106063701212406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102805770933628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105701699852943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103529751300812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106570489704609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107004873454571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108018450438976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.107294477522373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102081775665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103819340467453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103674538433552</t>
   </si>
   <si>
     <t xml:space="preserve">0.103964142501354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.10483293235302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105412110686302</t>
+    <t xml:space="preserve">0.104832924902439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.105412103235722</t>
   </si>
   <si>
     <t xml:space="preserve">0.108452849090099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.111203990876675</t>
+    <t xml:space="preserve">0.111203983426094</t>
   </si>
   <si>
     <t xml:space="preserve">0.10686007887125</t>
@@ -2096,13 +2096,13 @@
     <t xml:space="preserve">0.10671528428793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.122208543121815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108163245022297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109466403722763</t>
+    <t xml:space="preserve">0.122208535671234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108163252472878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109466418623924</t>
   </si>
   <si>
     <t xml:space="preserve">0.103384956717491</t>
@@ -2111,46 +2111,46 @@
     <t xml:space="preserve">0.104688130319118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11047999560833</t>
+    <t xml:space="preserve">0.110480010509491</t>
   </si>
   <si>
     <t xml:space="preserve">0.112796746194363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.11033521592617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.113955117762089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.115692675113678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154932633042336</t>
+    <t xml:space="preserve">0.110335201025009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.113955125212669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115692682564259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154932618141174</t>
   </si>
   <si>
     <t xml:space="preserve">0.139004975557327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.152760669589043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157104596495628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.151674687862396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149502754211426</t>
+    <t xml:space="preserve">0.152760684490204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157104581594467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.151674702763557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149502739310265</t>
   </si>
   <si>
     <t xml:space="preserve">0.150588735938072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148416757583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148054778575897</t>
+    <t xml:space="preserve">0.148416787385941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148054793477058</t>
   </si>
   <si>
     <t xml:space="preserve">0.144652053713799</t>
@@ -2183,31 +2183,31 @@
     <t xml:space="preserve">0.144507259130478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147330790758133</t>
+    <t xml:space="preserve">0.147330805659294</t>
   </si>
   <si>
     <t xml:space="preserve">0.143493682146072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140163362026215</t>
+    <t xml:space="preserve">0.140163347125053</t>
   </si>
   <si>
     <t xml:space="preserve">0.140887334942818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.141900926828384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147692799568176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145882830023766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144217669963837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142624899744987</t>
+    <t xml:space="preserve">0.141900911927223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147692784667015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145882800221443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144217684864998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142624914646149</t>
   </si>
   <si>
     <t xml:space="preserve">0.143059283494949</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">0.154570639133453</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143204092979431</t>
+    <t xml:space="preserve">0.14320407807827</t>
   </si>
   <si>
     <t xml:space="preserve">0.143348887562752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.143783286213875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142480120062828</t>
+    <t xml:space="preserve">0.143783271312714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142480105161667</t>
   </si>
   <si>
     <t xml:space="preserve">0.138136193156242</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">0.158914551138878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.153846651315689</t>
+    <t xml:space="preserve">0.15384666621685</t>
   </si>
   <si>
     <t xml:space="preserve">0.15022674202919</t>
@@ -2264,28 +2264,28 @@
     <t xml:space="preserve">0.156742602586746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159276559948921</t>
+    <t xml:space="preserve">0.159276530146599</t>
   </si>
   <si>
     <t xml:space="preserve">0.169774323701859</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16832634806633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.173394232988358</t>
+    <t xml:space="preserve">0.168326333165169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.173394247889519</t>
   </si>
   <si>
     <t xml:space="preserve">0.167964354157448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169050320982933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171222269535065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171946257352829</t>
+    <t xml:space="preserve">0.169050335884094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171222254633904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171946242451668</t>
   </si>
   <si>
     <t xml:space="preserve">0.177014142274857</t>
@@ -2294,16 +2294,16 @@
     <t xml:space="preserve">0.176290169358253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179910093545914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184253990650177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180272087454796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179186120629311</t>
+    <t xml:space="preserve">0.179910078644753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184254005551338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180272072553635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179186105728149</t>
   </si>
   <si>
     <t xml:space="preserve">0.177738130092621</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">0.17556619644165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175928190350533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175204187631607</t>
+    <t xml:space="preserve">0.175928175449371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175204202532768</t>
   </si>
   <si>
     <t xml:space="preserve">0.174842208623886</t>
@@ -2330,7 +2330,7 @@
     <t xml:space="preserve">0.182514518499374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.180560395121574</t>
+    <t xml:space="preserve">0.180560410022736</t>
   </si>
   <si>
     <t xml:space="preserve">0.17977873980999</t>
@@ -2348,10 +2348,10 @@
     <t xml:space="preserve">0.17352557182312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174698024988174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178997099399567</t>
+    <t xml:space="preserve">0.174698039889336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178997084498405</t>
   </si>
   <si>
     <t xml:space="preserve">0.17547969520092</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">0.17587049305439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173916399478912</t>
+    <t xml:space="preserve">0.173916384577751</t>
   </si>
   <si>
     <t xml:space="preserve">0.178606271743774</t>
@@ -2372,25 +2372,25 @@
     <t xml:space="preserve">0.171180620789528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16922652721405</t>
+    <t xml:space="preserve">0.169226512312889</t>
   </si>
   <si>
     <t xml:space="preserve">0.171962276101112</t>
   </si>
   <si>
-    <t xml:space="preserve">0.16727240383625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168444857001305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170789793133736</t>
+    <t xml:space="preserve">0.167272388935089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168444871902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170789808034897</t>
   </si>
   <si>
     <t xml:space="preserve">0.171571463346481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.173134744167328</t>
+    <t xml:space="preserve">0.173134729266167</t>
   </si>
   <si>
     <t xml:space="preserve">0.172743916511536</t>
@@ -2408,16 +2408,16 @@
     <t xml:space="preserve">0.168054044246674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170398980379105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16766320168972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166881576180458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165709093213081</t>
+    <t xml:space="preserve">0.170398995280266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167663216590881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166881561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165709108114243</t>
   </si>
   <si>
     <t xml:space="preserve">0.166490748524666</t>
@@ -2426,7 +2426,7 @@
     <t xml:space="preserve">0.16531828045845</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166099920868874</t>
+    <t xml:space="preserve">0.166099935770035</t>
   </si>
   <si>
     <t xml:space="preserve">0.164536640048027</t>
@@ -2435,16 +2435,16 @@
     <t xml:space="preserve">0.16141003370285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162582516670227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157501816749573</t>
+    <t xml:space="preserve">0.162582531571388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157501801848412</t>
   </si>
   <si>
     <t xml:space="preserve">0.158283442258835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.160628393292427</t>
+    <t xml:space="preserve">0.160628408193588</t>
   </si>
   <si>
     <t xml:space="preserve">0.163754984736443</t>
@@ -2459,10 +2459,10 @@
     <t xml:space="preserve">0.160237565636635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.162973329424858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164145812392235</t>
+    <t xml:space="preserve">0.162973344326019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164145797491074</t>
   </si>
   <si>
     <t xml:space="preserve">0.161800876259804</t>
@@ -2489,58 +2489,58 @@
     <t xml:space="preserve">0.182905316352844</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186031922698021</t>
+    <t xml:space="preserve">0.18603190779686</t>
   </si>
   <si>
     <t xml:space="preserve">0.184468626976013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.184859454631805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.182123675942421</t>
+    <t xml:space="preserve">0.184859439730644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18212366104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180169552564621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181429505348206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17890964448452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.185209274291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.184369340538979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178489670157433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178069695830345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176389768719673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.181009531021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.177229732275009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174709901213646</t>
   </si>
   <si>
     <t xml:space="preserve">0.180169567465782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181429505348206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17890964448452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.185209274291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184369340538979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178489655256271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178069680929184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176389783620834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.181009501218796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.177229732275009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174709886312485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180169552564621</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.177649706602097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179749593138695</t>
+    <t xml:space="preserve">0.179749578237534</t>
   </si>
   <si>
     <t xml:space="preserve">0.182269439101219</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">0.18058954179287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.179329618811607</t>
+    <t xml:space="preserve">0.179329603910446</t>
   </si>
   <si>
     <t xml:space="preserve">0.17554983496666</t>
@@ -2561,13 +2561,13 @@
     <t xml:space="preserve">0.176809772849083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183109387755394</t>
+    <t xml:space="preserve">0.183109402656555</t>
   </si>
   <si>
     <t xml:space="preserve">0.188149109482765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18730916082859</t>
+    <t xml:space="preserve">0.187309145927429</t>
   </si>
   <si>
     <t xml:space="preserve">0.188569083809853</t>
@@ -2576,22 +2576,22 @@
     <t xml:space="preserve">0.189829006791115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187729120254517</t>
+    <t xml:space="preserve">0.187729135155678</t>
   </si>
   <si>
     <t xml:space="preserve">0.173449948430061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.174289911985397</t>
+    <t xml:space="preserve">0.174289897084236</t>
   </si>
   <si>
     <t xml:space="preserve">0.169670179486275</t>
   </si>
   <si>
-    <t xml:space="preserve">0.159254789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163118541240692</t>
+    <t xml:space="preserve">0.159254774451256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163118556141853</t>
   </si>
   <si>
     <t xml:space="preserve">0.171350076794624</t>
@@ -2603,13 +2603,13 @@
     <t xml:space="preserve">0.17386993765831</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181849479675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183529362082481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186469197273254</t>
+    <t xml:space="preserve">0.181849464774132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183529376983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186469212174416</t>
   </si>
   <si>
     <t xml:space="preserve">0.183949336409569</t>
@@ -2621,13 +2621,13 @@
     <t xml:space="preserve">0.184789299964905</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186049222946167</t>
+    <t xml:space="preserve">0.186049208045006</t>
   </si>
   <si>
     <t xml:space="preserve">0.191928878426552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.187119737267494</t>
+    <t xml:space="preserve">0.187119722366333</t>
   </si>
   <si>
     <t xml:space="preserve">0.186245337128639</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">0.17837581038475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.18318498134613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.180561795830727</t>
+    <t xml:space="preserve">0.183184966444969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.180561780929565</t>
   </si>
   <si>
     <t xml:space="preserve">0.179687410593033</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">0.177501425147057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.178813010454178</t>
+    <t xml:space="preserve">0.178813025355339</t>
   </si>
   <si>
     <t xml:space="preserve">0.179250210523605</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">0.180998995900154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.181873381137848</t>
+    <t xml:space="preserve">0.181873396039009</t>
   </si>
   <si>
     <t xml:space="preserve">0.174878254532814</t>
@@ -2675,22 +2675,22 @@
     <t xml:space="preserve">0.163161411881447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167183607816696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168757513165474</t>
+    <t xml:space="preserve">0.167183622717857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168757528066635</t>
   </si>
   <si>
     <t xml:space="preserve">0.16788312792778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.168932408094406</t>
+    <t xml:space="preserve">0.168932393193245</t>
   </si>
   <si>
     <t xml:space="preserve">0.167008727788925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165609702467918</t>
+    <t xml:space="preserve">0.16560971736908</t>
   </si>
   <si>
     <t xml:space="preserve">0.16176238656044</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">0.16386091709137</t>
   </si>
   <si>
-    <t xml:space="preserve">0.175752654671669</t>
+    <t xml:space="preserve">0.175752639770508</t>
   </si>
   <si>
     <t xml:space="preserve">0.174353614449501</t>
@@ -2726,25 +2726,25 @@
     <t xml:space="preserve">0.173479229211807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169107258319855</t>
+    <t xml:space="preserve">0.169107273221016</t>
   </si>
   <si>
     <t xml:space="preserve">0.172080188989639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.170856058597565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172429963946342</t>
+    <t xml:space="preserve">0.170856043696404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172429949045181</t>
   </si>
   <si>
     <t xml:space="preserve">0.171555563807487</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169631913304329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166484102606773</t>
+    <t xml:space="preserve">0.169631898403168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.166484087705612</t>
   </si>
   <si>
     <t xml:space="preserve">0.174003854393959</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">0.171730443835258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.166134342551231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170681163668633</t>
+    <t xml:space="preserve">0.16613432765007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.170681178569794</t>
   </si>
   <si>
     <t xml:space="preserve">0.16805799305439</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">0.167358487844467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.167708247900009</t>
+    <t xml:space="preserve">0.167708232998848</t>
   </si>
   <si>
     <t xml:space="preserve">0.167533367872238</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">0.166833847761154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.169457018375397</t>
+    <t xml:space="preserve">0.169457033276558</t>
   </si>
   <si>
     <t xml:space="preserve">0.169806778430939</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">0.176627039909363</t>
   </si>
   <si>
-    <t xml:space="preserve">0.17531543970108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176189839839935</t>
+    <t xml:space="preserve">0.175315454602242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176189824938774</t>
   </si>
   <si>
     <t xml:space="preserve">0.174178749322891</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">0.170506283640862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171380668878555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171205818653107</t>
+    <t xml:space="preserve">0.171380683779716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.171205803751945</t>
   </si>
   <si>
     <t xml:space="preserve">0.174703374505043</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">0.188868522644043</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185808137059212</t>
+    <t xml:space="preserve">0.185808151960373</t>
   </si>
   <si>
     <t xml:space="preserve">0.189742892980576</t>
@@ -2873,28 +2873,28 @@
     <t xml:space="preserve">0.187994122505188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.186682537198067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183622166514397</t>
+    <t xml:space="preserve">0.186682522296906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183622151613235</t>
   </si>
   <si>
     <t xml:space="preserve">0.184933751821518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.185370936989784</t>
+    <t xml:space="preserve">0.185370951890945</t>
   </si>
   <si>
     <t xml:space="preserve">0.18449655175209</t>
   </si>
   <si>
-    <t xml:space="preserve">0.182310566306114</t>
+    <t xml:space="preserve">0.182310581207275</t>
   </si>
   <si>
     <t xml:space="preserve">0.196738019585609</t>
   </si>
   <si>
-    <t xml:space="preserve">0.194989264011383</t>
+    <t xml:space="preserve">0.194989249110222</t>
   </si>
   <si>
     <t xml:space="preserve">0.197612419724464</t>
@@ -18209,7 +18209,7 @@
         <v>0.214000001549721</v>
       </c>
       <c r="G571" t="s">
-        <v>104</v>
+        <v>438</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -18235,7 +18235,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G572" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -18261,7 +18261,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G573" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -18287,7 +18287,7 @@
         <v>0.212999999523163</v>
       </c>
       <c r="G574" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -18313,7 +18313,7 @@
         <v>0.212500005960464</v>
       </c>
       <c r="G575" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -18339,7 +18339,7 @@
         <v>0.210500001907349</v>
       </c>
       <c r="G576" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -18573,7 +18573,7 @@
         <v>0.226999998092651</v>
       </c>
       <c r="G585" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -18599,7 +18599,7 @@
         <v>0.230000004172325</v>
       </c>
       <c r="G586" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -18651,7 +18651,7 @@
         <v>0.227500006556511</v>
       </c>
       <c r="G588" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -18755,7 +18755,7 @@
         <v>0.225999996066093</v>
       </c>
       <c r="G592" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -18781,7 +18781,7 @@
         <v>0.230000004172325</v>
       </c>
       <c r="G593" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -18807,7 +18807,7 @@
         <v>0.227500006556511</v>
       </c>
       <c r="G594" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -18833,7 +18833,7 @@
         <v>0.229499995708466</v>
       </c>
       <c r="G595" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -18859,7 +18859,7 @@
         <v>0.224999994039536</v>
       </c>
       <c r="G596" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -59895,7 +59895,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6495138889</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>230621</v>
@@ -59916,6 +59916,32 @@
         <v>992</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6493865741</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>1502093</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>0.221000000834465</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.216999992728233</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.219999998807907</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/PRO.MI.xlsx
+++ b/data/PRO.MI.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">0.174941942095757</t>
   </si>
   <si>
-    <t xml:space="preserve">0.171099320054054</t>
+    <t xml:space="preserve">0.171099290251732</t>
   </si>
   <si>
     <t xml:space="preserve">0.169144257903099</t>
@@ -59,79 +59,79 @@
     <t xml:space="preserve">0.163481414318085</t>
   </si>
   <si>
-    <t xml:space="preserve">0.165908336639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.167324051260948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.162672400474548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157144367694855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146627649664879</t>
+    <t xml:space="preserve">0.165908321738243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.167324066162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16267241537571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157144397497177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146627634763718</t>
   </si>
   <si>
     <t xml:space="preserve">0.148515269160271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138335600495338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144740015268326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148313015699387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148380428552628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158223018050194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152357906103134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152088269591331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15505450963974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154380366206169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15033546090126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145481586456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14258274435997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142717584967613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.131324455142021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.135504186153412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128223359584808</t>
+    <t xml:space="preserve">0.1383356153965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144740045070648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148313000798225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14838045835495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158223032951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152357921004295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152088284492493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155054539442062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154380351305008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150335490703583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14548160135746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142582759261131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142717570066452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13132444024086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.135504171252251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128223344683647</t>
   </si>
   <si>
     <t xml:space="preserve">0.130785137414932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138874918222427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.138200759887695</t>
+    <t xml:space="preserve">0.138874903321266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138200774788857</t>
   </si>
   <si>
     <t xml:space="preserve">0.143459126353264</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">0.140223234891891</t>
   </si>
   <si>
-    <t xml:space="preserve">0.137998506426811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144605174660683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142515331506729</t>
+    <t xml:space="preserve">0.137998521327972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144605204463005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142515316605568</t>
   </si>
   <si>
     <t xml:space="preserve">0.14197601377964</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">0.14372880756855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144065886735916</t>
+    <t xml:space="preserve">0.144065871834755</t>
   </si>
   <si>
     <t xml:space="preserve">0.142987236380577</t>
@@ -170,1210 +170,1213 @@
     <t xml:space="preserve">0.154178112745285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.150942221283913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150672569870949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.154717460274696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.156470254063606</t>
+    <t xml:space="preserve">0.150942206382751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150672554969788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154717445373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.156470224261284</t>
   </si>
   <si>
     <t xml:space="preserve">0.162402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.164492636919022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161796018481255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16085222363472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158088222146034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.159099414944649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155526414513588</t>
+    <t xml:space="preserve">0.16449262201786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161796033382416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160852208733559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158088207244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15909942984581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155526429414749</t>
   </si>
   <si>
     <t xml:space="preserve">0.154312968254089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.148987174034119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150200635194778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150065779685974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149930968880653</t>
+    <t xml:space="preserve">0.14898718893528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15020065009594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150065809488297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.149930983781815</t>
   </si>
   <si>
     <t xml:space="preserve">0.146964728832245</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144268095493317</t>
+    <t xml:space="preserve">0.144268125295639</t>
   </si>
   <si>
     <t xml:space="preserve">0.142245665192604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138268202543259</t>
+    <t xml:space="preserve">0.138268172740936</t>
   </si>
   <si>
     <t xml:space="preserve">0.147841110825539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.151751190423965</t>
+    <t xml:space="preserve">0.151751160621643</t>
   </si>
   <si>
     <t xml:space="preserve">0.157279208302498</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156874731183052</t>
+    <t xml:space="preserve">0.156874746084213</t>
   </si>
   <si>
     <t xml:space="preserve">0.155998334288597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.156942158937454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1526949852705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.157009541988373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152560174465179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.155122488737106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1544299274683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150274902582169</t>
+    <t xml:space="preserve">0.156942144036293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152695015072823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.157009556889534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152560159564018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.155122444033623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.154429942369461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150274872779846</t>
   </si>
   <si>
     <t xml:space="preserve">0.150828897953033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147781848907471</t>
+    <t xml:space="preserve">0.14778183400631</t>
   </si>
   <si>
     <t xml:space="preserve">0.147712588310242</t>
   </si>
   <si>
-    <t xml:space="preserve">0.146812319755554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142657265067101</t>
+    <t xml:space="preserve">0.146812334656715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142657235264778</t>
   </si>
   <si>
     <t xml:space="preserve">0.142103254795074</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138155937194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139817968010902</t>
+    <t xml:space="preserve">0.138155922293663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139817982912064</t>
   </si>
   <si>
     <t xml:space="preserve">0.139887228608131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.140579715371132</t>
+    <t xml:space="preserve">0.140579730272293</t>
   </si>
   <si>
     <t xml:space="preserve">0.141272217035294</t>
   </si>
   <si>
-    <t xml:space="preserve">0.139748707413673</t>
+    <t xml:space="preserve">0.139748722314835</t>
   </si>
   <si>
     <t xml:space="preserve">0.141202986240387</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144042298197746</t>
+    <t xml:space="preserve">0.144042283296585</t>
   </si>
   <si>
     <t xml:space="preserve">0.145427316427231</t>
   </si>
   <si>
-    <t xml:space="preserve">0.144734784960747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145219549536705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.147989585995674</t>
+    <t xml:space="preserve">0.144734799861908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145219564437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.147989600896835</t>
   </si>
   <si>
     <t xml:space="preserve">0.144804045557976</t>
   </si>
   <si>
-    <t xml:space="preserve">0.147574082016945</t>
+    <t xml:space="preserve">0.147574096918106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148889854550362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.148128092288971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.144180789589882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146673828363419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.141826257109642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133654624223709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132685095071793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134485632181168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121881917119026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123890221118927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126244753599167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123405456542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125898480415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116341851651669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115787841379642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12257444113493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119111880660057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12292069196701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122228182852268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118419378995895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11350255459547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.110940255224705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118904128670692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122297435998917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126452505588531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.124651968479156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126175507903099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130953803658485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128668561577797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12846077978611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127768263220787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127422019839287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126729503273964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128253042697906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130884557962418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.131161585450172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127976015210152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120496898889542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11821161955595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.117172859609127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114956811070442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11661884188652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118627116084099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119804404675961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118765629827976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120912432670593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.115718588232994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119319662451744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.119250364601612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118834890425205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121258653700352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.122505195438862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.123197704553604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125552251935005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125690758228302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12174341827631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121674187481403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120150648057461</t>
+  </si>
+  